--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Galenos Project/Github preparation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Intervention content and delivery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_D295A90A2C535A10C2167341E065F5EB470CA969" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81281C25-D131-477A-8C6D-B15E90249168}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_D295A90A2C535A10C2167341E065F5EB470CA969" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7059E1B0-F84A-4BA5-9220-7F4B5ACE94A3}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-15" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -301,13 +301,19 @@
   <si>
     <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
+  </si>
+  <si>
+    <t>Proposed</t>
+  </si>
+  <si>
+    <t>PS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,19 +334,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -415,14 +421,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -783,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -882,7 +948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -912,13 +978,17 @@
       <c r="Q2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10"/>
+      <c r="S2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
+      <c r="V2" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -951,10 +1021,14 @@
         <v>22</v>
       </c>
       <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
+      <c r="S3" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
+      <c r="V3" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -987,12 +1061,16 @@
         <v>22</v>
       </c>
       <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
+      <c r="S4" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-    </row>
-    <row r="5" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="V4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -1022,13 +1100,17 @@
       <c r="Q5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="10"/>
+      <c r="S5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T5" s="10"/>
+      <c r="U5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
+      <c r="V5" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -1060,11 +1142,15 @@
       <c r="Q6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -1097,10 +1183,14 @@
         <v>22</v>
       </c>
       <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="S7" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
+      <c r="V7" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -1133,10 +1223,14 @@
         <v>22</v>
       </c>
       <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
+      <c r="S8" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
+      <c r="V8" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -1169,10 +1263,14 @@
         <v>22</v>
       </c>
       <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+      <c r="S9" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
+      <c r="V9" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1205,10 +1303,14 @@
         <v>22</v>
       </c>
       <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
+      <c r="S10" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
+      <c r="V10" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -1241,10 +1343,14 @@
         <v>22</v>
       </c>
       <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
+      <c r="S11" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
+      <c r="V11" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -1277,10 +1383,14 @@
         <v>22</v>
       </c>
       <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
+      <c r="S12" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
+      <c r="V12" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -1313,12 +1423,16 @@
         <v>22</v>
       </c>
       <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
+      <c r="S13" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-    </row>
-    <row r="14" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="V13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="7" t="s">
         <v>68</v>
@@ -1346,15 +1460,19 @@
       <c r="Q14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="10"/>
+      <c r="S14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-    </row>
-    <row r="15" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="V14" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="7" t="s">
         <v>59</v>
@@ -1382,15 +1500,19 @@
       <c r="Q15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="10"/>
+      <c r="S15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T15" s="10"/>
+      <c r="U15" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-    </row>
-    <row r="16" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="V15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="7" t="s">
         <v>62</v>
@@ -1418,15 +1540,19 @@
       <c r="Q16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="10"/>
+      <c r="S16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T16" s="10"/>
+      <c r="U16" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-    </row>
-    <row r="17" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="V16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="7" t="s">
         <v>65</v>
@@ -1454,15 +1580,19 @@
       <c r="Q17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="R17" s="10"/>
+      <c r="S17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T17" s="10"/>
+      <c r="U17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-    </row>
-    <row r="18" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="V17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="7" t="s">
         <v>71</v>
@@ -1490,15 +1620,19 @@
       <c r="Q18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" s="10"/>
+      <c r="S18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" s="10"/>
+      <c r="U18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-    </row>
-    <row r="19" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="V18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="7" t="s">
         <v>74</v>
@@ -1526,15 +1660,19 @@
       <c r="Q19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="R19" s="10"/>
+      <c r="S19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T19" s="10"/>
+      <c r="U19" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-    </row>
-    <row r="20" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="V19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="7" t="s">
         <v>77</v>
@@ -1562,15 +1700,19 @@
       <c r="Q20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="R20" s="10"/>
+      <c r="S20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T20" s="10"/>
+      <c r="U20" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-    </row>
-    <row r="21" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="V20" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="7" t="s">
         <v>79</v>
@@ -1598,15 +1740,19 @@
       <c r="Q21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="R21" s="10"/>
+      <c r="S21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T21" s="10"/>
+      <c r="U21" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-    </row>
-    <row r="22" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="V21" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="13" t="s">
         <v>85</v>
@@ -1634,33 +1780,20 @@
       <c r="Q22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="R22" s="10"/>
+      <c r="S22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T22" s="10"/>
+      <c r="U22" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
+      <c r="V22" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:B13">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B17">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D13">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Intervention content and delivery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_D295A90A2C535A10C2167341E065F5EB470CA969" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7059E1B0-F84A-4BA5-9220-7F4B5ACE94A3}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="11_D295A90A2C535A10C2167341E065F5EB470CA969" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F2B1C30-C4E4-41C3-9EF4-5624841B2AB5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28980" yWindow="1245" windowWidth="17925" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -307,6 +307,30 @@
   </si>
   <si>
     <t>PS</t>
+  </si>
+  <si>
+    <t>A descriptive statistics calculation in which the mean is calculated by taking the sum of all of the observations in a data set divided by the total number of observations.</t>
+  </si>
+  <si>
+    <t>averaging data transformation</t>
+  </si>
+  <si>
+    <t>OBI:0200079</t>
+  </si>
+  <si>
+    <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
+  </si>
+  <si>
+    <t>measurement datum</t>
+  </si>
+  <si>
+    <t>A data item which denotes the smallest value found in a dataset or resulting from a calculation.</t>
+  </si>
+  <si>
+    <t>STATO:0000151</t>
+  </si>
+  <si>
+    <t>STATO:0000150</t>
   </si>
 </sst>
 </file>
@@ -389,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -422,103 +446,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -847,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1553,14 +1493,14 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="10"/>
@@ -1592,16 +1532,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="1" t="s">
+    <row r="18" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>70</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -1614,34 +1556,24 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="12">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="2"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="S18" s="1"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="U18" s="11"/>
+      <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -1672,16 +1604,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="7" t="s">
-        <v>77</v>
+    <row r="20" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -1694,34 +1628,24 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="12">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="2"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="S20" s="1"/>
       <c r="T20" s="10"/>
-      <c r="U20" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="U20" s="11"/>
+      <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -1752,16 +1676,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>87</v>
+    <row r="22" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -1774,26 +1700,145 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="P22" s="12">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="2"/>
       <c r="R22" s="10"/>
-      <c r="S22" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="S22" s="1"/>
       <c r="T22" s="10"/>
-      <c r="U22" s="11" t="s">
+      <c r="U22" s="11"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="10"/>
+      <c r="S23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T23" s="10"/>
+      <c r="U23" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" s="10"/>
+      <c r="S24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T24" s="10"/>
+      <c r="U24" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="10"/>
+      <c r="S25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T25" s="10"/>
+      <c r="U25" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="V25" s="1" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -600,7 +600,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
     </row>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Intervention content and delivery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_4765E7BCDDAA54D70F84D4D2475ED87656CD2622" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0191A9C7-2484-4BE1-B111-62D54033D05B}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_4765E7BCDDAA54D70F84D4D2475ED87656CD2622" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB136CD7-7C7C-47C5-A193-FE8116B1D633}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -354,13 +354,73 @@
   </si>
   <si>
     <t>LSR 3</t>
+  </si>
+  <si>
+    <t>intervention arm</t>
+  </si>
+  <si>
+    <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
+  </si>
+  <si>
+    <t>study arm</t>
+  </si>
+  <si>
+    <t>LSR 1</t>
+  </si>
+  <si>
+    <t>LSR 1; LSR 3</t>
+  </si>
+  <si>
+    <t>antipsychotic agent</t>
+  </si>
+  <si>
+    <t>An agent that controls agitated psychotic behaviour, alleviate acute psychotic states, reduce psychotic symptoms, and exert a quieting effect.</t>
+  </si>
+  <si>
+    <t>tranquilizing drug</t>
+  </si>
+  <si>
+    <t>antidepressant</t>
+  </si>
+  <si>
+    <t>A mood-stimulating drug used primarily in the treatment of affective disorders and related conditions.</t>
+  </si>
+  <si>
+    <t>psychotropic drug</t>
+  </si>
+  <si>
+    <t>CHEBI:35476</t>
+  </si>
+  <si>
+    <t>CHEBI:35469</t>
+  </si>
+  <si>
+    <t>IAO:0000590</t>
+  </si>
+  <si>
+    <t>control arm</t>
+  </si>
+  <si>
+    <t>A study arm designation as a comparator to some intervention arm.</t>
+  </si>
+  <si>
+    <t>no treatment control arm</t>
+  </si>
+  <si>
+    <t>A control arm designation where there is no intervention.</t>
+  </si>
+  <si>
+    <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
+  </si>
+  <si>
+    <t>information content entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +439,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -393,7 +459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -401,19 +467,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -711,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32:V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -922,7 +1033,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>26</v>
@@ -1102,31 +1213,17 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>26</v>
@@ -1136,25 +1233,22 @@
         <v>46</v>
       </c>
       <c r="T12" s="2"/>
-      <c r="U12" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="V12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1168,7 +1262,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>26</v>
@@ -1179,112 +1273,134 @@
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="V14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>72</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>74</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="P14" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>26</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="P15" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" t="s">
         <v>27</v>
       </c>
-      <c r="V14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="V15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2" t="s">
+      <c r="T16" s="2"/>
+      <c r="U16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="P16" t="s">
-        <v>110</v>
-      </c>
-      <c r="S16" t="s">
-        <v>27</v>
+      <c r="V16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P17" t="s">
         <v>110</v>
@@ -1294,59 +1410,37 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
       <c r="P18" t="s">
         <v>110</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>34</v>
+      <c r="S18" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1378,105 +1472,121 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>93</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>92</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>94</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>81</v>
       </c>
-      <c r="P20" t="s">
-        <v>110</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="P21" t="s">
+        <v>110</v>
+      </c>
+      <c r="S21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2" t="s">
+      <c r="T22" s="2"/>
+      <c r="U22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>26</v>
-      </c>
-      <c r="S22" t="s">
-        <v>27</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="V22" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="P23" t="s">
         <v>110</v>
@@ -1493,16 +1603,16 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P24" t="s">
         <v>110</v>
@@ -1519,13 +1629,13 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -1543,8 +1653,180 @@
         <v>34</v>
       </c>
     </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="P27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>26</v>
+      </c>
+      <c r="V27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="P28" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>26</v>
+      </c>
+      <c r="V28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="P29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="P30" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>26</v>
+      </c>
+      <c r="V30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P31" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>26</v>
+      </c>
+      <c r="V31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P32" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>26</v>
+      </c>
+      <c r="V32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="16:22" x14ac:dyDescent="0.35">
+      <c r="P33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>26</v>
+      </c>
+      <c r="V33" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:B31">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Intervention content and delivery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_4765E7BCDDAA54D70F84D4D2475ED87656CD2622" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB136CD7-7C7C-47C5-A193-FE8116B1D633}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="11_4765E7BCDDAA54D70F84D4D2475ED87656CD2622" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{878E5D53-932F-492E-936B-AF56D4CA8F98}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29325" yWindow="300" windowWidth="18825" windowHeight="19575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
   <si>
     <t>ID</t>
   </si>
@@ -414,13 +414,106 @@
   </si>
   <si>
     <t>information content entity</t>
+  </si>
+  <si>
+    <t>LSR 1; LSR 2; LSR 3</t>
+  </si>
+  <si>
+    <t>behaviour change technique</t>
+  </si>
+  <si>
+    <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+  </si>
+  <si>
+    <t>planned process</t>
+  </si>
+  <si>
+    <t>BCIO:033000</t>
+  </si>
+  <si>
+    <t>LSR 2</t>
+  </si>
+  <si>
+    <t>person source role</t>
+  </si>
+  <si>
+    <t>A behaviour change intervention source role that inheres in a person.</t>
+  </si>
+  <si>
+    <t>behaviour change intervention source</t>
+  </si>
+  <si>
+    <t>number of contact events</t>
+  </si>
+  <si>
+    <t>A data item that is the number of contact events in an intervention temporal part.</t>
+  </si>
+  <si>
+    <t>data item - Count</t>
+  </si>
+  <si>
+    <t>intervention contact event duration</t>
+  </si>
+  <si>
+    <t>A temporal interval between the start and end of an intervention contact event.</t>
+  </si>
+  <si>
+    <t>intervention content</t>
+  </si>
+  <si>
+    <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
+  </si>
+  <si>
+    <t>BCIO:008515</t>
+  </si>
+  <si>
+    <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
+  </si>
+  <si>
+    <t>BCIO:008525</t>
+  </si>
+  <si>
+    <t>BCIO:008560</t>
+  </si>
+  <si>
+    <t>Review BCIO cross reference</t>
+  </si>
+  <si>
+    <t>LSR 2; LSR 3</t>
+  </si>
+  <si>
+    <t>A textual entity that denotes a particular in reality.</t>
+  </si>
+  <si>
+    <t>textual entity</t>
+  </si>
+  <si>
+    <t>BCIO:010001</t>
+  </si>
+  <si>
+    <t>LSR 1; LSR 2</t>
+  </si>
+  <si>
+    <t>waitlist control arm</t>
+  </si>
+  <si>
+    <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+  </si>
+  <si>
+    <t>treatment as usual control arm</t>
+  </si>
+  <si>
+    <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
+  </si>
+  <si>
+    <t>propose to external ontology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +538,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -459,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -482,11 +582,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -499,11 +623,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -822,13 +1092,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32:V32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F39" sqref="A31:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1075,7 +1348,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>26</v>
@@ -1262,7 +1535,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>26</v>
@@ -1299,12 +1572,14 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>26</v>
@@ -1313,7 +1588,9 @@
       <c r="S14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T14" s="2"/>
+      <c r="T14" t="s">
+        <v>151</v>
+      </c>
       <c r="U14" s="2" t="s">
         <v>71</v>
       </c>
@@ -1558,7 +1835,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>26</v>
@@ -1698,6 +1975,9 @@
       <c r="Q27" t="s">
         <v>26</v>
       </c>
+      <c r="S27" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="V27" t="s">
         <v>34</v>
       </c>
@@ -1721,6 +2001,9 @@
       <c r="Q28" t="s">
         <v>26</v>
       </c>
+      <c r="S28" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="V28" t="s">
         <v>34</v>
       </c>
@@ -1730,19 +2013,22 @@
         <v>124</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="P29" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="Q29" t="s">
         <v>26</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="V29" t="s">
         <v>34</v>
@@ -1759,10 +2045,13 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q30" t="s">
         <v>26</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="V30" t="s">
         <v>34</v>
@@ -1779,10 +2068,13 @@
         <v>125</v>
       </c>
       <c r="P31" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q31" t="s">
         <v>26</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="V31" t="s">
         <v>34</v>
@@ -1804,28 +2096,201 @@
       <c r="Q32" t="s">
         <v>26</v>
       </c>
+      <c r="S32" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="V32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="16:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
       <c r="P33" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="Q33" t="s">
         <v>26</v>
       </c>
+      <c r="S33" t="s">
+        <v>27</v>
+      </c>
       <c r="V33" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P34" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>26</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="P35" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>26</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+      <c r="B36" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L36" t="s">
+        <v>149</v>
+      </c>
+      <c r="P36" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>26</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A37" s="6"/>
+      <c r="B37" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L37" t="s">
+        <v>148</v>
+      </c>
+      <c r="P37" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>26</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P38" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>26</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P39" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>26</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U39" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B30:B31">
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B31">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="B1:B37 B40:B1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:B37">
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B39">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Intervention content and delivery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="11_4765E7BCDDAA54D70F84D4D2475ED87656CD2622" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{878E5D53-932F-492E-936B-AF56D4CA8F98}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="11_4765E7BCDDAA54D70F84D4D2475ED87656CD2622" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37949B9B-ED6B-4928-85A2-7B3D4783023A}"/>
   <bookViews>
-    <workbookView xWindow="29325" yWindow="300" windowWidth="18825" windowHeight="19575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-15" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="159">
   <si>
     <t>ID</t>
   </si>
@@ -353,9 +353,6 @@
     <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
   </si>
   <si>
-    <t>LSR 3</t>
-  </si>
-  <si>
     <t>intervention arm</t>
   </si>
   <si>
@@ -365,12 +362,6 @@
     <t>study arm</t>
   </si>
   <si>
-    <t>LSR 1</t>
-  </si>
-  <si>
-    <t>LSR 1; LSR 3</t>
-  </si>
-  <si>
     <t>antipsychotic agent</t>
   </si>
   <si>
@@ -416,9 +407,6 @@
     <t>information content entity</t>
   </si>
   <si>
-    <t>LSR 1; LSR 2; LSR 3</t>
-  </si>
-  <si>
     <t>behaviour change technique</t>
   </si>
   <si>
@@ -431,9 +419,6 @@
     <t>BCIO:033000</t>
   </si>
   <si>
-    <t>LSR 2</t>
-  </si>
-  <si>
     <t>person source role</t>
   </si>
   <si>
@@ -479,9 +464,6 @@
     <t>Review BCIO cross reference</t>
   </si>
   <si>
-    <t>LSR 2; LSR 3</t>
-  </si>
-  <si>
     <t>A textual entity that denotes a particular in reality.</t>
   </si>
   <si>
@@ -491,9 +473,6 @@
     <t>BCIO:010001</t>
   </si>
   <si>
-    <t>LSR 1; LSR 2</t>
-  </si>
-  <si>
     <t>waitlist control arm</t>
   </si>
   <si>
@@ -507,6 +486,18 @@
   </si>
   <si>
     <t>propose to external ontology</t>
+  </si>
+  <si>
+    <t>2; 3</t>
+  </si>
+  <si>
+    <t>1; 3</t>
+  </si>
+  <si>
+    <t>1; 2; 3</t>
+  </si>
+  <si>
+    <t>1; 2</t>
   </si>
 </sst>
 </file>
@@ -610,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -621,13 +612,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -643,97 +627,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1094,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F39" sqref="A31:F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1184,8 +1078,8 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
-        <v>110</v>
+      <c r="P2">
+        <v>3</v>
       </c>
       <c r="Q2" t="s">
         <v>26</v>
@@ -1213,8 +1107,8 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="P3" t="s">
-        <v>110</v>
+      <c r="P3">
+        <v>3</v>
       </c>
       <c r="Q3" t="s">
         <v>26</v>
@@ -1239,8 +1133,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" t="s">
-        <v>110</v>
+      <c r="P4">
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
         <v>26</v>
@@ -1268,8 +1162,8 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="P5" t="s">
-        <v>110</v>
+      <c r="P5">
+        <v>3</v>
       </c>
       <c r="Q5" t="s">
         <v>26</v>
@@ -1306,7 +1200,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>26</v>
@@ -1348,7 +1242,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>26</v>
@@ -1389,8 +1283,8 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" t="s">
-        <v>110</v>
+      <c r="P8">
+        <v>3</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>26</v>
@@ -1420,8 +1314,8 @@
       <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="P9" t="s">
-        <v>110</v>
+      <c r="P9">
+        <v>3</v>
       </c>
       <c r="Q9" t="s">
         <v>26</v>
@@ -1446,8 +1340,8 @@
       <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="P10" t="s">
-        <v>110</v>
+      <c r="P10">
+        <v>3</v>
       </c>
       <c r="Q10" t="s">
         <v>26</v>
@@ -1472,8 +1366,8 @@
       <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="P11" t="s">
-        <v>110</v>
+      <c r="P11">
+        <v>3</v>
       </c>
       <c r="Q11" t="s">
         <v>26</v>
@@ -1487,16 +1381,16 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
         <v>111</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>112</v>
       </c>
-      <c r="D12" t="s">
-        <v>113</v>
-      </c>
-      <c r="P12" t="s">
-        <v>114</v>
+      <c r="P12">
+        <v>1</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>26</v>
@@ -1535,7 +1429,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>26</v>
@@ -1573,13 +1467,13 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>26</v>
@@ -1589,7 +1483,7 @@
         <v>46</v>
       </c>
       <c r="T14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>71</v>
@@ -1611,8 +1505,8 @@
       <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="P15" t="s">
-        <v>110</v>
+      <c r="P15">
+        <v>3</v>
       </c>
       <c r="Q15" t="s">
         <v>26</v>
@@ -1648,8 +1542,8 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" t="s">
-        <v>110</v>
+      <c r="P16">
+        <v>3</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>26</v>
@@ -1679,8 +1573,8 @@
       <c r="D17" t="s">
         <v>81</v>
       </c>
-      <c r="P17" t="s">
-        <v>110</v>
+      <c r="P17">
+        <v>3</v>
       </c>
       <c r="S17" t="s">
         <v>27</v>
@@ -1699,8 +1593,8 @@
       <c r="D18" t="s">
         <v>85</v>
       </c>
-      <c r="P18" t="s">
-        <v>110</v>
+      <c r="P18">
+        <v>3</v>
       </c>
       <c r="S18" t="s">
         <v>27</v>
@@ -1730,8 +1624,8 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" t="s">
-        <v>110</v>
+      <c r="P19">
+        <v>3</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>26</v>
@@ -1772,8 +1666,8 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" t="s">
-        <v>110</v>
+      <c r="P20">
+        <v>3</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>26</v>
@@ -1803,8 +1697,8 @@
       <c r="D21" t="s">
         <v>81</v>
       </c>
-      <c r="P21" t="s">
-        <v>110</v>
+      <c r="P21">
+        <v>3</v>
       </c>
       <c r="S21" t="s">
         <v>27</v>
@@ -1835,7 +1729,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>26</v>
@@ -1865,8 +1759,8 @@
       <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="P23" t="s">
-        <v>110</v>
+      <c r="P23">
+        <v>3</v>
       </c>
       <c r="Q23" t="s">
         <v>26</v>
@@ -1891,8 +1785,8 @@
       <c r="D24" t="s">
         <v>36</v>
       </c>
-      <c r="P24" t="s">
-        <v>110</v>
+      <c r="P24">
+        <v>3</v>
       </c>
       <c r="Q24" t="s">
         <v>26</v>
@@ -1917,8 +1811,8 @@
       <c r="D25" t="s">
         <v>33</v>
       </c>
-      <c r="P25" t="s">
-        <v>110</v>
+      <c r="P25">
+        <v>3</v>
       </c>
       <c r="Q25" t="s">
         <v>26</v>
@@ -1943,8 +1837,8 @@
       <c r="D26" t="s">
         <v>33</v>
       </c>
-      <c r="P26" t="s">
-        <v>110</v>
+      <c r="P26">
+        <v>3</v>
       </c>
       <c r="Q26" t="s">
         <v>26</v>
@@ -1958,19 +1852,19 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
-      </c>
-      <c r="P27" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
       </c>
       <c r="Q27" t="s">
         <v>26</v>
@@ -1984,19 +1878,19 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
-      </c>
-      <c r="P28" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
       </c>
       <c r="Q28" t="s">
         <v>26</v>
@@ -2010,19 +1904,19 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q29" t="s">
         <v>26</v>
@@ -2036,16 +1930,16 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q30" t="s">
         <v>26</v>
@@ -2059,16 +1953,16 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q31" t="s">
         <v>26</v>
@@ -2082,16 +1976,16 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="P32" t="s">
-        <v>114</v>
+        <v>127</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
       </c>
       <c r="Q32" t="s">
         <v>26</v>
@@ -2105,19 +1999,19 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
-      </c>
-      <c r="P33" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
       </c>
       <c r="Q33" t="s">
         <v>26</v>
@@ -2130,20 +2024,20 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P34" t="s">
-        <v>136</v>
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
       </c>
       <c r="Q34" t="s">
         <v>26</v>
@@ -2153,20 +2047,20 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="A35" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P35" t="s">
+      <c r="B35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>136</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
       </c>
       <c r="Q35" t="s">
         <v>26</v>
@@ -2176,21 +2070,20 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A36" s="6"/>
-      <c r="B36" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L36" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L36" t="s">
-        <v>149</v>
-      </c>
-      <c r="P36" t="s">
-        <v>136</v>
+      <c r="P36">
+        <v>2</v>
       </c>
       <c r="Q36" t="s">
         <v>26</v>
@@ -2199,25 +2092,24 @@
         <v>46</v>
       </c>
       <c r="T36" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A37" s="6"/>
-      <c r="B37" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>134</v>
+      <c r="B37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="L37" t="s">
-        <v>148</v>
-      </c>
-      <c r="P37" t="s">
-        <v>136</v>
+        <v>143</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
       </c>
       <c r="Q37" t="s">
         <v>26</v>
@@ -2228,16 +2120,16 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>158</v>
+        <v>150</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="P38" t="s">
-        <v>136</v>
+        <v>122</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
       </c>
       <c r="Q38" t="s">
         <v>26</v>
@@ -2246,21 +2138,21 @@
         <v>46</v>
       </c>
       <c r="U38" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>160</v>
+      <c r="B39" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="P39" t="s">
-        <v>136</v>
+        <v>122</v>
+      </c>
+      <c r="P39">
+        <v>2</v>
       </c>
       <c r="Q39" t="s">
         <v>26</v>
@@ -2269,28 +2161,28 @@
         <v>46</v>
       </c>
       <c r="U39" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B37 B40:B1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B37 B40:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B37">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B39">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Intervention content and delivery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="11_4765E7BCDDAA54D70F84D4D2475ED87656CD2622" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37949B9B-ED6B-4928-85A2-7B3D4783023A}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="11_4765E7BCDDAA54D70F84D4D2475ED87656CD2622" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7917AA2-669D-48E1-9F2A-953CC70F2EA7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
   <si>
     <t>ID</t>
   </si>
@@ -488,16 +488,25 @@
     <t>propose to external ontology</t>
   </si>
   <si>
-    <t>2; 3</t>
-  </si>
-  <si>
-    <t>1; 3</t>
-  </si>
-  <si>
-    <t>1; 2; 3</t>
-  </si>
-  <si>
-    <t>1; 2</t>
+    <t>LSR 1</t>
+  </si>
+  <si>
+    <t>LSR 1; LSR 2</t>
+  </si>
+  <si>
+    <t>LSR 2</t>
+  </si>
+  <si>
+    <t>LSR 3</t>
+  </si>
+  <si>
+    <t>LSR 1; LSR 3</t>
+  </si>
+  <si>
+    <t>LSR 2; LSR 3</t>
+  </si>
+  <si>
+    <t>LSR 1; LSR 2; LSR 3</t>
   </si>
 </sst>
 </file>
@@ -988,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="P40" sqref="P2:P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1078,8 +1087,8 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="P2">
-        <v>3</v>
+      <c r="P2" t="s">
+        <v>158</v>
       </c>
       <c r="Q2" t="s">
         <v>26</v>
@@ -1107,8 +1116,8 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="P3">
-        <v>3</v>
+      <c r="P3" t="s">
+        <v>158</v>
       </c>
       <c r="Q3" t="s">
         <v>26</v>
@@ -1133,8 +1142,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="P4">
-        <v>3</v>
+      <c r="P4" t="s">
+        <v>158</v>
       </c>
       <c r="Q4" t="s">
         <v>26</v>
@@ -1162,8 +1171,8 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="P5">
-        <v>3</v>
+      <c r="P5" t="s">
+        <v>158</v>
       </c>
       <c r="Q5" t="s">
         <v>26</v>
@@ -1200,7 +1209,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>26</v>
@@ -1242,7 +1251,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>26</v>
@@ -1283,8 +1292,8 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8">
-        <v>3</v>
+      <c r="P8" t="s">
+        <v>158</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>26</v>
@@ -1314,8 +1323,8 @@
       <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="P9">
-        <v>3</v>
+      <c r="P9" t="s">
+        <v>158</v>
       </c>
       <c r="Q9" t="s">
         <v>26</v>
@@ -1340,8 +1349,8 @@
       <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="P10">
-        <v>3</v>
+      <c r="P10" t="s">
+        <v>158</v>
       </c>
       <c r="Q10" t="s">
         <v>26</v>
@@ -1366,8 +1375,8 @@
       <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="P11">
-        <v>3</v>
+      <c r="P11" t="s">
+        <v>158</v>
       </c>
       <c r="Q11" t="s">
         <v>26</v>
@@ -1389,8 +1398,8 @@
       <c r="D12" t="s">
         <v>112</v>
       </c>
-      <c r="P12">
-        <v>1</v>
+      <c r="P12" t="s">
+        <v>155</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>26</v>
@@ -1429,7 +1438,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>26</v>
@@ -1473,7 +1482,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>26</v>
@@ -1505,8 +1514,8 @@
       <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="P15">
-        <v>3</v>
+      <c r="P15" t="s">
+        <v>158</v>
       </c>
       <c r="Q15" t="s">
         <v>26</v>
@@ -1542,8 +1551,8 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16">
-        <v>3</v>
+      <c r="P16" t="s">
+        <v>158</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>26</v>
@@ -1573,8 +1582,8 @@
       <c r="D17" t="s">
         <v>81</v>
       </c>
-      <c r="P17">
-        <v>3</v>
+      <c r="P17" t="s">
+        <v>158</v>
       </c>
       <c r="S17" t="s">
         <v>27</v>
@@ -1593,8 +1602,8 @@
       <c r="D18" t="s">
         <v>85</v>
       </c>
-      <c r="P18">
-        <v>3</v>
+      <c r="P18" t="s">
+        <v>158</v>
       </c>
       <c r="S18" t="s">
         <v>27</v>
@@ -1624,8 +1633,8 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19">
-        <v>3</v>
+      <c r="P19" t="s">
+        <v>158</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>26</v>
@@ -1666,8 +1675,8 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20">
-        <v>3</v>
+      <c r="P20" t="s">
+        <v>158</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>26</v>
@@ -1697,8 +1706,8 @@
       <c r="D21" t="s">
         <v>81</v>
       </c>
-      <c r="P21">
-        <v>3</v>
+      <c r="P21" t="s">
+        <v>158</v>
       </c>
       <c r="S21" t="s">
         <v>27</v>
@@ -1729,7 +1738,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>26</v>
@@ -1759,8 +1768,8 @@
       <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="P23">
-        <v>3</v>
+      <c r="P23" t="s">
+        <v>158</v>
       </c>
       <c r="Q23" t="s">
         <v>26</v>
@@ -1785,8 +1794,8 @@
       <c r="D24" t="s">
         <v>36</v>
       </c>
-      <c r="P24">
-        <v>3</v>
+      <c r="P24" t="s">
+        <v>158</v>
       </c>
       <c r="Q24" t="s">
         <v>26</v>
@@ -1811,8 +1820,8 @@
       <c r="D25" t="s">
         <v>33</v>
       </c>
-      <c r="P25">
-        <v>3</v>
+      <c r="P25" t="s">
+        <v>158</v>
       </c>
       <c r="Q25" t="s">
         <v>26</v>
@@ -1837,8 +1846,8 @@
       <c r="D26" t="s">
         <v>33</v>
       </c>
-      <c r="P26">
-        <v>3</v>
+      <c r="P26" t="s">
+        <v>158</v>
       </c>
       <c r="Q26" t="s">
         <v>26</v>
@@ -1863,8 +1872,8 @@
       <c r="D27" t="s">
         <v>115</v>
       </c>
-      <c r="P27">
-        <v>1</v>
+      <c r="P27" t="s">
+        <v>155</v>
       </c>
       <c r="Q27" t="s">
         <v>26</v>
@@ -1889,8 +1898,8 @@
       <c r="D28" t="s">
         <v>118</v>
       </c>
-      <c r="P28">
-        <v>1</v>
+      <c r="P28" t="s">
+        <v>155</v>
       </c>
       <c r="Q28" t="s">
         <v>26</v>
@@ -1916,7 +1925,7 @@
         <v>148</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q29" t="s">
         <v>26</v>
@@ -1939,7 +1948,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q30" t="s">
         <v>26</v>
@@ -1962,7 +1971,7 @@
         <v>122</v>
       </c>
       <c r="P31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q31" t="s">
         <v>26</v>
@@ -1984,8 +1993,8 @@
       <c r="D32" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="P32">
-        <v>1</v>
+      <c r="P32" t="s">
+        <v>155</v>
       </c>
       <c r="Q32" t="s">
         <v>26</v>
@@ -2010,8 +2019,8 @@
       <c r="D33" t="s">
         <v>130</v>
       </c>
-      <c r="P33">
-        <v>2</v>
+      <c r="P33" t="s">
+        <v>157</v>
       </c>
       <c r="Q33" t="s">
         <v>26</v>
@@ -2036,8 +2045,8 @@
       <c r="D34" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="P34">
-        <v>2</v>
+      <c r="P34" t="s">
+        <v>157</v>
       </c>
       <c r="Q34" t="s">
         <v>26</v>
@@ -2059,8 +2068,8 @@
       <c r="D35" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="P35">
-        <v>2</v>
+      <c r="P35" t="s">
+        <v>157</v>
       </c>
       <c r="Q35" t="s">
         <v>26</v>
@@ -2082,8 +2091,8 @@
       <c r="L36" t="s">
         <v>144</v>
       </c>
-      <c r="P36">
-        <v>2</v>
+      <c r="P36" t="s">
+        <v>157</v>
       </c>
       <c r="Q36" t="s">
         <v>26</v>
@@ -2108,8 +2117,8 @@
       <c r="L37" t="s">
         <v>143</v>
       </c>
-      <c r="P37">
-        <v>2</v>
+      <c r="P37" t="s">
+        <v>157</v>
       </c>
       <c r="Q37" t="s">
         <v>26</v>
@@ -2128,8 +2137,8 @@
       <c r="D38" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P38">
-        <v>2</v>
+      <c r="P38" t="s">
+        <v>157</v>
       </c>
       <c r="Q38" t="s">
         <v>26</v>
@@ -2151,8 +2160,8 @@
       <c r="D39" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P39">
-        <v>2</v>
+      <c r="P39" t="s">
+        <v>157</v>
       </c>
       <c r="Q39" t="s">
         <v>26</v>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,22 +1003,22 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000001</t>
+          <t>GMHO:0000177</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>daily dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Dose of pharmacological substance delivered to individuals within each day.</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>dose of pharmacological substance</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Dose of pharmacological substance delivered to an individual.</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>dose</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr"/>
@@ -1034,14 +1034,10 @@
       <c r="O10" s="2" t="inlineStr"/>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr"/>
       <c r="R10" s="2" t="inlineStr"/>
       <c r="S10" s="2" t="inlineStr">
         <is>
@@ -1049,11 +1045,7 @@
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr"/>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U10" s="2" t="inlineStr"/>
       <c r="V10" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1063,22 +1055,22 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000002</t>
+          <t>GMHO:0000001</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>drug name</t>
+          <t>dose of pharmacological substance</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
+          <t>Dose of pharmacological substance delivered to an individual.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>dose</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
@@ -1094,7 +1086,7 @@
       <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 1; LSR 3</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1123,22 +1115,22 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000003</t>
+          <t>GMHO:0000002</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>frequency of pharmacological substance dose</t>
+          <t>drug name</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
+          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>written name</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr"/>
@@ -1154,7 +1146,7 @@
       <c r="O12" s="2" t="inlineStr"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1181,56 +1173,60 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>BCIO:011035</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000003</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>frequency of pharmacological substance dose</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr"/>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr"/>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr"/>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1239,22 +1235,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1295,17 +1291,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>inhalation mode of delivery</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1349,56 +1345,56 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000123</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>intervention arm</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>study arm</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BCIO:011042</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>injection mode of delivery</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1407,22 +1403,22 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000004</t>
+          <t>GMHO:0000123</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>intervention arm name</t>
+          <t>intervention arm</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
+          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>study arm</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr"/>
@@ -1438,7 +1434,7 @@
       <c r="O17" s="2" t="inlineStr"/>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -1453,11 +1449,7 @@
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr"/>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U17" s="2" t="inlineStr"/>
       <c r="V17" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1467,22 +1459,22 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000124</t>
+          <t>GMHO:0000004</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>intervention contact event duration</t>
+          <t>intervention arm name</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention contact event.</t>
+          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+          <t>written name</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
@@ -1492,17 +1484,13 @@
       <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008525</t>
-        </is>
-      </c>
+      <c r="L18" s="2" t="inlineStr"/>
       <c r="M18" s="2" t="inlineStr"/>
       <c r="N18" s="2" t="inlineStr"/>
       <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -1516,33 +1504,37 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>Review BCIO cross reference</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr"/>
+      <c r="T18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000125</t>
+          <t>GMHO:0000124</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>intervention contact event duration</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
+          <t>A temporal interval between the start and end of an intervention contact event.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
@@ -1554,7 +1546,7 @@
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
+          <t>BCIO:008525</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr"/>
@@ -1576,29 +1568,33 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>Review BCIO cross reference</t>
+        </is>
+      </c>
       <c r="U19" s="2" t="inlineStr"/>
       <c r="V19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000005</t>
+          <t>GMHO:0000125</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>intervention duration</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
@@ -1610,7 +1606,7 @@
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008560</t>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr"/>
@@ -1618,7 +1614,7 @@
       <c r="O20" s="2" t="inlineStr"/>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -1632,206 +1628,214 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T20" s="2" t="inlineStr">
+      <c r="T20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="inlineStr"/>
+      <c r="V20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000005</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>intervention duration</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of an intervention.</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008560</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr"/>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U20" s="2" t="inlineStr">
+      <c r="U21" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V20" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>BCIO:008540</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>irregular intervention schedule</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000006</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>maximum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>maximum value</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr"/>
-      <c r="S22" s="2" t="inlineStr">
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr"/>
+      <c r="S23" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T22" s="2" t="inlineStr"/>
-      <c r="U22" s="2" t="inlineStr">
+      <c r="T23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V22" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>STATO:0000151</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>maximum value</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OBI:0200079</t>
+          <t>STATO:0000151</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>mean calculation</t>
+          <t>maximum value</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A descriptive statistics calculation in which the mean is calculated by taking the sum of all of the observations in a data set divided by the total number of observations.</t>
+          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>averaging data transformation</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1862,84 +1866,72 @@
       <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000007</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>mean dose of pharmacological substance</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>A mean calculation of dose of pharmacological substance delivered to individuals in a group.</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>OBI:0200079</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>mean calculation</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A descriptive statistics calculation in which the mean is calculated by taking the sum of all of the observations in a data set divided by the total number of observations.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>averaging data transformation</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="inlineStr"/>
-      <c r="U25" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V25" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000008</t>
+          <t>GMHO:0000007</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>minimum dose of pharmacological substance</t>
+          <t>mean dose of pharmacological substance</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+          <t>A mean calculation of dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>minimum value</t>
+          <t>mean calculation</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
@@ -1982,180 +1974,188 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000008</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>minimum dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>minimum value</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr"/>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>STATO:0000150</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>A data item which denotes the smallest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000126</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>no treatment control arm</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>A control arm designation where there is no intervention.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="inlineStr"/>
+      <c r="P29" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="inlineStr">
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr"/>
+      <c r="S29" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T28" s="2" t="inlineStr"/>
-      <c r="U28" s="2" t="inlineStr"/>
-      <c r="V28" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>BCIO:008515</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>number of contact events</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A data item that is the number of contact events in an intervention temporal part.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>data item - Count</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="T29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="inlineStr"/>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>person source role</t>
+          <t>number of contact events</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A data item that is the number of contact events in an intervention temporal part.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
+          <t>data item - Count</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2190,116 +2190,112 @@
       <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BCIO:010001</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000009</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>placebo intervention</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R31" s="2" t="inlineStr"/>
-      <c r="S31" s="2" t="inlineStr">
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T31" s="2" t="inlineStr"/>
-      <c r="U31" s="2" t="inlineStr">
+      <c r="T32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V31" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>BCIO:008535</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>regular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
+      <c r="V32" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2308,22 +2304,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>regular intervention schedule</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2362,187 +2358,187 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BCIO:011034</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr"/>
-      <c r="S34" s="2" t="inlineStr">
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr"/>
+      <c r="S35" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T34" s="2" t="inlineStr"/>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="T35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="inlineStr"/>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr">
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000128</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>treatment as usual control arm</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T36" s="2" t="inlineStr"/>
-      <c r="U36" s="2" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V36" s="2" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000129</t>
+          <t>GMHO:0000128</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>waitlist control arm</t>
+          <t>treatment as usual control arm</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
@@ -2586,80 +2582,80 @@
       <c r="V37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>BCIO:011046</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>wearable ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000129</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>waitlist control arm</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr"/>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IAO:0000590</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A textual entity that denotes a particular in reality.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2675,7 +2671,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -2692,6 +2688,62 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>IAO:0000590</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A textual entity that denotes a particular in reality.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
@@ -1542,7 +1542,11 @@
       <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
@@ -1574,7 +1578,11 @@
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1650,7 +1658,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -1658,7 +1666,11 @@
       <c r="G21" s="2" t="inlineStr"/>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
@@ -2190,168 +2202,172 @@
       <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>BFO:0000038</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>temporal region</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr"/>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="inlineStr"/>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>BCIO:010001</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>person source role</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>behaviour change intervention source</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr">
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000009</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>placebo intervention</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr">
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr"/>
+      <c r="S33" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T32" s="2" t="inlineStr"/>
-      <c r="U32" s="2" t="inlineStr">
+      <c r="T33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V32" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>BCIO:008535</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>regular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
+      <c r="V33" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2360,22 +2376,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>regular intervention schedule</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2414,187 +2430,187 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BCIO:011034</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R35" s="2" t="inlineStr"/>
-      <c r="S35" s="2" t="inlineStr">
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr"/>
+      <c r="S36" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T35" s="2" t="inlineStr"/>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="T36" s="2" t="inlineStr"/>
+      <c r="U36" s="2" t="inlineStr"/>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr">
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000128</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>treatment as usual control arm</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R37" s="2" t="inlineStr"/>
-      <c r="S37" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T37" s="2" t="inlineStr"/>
-      <c r="U37" s="2" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V37" s="2" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000129</t>
+          <t>GMHO:0000128</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>waitlist control arm</t>
+          <t>treatment as usual control arm</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
@@ -2638,80 +2654,80 @@
       <c r="V38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>BCIO:011046</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>wearable ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000129</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>waitlist control arm</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr"/>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>IAO:0000590</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A textual entity that denotes a particular in reality.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2727,7 +2743,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -2744,6 +2760,62 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>IAO:0000590</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A textual entity that denotes a particular in reality.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,22 +1055,22 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000001</t>
+          <t>OBI:0000984</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>dose of pharmacological substance</t>
+          <t>dose</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Dose of pharmacological substance delivered to an individual.</t>
+          <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>dose</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
@@ -1078,7 +1078,11 @@
       <c r="G11" s="2" t="inlineStr"/>
       <c r="H11" s="2" t="inlineStr"/>
       <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K11" s="2" t="inlineStr"/>
       <c r="L11" s="2" t="inlineStr"/>
       <c r="M11" s="2" t="inlineStr"/>
@@ -1086,7 +1090,7 @@
       <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1101,11 +1105,7 @@
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr"/>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U11" s="2" t="inlineStr"/>
       <c r="V11" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1115,22 +1115,22 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000002</t>
+          <t>GMHO:0000001</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>drug name</t>
+          <t>dose of pharmacological substance</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
+          <t>Dose of pharmacological substance delivered to an individual.</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>dose</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
       <c r="O12" s="2" t="inlineStr"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 1; LSR 3</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1175,22 +1175,22 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000003</t>
+          <t>GMHO:0000002</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>frequency of pharmacological substance dose</t>
+          <t>drug name</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
+          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>written name</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
@@ -1206,7 +1206,7 @@
       <c r="O13" s="2" t="inlineStr"/>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1233,56 +1233,60 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>BCIO:011035</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000003</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>frequency of pharmacological substance dose</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="inlineStr"/>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr"/>
+      <c r="P14" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr"/>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr"/>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1291,22 +1295,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1347,17 +1351,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>inhalation mode of delivery</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1401,56 +1405,56 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000123</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>intervention arm</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>study arm</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr"/>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr"/>
-      <c r="U17" s="2" t="inlineStr"/>
-      <c r="V17" s="2" t="inlineStr">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BCIO:011042</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>injection mode of delivery</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1459,22 +1463,22 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000004</t>
+          <t>GMHO:0000123</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>intervention arm name</t>
+          <t>intervention arm</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
+          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>study arm</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
@@ -1490,7 +1494,7 @@
       <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -1505,11 +1509,7 @@
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U18" s="2" t="inlineStr"/>
       <c r="V18" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1519,22 +1519,22 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000124</t>
+          <t>GMHO:0000004</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>intervention contact event duration</t>
+          <t>intervention arm name</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention contact event.</t>
+          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>written name</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
@@ -1542,23 +1542,15 @@
       <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008525</t>
-        </is>
-      </c>
+      <c r="L19" s="2" t="inlineStr"/>
       <c r="M19" s="2" t="inlineStr"/>
       <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -1572,12 +1564,12 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>Review BCIO cross reference</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1587,22 +1579,22 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000125</t>
+          <t>GMHO:0000124</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>intervention contact event duration</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
+          <t>A temporal interval between the start and end of an intervention contact event.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
@@ -1610,11 +1602,15 @@
       <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
+          <t>BCIO:008525</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr"/>
@@ -1636,29 +1632,37 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T20" s="2" t="inlineStr"/>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>Review BCIO cross reference</t>
+        </is>
+      </c>
       <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr"/>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000005</t>
+          <t>GMHO:0000125</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>intervention duration</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -1666,15 +1670,11 @@
       <c r="G21" s="2" t="inlineStr"/>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008560</t>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr"/>
@@ -1682,7 +1682,7 @@
       <c r="O21" s="2" t="inlineStr"/>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -1696,206 +1696,218 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T21" s="2" t="inlineStr">
+      <c r="T21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="inlineStr"/>
+      <c r="V21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000005</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>intervention duration</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of an intervention.</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008560</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr"/>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr"/>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U21" s="2" t="inlineStr">
+      <c r="U22" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V21" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>BCIO:008540</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>irregular intervention schedule</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000006</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>maximum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>maximum value</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R23" s="2" t="inlineStr"/>
-      <c r="S23" s="2" t="inlineStr">
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr"/>
+      <c r="S24" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T23" s="2" t="inlineStr"/>
-      <c r="U23" s="2" t="inlineStr">
+      <c r="T24" s="2" t="inlineStr"/>
+      <c r="U24" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V23" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>STATO:0000151</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>maximum value</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OBI:0200079</t>
+          <t>STATO:0000151</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mean calculation</t>
+          <t>maximum value</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A descriptive statistics calculation in which the mean is calculated by taking the sum of all of the observations in a data set divided by the total number of observations.</t>
+          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>averaging data transformation</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1926,84 +1938,72 @@
       <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000007</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>mean dose of pharmacological substance</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>A mean calculation of dose of pharmacological substance delivered to individuals in a group.</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OBI:0200079</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>mean calculation</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
-      <c r="M26" s="2" t="inlineStr"/>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A descriptive statistics calculation in which the mean is calculated by taking the sum of all of the observations in a data set divided by the total number of observations.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>averaging data transformation</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr"/>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="inlineStr"/>
-      <c r="U26" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V26" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000008</t>
+          <t>GMHO:0000007</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>minimum dose of pharmacological substance</t>
+          <t>mean dose of pharmacological substance</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+          <t>A mean calculation of dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>minimum value</t>
+          <t>mean calculation</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
@@ -2046,240 +2046,240 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000008</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>minimum dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>minimum value</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr"/>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>STATO:0000150</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>A data item which denotes the smallest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000126</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>no treatment control arm</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>A control arm designation where there is no intervention.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr">
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr"/>
+      <c r="S30" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T29" s="2" t="inlineStr"/>
-      <c r="U29" s="2" t="inlineStr"/>
-      <c r="V29" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="T30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="inlineStr"/>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>BCIO:008515</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>number of contact events</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>A data item that is the number of contact events in an intervention temporal part.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>data item - Count</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>BFO:0000038</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>temporal region</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R31" s="2" t="inlineStr"/>
-      <c r="S31" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T31" s="2" t="inlineStr"/>
-      <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>person source role</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2287,7 +2287,11 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2295,7 +2299,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -2311,119 +2315,119 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BCIO:010001</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000009</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>placebo intervention</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R33" s="2" t="inlineStr"/>
-      <c r="S33" s="2" t="inlineStr">
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr"/>
+      <c r="S34" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T33" s="2" t="inlineStr"/>
-      <c r="U33" s="2" t="inlineStr">
+      <c r="T34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V33" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>BCIO:008535</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>regular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
+      <c r="V34" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2432,22 +2436,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>regular intervention schedule</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2486,187 +2490,187 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BCIO:011034</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="D37" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr">
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr"/>
+      <c r="P37" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr">
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr"/>
+      <c r="S37" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T36" s="2" t="inlineStr"/>
-      <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="T37" s="2" t="inlineStr"/>
+      <c r="U37" s="2" t="inlineStr"/>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000128</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>treatment as usual control arm</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T38" s="2" t="inlineStr"/>
-      <c r="U38" s="2" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V38" s="2" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000129</t>
+          <t>GMHO:0000128</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>waitlist control arm</t>
+          <t>treatment as usual control arm</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -2710,80 +2714,80 @@
       <c r="V39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>BCIO:011046</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>wearable ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000129</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>waitlist control arm</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr"/>
+      <c r="U40" s="2" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IAO:0000590</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A textual entity that denotes a particular in reality.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2799,7 +2803,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -2816,6 +2820,62 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>IAO:0000590</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A textual entity that denotes a particular in reality.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,22 +1055,22 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>OBI:0000984</t>
+          <t>IAO:0000027</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>dose</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
+          <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
@@ -1090,7 +1090,7 @@
       <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1113,60 +1113,60 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000001</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>dose of pharmacological substance</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>Dose of pharmacological substance delivered to an individual.</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>OBI:0000984</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr"/>
-      <c r="H12" s="2" t="inlineStr"/>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr"/>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr"/>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1175,22 +1175,22 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000002</t>
+          <t>GMHO:0000001</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>drug name</t>
+          <t>dose of pharmacological substance</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
+          <t>Dose of pharmacological substance delivered to an individual.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>dose</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
@@ -1206,7 +1206,7 @@
       <c r="O13" s="2" t="inlineStr"/>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 1; LSR 3</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1235,22 +1235,22 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000003</t>
+          <t>GMHO:0000002</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>frequency of pharmacological substance dose</t>
+          <t>drug name</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
+          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>written name</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr"/>
@@ -1266,7 +1266,7 @@
       <c r="O14" s="2" t="inlineStr"/>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1293,56 +1293,60 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>BCIO:011035</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000003</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>frequency of pharmacological substance dose</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr">
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr"/>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1351,22 +1355,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1407,17 +1411,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>inhalation mode of delivery</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1461,56 +1465,56 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000123</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>intervention arm</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>study arm</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BCIO:011042</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>injection mode of delivery</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1519,22 +1523,22 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000004</t>
+          <t>GMHO:0000123</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>intervention arm name</t>
+          <t>intervention arm</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
+          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>study arm</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
@@ -1550,7 +1554,7 @@
       <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -1565,11 +1569,7 @@
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr"/>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U19" s="2" t="inlineStr"/>
       <c r="V19" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1579,22 +1579,22 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000124</t>
+          <t>GMHO:0000004</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>intervention contact event duration</t>
+          <t>intervention arm name</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention contact event.</t>
+          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>written name</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
@@ -1602,23 +1602,15 @@
       <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008525</t>
-        </is>
-      </c>
+      <c r="L20" s="2" t="inlineStr"/>
       <c r="M20" s="2" t="inlineStr"/>
       <c r="N20" s="2" t="inlineStr"/>
       <c r="O20" s="2" t="inlineStr"/>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -1632,12 +1624,12 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T20" s="2" t="inlineStr">
-        <is>
-          <t>Review BCIO cross reference</t>
-        </is>
-      </c>
-      <c r="U20" s="2" t="inlineStr"/>
+      <c r="T20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1647,22 +1639,22 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000125</t>
+          <t>GMHO:0000124</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>intervention contact event duration</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
+          <t>A temporal interval between the start and end of an intervention contact event.</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -1670,11 +1662,15 @@
       <c r="G21" s="2" t="inlineStr"/>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
+          <t>BCIO:008525</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr"/>
@@ -1696,29 +1692,37 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T21" s="2" t="inlineStr"/>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>Review BCIO cross reference</t>
+        </is>
+      </c>
       <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr"/>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000005</t>
+          <t>GMHO:0000125</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>intervention duration</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
@@ -1726,15 +1730,11 @@
       <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="inlineStr"/>
       <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008560</t>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr"/>
@@ -1742,7 +1742,7 @@
       <c r="O22" s="2" t="inlineStr"/>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -1756,206 +1756,218 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T22" s="2" t="inlineStr">
+      <c r="T22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="inlineStr"/>
+      <c r="V22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000005</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>intervention duration</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of an intervention.</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008560</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr"/>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U22" s="2" t="inlineStr">
+      <c r="U23" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V22" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>BCIO:008540</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>irregular intervention schedule</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000006</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>maximum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>maximum value</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R24" s="2" t="inlineStr"/>
-      <c r="S24" s="2" t="inlineStr">
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr"/>
+      <c r="S25" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="inlineStr">
+      <c r="T25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V24" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>STATO:0000151</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>maximum value</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OBI:0200079</t>
+          <t>STATO:0000151</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>mean calculation</t>
+          <t>maximum value</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A descriptive statistics calculation in which the mean is calculated by taking the sum of all of the observations in a data set divided by the total number of observations.</t>
+          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>averaging data transformation</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1986,84 +1998,72 @@
       <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000007</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>mean dose of pharmacological substance</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>A mean calculation of dose of pharmacological substance delivered to individuals in a group.</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OBI:0200079</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>mean calculation</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A descriptive statistics calculation in which the mean is calculated by taking the sum of all of the observations in a data set divided by the total number of observations.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>averaging data transformation</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T27" s="2" t="inlineStr"/>
-      <c r="U27" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V27" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000008</t>
+          <t>GMHO:0000007</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>minimum dose of pharmacological substance</t>
+          <t>mean dose of pharmacological substance</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+          <t>A mean calculation of dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>minimum value</t>
+          <t>mean calculation</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
@@ -2106,180 +2106,188 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000008</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>minimum dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>minimum value</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="inlineStr"/>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr"/>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>STATO:0000150</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>A data item which denotes the smallest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000126</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>no treatment control arm</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>A control arm designation where there is no intervention.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr"/>
-      <c r="S30" s="2" t="inlineStr">
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr"/>
+      <c r="S31" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T30" s="2" t="inlineStr"/>
-      <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>BCIO:008515</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>number of contact events</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A data item that is the number of contact events in an intervention temporal part.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>data item - Count</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="T31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="inlineStr"/>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>number of contact events</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+          <t>A data item that is the number of contact events in an intervention temporal part.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2299,7 +2307,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -2324,22 +2332,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>person source role</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2347,7 +2355,11 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2355,7 +2367,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -2371,119 +2383,119 @@
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BCIO:010001</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000009</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>placebo intervention</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr"/>
-      <c r="S34" s="2" t="inlineStr">
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr"/>
+      <c r="S35" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T34" s="2" t="inlineStr"/>
-      <c r="U34" s="2" t="inlineStr">
+      <c r="T35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V34" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>BCIO:008535</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>regular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
+      <c r="V35" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2492,22 +2504,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>regular intervention schedule</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2546,187 +2558,187 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BCIO:011034</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R37" s="2" t="inlineStr"/>
-      <c r="S37" s="2" t="inlineStr">
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr"/>
+      <c r="S38" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T37" s="2" t="inlineStr"/>
-      <c r="U37" s="2" t="inlineStr"/>
-      <c r="V37" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="T38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="inlineStr"/>
+      <c r="V38" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000128</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>treatment as usual control arm</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T39" s="2" t="inlineStr"/>
-      <c r="U39" s="2" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V39" s="2" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000129</t>
+          <t>GMHO:0000128</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>waitlist control arm</t>
+          <t>treatment as usual control arm</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
@@ -2770,80 +2782,80 @@
       <c r="V40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>BCIO:011046</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>wearable ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000129</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>waitlist control arm</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="inlineStr"/>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr"/>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T41" s="2" t="inlineStr"/>
+      <c r="U41" s="2" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IAO:0000590</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A textual entity that denotes a particular in reality.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2859,7 +2871,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -2876,6 +2888,62 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>IAO:0000590</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A textual entity that denotes a particular in reality.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,60 +1053,60 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>IAO:0000027</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr"/>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr"/>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr"/>
-      <c r="U11" s="2" t="inlineStr"/>
-      <c r="V11" s="2" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1523,22 +1523,22 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000123</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>intervention arm</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
+          <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>study arm</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
@@ -1546,7 +1546,11 @@
       <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
       <c r="M19" s="2" t="inlineStr"/>
@@ -1554,14 +1558,10 @@
       <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
+          <t>LSR 1, LSR 2, LSR 3</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr"/>
       <c r="R19" s="2" t="inlineStr"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
@@ -1579,22 +1579,22 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000004</t>
+          <t>GMHO:0000123</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>intervention arm name</t>
+          <t>intervention arm</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
+          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>study arm</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
@@ -1610,7 +1610,7 @@
       <c r="O20" s="2" t="inlineStr"/>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -1625,11 +1625,7 @@
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr"/>
-      <c r="U20" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U20" s="2" t="inlineStr"/>
       <c r="V20" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1639,22 +1635,22 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000124</t>
+          <t>GMHO:0000004</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>intervention contact event duration</t>
+          <t>intervention arm name</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention contact event.</t>
+          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>written name</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -1662,23 +1658,15 @@
       <c r="G21" s="2" t="inlineStr"/>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008525</t>
-        </is>
-      </c>
+      <c r="L21" s="2" t="inlineStr"/>
       <c r="M21" s="2" t="inlineStr"/>
       <c r="N21" s="2" t="inlineStr"/>
       <c r="O21" s="2" t="inlineStr"/>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -1692,12 +1680,12 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T21" s="2" t="inlineStr">
-        <is>
-          <t>Review BCIO cross reference</t>
-        </is>
-      </c>
-      <c r="U21" s="2" t="inlineStr"/>
+      <c r="T21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1707,22 +1695,22 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000125</t>
+          <t>GMHO:0000124</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>intervention contact event duration</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
+          <t>A temporal interval between the start and end of an intervention contact event.</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
@@ -1730,11 +1718,15 @@
       <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="inlineStr"/>
       <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
+          <t>BCIO:008525</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr"/>
@@ -1756,29 +1748,37 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T22" s="2" t="inlineStr"/>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>Review BCIO cross reference</t>
+        </is>
+      </c>
       <c r="U22" s="2" t="inlineStr"/>
-      <c r="V22" s="2" t="inlineStr"/>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000005</t>
+          <t>GMHO:0000125</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>intervention duration</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
@@ -1786,15 +1786,11 @@
       <c r="G23" s="2" t="inlineStr"/>
       <c r="H23" s="2" t="inlineStr"/>
       <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008560</t>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr"/>
@@ -1802,7 +1798,7 @@
       <c r="O23" s="2" t="inlineStr"/>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -1816,206 +1812,218 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T23" s="2" t="inlineStr">
+      <c r="T23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="inlineStr"/>
+      <c r="V23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000005</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>intervention duration</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of an intervention.</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008560</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr"/>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U23" s="2" t="inlineStr">
+      <c r="U24" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V23" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>BCIO:008540</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>irregular intervention schedule</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000006</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>maximum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>maximum value</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr">
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr"/>
+      <c r="S26" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T25" s="2" t="inlineStr"/>
-      <c r="U25" s="2" t="inlineStr">
+      <c r="T26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V25" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>STATO:0000151</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>maximum value</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OBI:0200079</t>
+          <t>STATO:0000151</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mean calculation</t>
+          <t>maximum value</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A descriptive statistics calculation in which the mean is calculated by taking the sum of all of the observations in a data set divided by the total number of observations.</t>
+          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>averaging data transformation</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2046,84 +2054,72 @@
       <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000007</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>mean dose of pharmacological substance</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>A mean calculation of dose of pharmacological substance delivered to individuals in a group.</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OBI:0200079</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>mean calculation</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A descriptive statistics calculation in which the mean is calculated by taking the sum of all of the observations in a data set divided by the total number of observations.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>averaging data transformation</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="inlineStr"/>
-      <c r="U28" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V28" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000008</t>
+          <t>GMHO:0000007</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>minimum dose of pharmacological substance</t>
+          <t>mean dose of pharmacological substance</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+          <t>A mean calculation of dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>minimum value</t>
+          <t>mean calculation</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -2166,164 +2162,164 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000008</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>minimum dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>minimum value</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr"/>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>STATO:0000150</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>A data item which denotes the smallest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000126</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>no treatment control arm</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>A control arm designation where there is no intervention.</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R31" s="2" t="inlineStr"/>
-      <c r="S31" s="2" t="inlineStr">
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T31" s="2" t="inlineStr"/>
-      <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>BCIO:008515</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>number of contact events</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A data item that is the number of contact events in an intervention temporal part.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
+      <c r="T32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2332,22 +2328,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>number of contact events</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+          <t>A data item that is the number of contact events in an intervention temporal part.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2367,7 +2363,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -2392,22 +2388,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>person source role</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2415,7 +2411,11 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -2423,7 +2423,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -2439,119 +2439,119 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BCIO:010001</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000009</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>placebo intervention</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R35" s="2" t="inlineStr"/>
-      <c r="S35" s="2" t="inlineStr">
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr"/>
+      <c r="S36" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T35" s="2" t="inlineStr"/>
-      <c r="U35" s="2" t="inlineStr">
+      <c r="T36" s="2" t="inlineStr"/>
+      <c r="U36" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V35" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>BCIO:008535</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>regular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
+      <c r="V36" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2560,22 +2560,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>regular intervention schedule</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2614,187 +2614,187 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BCIO:011034</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="inlineStr">
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr"/>
+      <c r="S39" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T38" s="2" t="inlineStr"/>
-      <c r="U38" s="2" t="inlineStr"/>
-      <c r="V38" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="T39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr">
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000128</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>treatment as usual control arm</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T40" s="2" t="inlineStr"/>
-      <c r="U40" s="2" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V40" s="2" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000129</t>
+          <t>GMHO:0000128</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>waitlist control arm</t>
+          <t>treatment as usual control arm</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -2838,80 +2838,80 @@
       <c r="V41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>BCIO:011046</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>wearable ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000129</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>waitlist control arm</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr"/>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IAO:0000590</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A textual entity that denotes a particular in reality.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2927,7 +2927,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -2944,6 +2944,62 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>IAO:0000590</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A textual entity that denotes a particular in reality.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -773,60 +773,64 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BCIO:011000</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mode of delivery</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>BCI attribute</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000007</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>average dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>A average value of dose of pharmacological substance delivered to individuals in a group.</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>average value</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -835,22 +839,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:033000</t>
+          <t>OBI:0000679</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>average value</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+          <t>A data item that is produced as the output of an averaging data transformation and represents the average value of the input data.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -858,7 +862,11 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -866,7 +874,7 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -891,22 +899,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011040</t>
+          <t>BCIO:011000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>buccal mode of delivery</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>BCI attribute</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -937,7 +945,11 @@
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr">
         <is>
           <t>PS</t>
@@ -945,348 +957,340 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BCIO:033000</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>behaviour change technique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BCIO:011040</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>buccal mode of delivery</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000122</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>A study arm designation as a comparator to some intervention arm.</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R9" s="2" t="inlineStr"/>
-      <c r="S9" s="2" t="inlineStr">
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr"/>
+      <c r="S11" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T9" s="2" t="inlineStr"/>
-      <c r="U9" s="2" t="inlineStr"/>
-      <c r="V9" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="T11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="inlineStr"/>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000177</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>daily dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Dose of pharmacological substance delivered to individuals within each day.</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr"/>
+      <c r="H12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="inlineStr"/>
+      <c r="P12" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q10" s="2" t="inlineStr"/>
-      <c r="R10" s="2" t="inlineStr"/>
-      <c r="S10" s="2" t="inlineStr">
+      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="R12" s="2" t="inlineStr"/>
+      <c r="S12" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T10" s="2" t="inlineStr"/>
-      <c r="U10" s="2" t="inlineStr"/>
-      <c r="V10" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="T12" s="2" t="inlineStr"/>
+      <c r="U12" s="2" t="inlineStr"/>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>IAO:0000027</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>OBI:0000984</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr">
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000001</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>dose of pharmacological substance</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>Dose of pharmacological substance delivered to an individual.</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>dose</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr"/>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr"/>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="inlineStr"/>
-      <c r="U13" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V13" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000002</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>drug name</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>written name</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr"/>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="inlineStr">
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1295,22 +1299,22 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000003</t>
+          <t>GMHO:0000001</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>frequency of pharmacological substance dose</t>
+          <t>dose of pharmacological substance</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
+          <t>Dose of pharmacological substance delivered to an individual.</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>dose</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr"/>
@@ -1326,7 +1330,7 @@
       <c r="O15" s="2" t="inlineStr"/>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 3</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -1353,112 +1357,120 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>BCIO:011035</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000002</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>drug name</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr"/>
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr"/>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000003</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>frequency of pharmacological substance dose</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>BCIO:011041</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>inhalation mode of delivery</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr"/>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1467,22 +1479,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1521,172 +1533,168 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BCIO:011041</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>inhalation mode of delivery</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BCIO:011042</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>injection mode of delivery</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>BCIO:037000</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
         <is>
           <t>LSR 1, LSR 2, LSR 3</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="inlineStr"/>
-      <c r="R19" s="2" t="inlineStr"/>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr"/>
-      <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000123</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>intervention arm</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>study arm</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="inlineStr"/>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000004</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>intervention arm name</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>written name</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R21" s="2" t="inlineStr"/>
-      <c r="S21" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="inlineStr"/>
-      <c r="U21" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V21" s="2" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1695,22 +1703,22 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000124</t>
+          <t>GMHO:0000123</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>intervention contact event duration</t>
+          <t>intervention arm</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention contact event.</t>
+          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>study arm</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
@@ -1718,23 +1726,15 @@
       <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="inlineStr"/>
       <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008525</t>
-        </is>
-      </c>
+      <c r="L22" s="2" t="inlineStr"/>
       <c r="M22" s="2" t="inlineStr"/>
       <c r="N22" s="2" t="inlineStr"/>
       <c r="O22" s="2" t="inlineStr"/>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -1748,11 +1748,7 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>Review BCIO cross reference</t>
-        </is>
-      </c>
+      <c r="T22" s="2" t="inlineStr"/>
       <c r="U22" s="2" t="inlineStr"/>
       <c r="V22" s="2" t="inlineStr">
         <is>
@@ -1763,22 +1759,22 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000125</t>
+          <t>GMHO:0000004</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>intervention arm name</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
+          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>written name</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
@@ -1788,17 +1784,13 @@
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
-        </is>
-      </c>
+      <c r="L23" s="2" t="inlineStr"/>
       <c r="M23" s="2" t="inlineStr"/>
       <c r="N23" s="2" t="inlineStr"/>
       <c r="O23" s="2" t="inlineStr"/>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -1813,23 +1805,31 @@
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr"/>
-      <c r="U23" s="2" t="inlineStr"/>
-      <c r="V23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000005</t>
+          <t>GMHO:0000124</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>intervention duration</t>
+          <t>intervention contact event duration</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention.</t>
+          <t>A temporal interval between the start and end of an intervention contact event.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1850,7 +1850,7 @@
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008560</t>
+          <t>BCIO:008525</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr"/>
@@ -1858,7 +1858,7 @@
       <c r="O24" s="2" t="inlineStr"/>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -1877,12 +1877,7 @@
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U24" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities
-Link to BCIO</t>
-        </is>
-      </c>
+      <c r="U24" s="2" t="inlineStr"/>
       <c r="V24" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1890,80 +1885,80 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>BCIO:008540</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>irregular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000125</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>intervention content</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr"/>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000006</t>
+          <t>GMHO:0000005</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>maximum dose of pharmacological substance</t>
+          <t>intervention duration</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+          <t>A temporal interval between the start and end of an intervention.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>maximum value</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
@@ -1971,15 +1966,23 @@
       <c r="G26" s="2" t="inlineStr"/>
       <c r="H26" s="2" t="inlineStr"/>
       <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008560</t>
+        </is>
+      </c>
       <c r="M26" s="2" t="inlineStr"/>
       <c r="N26" s="2" t="inlineStr"/>
       <c r="O26" s="2" t="inlineStr"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -1993,10 +1996,15 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T26" s="2" t="inlineStr"/>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>Review BCIO cross reference</t>
+        </is>
+      </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities
+Link to BCIO</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
@@ -2008,22 +2016,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>STATO:0000151</t>
+          <t>BCIO:008540</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>maximum value</t>
+          <t>irregular intervention schedule</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2042,7 +2050,11 @@
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
@@ -2051,115 +2063,119 @@
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>OBI:0200079</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>mean calculation</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A descriptive statistics calculation in which the mean is calculated by taking the sum of all of the observations in a data set divided by the total number of observations.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>averaging data transformation</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000006</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>maximum dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>maximum value</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr"/>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>STATO:0000151</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>maximum value</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000007</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>mean dose of pharmacological substance</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>A mean calculation of dose of pharmacological substance delivered to individuals in a group.</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>mean calculation</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T29" s="2" t="inlineStr"/>
-      <c r="U29" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V29" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,38 +1071,46 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000122</t>
+          <t>GMHO:0000192</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>control arm</t>
+          <t>cardiovascular exercise behaviour</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>A study arm designation as a comparator to some intervention arm.</t>
+          <t>Physical performance behaviour pattern that increases heart rate and respiration while using large muscle groups repetitively and rhythmically.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>study arm</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>cardio training, aerobic exercise, aerobics, endurance exercise, endurance training, cardiovascular exercise</t>
+        </is>
+      </c>
       <c r="H11" s="2" t="inlineStr"/>
       <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr"/>
       <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>COPPER:1044</t>
+        </is>
+      </c>
       <c r="M11" s="2" t="inlineStr"/>
       <c r="N11" s="2" t="inlineStr"/>
       <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1127,22 +1135,22 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000177</t>
+          <t>GMHO:0000122</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>daily dose of pharmacological substance</t>
+          <t>control arm</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Dose of pharmacological substance delivered to individuals within each day.</t>
+          <t>A study arm designation as a comparator to some intervention arm.</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>dose of pharmacological substance</t>
+          <t>study arm</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr"/>
@@ -1158,10 +1166,14 @@
       <c r="O12" s="2" t="inlineStr"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr"/>
+          <t>LSR 1; LSR 2</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="R12" s="2" t="inlineStr"/>
       <c r="S12" s="2" t="inlineStr">
         <is>
@@ -1177,60 +1189,52 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>IAO:0000027</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000177</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>daily dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Dose of pharmacological substance delivered to individuals within each day.</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr"/>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="R13" s="2" t="inlineStr"/>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr"/>
+      <c r="U13" s="2" t="inlineStr"/>
+      <c r="V13" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1239,22 +1243,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OBI:0000984</t>
+          <t>IAO:0000027</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>dose</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
+          <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1274,7 +1278,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1297,60 +1301,60 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000001</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>dose of pharmacological substance</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Dose of pharmacological substance delivered to an individual.</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>OBI:0000984</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr"/>
-      <c r="S15" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1359,22 +1363,22 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000002</t>
+          <t>GMHO:0000001</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>drug name</t>
+          <t>dose of pharmacological substance</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
+          <t>Dose of pharmacological substance delivered to an individual.</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>dose</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr"/>
@@ -1390,7 +1394,7 @@
       <c r="O16" s="2" t="inlineStr"/>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 1; LSR 3</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -1419,22 +1423,22 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000003</t>
+          <t>GMHO:0000002</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>frequency of pharmacological substance dose</t>
+          <t>drug name</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
+          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>written name</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr"/>
@@ -1450,7 +1454,7 @@
       <c r="O17" s="2" t="inlineStr"/>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -1477,56 +1481,60 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>BCIO:011035</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000003</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>frequency of pharmacological substance dose</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr">
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1535,22 +1543,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1591,17 +1599,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>inhalation mode of delivery</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1647,22 +1655,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:037000</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>injection mode of delivery</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1670,11 +1678,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -1682,10 +1686,14 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>LSR 1, LSR 2, LSR 3</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr"/>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
@@ -1701,56 +1709,56 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000123</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>intervention arm</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>study arm</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr"/>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr"/>
-      <c r="U22" s="2" t="inlineStr"/>
-      <c r="V22" s="2" t="inlineStr">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BCIO:037000</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A planned process that has the aim of influencing an outcome.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>LSR 1, LSR 2, LSR 3</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1759,22 +1767,22 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000004</t>
+          <t>GMHO:0000123</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>intervention arm name</t>
+          <t>intervention arm</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
+          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>study arm</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
@@ -1790,7 +1798,7 @@
       <c r="O23" s="2" t="inlineStr"/>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -1805,11 +1813,7 @@
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr"/>
-      <c r="U23" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U23" s="2" t="inlineStr"/>
       <c r="V23" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1819,22 +1823,22 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000124</t>
+          <t>GMHO:0000004</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>intervention contact event duration</t>
+          <t>intervention arm name</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention contact event.</t>
+          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>written name</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
@@ -1842,23 +1846,15 @@
       <c r="G24" s="2" t="inlineStr"/>
       <c r="H24" s="2" t="inlineStr"/>
       <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008525</t>
-        </is>
-      </c>
+      <c r="L24" s="2" t="inlineStr"/>
       <c r="M24" s="2" t="inlineStr"/>
       <c r="N24" s="2" t="inlineStr"/>
       <c r="O24" s="2" t="inlineStr"/>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -1872,12 +1868,12 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T24" s="2" t="inlineStr">
-        <is>
-          <t>Review BCIO cross reference</t>
-        </is>
-      </c>
-      <c r="U24" s="2" t="inlineStr"/>
+      <c r="T24" s="2" t="inlineStr"/>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1887,22 +1883,22 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000125</t>
+          <t>GMHO:0000124</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>intervention contact event duration</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
+          <t>A temporal interval between the start and end of an intervention contact event.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
@@ -1910,11 +1906,15 @@
       <c r="G25" s="2" t="inlineStr"/>
       <c r="H25" s="2" t="inlineStr"/>
       <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
+          <t>BCIO:008525</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr"/>
@@ -1936,29 +1936,37 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T25" s="2" t="inlineStr"/>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>Review BCIO cross reference</t>
+        </is>
+      </c>
       <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000005</t>
+          <t>GMHO:0000125</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>intervention duration</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
@@ -1966,15 +1974,11 @@
       <c r="G26" s="2" t="inlineStr"/>
       <c r="H26" s="2" t="inlineStr"/>
       <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008560</t>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr"/>
@@ -1982,7 +1986,7 @@
       <c r="O26" s="2" t="inlineStr"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -1996,206 +2000,214 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T26" s="2" t="inlineStr">
+      <c r="T26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="inlineStr"/>
+      <c r="V26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000005</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>intervention duration</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of an intervention.</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008560</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr"/>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U26" s="2" t="inlineStr">
+      <c r="U27" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V26" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>BCIO:008540</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>irregular intervention schedule</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000006</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>maximum dose of pharmacological substance</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>maximum value</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="inlineStr">
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000193</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>jogging</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves trotting or running at a slow and steady pace.</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="inlineStr"/>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr"/>
+      <c r="S29" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T28" s="2" t="inlineStr"/>
-      <c r="U28" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V28" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>STATO:0000151</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>maximum value</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="T29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="inlineStr"/>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000008</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>minimum dose of pharmacological substance</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>minimum value</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
@@ -2211,7 +2223,7 @@
       <c r="O30" s="2" t="inlineStr"/>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -2226,176 +2238,176 @@
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr"/>
-      <c r="U30" s="2" t="inlineStr">
+      <c r="U30" s="2" t="inlineStr"/>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000006</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>maximum dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>maximum value</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr"/>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V30" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>STATO:0000150</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>STATO:0000151</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>maximum value</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000008</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>minimum dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A data item which denotes the smallest value found in a dataset or resulting from a calculation.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000126</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>no treatment control arm</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>A control arm designation where there is no intervention.</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2</t>
-        </is>
-      </c>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr">
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr"/>
+      <c r="S33" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T32" s="2" t="inlineStr"/>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>BCIO:008515</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>number of contact events</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A data item that is the number of contact events in an intervention temporal part.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
+      <c r="T33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2404,22 +2416,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>STATO:0000150</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>minimum value</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+          <t>A data item which denotes the smallest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2427,11 +2439,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -2439,14 +2447,10 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
@@ -2455,119 +2459,119 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>BCIO:010001</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>person source role</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000126</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>no treatment control arm</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>A control arm designation where there is no intervention.</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr"/>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="inlineStr"/>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BCIO:008515</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>number of contact events</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A data item that is the number of contact events in an intervention temporal part.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr">
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000009</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>placebo intervention</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T36" s="2" t="inlineStr"/>
-      <c r="U36" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V36" s="2" t="inlineStr">
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2576,22 +2580,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:008535</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>regular intervention schedule</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>BCI schedule of delivery</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2599,7 +2603,11 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2607,7 +2615,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -2632,22 +2640,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>person source role</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>behaviour change intervention source</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2663,7 +2671,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -2679,31 +2687,27 @@
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000127</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>study arm</t>
+          <t>physical performance behaviour</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
+          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr"/>
@@ -2719,7 +2723,7 @@
       <c r="O39" s="2" t="inlineStr"/>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -2742,56 +2746,56 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>BCIO:011036</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>transdermal mode of delivery</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000194</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>physical performance behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr"/>
+      <c r="U40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2800,22 +2804,22 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000128</t>
+          <t>GMHO:0000009</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>treatment as usual control arm</t>
+          <t>placebo intervention</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
+          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>control arm</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
@@ -2831,7 +2835,7 @@
       <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -2848,174 +2852,634 @@
       <c r="T41" s="2" t="inlineStr"/>
       <c r="U41" s="2" t="inlineStr">
         <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BCIO:008535</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>regular intervention schedule</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000195</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>resistance training behaviour</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>physical performance behaviour pattern</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>resistance training, strength training</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPPER:1005</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr"/>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr"/>
+      <c r="U43" s="2" t="inlineStr"/>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000196</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr"/>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr"/>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr"/>
+      <c r="U44" s="2" t="inlineStr"/>
+      <c r="V44" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BCIO:011034</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000127</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>study arm</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr"/>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr"/>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="inlineStr"/>
+      <c r="V46" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BCIO:011036</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>transdermal mode of delivery</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000128</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>treatment as usual control arm</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="inlineStr"/>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="inlineStr">
+        <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V41" s="2" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="V48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000129</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>waitlist control arm</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="D49" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr">
+      <c r="E49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr"/>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr"/>
+      <c r="M49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr"/>
+      <c r="P49" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q42" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R42" s="2" t="inlineStr"/>
-      <c r="S42" s="2" t="inlineStr">
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R49" s="2" t="inlineStr"/>
+      <c r="S49" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T42" s="2" t="inlineStr"/>
-      <c r="U42" s="2" t="inlineStr">
+      <c r="T49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V42" s="2" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="V49" s="2" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:036108</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr"/>
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="inlineStr"/>
+      <c r="K50" s="2" t="inlineStr"/>
+      <c r="L50" s="2" t="inlineStr"/>
+      <c r="M50" s="2" t="inlineStr"/>
+      <c r="N50" s="2" t="inlineStr"/>
+      <c r="O50" s="2" t="inlineStr"/>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R50" s="2" t="inlineStr"/>
+      <c r="S50" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T50" s="2" t="inlineStr"/>
+      <c r="U50" s="2" t="inlineStr"/>
+      <c r="V50" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>BCIO:011046</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>IAO:0000590</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>A textual entity that denotes a particular in reality.</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr">
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,120 +1013,104 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000197</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>bodybuilding behaviour</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Individual human behaviour pattern involving consumption behaviour and physical performance behaviour in order to grow muscles.</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr"/>
+      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="R10" s="2" t="inlineStr"/>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr"/>
+      <c r="U10" s="2" t="inlineStr"/>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>BCIO:011040</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>buccal mode of delivery</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000192</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>cardiovascular exercise behaviour</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>Physical performance behaviour pattern that increases heart rate and respiration while using large muscle groups repetitively and rhythmically.</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>cardio training, aerobic exercise, aerobics, endurance exercise, endurance training, cardiovascular exercise</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>COPPER:1044</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr"/>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr"/>
-      <c r="U11" s="2" t="inlineStr"/>
-      <c r="V11" s="2" t="inlineStr">
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1135,38 +1119,46 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000122</t>
+          <t>GMHO:0000192</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>control arm</t>
+          <t>cardiovascular exercise behaviour</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>A study arm designation as a comparator to some intervention arm.</t>
+          <t>Physical performance behaviour pattern that increases heart rate and respiration while using large muscle groups repetitively and rhythmically.</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>study arm</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>cardio training, aerobic exercise, aerobics, endurance exercise, endurance training, cardiovascular exercise</t>
+        </is>
+      </c>
       <c r="H12" s="2" t="inlineStr"/>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr"/>
       <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="inlineStr"/>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>COPPER:1044</t>
+        </is>
+      </c>
       <c r="M12" s="2" t="inlineStr"/>
       <c r="N12" s="2" t="inlineStr"/>
       <c r="O12" s="2" t="inlineStr"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1191,22 +1183,22 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000177</t>
+          <t>GMHO:0000122</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>daily dose of pharmacological substance</t>
+          <t>control arm</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Dose of pharmacological substance delivered to individuals within each day.</t>
+          <t>A study arm designation as a comparator to some intervention arm.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>dose of pharmacological substance</t>
+          <t>study arm</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
@@ -1222,10 +1214,14 @@
       <c r="O13" s="2" t="inlineStr"/>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr"/>
+          <t>LSR 1; LSR 2</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="R13" s="2" t="inlineStr"/>
       <c r="S13" s="2" t="inlineStr">
         <is>
@@ -1241,60 +1237,52 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>IAO:0000027</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000177</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>daily dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Dose of pharmacological substance delivered to individuals within each day.</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="inlineStr"/>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr"/>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr"/>
+      <c r="R14" s="2" t="inlineStr"/>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr"/>
+      <c r="U14" s="2" t="inlineStr"/>
+      <c r="V14" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1303,22 +1291,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OBI:0000984</t>
+          <t>IAO:0000027</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dose</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
+          <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1338,7 +1326,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1361,60 +1349,60 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000001</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>dose of pharmacological substance</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Dose of pharmacological substance delivered to an individual.</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>OBI:0000984</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1423,22 +1411,22 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000002</t>
+          <t>GMHO:0000001</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>drug name</t>
+          <t>dose of pharmacological substance</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
+          <t>Dose of pharmacological substance delivered to an individual.</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>dose</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr"/>
@@ -1454,7 +1442,7 @@
       <c r="O17" s="2" t="inlineStr"/>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 1; LSR 3</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -1483,22 +1471,22 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000003</t>
+          <t>GMHO:0000002</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>frequency of pharmacological substance dose</t>
+          <t>drug name</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
+          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>written name</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
@@ -1514,7 +1502,7 @@
       <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -1541,56 +1529,60 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>BCIO:011035</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000003</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>frequency of pharmacological substance dose</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr">
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1599,22 +1591,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1655,17 +1647,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>inhalation mode of delivery</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1711,22 +1703,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:037000</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>injection mode of delivery</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1734,11 +1726,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -1746,10 +1734,14 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>LSR 1, LSR 2, LSR 3</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr"/>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
@@ -1765,56 +1757,56 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000123</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>intervention arm</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>study arm</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R23" s="2" t="inlineStr"/>
-      <c r="S23" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T23" s="2" t="inlineStr"/>
-      <c r="U23" s="2" t="inlineStr"/>
-      <c r="V23" s="2" t="inlineStr">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BCIO:037000</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A planned process that has the aim of influencing an outcome.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>LSR 1, LSR 2, LSR 3</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1823,22 +1815,22 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000004</t>
+          <t>GMHO:0000123</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>intervention arm name</t>
+          <t>intervention arm</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
+          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>study arm</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
@@ -1854,7 +1846,7 @@
       <c r="O24" s="2" t="inlineStr"/>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -1869,11 +1861,7 @@
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U24" s="2" t="inlineStr"/>
       <c r="V24" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1883,22 +1871,22 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000124</t>
+          <t>GMHO:0000004</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>intervention contact event duration</t>
+          <t>intervention arm name</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention contact event.</t>
+          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>written name</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
@@ -1906,23 +1894,15 @@
       <c r="G25" s="2" t="inlineStr"/>
       <c r="H25" s="2" t="inlineStr"/>
       <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008525</t>
-        </is>
-      </c>
+      <c r="L25" s="2" t="inlineStr"/>
       <c r="M25" s="2" t="inlineStr"/>
       <c r="N25" s="2" t="inlineStr"/>
       <c r="O25" s="2" t="inlineStr"/>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -1936,12 +1916,12 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>Review BCIO cross reference</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="inlineStr"/>
+      <c r="T25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1951,22 +1931,22 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000125</t>
+          <t>GMHO:0000124</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>intervention contact event duration</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
+          <t>A temporal interval between the start and end of an intervention contact event.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
@@ -1974,11 +1954,15 @@
       <c r="G26" s="2" t="inlineStr"/>
       <c r="H26" s="2" t="inlineStr"/>
       <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
+          <t>BCIO:008525</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr"/>
@@ -2000,29 +1984,37 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T26" s="2" t="inlineStr"/>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>Review BCIO cross reference</t>
+        </is>
+      </c>
       <c r="U26" s="2" t="inlineStr"/>
-      <c r="V26" s="2" t="inlineStr"/>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000005</t>
+          <t>GMHO:0000125</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>intervention duration</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
@@ -2030,15 +2022,11 @@
       <c r="G27" s="2" t="inlineStr"/>
       <c r="H27" s="2" t="inlineStr"/>
       <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008560</t>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr"/>
@@ -2046,7 +2034,7 @@
       <c r="O27" s="2" t="inlineStr"/>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -2060,130 +2048,134 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T27" s="2" t="inlineStr">
+      <c r="T27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="inlineStr"/>
+      <c r="V27" s="2" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000005</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>intervention duration</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of an intervention.</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008560</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr"/>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U27" s="2" t="inlineStr">
+      <c r="U28" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V27" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>BCIO:008540</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>irregular intervention schedule</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000193</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>jogging</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>A locomotive behaviour that involves trotting or running at a slow and steady pace.</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T29" s="2" t="inlineStr"/>
-      <c r="U29" s="2" t="inlineStr"/>
-      <c r="V29" s="2" t="inlineStr">
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2192,22 +2184,22 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>GMHO:0000193</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
+          <t>jogging</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves trotting or running at a slow and steady pace.</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
           <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
@@ -2246,332 +2238,328 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BCIO:036026</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000006</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>maximum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>maximum value</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R31" s="2" t="inlineStr"/>
-      <c r="S31" s="2" t="inlineStr">
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T31" s="2" t="inlineStr"/>
-      <c r="U31" s="2" t="inlineStr">
+      <c r="T32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V31" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>STATO:0000151</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>maximum value</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000008</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>minimum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R33" s="2" t="inlineStr"/>
-      <c r="S33" s="2" t="inlineStr">
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr"/>
+      <c r="S34" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T33" s="2" t="inlineStr"/>
-      <c r="U33" s="2" t="inlineStr">
+      <c r="T34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V33" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>STATO:0000150</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>A data item which denotes the smallest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr">
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000126</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>no treatment control arm</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>A control arm designation where there is no intervention.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R35" s="2" t="inlineStr"/>
-      <c r="S35" s="2" t="inlineStr">
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr"/>
+      <c r="S36" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T35" s="2" t="inlineStr"/>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>BCIO:008515</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>number of contact events</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A data item that is the number of contact events in an intervention temporal part.</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
+      <c r="T36" s="2" t="inlineStr"/>
+      <c r="U36" s="2" t="inlineStr"/>
+      <c r="V36" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2580,22 +2568,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>number of contact events</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+          <t>A data item that is the number of contact events in an intervention temporal part.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2615,7 +2603,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -2640,22 +2628,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>person source role</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2663,7 +2651,11 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2671,7 +2663,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -2687,115 +2679,115 @@
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BCIO:010001</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>BCIO:036042</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>physical performance behaviour</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T39" s="2" t="inlineStr"/>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000194</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T40" s="2" t="inlineStr"/>
-      <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr">
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2804,22 +2796,22 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000009</t>
+          <t>GMHO:0000194</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>placebo intervention</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
@@ -2835,7 +2827,7 @@
       <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -2850,132 +2842,124 @@
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr"/>
-      <c r="U41" s="2" t="inlineStr">
+      <c r="U41" s="2" t="inlineStr"/>
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000009</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>placebo intervention</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr"/>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V41" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="V42" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr">
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000195</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>resistance training behaviour</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>resistance training, strength training</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> COPPER:1005</t>
-        </is>
-      </c>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q43" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R43" s="2" t="inlineStr"/>
-      <c r="S43" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T43" s="2" t="inlineStr"/>
-      <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr">
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2984,32 +2968,40 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000196</t>
+          <t>GMHO:0000195</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>resistance training behaviour</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>resistance training, strength training</t>
+        </is>
+      </c>
       <c r="H44" s="2" t="inlineStr"/>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPPER:1005</t>
+        </is>
+      </c>
       <c r="M44" s="2" t="inlineStr"/>
       <c r="N44" s="2" t="inlineStr"/>
       <c r="O44" s="2" t="inlineStr"/>
@@ -3038,243 +3030,243 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000196</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr"/>
+      <c r="H45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="inlineStr"/>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr"/>
+      <c r="S45" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="inlineStr"/>
+      <c r="U45" s="2" t="inlineStr"/>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>BCIO:011034</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>somatic mode of delivery</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr">
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr">
+      <c r="D47" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
-      <c r="P46" s="2" t="inlineStr">
+      <c r="E47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr"/>
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr"/>
+      <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="inlineStr"/>
+      <c r="O47" s="2" t="inlineStr"/>
+      <c r="P47" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr">
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R47" s="2" t="inlineStr"/>
+      <c r="S47" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T46" s="2" t="inlineStr"/>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="T47" s="2" t="inlineStr"/>
+      <c r="U47" s="2" t="inlineStr"/>
+      <c r="V47" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr">
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000128</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>treatment as usual control arm</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T48" s="2" t="inlineStr"/>
-      <c r="U48" s="2" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V48" s="2" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000129</t>
+          <t>GMHO:0000128</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>waitlist control arm</t>
+          <t>treatment as usual control arm</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
@@ -3320,22 +3312,22 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>GMHO:0000129</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>waitlist control arm</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>control arm</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
@@ -3366,32 +3358,32 @@
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr"/>
-      <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="U50" s="2" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3407,7 +3399,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -3432,22 +3424,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>IAO:0000590</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A textual entity that denotes a particular in reality.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3463,7 +3455,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -3480,6 +3472,62 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>IAO:0000590</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A textual entity that denotes a particular in reality.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -807,7 +807,11 @@
       <c r="L6" s="2" t="inlineStr"/>
       <c r="M6" s="2" t="inlineStr"/>
       <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>dose of pharmacological substance</t>
+        </is>
+      </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -2324,7 +2328,11 @@
       <c r="L32" s="2" t="inlineStr"/>
       <c r="M32" s="2" t="inlineStr"/>
       <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>dose of pharmacological substance</t>
+        </is>
+      </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -2432,7 +2440,11 @@
       <c r="L34" s="2" t="inlineStr"/>
       <c r="M34" s="2" t="inlineStr"/>
       <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>dose of pharmacological substance</t>
+        </is>
+      </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2922,120 +2922,112 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000200</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>planned pharmacological substance dose</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>A plan specification about the dose of pharmacological substance.</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>plan specification</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr"/>
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="inlineStr"/>
+      <c r="M43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr"/>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr"/>
+      <c r="U43" s="2" t="inlineStr"/>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr">
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000195</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>resistance training behaviour</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>resistance training, strength training</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr"/>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> COPPER:1005</t>
-        </is>
-      </c>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R44" s="2" t="inlineStr"/>
-      <c r="S44" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T44" s="2" t="inlineStr"/>
-      <c r="U44" s="2" t="inlineStr"/>
-      <c r="V44" s="2" t="inlineStr">
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3044,32 +3036,40 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000196</t>
+          <t>GMHO:0000195</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>resistance training behaviour</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>resistance training, strength training</t>
+        </is>
+      </c>
       <c r="H45" s="2" t="inlineStr"/>
       <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr"/>
       <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPPER:1005</t>
+        </is>
+      </c>
       <c r="M45" s="2" t="inlineStr"/>
       <c r="N45" s="2" t="inlineStr"/>
       <c r="O45" s="2" t="inlineStr"/>
@@ -3098,243 +3098,243 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000196</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr"/>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr"/>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="inlineStr"/>
+      <c r="V46" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>BCIO:011034</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>somatic mode of delivery</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr">
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr">
+      <c r="D48" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr"/>
-      <c r="H47" s="2" t="inlineStr"/>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr"/>
-      <c r="P47" s="2" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q47" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R47" s="2" t="inlineStr"/>
-      <c r="S47" s="2" t="inlineStr">
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="inlineStr"/>
+      <c r="S48" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T47" s="2" t="inlineStr"/>
-      <c r="U47" s="2" t="inlineStr"/>
-      <c r="V47" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="T48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr">
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000128</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>treatment as usual control arm</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q49" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T49" s="2" t="inlineStr"/>
-      <c r="U49" s="2" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V49" s="2" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000129</t>
+          <t>GMHO:0000128</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>waitlist control arm</t>
+          <t>treatment as usual control arm</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
@@ -3378,80 +3378,80 @@
       <c r="V50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000129</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>waitlist control arm</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr"/>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr"/>
+      <c r="M51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="inlineStr"/>
+      <c r="P51" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R51" s="2" t="inlineStr"/>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3467,7 +3467,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -3492,22 +3492,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IAO:0000590</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A textual entity that denotes a particular in reality.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3523,7 +3523,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -3540,6 +3540,62 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>IAO:0000590</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A textual entity that denotes a particular in reality.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -1151,7 +1151,11 @@
       <c r="H12" s="2" t="inlineStr"/>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>Cross-reference: COPPER:1044 - changed parent class</t>
+        </is>
+      </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
           <t>COPPER:1044</t>
@@ -1180,7 +1184,7 @@
       <c r="U12" s="2" t="inlineStr"/>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -3068,7 +3068,11 @@
       <c r="H45" s="2" t="inlineStr"/>
       <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
+        </is>
+      </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> COPPER:1005</t>
@@ -3097,7 +3101,7 @@
       <c r="U45" s="2" t="inlineStr"/>
       <c r="V45" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -3132,7 +3132,13 @@
       <c r="H46" s="2" t="inlineStr"/>
       <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
+Also drew on:
+- COPPER:1011"</t>
+        </is>
+      </c>
       <c r="L46" s="2" t="inlineStr"/>
       <c r="M46" s="2" t="inlineStr"/>
       <c r="N46" s="2" t="inlineStr"/>
@@ -3157,7 +3163,7 @@
       <c r="U46" s="2" t="inlineStr"/>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -2216,7 +2216,11 @@
       <c r="H30" s="2" t="inlineStr"/>
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>Drew on: https://www.oxfordlearnersdictionaries.com/definition/english/jogging#:~:text=jogging-,noun,as%20a%20form%20of%20exercise</t>
+        </is>
+      </c>
       <c r="L30" s="2" t="inlineStr"/>
       <c r="M30" s="2" t="inlineStr"/>
       <c r="N30" s="2" t="inlineStr"/>
@@ -2241,7 +2245,7 @@
       <c r="U30" s="2" t="inlineStr"/>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -1043,7 +1043,11 @@
       <c r="H10" s="2" t="inlineStr"/>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>Insipred by https://www.merriam-webster.com/dictionary/bodybuilding</t>
+        </is>
+      </c>
       <c r="L10" s="2" t="inlineStr"/>
       <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr"/>
@@ -1060,7 +1064,7 @@
       <c r="U10" s="2" t="inlineStr"/>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -1971,7 +1971,11 @@
           <t>intervention content and delivery</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>inspired by BCIO:008525</t>
+        </is>
+      </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
           <t>BCIO:008525</t>
@@ -2004,7 +2008,7 @@
       <c r="U26" s="2" t="inlineStr"/>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -2099,7 +2099,12 @@
           <t>intervention content and delivery</t>
         </is>
       </c>
-      <c r="K28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inspired by BCIO:008560
+</t>
+        </is>
+      </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
           <t>BCIO:008560</t>
@@ -2137,7 +2142,7 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -2039,7 +2039,12 @@
       <c r="H27" s="2" t="inlineStr"/>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Based on http://humanbehaviourchange.org/ontology/BCIO_007000
+</t>
+        </is>
+      </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
           <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
@@ -2066,7 +2071,11 @@
       </c>
       <c r="T27" s="2" t="inlineStr"/>
       <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr"/>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -1447,7 +1447,12 @@
       <c r="H17" s="2" t="inlineStr"/>
       <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parent class from Ontology for Biomedical Investigations
+</t>
+        </is>
+      </c>
       <c r="L17" s="2" t="inlineStr"/>
       <c r="M17" s="2" t="inlineStr"/>
       <c r="N17" s="2" t="inlineStr"/>
@@ -1476,7 +1481,7 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -39,7 +39,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="002f4f4f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -825,7 +837,7 @@
       <c r="R6" s="2" t="inlineStr"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr"/>
@@ -1017,52 +1029,52 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000197</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>bodybuilding behaviour</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Individual human behaviour pattern involving consumption behaviour and physical performance behaviour in order to grow muscles.</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>individual human behaviour pattern</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr"/>
+      <c r="F10" s="3" t="inlineStr"/>
+      <c r="G10" s="3" t="inlineStr"/>
+      <c r="H10" s="3" t="inlineStr"/>
+      <c r="I10" s="3" t="inlineStr"/>
+      <c r="J10" s="3" t="inlineStr"/>
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>Insipred by https://www.merriam-webster.com/dictionary/bodybuilding</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
-      <c r="R10" s="2" t="inlineStr"/>
-      <c r="S10" s="2" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr"/>
+      <c r="M10" s="3" t="inlineStr"/>
+      <c r="N10" s="3" t="inlineStr"/>
+      <c r="O10" s="3" t="inlineStr"/>
+      <c r="P10" s="3" t="inlineStr"/>
+      <c r="Q10" s="3" t="inlineStr"/>
+      <c r="R10" s="3" t="inlineStr"/>
+      <c r="S10" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T10" s="2" t="inlineStr"/>
-      <c r="U10" s="2" t="inlineStr"/>
-      <c r="V10" s="2" t="inlineStr">
+      <c r="T10" s="3" t="inlineStr"/>
+      <c r="U10" s="3" t="inlineStr"/>
+      <c r="V10" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -1125,176 +1137,176 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000192</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>cardiovascular exercise behaviour</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>Physical performance behaviour pattern that increases heart rate and respiration while using large muscle groups repetitively and rhythmically.</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>physical performance behaviour pattern</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr"/>
+      <c r="F12" s="3" t="inlineStr"/>
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>cardio training, aerobic exercise, aerobics, endurance exercise, endurance training, cardiovascular exercise</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr"/>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="H12" s="3" t="inlineStr"/>
+      <c r="I12" s="3" t="inlineStr"/>
+      <c r="J12" s="3" t="inlineStr"/>
+      <c r="K12" s="3" t="inlineStr">
         <is>
           <t>Cross-reference: COPPER:1044 - changed parent class</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>COPPER:1044</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr">
+      <c r="M12" s="3" t="inlineStr"/>
+      <c r="N12" s="3" t="inlineStr"/>
+      <c r="O12" s="3" t="inlineStr"/>
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr"/>
-      <c r="S12" s="2" t="inlineStr">
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R12" s="3" t="inlineStr"/>
+      <c r="S12" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T12" s="2" t="inlineStr"/>
-      <c r="U12" s="2" t="inlineStr"/>
-      <c r="V12" s="2" t="inlineStr">
+      <c r="T12" s="3" t="inlineStr"/>
+      <c r="U12" s="3" t="inlineStr"/>
+      <c r="V12" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000122</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>A study arm designation as a comparator to some intervention arm.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr"/>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr"/>
+      <c r="F13" s="3" t="inlineStr"/>
+      <c r="G13" s="3" t="inlineStr"/>
+      <c r="H13" s="3" t="inlineStr"/>
+      <c r="I13" s="3" t="inlineStr"/>
+      <c r="J13" s="3" t="inlineStr"/>
+      <c r="K13" s="3" t="inlineStr"/>
+      <c r="L13" s="3" t="inlineStr"/>
+      <c r="M13" s="3" t="inlineStr"/>
+      <c r="N13" s="3" t="inlineStr"/>
+      <c r="O13" s="3" t="inlineStr"/>
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr"/>
-      <c r="S13" s="2" t="inlineStr">
+      <c r="Q13" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R13" s="3" t="inlineStr"/>
+      <c r="S13" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T13" s="2" t="inlineStr"/>
-      <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr">
+      <c r="T13" s="3" t="inlineStr"/>
+      <c r="U13" s="3" t="inlineStr"/>
+      <c r="V13" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000177</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>daily dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Dose of pharmacological substance delivered to individuals within each day.</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr"/>
+      <c r="G14" s="3" t="inlineStr"/>
+      <c r="H14" s="3" t="inlineStr"/>
+      <c r="I14" s="3" t="inlineStr"/>
+      <c r="J14" s="3" t="inlineStr"/>
+      <c r="K14" s="3" t="inlineStr"/>
+      <c r="L14" s="3" t="inlineStr"/>
+      <c r="M14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr"/>
+      <c r="O14" s="3" t="inlineStr"/>
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q14" s="2" t="inlineStr"/>
-      <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="inlineStr">
+      <c r="Q14" s="3" t="inlineStr"/>
+      <c r="R14" s="3" t="inlineStr"/>
+      <c r="S14" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T14" s="2" t="inlineStr"/>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr">
+      <c r="T14" s="3" t="inlineStr"/>
+      <c r="U14" s="3" t="inlineStr"/>
+      <c r="V14" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1421,185 +1433,185 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000001</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Dose of pharmacological substance delivered to an individual.</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="4" t="inlineStr"/>
+      <c r="H17" s="4" t="inlineStr"/>
+      <c r="I17" s="4" t="inlineStr"/>
+      <c r="J17" s="4" t="inlineStr"/>
+      <c r="K17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parent class from Ontology for Biomedical Investigations
 </t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr">
+      <c r="L17" s="4" t="inlineStr"/>
+      <c r="M17" s="4" t="inlineStr"/>
+      <c r="N17" s="4" t="inlineStr"/>
+      <c r="O17" s="4" t="inlineStr"/>
+      <c r="P17" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
         </is>
       </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr"/>
-      <c r="S17" s="2" t="inlineStr">
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr"/>
+      <c r="S17" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T17" s="4" t="inlineStr"/>
+      <c r="U17" s="4" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V17" s="4" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000002</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>drug name</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr"/>
+      <c r="F18" s="4" t="inlineStr"/>
+      <c r="G18" s="4" t="inlineStr"/>
+      <c r="H18" s="4" t="inlineStr"/>
+      <c r="I18" s="4" t="inlineStr"/>
+      <c r="J18" s="4" t="inlineStr"/>
+      <c r="K18" s="4" t="inlineStr"/>
+      <c r="L18" s="4" t="inlineStr"/>
+      <c r="M18" s="4" t="inlineStr"/>
+      <c r="N18" s="4" t="inlineStr"/>
+      <c r="O18" s="4" t="inlineStr"/>
+      <c r="P18" s="4" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q18" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R18" s="4" t="inlineStr"/>
+      <c r="S18" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T18" s="4" t="inlineStr"/>
+      <c r="U18" s="4" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V18" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000003</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>frequency of pharmacological substance dose</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr"/>
+      <c r="G19" s="3" t="inlineStr"/>
+      <c r="H19" s="3" t="inlineStr"/>
+      <c r="I19" s="3" t="inlineStr"/>
+      <c r="J19" s="3" t="inlineStr"/>
+      <c r="K19" s="3" t="inlineStr"/>
+      <c r="L19" s="3" t="inlineStr"/>
+      <c r="M19" s="3" t="inlineStr"/>
+      <c r="N19" s="3" t="inlineStr"/>
+      <c r="O19" s="3" t="inlineStr"/>
+      <c r="P19" s="3" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="inlineStr"/>
+      <c r="S19" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T17" s="2" t="inlineStr"/>
-      <c r="U17" s="2" t="inlineStr">
+      <c r="T19" s="3" t="inlineStr"/>
+      <c r="U19" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V17" s="2" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000002</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>drug name</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>written name</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V18" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000003</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>frequency of pharmacological substance dose</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr"/>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr"/>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="inlineStr">
+      <c r="V19" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1830,331 +1842,331 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000123</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>intervention arm</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr"/>
+      <c r="G24" s="3" t="inlineStr"/>
+      <c r="H24" s="3" t="inlineStr"/>
+      <c r="I24" s="3" t="inlineStr"/>
+      <c r="J24" s="3" t="inlineStr"/>
+      <c r="K24" s="3" t="inlineStr"/>
+      <c r="L24" s="3" t="inlineStr"/>
+      <c r="M24" s="3" t="inlineStr"/>
+      <c r="N24" s="3" t="inlineStr"/>
+      <c r="O24" s="3" t="inlineStr"/>
+      <c r="P24" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R24" s="2" t="inlineStr"/>
-      <c r="S24" s="2" t="inlineStr">
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="inlineStr"/>
+      <c r="S24" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr">
+      <c r="T24" s="3" t="inlineStr"/>
+      <c r="U24" s="3" t="inlineStr"/>
+      <c r="V24" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000004</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>intervention arm name</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr"/>
+      <c r="H25" s="4" t="inlineStr"/>
+      <c r="I25" s="4" t="inlineStr"/>
+      <c r="J25" s="4" t="inlineStr"/>
+      <c r="K25" s="4" t="inlineStr"/>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr"/>
+      <c r="O25" s="4" t="inlineStr"/>
+      <c r="P25" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr">
+      <c r="Q25" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R25" s="4" t="inlineStr"/>
+      <c r="S25" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T25" s="4" t="inlineStr"/>
+      <c r="U25" s="4" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V25" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000124</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>intervention contact event duration</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of an intervention contact event.</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="inlineStr"/>
+      <c r="G26" s="3" t="inlineStr"/>
+      <c r="H26" s="3" t="inlineStr"/>
+      <c r="I26" s="3" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr">
+        <is>
+          <t>inspired by BCIO:008525</t>
+        </is>
+      </c>
+      <c r="L26" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008525</t>
+        </is>
+      </c>
+      <c r="M26" s="3" t="inlineStr"/>
+      <c r="N26" s="3" t="inlineStr"/>
+      <c r="O26" s="3" t="inlineStr"/>
+      <c r="P26" s="3" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q26" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R26" s="3" t="inlineStr"/>
+      <c r="S26" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T25" s="2" t="inlineStr"/>
-      <c r="U25" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V25" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000124</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>intervention contact event duration</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>A temporal interval between the start and end of an intervention contact event.</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>inspired by BCIO:008525</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008525</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr"/>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr"/>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="inlineStr">
+      <c r="T26" s="3" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U26" s="2" t="inlineStr"/>
-      <c r="V26" s="2" t="inlineStr">
+      <c r="U26" s="3" t="inlineStr"/>
+      <c r="V26" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000125</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr"/>
+      <c r="F27" s="3" t="inlineStr"/>
+      <c r="G27" s="3" t="inlineStr"/>
+      <c r="H27" s="3" t="inlineStr"/>
+      <c r="I27" s="3" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr"/>
+      <c r="K27" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Based on http://humanbehaviourchange.org/ontology/BCIO_007000
 </t>
         </is>
       </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="L27" s="3" t="inlineStr">
         <is>
           <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr">
+      <c r="M27" s="3" t="inlineStr"/>
+      <c r="N27" s="3" t="inlineStr"/>
+      <c r="O27" s="3" t="inlineStr"/>
+      <c r="P27" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr">
+      <c r="Q27" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R27" s="3" t="inlineStr"/>
+      <c r="S27" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T27" s="2" t="inlineStr"/>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr">
+      <c r="T27" s="3" t="inlineStr"/>
+      <c r="U27" s="3" t="inlineStr"/>
+      <c r="V27" s="3" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000005</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>intervention duration</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr"/>
+      <c r="H28" s="4" t="inlineStr"/>
+      <c r="I28" s="4" t="inlineStr"/>
+      <c r="J28" s="4" t="inlineStr">
         <is>
           <t>intervention content and delivery</t>
         </is>
       </c>
-      <c r="K28" s="2" t="inlineStr">
+      <c r="K28" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">inspired by BCIO:008560
 </t>
         </is>
       </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="L28" s="4" t="inlineStr">
         <is>
           <t>BCIO:008560</t>
         </is>
       </c>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr">
+      <c r="M28" s="4" t="inlineStr"/>
+      <c r="N28" s="4" t="inlineStr"/>
+      <c r="O28" s="4" t="inlineStr"/>
+      <c r="P28" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="inlineStr">
+      <c r="Q28" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R28" s="4" t="inlineStr"/>
+      <c r="S28" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T28" s="4" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U28" s="2" t="inlineStr">
+      <c r="U28" s="4" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V28" s="2" t="inlineStr">
+      <c r="V28" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -2217,60 +2229,60 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000193</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>jogging</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>A locomotive behaviour that involves trotting or running at a slow and steady pace.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>locomotive behaviour</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr"/>
+      <c r="F30" s="3" t="inlineStr"/>
+      <c r="G30" s="3" t="inlineStr"/>
+      <c r="H30" s="3" t="inlineStr"/>
+      <c r="I30" s="3" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr"/>
+      <c r="K30" s="3" t="inlineStr">
         <is>
           <t>Drew on: https://www.oxfordlearnersdictionaries.com/definition/english/jogging#:~:text=jogging-,noun,as%20a%20form%20of%20exercise</t>
         </is>
       </c>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr">
+      <c r="L30" s="3" t="inlineStr"/>
+      <c r="M30" s="3" t="inlineStr"/>
+      <c r="N30" s="3" t="inlineStr"/>
+      <c r="O30" s="3" t="inlineStr"/>
+      <c r="P30" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr"/>
-      <c r="S30" s="2" t="inlineStr">
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="inlineStr"/>
+      <c r="S30" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T30" s="2" t="inlineStr"/>
-      <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr">
+      <c r="T30" s="3" t="inlineStr"/>
+      <c r="U30" s="3" t="inlineStr"/>
+      <c r="V30" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -2381,7 +2393,7 @@
       <c r="R32" s="2" t="inlineStr"/>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr"/>
@@ -2493,7 +2505,7 @@
       <c r="R34" s="2" t="inlineStr"/>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr"/>
@@ -2557,56 +2569,56 @@
       <c r="V35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000126</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>no treatment control arm</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>A control arm designation where there is no intervention.</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="D36" s="3" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr">
+      <c r="E36" s="3" t="inlineStr"/>
+      <c r="F36" s="3" t="inlineStr"/>
+      <c r="G36" s="3" t="inlineStr"/>
+      <c r="H36" s="3" t="inlineStr"/>
+      <c r="I36" s="3" t="inlineStr"/>
+      <c r="J36" s="3" t="inlineStr"/>
+      <c r="K36" s="3" t="inlineStr"/>
+      <c r="L36" s="3" t="inlineStr"/>
+      <c r="M36" s="3" t="inlineStr"/>
+      <c r="N36" s="3" t="inlineStr"/>
+      <c r="O36" s="3" t="inlineStr"/>
+      <c r="P36" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr">
+      <c r="Q36" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R36" s="3" t="inlineStr"/>
+      <c r="S36" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T36" s="2" t="inlineStr"/>
-      <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr">
+      <c r="T36" s="3" t="inlineStr"/>
+      <c r="U36" s="3" t="inlineStr"/>
+      <c r="V36" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2841,172 +2853,172 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000194</t>
         </is>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>physical performance behaviour pattern</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>individual human behaviour pattern</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="inlineStr"/>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr"/>
+      <c r="F41" s="3" t="inlineStr"/>
+      <c r="G41" s="3" t="inlineStr"/>
+      <c r="H41" s="3" t="inlineStr"/>
+      <c r="I41" s="3" t="inlineStr"/>
+      <c r="J41" s="3" t="inlineStr"/>
+      <c r="K41" s="3" t="inlineStr"/>
+      <c r="L41" s="3" t="inlineStr"/>
+      <c r="M41" s="3" t="inlineStr"/>
+      <c r="N41" s="3" t="inlineStr"/>
+      <c r="O41" s="3" t="inlineStr"/>
+      <c r="P41" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q41" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R41" s="2" t="inlineStr"/>
-      <c r="S41" s="2" t="inlineStr">
+      <c r="Q41" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R41" s="3" t="inlineStr"/>
+      <c r="S41" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T41" s="2" t="inlineStr"/>
-      <c r="U41" s="2" t="inlineStr"/>
-      <c r="V41" s="2" t="inlineStr">
+      <c r="T41" s="3" t="inlineStr"/>
+      <c r="U41" s="3" t="inlineStr"/>
+      <c r="V41" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000009</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>placebo intervention</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr">
+      <c r="E42" s="3" t="inlineStr"/>
+      <c r="F42" s="3" t="inlineStr"/>
+      <c r="G42" s="3" t="inlineStr"/>
+      <c r="H42" s="3" t="inlineStr"/>
+      <c r="I42" s="3" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr"/>
+      <c r="K42" s="3" t="inlineStr"/>
+      <c r="L42" s="3" t="inlineStr"/>
+      <c r="M42" s="3" t="inlineStr"/>
+      <c r="N42" s="3" t="inlineStr"/>
+      <c r="O42" s="3" t="inlineStr"/>
+      <c r="P42" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q42" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R42" s="2" t="inlineStr"/>
-      <c r="S42" s="2" t="inlineStr">
+      <c r="Q42" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R42" s="3" t="inlineStr"/>
+      <c r="S42" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T42" s="2" t="inlineStr"/>
-      <c r="U42" s="2" t="inlineStr">
+      <c r="T42" s="3" t="inlineStr"/>
+      <c r="U42" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V42" s="2" t="inlineStr">
+      <c r="V42" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr"/>
+      <c r="F43" s="3" t="inlineStr"/>
+      <c r="G43" s="3" t="inlineStr"/>
+      <c r="H43" s="3" t="inlineStr"/>
+      <c r="I43" s="3" t="inlineStr"/>
+      <c r="J43" s="3" t="inlineStr"/>
+      <c r="K43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="inlineStr"/>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr"/>
+      <c r="O43" s="3" t="inlineStr"/>
+      <c r="P43" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q43" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R43" s="2" t="inlineStr"/>
-      <c r="S43" s="2" t="inlineStr">
+      <c r="Q43" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R43" s="3" t="inlineStr"/>
+      <c r="S43" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T43" s="2" t="inlineStr"/>
-      <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr">
+      <c r="T43" s="3" t="inlineStr"/>
+      <c r="U43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3069,130 +3081,130 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000195</t>
         </is>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>resistance training behaviour</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>physical performance behaviour pattern</t>
         </is>
       </c>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr"/>
+      <c r="F45" s="3" t="inlineStr"/>
+      <c r="G45" s="3" t="inlineStr">
         <is>
           <t>resistance training, strength training</t>
         </is>
       </c>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr">
+      <c r="H45" s="3" t="inlineStr"/>
+      <c r="I45" s="3" t="inlineStr"/>
+      <c r="J45" s="3" t="inlineStr"/>
+      <c r="K45" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
         </is>
       </c>
-      <c r="L45" s="2" t="inlineStr">
+      <c r="L45" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> COPPER:1005</t>
         </is>
       </c>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="inlineStr">
+      <c r="M45" s="3" t="inlineStr"/>
+      <c r="N45" s="3" t="inlineStr"/>
+      <c r="O45" s="3" t="inlineStr"/>
+      <c r="P45" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q45" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R45" s="2" t="inlineStr"/>
-      <c r="S45" s="2" t="inlineStr">
+      <c r="Q45" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R45" s="3" t="inlineStr"/>
+      <c r="S45" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T45" s="2" t="inlineStr"/>
-      <c r="U45" s="2" t="inlineStr"/>
-      <c r="V45" s="2" t="inlineStr">
+      <c r="T45" s="3" t="inlineStr"/>
+      <c r="U45" s="3" t="inlineStr"/>
+      <c r="V45" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000196</t>
         </is>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>running</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr">
+      <c r="D46" s="3" t="inlineStr">
         <is>
           <t>locomotive behaviour</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr">
+      <c r="E46" s="3" t="inlineStr"/>
+      <c r="F46" s="3" t="inlineStr"/>
+      <c r="G46" s="3" t="inlineStr"/>
+      <c r="H46" s="3" t="inlineStr"/>
+      <c r="I46" s="3" t="inlineStr"/>
+      <c r="J46" s="3" t="inlineStr"/>
+      <c r="K46" s="3" t="inlineStr">
         <is>
           <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
 Also drew on:
 - COPPER:1011"</t>
         </is>
       </c>
-      <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
-      <c r="P46" s="2" t="inlineStr">
+      <c r="L46" s="3" t="inlineStr"/>
+      <c r="M46" s="3" t="inlineStr"/>
+      <c r="N46" s="3" t="inlineStr"/>
+      <c r="O46" s="3" t="inlineStr"/>
+      <c r="P46" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr">
+      <c r="Q46" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R46" s="3" t="inlineStr"/>
+      <c r="S46" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T46" s="2" t="inlineStr"/>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr">
+      <c r="T46" s="3" t="inlineStr"/>
+      <c r="U46" s="3" t="inlineStr"/>
+      <c r="V46" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -3255,56 +3267,56 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr"/>
+      <c r="F48" s="3" t="inlineStr"/>
+      <c r="G48" s="3" t="inlineStr"/>
+      <c r="H48" s="3" t="inlineStr"/>
+      <c r="I48" s="3" t="inlineStr"/>
+      <c r="J48" s="3" t="inlineStr"/>
+      <c r="K48" s="3" t="inlineStr"/>
+      <c r="L48" s="3" t="inlineStr"/>
+      <c r="M48" s="3" t="inlineStr"/>
+      <c r="N48" s="3" t="inlineStr"/>
+      <c r="O48" s="3" t="inlineStr"/>
+      <c r="P48" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr">
+      <c r="Q48" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R48" s="3" t="inlineStr"/>
+      <c r="S48" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T48" s="2" t="inlineStr"/>
-      <c r="U48" s="2" t="inlineStr"/>
-      <c r="V48" s="2" t="inlineStr">
+      <c r="T48" s="3" t="inlineStr"/>
+      <c r="U48" s="3" t="inlineStr"/>
+      <c r="V48" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3367,116 +3379,116 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000128</t>
         </is>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>treatment as usual control arm</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr">
+      <c r="D50" s="3" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr"/>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr"/>
-      <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr"/>
-      <c r="L50" s="2" t="inlineStr"/>
-      <c r="M50" s="2" t="inlineStr"/>
-      <c r="N50" s="2" t="inlineStr"/>
-      <c r="O50" s="2" t="inlineStr"/>
-      <c r="P50" s="2" t="inlineStr">
+      <c r="E50" s="3" t="inlineStr"/>
+      <c r="F50" s="3" t="inlineStr"/>
+      <c r="G50" s="3" t="inlineStr"/>
+      <c r="H50" s="3" t="inlineStr"/>
+      <c r="I50" s="3" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr"/>
+      <c r="K50" s="3" t="inlineStr"/>
+      <c r="L50" s="3" t="inlineStr"/>
+      <c r="M50" s="3" t="inlineStr"/>
+      <c r="N50" s="3" t="inlineStr"/>
+      <c r="O50" s="3" t="inlineStr"/>
+      <c r="P50" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q50" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr">
+      <c r="Q50" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R50" s="3" t="inlineStr"/>
+      <c r="S50" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T50" s="2" t="inlineStr"/>
-      <c r="U50" s="2" t="inlineStr">
+      <c r="T50" s="3" t="inlineStr"/>
+      <c r="U50" s="3" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V50" s="2" t="inlineStr"/>
+      <c r="V50" s="3" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000129</t>
         </is>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>waitlist control arm</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr">
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
-      <c r="P51" s="2" t="inlineStr">
+      <c r="E51" s="3" t="inlineStr"/>
+      <c r="F51" s="3" t="inlineStr"/>
+      <c r="G51" s="3" t="inlineStr"/>
+      <c r="H51" s="3" t="inlineStr"/>
+      <c r="I51" s="3" t="inlineStr"/>
+      <c r="J51" s="3" t="inlineStr"/>
+      <c r="K51" s="3" t="inlineStr"/>
+      <c r="L51" s="3" t="inlineStr"/>
+      <c r="M51" s="3" t="inlineStr"/>
+      <c r="N51" s="3" t="inlineStr"/>
+      <c r="O51" s="3" t="inlineStr"/>
+      <c r="P51" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q51" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="inlineStr">
+      <c r="Q51" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R51" s="3" t="inlineStr"/>
+      <c r="S51" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T51" s="2" t="inlineStr"/>
-      <c r="U51" s="2" t="inlineStr">
+      <c r="T51" s="3" t="inlineStr"/>
+      <c r="U51" s="3" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V51" s="2" t="inlineStr"/>
+      <c r="V51" s="3" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -45,6 +45,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
     <fill>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1482,7 +1488,7 @@
       <c r="R17" s="4" t="inlineStr"/>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T17" s="4" t="inlineStr"/>
@@ -1542,7 +1548,7 @@
       <c r="R18" s="4" t="inlineStr"/>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T18" s="4" t="inlineStr"/>
@@ -1942,7 +1948,7 @@
       <c r="R25" s="4" t="inlineStr"/>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T25" s="4" t="inlineStr"/>
@@ -2152,7 +2158,7 @@
       <c r="R28" s="4" t="inlineStr"/>
       <c r="S28" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T28" s="4" t="inlineStr">
@@ -2969,56 +2975,56 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr"/>
-      <c r="F43" s="3" t="inlineStr"/>
-      <c r="G43" s="3" t="inlineStr"/>
-      <c r="H43" s="3" t="inlineStr"/>
-      <c r="I43" s="3" t="inlineStr"/>
-      <c r="J43" s="3" t="inlineStr"/>
-      <c r="K43" s="3" t="inlineStr"/>
-      <c r="L43" s="3" t="inlineStr"/>
-      <c r="M43" s="3" t="inlineStr"/>
-      <c r="N43" s="3" t="inlineStr"/>
-      <c r="O43" s="3" t="inlineStr"/>
-      <c r="P43" s="3" t="inlineStr">
+      <c r="E43" s="5" t="inlineStr"/>
+      <c r="F43" s="5" t="inlineStr"/>
+      <c r="G43" s="5" t="inlineStr"/>
+      <c r="H43" s="5" t="inlineStr"/>
+      <c r="I43" s="5" t="inlineStr"/>
+      <c r="J43" s="5" t="inlineStr"/>
+      <c r="K43" s="5" t="inlineStr"/>
+      <c r="L43" s="5" t="inlineStr"/>
+      <c r="M43" s="5" t="inlineStr"/>
+      <c r="N43" s="5" t="inlineStr"/>
+      <c r="O43" s="5" t="inlineStr"/>
+      <c r="P43" s="5" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q43" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R43" s="3" t="inlineStr"/>
-      <c r="S43" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T43" s="3" t="inlineStr"/>
-      <c r="U43" s="3" t="inlineStr"/>
-      <c r="V43" s="3" t="inlineStr">
+      <c r="Q43" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R43" s="5" t="inlineStr"/>
+      <c r="S43" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T43" s="5" t="inlineStr"/>
+      <c r="U43" s="5" t="inlineStr"/>
+      <c r="V43" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -52,11 +52,6 @@
         <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2975,56 +2969,56 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="inlineStr">
+      <c r="A43" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C43" s="5" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D43" s="5" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E43" s="5" t="inlineStr"/>
-      <c r="F43" s="5" t="inlineStr"/>
-      <c r="G43" s="5" t="inlineStr"/>
-      <c r="H43" s="5" t="inlineStr"/>
-      <c r="I43" s="5" t="inlineStr"/>
-      <c r="J43" s="5" t="inlineStr"/>
-      <c r="K43" s="5" t="inlineStr"/>
-      <c r="L43" s="5" t="inlineStr"/>
-      <c r="M43" s="5" t="inlineStr"/>
-      <c r="N43" s="5" t="inlineStr"/>
-      <c r="O43" s="5" t="inlineStr"/>
-      <c r="P43" s="5" t="inlineStr">
+      <c r="E43" s="4" t="inlineStr"/>
+      <c r="F43" s="4" t="inlineStr"/>
+      <c r="G43" s="4" t="inlineStr"/>
+      <c r="H43" s="4" t="inlineStr"/>
+      <c r="I43" s="4" t="inlineStr"/>
+      <c r="J43" s="4" t="inlineStr"/>
+      <c r="K43" s="4" t="inlineStr"/>
+      <c r="L43" s="4" t="inlineStr"/>
+      <c r="M43" s="4" t="inlineStr"/>
+      <c r="N43" s="4" t="inlineStr"/>
+      <c r="O43" s="4" t="inlineStr"/>
+      <c r="P43" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q43" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R43" s="5" t="inlineStr"/>
-      <c r="S43" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T43" s="5" t="inlineStr"/>
-      <c r="U43" s="5" t="inlineStr"/>
-      <c r="V43" s="5" t="inlineStr">
+      <c r="Q43" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R43" s="4" t="inlineStr"/>
+      <c r="S43" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T43" s="4" t="inlineStr"/>
+      <c r="U43" s="4" t="inlineStr"/>
+      <c r="V43" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3267,187 +3267,187 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>STATO:0000039</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>statistic</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D48" s="3" t="inlineStr">
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E48" s="3" t="inlineStr"/>
-      <c r="F48" s="3" t="inlineStr"/>
-      <c r="G48" s="3" t="inlineStr"/>
-      <c r="H48" s="3" t="inlineStr"/>
-      <c r="I48" s="3" t="inlineStr"/>
-      <c r="J48" s="3" t="inlineStr"/>
-      <c r="K48" s="3" t="inlineStr"/>
-      <c r="L48" s="3" t="inlineStr"/>
-      <c r="M48" s="3" t="inlineStr"/>
-      <c r="N48" s="3" t="inlineStr"/>
-      <c r="O48" s="3" t="inlineStr"/>
-      <c r="P48" s="3" t="inlineStr">
+      <c r="E49" s="3" t="inlineStr"/>
+      <c r="F49" s="3" t="inlineStr"/>
+      <c r="G49" s="3" t="inlineStr"/>
+      <c r="H49" s="3" t="inlineStr"/>
+      <c r="I49" s="3" t="inlineStr"/>
+      <c r="J49" s="3" t="inlineStr"/>
+      <c r="K49" s="3" t="inlineStr"/>
+      <c r="L49" s="3" t="inlineStr"/>
+      <c r="M49" s="3" t="inlineStr"/>
+      <c r="N49" s="3" t="inlineStr"/>
+      <c r="O49" s="3" t="inlineStr"/>
+      <c r="P49" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q48" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R48" s="3" t="inlineStr"/>
-      <c r="S48" s="3" t="inlineStr">
+      <c r="Q49" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R49" s="3" t="inlineStr"/>
+      <c r="S49" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T48" s="3" t="inlineStr"/>
-      <c r="U48" s="3" t="inlineStr"/>
-      <c r="V48" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="T49" s="3" t="inlineStr"/>
+      <c r="U49" s="3" t="inlineStr"/>
+      <c r="V49" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000128</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>treatment as usual control arm</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr"/>
-      <c r="F50" s="3" t="inlineStr"/>
-      <c r="G50" s="3" t="inlineStr"/>
-      <c r="H50" s="3" t="inlineStr"/>
-      <c r="I50" s="3" t="inlineStr"/>
-      <c r="J50" s="3" t="inlineStr"/>
-      <c r="K50" s="3" t="inlineStr"/>
-      <c r="L50" s="3" t="inlineStr"/>
-      <c r="M50" s="3" t="inlineStr"/>
-      <c r="N50" s="3" t="inlineStr"/>
-      <c r="O50" s="3" t="inlineStr"/>
-      <c r="P50" s="3" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q50" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R50" s="3" t="inlineStr"/>
-      <c r="S50" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T50" s="3" t="inlineStr"/>
-      <c r="U50" s="3" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V50" s="3" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000129</t>
+          <t>GMHO:0000128</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>waitlist control arm</t>
+          <t>treatment as usual control arm</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -3491,80 +3491,80 @@
       <c r="V51" s="3" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000129</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>waitlist control arm</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr"/>
+      <c r="F52" s="3" t="inlineStr"/>
+      <c r="G52" s="3" t="inlineStr"/>
+      <c r="H52" s="3" t="inlineStr"/>
+      <c r="I52" s="3" t="inlineStr"/>
+      <c r="J52" s="3" t="inlineStr"/>
+      <c r="K52" s="3" t="inlineStr"/>
+      <c r="L52" s="3" t="inlineStr"/>
+      <c r="M52" s="3" t="inlineStr"/>
+      <c r="N52" s="3" t="inlineStr"/>
+      <c r="O52" s="3" t="inlineStr"/>
+      <c r="P52" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="Q52" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R52" s="3" t="inlineStr"/>
+      <c r="S52" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T52" s="3" t="inlineStr"/>
+      <c r="U52" s="3" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V52" s="3" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3580,7 +3580,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -3605,22 +3605,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IAO:0000590</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A textual entity that denotes a particular in reality.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3636,7 +3636,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -3653,6 +3653,62 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>IAO:0000590</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A textual entity that denotes a particular in reality.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2969,220 +2969,214 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="inlineStr">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>IAO:0000104</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>plan specification</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>directive information entity</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D43" s="4" t="inlineStr">
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr"/>
-      <c r="F43" s="4" t="inlineStr"/>
-      <c r="G43" s="4" t="inlineStr"/>
-      <c r="H43" s="4" t="inlineStr"/>
-      <c r="I43" s="4" t="inlineStr"/>
-      <c r="J43" s="4" t="inlineStr"/>
-      <c r="K43" s="4" t="inlineStr"/>
-      <c r="L43" s="4" t="inlineStr"/>
-      <c r="M43" s="4" t="inlineStr"/>
-      <c r="N43" s="4" t="inlineStr"/>
-      <c r="O43" s="4" t="inlineStr"/>
-      <c r="P43" s="4" t="inlineStr">
+      <c r="E44" s="4" t="inlineStr"/>
+      <c r="F44" s="4" t="inlineStr"/>
+      <c r="G44" s="4" t="inlineStr"/>
+      <c r="H44" s="4" t="inlineStr"/>
+      <c r="I44" s="4" t="inlineStr"/>
+      <c r="J44" s="4" t="inlineStr"/>
+      <c r="K44" s="4" t="inlineStr"/>
+      <c r="L44" s="4" t="inlineStr"/>
+      <c r="M44" s="4" t="inlineStr"/>
+      <c r="N44" s="4" t="inlineStr"/>
+      <c r="O44" s="4" t="inlineStr"/>
+      <c r="P44" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q43" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R43" s="4" t="inlineStr"/>
-      <c r="S43" s="4" t="inlineStr">
+      <c r="Q44" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R44" s="4" t="inlineStr"/>
+      <c r="S44" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T43" s="4" t="inlineStr"/>
-      <c r="U43" s="4" t="inlineStr"/>
-      <c r="V43" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="T44" s="4" t="inlineStr"/>
+      <c r="U44" s="4" t="inlineStr"/>
+      <c r="V44" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr">
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000195</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>resistance training behaviour</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr"/>
-      <c r="F45" s="3" t="inlineStr"/>
-      <c r="G45" s="3" t="inlineStr">
-        <is>
-          <t>resistance training, strength training</t>
-        </is>
-      </c>
-      <c r="H45" s="3" t="inlineStr"/>
-      <c r="I45" s="3" t="inlineStr"/>
-      <c r="J45" s="3" t="inlineStr"/>
-      <c r="K45" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
-        </is>
-      </c>
-      <c r="L45" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> COPPER:1005</t>
-        </is>
-      </c>
-      <c r="M45" s="3" t="inlineStr"/>
-      <c r="N45" s="3" t="inlineStr"/>
-      <c r="O45" s="3" t="inlineStr"/>
-      <c r="P45" s="3" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q45" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R45" s="3" t="inlineStr"/>
-      <c r="S45" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T45" s="3" t="inlineStr"/>
-      <c r="U45" s="3" t="inlineStr"/>
-      <c r="V45" s="3" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000196</t>
+          <t>GMHO:0000195</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>resistance training behaviour</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr"/>
       <c r="F46" s="3" t="inlineStr"/>
-      <c r="G46" s="3" t="inlineStr"/>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>resistance training, strength training</t>
+        </is>
+      </c>
       <c r="H46" s="3" t="inlineStr"/>
       <c r="I46" s="3" t="inlineStr"/>
       <c r="J46" s="3" t="inlineStr"/>
       <c r="K46" s="3" t="inlineStr">
         <is>
-          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
-Also drew on:
-- COPPER:1011"</t>
-        </is>
-      </c>
-      <c r="L46" s="3" t="inlineStr"/>
+          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
+        </is>
+      </c>
+      <c r="L46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPPER:1005</t>
+        </is>
+      </c>
       <c r="M46" s="3" t="inlineStr"/>
       <c r="N46" s="3" t="inlineStr"/>
       <c r="O46" s="3" t="inlineStr"/>
@@ -3211,80 +3205,86 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>BCIO:011034</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mode of delivery</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>PS</t>
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000196</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr"/>
+      <c r="F47" s="3" t="inlineStr"/>
+      <c r="G47" s="3" t="inlineStr"/>
+      <c r="H47" s="3" t="inlineStr"/>
+      <c r="I47" s="3" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr"/>
+      <c r="K47" s="3" t="inlineStr">
+        <is>
+          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
+Also drew on:
+- COPPER:1011"</t>
+        </is>
+      </c>
+      <c r="L47" s="3" t="inlineStr"/>
+      <c r="M47" s="3" t="inlineStr"/>
+      <c r="N47" s="3" t="inlineStr"/>
+      <c r="O47" s="3" t="inlineStr"/>
+      <c r="P47" s="3" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q47" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R47" s="3" t="inlineStr"/>
+      <c r="S47" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T47" s="3" t="inlineStr"/>
+      <c r="U47" s="3" t="inlineStr"/>
+      <c r="V47" s="3" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>STATO:0000039</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>statistic</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -3300,7 +3300,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -3323,187 +3323,187 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>STATO:0000039</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>statistic</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr">
+      <c r="D50" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E49" s="3" t="inlineStr"/>
-      <c r="F49" s="3" t="inlineStr"/>
-      <c r="G49" s="3" t="inlineStr"/>
-      <c r="H49" s="3" t="inlineStr"/>
-      <c r="I49" s="3" t="inlineStr"/>
-      <c r="J49" s="3" t="inlineStr"/>
-      <c r="K49" s="3" t="inlineStr"/>
-      <c r="L49" s="3" t="inlineStr"/>
-      <c r="M49" s="3" t="inlineStr"/>
-      <c r="N49" s="3" t="inlineStr"/>
-      <c r="O49" s="3" t="inlineStr"/>
-      <c r="P49" s="3" t="inlineStr">
+      <c r="E50" s="3" t="inlineStr"/>
+      <c r="F50" s="3" t="inlineStr"/>
+      <c r="G50" s="3" t="inlineStr"/>
+      <c r="H50" s="3" t="inlineStr"/>
+      <c r="I50" s="3" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr"/>
+      <c r="K50" s="3" t="inlineStr"/>
+      <c r="L50" s="3" t="inlineStr"/>
+      <c r="M50" s="3" t="inlineStr"/>
+      <c r="N50" s="3" t="inlineStr"/>
+      <c r="O50" s="3" t="inlineStr"/>
+      <c r="P50" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q49" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R49" s="3" t="inlineStr"/>
-      <c r="S49" s="3" t="inlineStr">
+      <c r="Q50" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R50" s="3" t="inlineStr"/>
+      <c r="S50" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T49" s="3" t="inlineStr"/>
-      <c r="U49" s="3" t="inlineStr"/>
-      <c r="V49" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="T50" s="3" t="inlineStr"/>
+      <c r="U50" s="3" t="inlineStr"/>
+      <c r="V50" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr">
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000128</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>treatment as usual control arm</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="inlineStr"/>
-      <c r="F51" s="3" t="inlineStr"/>
-      <c r="G51" s="3" t="inlineStr"/>
-      <c r="H51" s="3" t="inlineStr"/>
-      <c r="I51" s="3" t="inlineStr"/>
-      <c r="J51" s="3" t="inlineStr"/>
-      <c r="K51" s="3" t="inlineStr"/>
-      <c r="L51" s="3" t="inlineStr"/>
-      <c r="M51" s="3" t="inlineStr"/>
-      <c r="N51" s="3" t="inlineStr"/>
-      <c r="O51" s="3" t="inlineStr"/>
-      <c r="P51" s="3" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q51" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R51" s="3" t="inlineStr"/>
-      <c r="S51" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T51" s="3" t="inlineStr"/>
-      <c r="U51" s="3" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V51" s="3" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000129</t>
+          <t>GMHO:0000128</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>waitlist control arm</t>
+          <t>treatment as usual control arm</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -3547,80 +3547,80 @@
       <c r="V52" s="3" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000129</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>waitlist control arm</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr"/>
+      <c r="F53" s="3" t="inlineStr"/>
+      <c r="G53" s="3" t="inlineStr"/>
+      <c r="H53" s="3" t="inlineStr"/>
+      <c r="I53" s="3" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr"/>
+      <c r="K53" s="3" t="inlineStr"/>
+      <c r="L53" s="3" t="inlineStr"/>
+      <c r="M53" s="3" t="inlineStr"/>
+      <c r="N53" s="3" t="inlineStr"/>
+      <c r="O53" s="3" t="inlineStr"/>
+      <c r="P53" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="Q53" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R53" s="3" t="inlineStr"/>
+      <c r="S53" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T53" s="3" t="inlineStr"/>
+      <c r="U53" s="3" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V53" s="3" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3636,7 +3636,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -3661,22 +3661,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IAO:0000590</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A textual entity that denotes a particular in reality.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3692,7 +3692,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -3709,6 +3709,62 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>IAO:0000590</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A textual entity that denotes a particular in reality.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,11 @@
         <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3379,56 +3385,56 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+      <c r="A50" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C50" s="5" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="D50" s="5" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E50" s="3" t="inlineStr"/>
-      <c r="F50" s="3" t="inlineStr"/>
-      <c r="G50" s="3" t="inlineStr"/>
-      <c r="H50" s="3" t="inlineStr"/>
-      <c r="I50" s="3" t="inlineStr"/>
-      <c r="J50" s="3" t="inlineStr"/>
-      <c r="K50" s="3" t="inlineStr"/>
-      <c r="L50" s="3" t="inlineStr"/>
-      <c r="M50" s="3" t="inlineStr"/>
-      <c r="N50" s="3" t="inlineStr"/>
-      <c r="O50" s="3" t="inlineStr"/>
-      <c r="P50" s="3" t="inlineStr">
+      <c r="E50" s="5" t="inlineStr"/>
+      <c r="F50" s="5" t="inlineStr"/>
+      <c r="G50" s="5" t="inlineStr"/>
+      <c r="H50" s="5" t="inlineStr"/>
+      <c r="I50" s="5" t="inlineStr"/>
+      <c r="J50" s="5" t="inlineStr"/>
+      <c r="K50" s="5" t="inlineStr"/>
+      <c r="L50" s="5" t="inlineStr"/>
+      <c r="M50" s="5" t="inlineStr"/>
+      <c r="N50" s="5" t="inlineStr"/>
+      <c r="O50" s="5" t="inlineStr"/>
+      <c r="P50" s="5" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q50" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R50" s="3" t="inlineStr"/>
-      <c r="S50" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T50" s="3" t="inlineStr"/>
-      <c r="U50" s="3" t="inlineStr"/>
-      <c r="V50" s="3" t="inlineStr">
+      <c r="Q50" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R50" s="5" t="inlineStr"/>
+      <c r="S50" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T50" s="5" t="inlineStr"/>
+      <c r="U50" s="5" t="inlineStr"/>
+      <c r="V50" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -52,11 +52,6 @@
         <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3385,56 +3379,56 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="inlineStr">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B50" s="5" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C50" s="5" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D50" s="5" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E50" s="5" t="inlineStr"/>
-      <c r="F50" s="5" t="inlineStr"/>
-      <c r="G50" s="5" t="inlineStr"/>
-      <c r="H50" s="5" t="inlineStr"/>
-      <c r="I50" s="5" t="inlineStr"/>
-      <c r="J50" s="5" t="inlineStr"/>
-      <c r="K50" s="5" t="inlineStr"/>
-      <c r="L50" s="5" t="inlineStr"/>
-      <c r="M50" s="5" t="inlineStr"/>
-      <c r="N50" s="5" t="inlineStr"/>
-      <c r="O50" s="5" t="inlineStr"/>
-      <c r="P50" s="5" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr"/>
+      <c r="F50" s="4" t="inlineStr"/>
+      <c r="G50" s="4" t="inlineStr"/>
+      <c r="H50" s="4" t="inlineStr"/>
+      <c r="I50" s="4" t="inlineStr"/>
+      <c r="J50" s="4" t="inlineStr"/>
+      <c r="K50" s="4" t="inlineStr"/>
+      <c r="L50" s="4" t="inlineStr"/>
+      <c r="M50" s="4" t="inlineStr"/>
+      <c r="N50" s="4" t="inlineStr"/>
+      <c r="O50" s="4" t="inlineStr"/>
+      <c r="P50" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q50" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R50" s="5" t="inlineStr"/>
-      <c r="S50" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T50" s="5" t="inlineStr"/>
-      <c r="U50" s="5" t="inlineStr"/>
-      <c r="V50" s="5" t="inlineStr">
+      <c r="Q50" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R50" s="4" t="inlineStr"/>
+      <c r="S50" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T50" s="4" t="inlineStr"/>
+      <c r="U50" s="4" t="inlineStr"/>
+      <c r="V50" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2457,228 +2457,224 @@
       <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>IAO:0000109</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000008</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>minimum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="P34" s="2" t="inlineStr">
+      <c r="P35" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr"/>
-      <c r="S34" s="2" t="inlineStr">
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr"/>
+      <c r="S35" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T34" s="2" t="inlineStr"/>
-      <c r="U34" s="2" t="inlineStr">
+      <c r="T35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V34" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>STATO:0000150</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>A data item which denotes the smallest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr">
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000126</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>no treatment control arm</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>A control arm designation where there is no intervention.</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E36" s="3" t="inlineStr"/>
-      <c r="F36" s="3" t="inlineStr"/>
-      <c r="G36" s="3" t="inlineStr"/>
-      <c r="H36" s="3" t="inlineStr"/>
-      <c r="I36" s="3" t="inlineStr"/>
-      <c r="J36" s="3" t="inlineStr"/>
-      <c r="K36" s="3" t="inlineStr"/>
-      <c r="L36" s="3" t="inlineStr"/>
-      <c r="M36" s="3" t="inlineStr"/>
-      <c r="N36" s="3" t="inlineStr"/>
-      <c r="O36" s="3" t="inlineStr"/>
-      <c r="P36" s="3" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr"/>
+      <c r="F37" s="3" t="inlineStr"/>
+      <c r="G37" s="3" t="inlineStr"/>
+      <c r="H37" s="3" t="inlineStr"/>
+      <c r="I37" s="3" t="inlineStr"/>
+      <c r="J37" s="3" t="inlineStr"/>
+      <c r="K37" s="3" t="inlineStr"/>
+      <c r="L37" s="3" t="inlineStr"/>
+      <c r="M37" s="3" t="inlineStr"/>
+      <c r="N37" s="3" t="inlineStr"/>
+      <c r="O37" s="3" t="inlineStr"/>
+      <c r="P37" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q36" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R36" s="3" t="inlineStr"/>
-      <c r="S36" s="3" t="inlineStr">
+      <c r="Q37" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R37" s="3" t="inlineStr"/>
+      <c r="S37" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T36" s="3" t="inlineStr"/>
-      <c r="U36" s="3" t="inlineStr"/>
-      <c r="V36" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>BCIO:008515</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>number of contact events</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A data item that is the number of contact events in an intervention temporal part.</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
+      <c r="T37" s="3" t="inlineStr"/>
+      <c r="U37" s="3" t="inlineStr"/>
+      <c r="V37" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2687,22 +2683,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>number of contact events</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+          <t>A data item that is the number of contact events in an intervention temporal part.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2722,7 +2718,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -2747,22 +2743,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>person source role</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2770,7 +2766,11 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2778,7 +2778,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -2794,27 +2794,31 @@
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t>person source role</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>behaviour change intervention source</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2846,63 +2850,59 @@
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000194</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E41" s="3" t="inlineStr"/>
-      <c r="F41" s="3" t="inlineStr"/>
-      <c r="G41" s="3" t="inlineStr"/>
-      <c r="H41" s="3" t="inlineStr"/>
-      <c r="I41" s="3" t="inlineStr"/>
-      <c r="J41" s="3" t="inlineStr"/>
-      <c r="K41" s="3" t="inlineStr"/>
-      <c r="L41" s="3" t="inlineStr"/>
-      <c r="M41" s="3" t="inlineStr"/>
-      <c r="N41" s="3" t="inlineStr"/>
-      <c r="O41" s="3" t="inlineStr"/>
-      <c r="P41" s="3" t="inlineStr">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BCIO:036042</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q41" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R41" s="3" t="inlineStr"/>
-      <c r="S41" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T41" s="3" t="inlineStr"/>
-      <c r="U41" s="3" t="inlineStr"/>
-      <c r="V41" s="3" t="inlineStr">
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2911,22 +2911,22 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000009</t>
+          <t>GMHO:0000194</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>placebo intervention</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr"/>
@@ -2942,7 +2942,7 @@
       <c r="O42" s="3" t="inlineStr"/>
       <c r="P42" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q42" s="3" t="inlineStr">
@@ -2957,288 +2957,282 @@
         </is>
       </c>
       <c r="T42" s="3" t="inlineStr"/>
-      <c r="U42" s="3" t="inlineStr">
+      <c r="U42" s="3" t="inlineStr"/>
+      <c r="V42" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000009</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>placebo intervention</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr"/>
+      <c r="F43" s="3" t="inlineStr"/>
+      <c r="G43" s="3" t="inlineStr"/>
+      <c r="H43" s="3" t="inlineStr"/>
+      <c r="I43" s="3" t="inlineStr"/>
+      <c r="J43" s="3" t="inlineStr"/>
+      <c r="K43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="inlineStr"/>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr"/>
+      <c r="O43" s="3" t="inlineStr"/>
+      <c r="P43" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q43" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R43" s="3" t="inlineStr"/>
+      <c r="S43" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T43" s="3" t="inlineStr"/>
+      <c r="U43" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V42" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="V43" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>IAO:0000104</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>directive information entity</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr">
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D44" s="4" t="inlineStr">
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr"/>
-      <c r="F44" s="4" t="inlineStr"/>
-      <c r="G44" s="4" t="inlineStr"/>
-      <c r="H44" s="4" t="inlineStr"/>
-      <c r="I44" s="4" t="inlineStr"/>
-      <c r="J44" s="4" t="inlineStr"/>
-      <c r="K44" s="4" t="inlineStr"/>
-      <c r="L44" s="4" t="inlineStr"/>
-      <c r="M44" s="4" t="inlineStr"/>
-      <c r="N44" s="4" t="inlineStr"/>
-      <c r="O44" s="4" t="inlineStr"/>
-      <c r="P44" s="4" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr"/>
+      <c r="F45" s="4" t="inlineStr"/>
+      <c r="G45" s="4" t="inlineStr"/>
+      <c r="H45" s="4" t="inlineStr"/>
+      <c r="I45" s="4" t="inlineStr"/>
+      <c r="J45" s="4" t="inlineStr"/>
+      <c r="K45" s="4" t="inlineStr"/>
+      <c r="L45" s="4" t="inlineStr"/>
+      <c r="M45" s="4" t="inlineStr"/>
+      <c r="N45" s="4" t="inlineStr"/>
+      <c r="O45" s="4" t="inlineStr"/>
+      <c r="P45" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q44" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R44" s="4" t="inlineStr"/>
-      <c r="S44" s="4" t="inlineStr">
+      <c r="Q45" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R45" s="4" t="inlineStr"/>
+      <c r="S45" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T44" s="4" t="inlineStr"/>
-      <c r="U44" s="4" t="inlineStr"/>
-      <c r="V44" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="T45" s="4" t="inlineStr"/>
+      <c r="U45" s="4" t="inlineStr"/>
+      <c r="V45" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr">
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000195</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>resistance training behaviour</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="inlineStr"/>
-      <c r="F46" s="3" t="inlineStr"/>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>resistance training, strength training</t>
-        </is>
-      </c>
-      <c r="H46" s="3" t="inlineStr"/>
-      <c r="I46" s="3" t="inlineStr"/>
-      <c r="J46" s="3" t="inlineStr"/>
-      <c r="K46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
-        </is>
-      </c>
-      <c r="L46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> COPPER:1005</t>
-        </is>
-      </c>
-      <c r="M46" s="3" t="inlineStr"/>
-      <c r="N46" s="3" t="inlineStr"/>
-      <c r="O46" s="3" t="inlineStr"/>
-      <c r="P46" s="3" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q46" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R46" s="3" t="inlineStr"/>
-      <c r="S46" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T46" s="3" t="inlineStr"/>
-      <c r="U46" s="3" t="inlineStr"/>
-      <c r="V46" s="3" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000196</t>
+          <t>GMHO:0000195</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>resistance training behaviour</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr"/>
       <c r="F47" s="3" t="inlineStr"/>
-      <c r="G47" s="3" t="inlineStr"/>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>resistance training, strength training</t>
+        </is>
+      </c>
       <c r="H47" s="3" t="inlineStr"/>
       <c r="I47" s="3" t="inlineStr"/>
       <c r="J47" s="3" t="inlineStr"/>
       <c r="K47" s="3" t="inlineStr">
         <is>
-          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
-Also drew on:
-- COPPER:1011"</t>
-        </is>
-      </c>
-      <c r="L47" s="3" t="inlineStr"/>
+          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
+        </is>
+      </c>
+      <c r="L47" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPPER:1005</t>
+        </is>
+      </c>
       <c r="M47" s="3" t="inlineStr"/>
       <c r="N47" s="3" t="inlineStr"/>
       <c r="O47" s="3" t="inlineStr"/>
@@ -3267,80 +3261,86 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>BCIO:011034</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mode of delivery</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>PS</t>
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000196</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr"/>
+      <c r="F48" s="3" t="inlineStr"/>
+      <c r="G48" s="3" t="inlineStr"/>
+      <c r="H48" s="3" t="inlineStr"/>
+      <c r="I48" s="3" t="inlineStr"/>
+      <c r="J48" s="3" t="inlineStr"/>
+      <c r="K48" s="3" t="inlineStr">
+        <is>
+          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
+Also drew on:
+- COPPER:1011"</t>
+        </is>
+      </c>
+      <c r="L48" s="3" t="inlineStr"/>
+      <c r="M48" s="3" t="inlineStr"/>
+      <c r="N48" s="3" t="inlineStr"/>
+      <c r="O48" s="3" t="inlineStr"/>
+      <c r="P48" s="3" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q48" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R48" s="3" t="inlineStr"/>
+      <c r="S48" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T48" s="3" t="inlineStr"/>
+      <c r="U48" s="3" t="inlineStr"/>
+      <c r="V48" s="3" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>STATO:0000039</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>statistic</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3356,7 +3356,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -3379,187 +3379,187 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="inlineStr">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>STATO:0000039</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>statistic</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D50" s="4" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr"/>
-      <c r="F50" s="4" t="inlineStr"/>
-      <c r="G50" s="4" t="inlineStr"/>
-      <c r="H50" s="4" t="inlineStr"/>
-      <c r="I50" s="4" t="inlineStr"/>
-      <c r="J50" s="4" t="inlineStr"/>
-      <c r="K50" s="4" t="inlineStr"/>
-      <c r="L50" s="4" t="inlineStr"/>
-      <c r="M50" s="4" t="inlineStr"/>
-      <c r="N50" s="4" t="inlineStr"/>
-      <c r="O50" s="4" t="inlineStr"/>
-      <c r="P50" s="4" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr"/>
+      <c r="F51" s="4" t="inlineStr"/>
+      <c r="G51" s="4" t="inlineStr"/>
+      <c r="H51" s="4" t="inlineStr"/>
+      <c r="I51" s="4" t="inlineStr"/>
+      <c r="J51" s="4" t="inlineStr"/>
+      <c r="K51" s="4" t="inlineStr"/>
+      <c r="L51" s="4" t="inlineStr"/>
+      <c r="M51" s="4" t="inlineStr"/>
+      <c r="N51" s="4" t="inlineStr"/>
+      <c r="O51" s="4" t="inlineStr"/>
+      <c r="P51" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q50" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R50" s="4" t="inlineStr"/>
-      <c r="S50" s="4" t="inlineStr">
+      <c r="Q51" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R51" s="4" t="inlineStr"/>
+      <c r="S51" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T50" s="4" t="inlineStr"/>
-      <c r="U50" s="4" t="inlineStr"/>
-      <c r="V50" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="T51" s="4" t="inlineStr"/>
+      <c r="U51" s="4" t="inlineStr"/>
+      <c r="V51" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr">
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr">
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000128</t>
-        </is>
-      </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>treatment as usual control arm</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E52" s="3" t="inlineStr"/>
-      <c r="F52" s="3" t="inlineStr"/>
-      <c r="G52" s="3" t="inlineStr"/>
-      <c r="H52" s="3" t="inlineStr"/>
-      <c r="I52" s="3" t="inlineStr"/>
-      <c r="J52" s="3" t="inlineStr"/>
-      <c r="K52" s="3" t="inlineStr"/>
-      <c r="L52" s="3" t="inlineStr"/>
-      <c r="M52" s="3" t="inlineStr"/>
-      <c r="N52" s="3" t="inlineStr"/>
-      <c r="O52" s="3" t="inlineStr"/>
-      <c r="P52" s="3" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q52" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R52" s="3" t="inlineStr"/>
-      <c r="S52" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T52" s="3" t="inlineStr"/>
-      <c r="U52" s="3" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V52" s="3" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000129</t>
+          <t>GMHO:0000128</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>waitlist control arm</t>
+          <t>treatment as usual control arm</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -3603,80 +3603,80 @@
       <c r="V53" s="3" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000129</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>waitlist control arm</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr"/>
+      <c r="F54" s="3" t="inlineStr"/>
+      <c r="G54" s="3" t="inlineStr"/>
+      <c r="H54" s="3" t="inlineStr"/>
+      <c r="I54" s="3" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr"/>
+      <c r="K54" s="3" t="inlineStr"/>
+      <c r="L54" s="3" t="inlineStr"/>
+      <c r="M54" s="3" t="inlineStr"/>
+      <c r="N54" s="3" t="inlineStr"/>
+      <c r="O54" s="3" t="inlineStr"/>
+      <c r="P54" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="Q54" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R54" s="3" t="inlineStr"/>
+      <c r="S54" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T54" s="3" t="inlineStr"/>
+      <c r="U54" s="3" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V54" s="3" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3692,7 +3692,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -3717,22 +3717,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IAO:0000590</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A textual entity that denotes a particular in reality.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3748,7 +3748,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -3765,6 +3765,62 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>IAO:0000590</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A textual entity that denotes a particular in reality.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,11 @@
         <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1842,56 +1848,56 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000123</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>intervention arm</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr"/>
-      <c r="G24" s="3" t="inlineStr"/>
-      <c r="H24" s="3" t="inlineStr"/>
-      <c r="I24" s="3" t="inlineStr"/>
-      <c r="J24" s="3" t="inlineStr"/>
-      <c r="K24" s="3" t="inlineStr"/>
-      <c r="L24" s="3" t="inlineStr"/>
-      <c r="M24" s="3" t="inlineStr"/>
-      <c r="N24" s="3" t="inlineStr"/>
-      <c r="O24" s="3" t="inlineStr"/>
-      <c r="P24" s="3" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr"/>
+      <c r="F24" s="5" t="inlineStr"/>
+      <c r="G24" s="5" t="inlineStr"/>
+      <c r="H24" s="5" t="inlineStr"/>
+      <c r="I24" s="5" t="inlineStr"/>
+      <c r="J24" s="5" t="inlineStr"/>
+      <c r="K24" s="5" t="inlineStr"/>
+      <c r="L24" s="5" t="inlineStr"/>
+      <c r="M24" s="5" t="inlineStr"/>
+      <c r="N24" s="5" t="inlineStr"/>
+      <c r="O24" s="5" t="inlineStr"/>
+      <c r="P24" s="5" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q24" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R24" s="3" t="inlineStr"/>
-      <c r="S24" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T24" s="3" t="inlineStr"/>
-      <c r="U24" s="3" t="inlineStr"/>
-      <c r="V24" s="3" t="inlineStr">
+      <c r="Q24" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R24" s="5" t="inlineStr"/>
+      <c r="S24" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T24" s="5" t="inlineStr"/>
+      <c r="U24" s="5" t="inlineStr"/>
+      <c r="V24" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -52,11 +52,6 @@
         <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1848,56 +1842,56 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000123</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>intervention arm</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D24" s="5" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr"/>
+      <c r="F24" s="4" t="inlineStr"/>
+      <c r="G24" s="4" t="inlineStr"/>
+      <c r="H24" s="4" t="inlineStr"/>
+      <c r="I24" s="4" t="inlineStr"/>
+      <c r="J24" s="4" t="inlineStr"/>
+      <c r="K24" s="4" t="inlineStr"/>
+      <c r="L24" s="4" t="inlineStr"/>
+      <c r="M24" s="4" t="inlineStr"/>
+      <c r="N24" s="4" t="inlineStr"/>
+      <c r="O24" s="4" t="inlineStr"/>
+      <c r="P24" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q24" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R24" s="5" t="inlineStr"/>
-      <c r="S24" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T24" s="5" t="inlineStr"/>
-      <c r="U24" s="5" t="inlineStr"/>
-      <c r="V24" s="5" t="inlineStr">
+      <c r="Q24" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R24" s="4" t="inlineStr"/>
+      <c r="S24" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T24" s="4" t="inlineStr"/>
+      <c r="U24" s="4" t="inlineStr"/>
+      <c r="V24" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2909,80 +2909,76 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000194</t>
-        </is>
-      </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E42" s="3" t="inlineStr"/>
-      <c r="F42" s="3" t="inlineStr"/>
-      <c r="G42" s="3" t="inlineStr"/>
-      <c r="H42" s="3" t="inlineStr"/>
-      <c r="I42" s="3" t="inlineStr"/>
-      <c r="J42" s="3" t="inlineStr"/>
-      <c r="K42" s="3" t="inlineStr"/>
-      <c r="L42" s="3" t="inlineStr"/>
-      <c r="M42" s="3" t="inlineStr"/>
-      <c r="N42" s="3" t="inlineStr"/>
-      <c r="O42" s="3" t="inlineStr"/>
-      <c r="P42" s="3" t="inlineStr">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BCIO:036042</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">individual human behaviour </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q42" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R42" s="3" t="inlineStr"/>
-      <c r="S42" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T42" s="3" t="inlineStr"/>
-      <c r="U42" s="3" t="inlineStr"/>
-      <c r="V42" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000009</t>
+          <t>GMHO:0000194</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>placebo intervention</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr"/>
@@ -2998,7 +2994,7 @@
       <c r="O43" s="3" t="inlineStr"/>
       <c r="P43" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q43" s="3" t="inlineStr">
@@ -3013,288 +3009,282 @@
         </is>
       </c>
       <c r="T43" s="3" t="inlineStr"/>
-      <c r="U43" s="3" t="inlineStr">
+      <c r="U43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000009</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>placebo intervention</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr"/>
+      <c r="F44" s="3" t="inlineStr"/>
+      <c r="G44" s="3" t="inlineStr"/>
+      <c r="H44" s="3" t="inlineStr"/>
+      <c r="I44" s="3" t="inlineStr"/>
+      <c r="J44" s="3" t="inlineStr"/>
+      <c r="K44" s="3" t="inlineStr"/>
+      <c r="L44" s="3" t="inlineStr"/>
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr"/>
+      <c r="O44" s="3" t="inlineStr"/>
+      <c r="P44" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q44" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R44" s="3" t="inlineStr"/>
+      <c r="S44" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T44" s="3" t="inlineStr"/>
+      <c r="U44" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V43" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="V44" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>IAO:0000104</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>directive information entity</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr">
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="inlineStr">
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D45" s="4" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr"/>
-      <c r="F45" s="4" t="inlineStr"/>
-      <c r="G45" s="4" t="inlineStr"/>
-      <c r="H45" s="4" t="inlineStr"/>
-      <c r="I45" s="4" t="inlineStr"/>
-      <c r="J45" s="4" t="inlineStr"/>
-      <c r="K45" s="4" t="inlineStr"/>
-      <c r="L45" s="4" t="inlineStr"/>
-      <c r="M45" s="4" t="inlineStr"/>
-      <c r="N45" s="4" t="inlineStr"/>
-      <c r="O45" s="4" t="inlineStr"/>
-      <c r="P45" s="4" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr"/>
+      <c r="F46" s="4" t="inlineStr"/>
+      <c r="G46" s="4" t="inlineStr"/>
+      <c r="H46" s="4" t="inlineStr"/>
+      <c r="I46" s="4" t="inlineStr"/>
+      <c r="J46" s="4" t="inlineStr"/>
+      <c r="K46" s="4" t="inlineStr"/>
+      <c r="L46" s="4" t="inlineStr"/>
+      <c r="M46" s="4" t="inlineStr"/>
+      <c r="N46" s="4" t="inlineStr"/>
+      <c r="O46" s="4" t="inlineStr"/>
+      <c r="P46" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q45" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R45" s="4" t="inlineStr"/>
-      <c r="S45" s="4" t="inlineStr">
+      <c r="Q46" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R46" s="4" t="inlineStr"/>
+      <c r="S46" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T45" s="4" t="inlineStr"/>
-      <c r="U45" s="4" t="inlineStr"/>
-      <c r="V45" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="T46" s="4" t="inlineStr"/>
+      <c r="U46" s="4" t="inlineStr"/>
+      <c r="V46" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr">
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000195</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>resistance training behaviour</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="inlineStr"/>
-      <c r="F47" s="3" t="inlineStr"/>
-      <c r="G47" s="3" t="inlineStr">
-        <is>
-          <t>resistance training, strength training</t>
-        </is>
-      </c>
-      <c r="H47" s="3" t="inlineStr"/>
-      <c r="I47" s="3" t="inlineStr"/>
-      <c r="J47" s="3" t="inlineStr"/>
-      <c r="K47" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
-        </is>
-      </c>
-      <c r="L47" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> COPPER:1005</t>
-        </is>
-      </c>
-      <c r="M47" s="3" t="inlineStr"/>
-      <c r="N47" s="3" t="inlineStr"/>
-      <c r="O47" s="3" t="inlineStr"/>
-      <c r="P47" s="3" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q47" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R47" s="3" t="inlineStr"/>
-      <c r="S47" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T47" s="3" t="inlineStr"/>
-      <c r="U47" s="3" t="inlineStr"/>
-      <c r="V47" s="3" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000196</t>
+          <t>GMHO:0000195</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>resistance training behaviour</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr"/>
       <c r="F48" s="3" t="inlineStr"/>
-      <c r="G48" s="3" t="inlineStr"/>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>resistance training, strength training</t>
+        </is>
+      </c>
       <c r="H48" s="3" t="inlineStr"/>
       <c r="I48" s="3" t="inlineStr"/>
       <c r="J48" s="3" t="inlineStr"/>
       <c r="K48" s="3" t="inlineStr">
         <is>
-          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
-Also drew on:
-- COPPER:1011"</t>
-        </is>
-      </c>
-      <c r="L48" s="3" t="inlineStr"/>
+          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
+        </is>
+      </c>
+      <c r="L48" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPPER:1005</t>
+        </is>
+      </c>
       <c r="M48" s="3" t="inlineStr"/>
       <c r="N48" s="3" t="inlineStr"/>
       <c r="O48" s="3" t="inlineStr"/>
@@ -3323,80 +3313,86 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>BCIO:011034</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mode of delivery</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>PS</t>
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000196</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr"/>
+      <c r="F49" s="3" t="inlineStr"/>
+      <c r="G49" s="3" t="inlineStr"/>
+      <c r="H49" s="3" t="inlineStr"/>
+      <c r="I49" s="3" t="inlineStr"/>
+      <c r="J49" s="3" t="inlineStr"/>
+      <c r="K49" s="3" t="inlineStr">
+        <is>
+          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
+Also drew on:
+- COPPER:1011"</t>
+        </is>
+      </c>
+      <c r="L49" s="3" t="inlineStr"/>
+      <c r="M49" s="3" t="inlineStr"/>
+      <c r="N49" s="3" t="inlineStr"/>
+      <c r="O49" s="3" t="inlineStr"/>
+      <c r="P49" s="3" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q49" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R49" s="3" t="inlineStr"/>
+      <c r="S49" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T49" s="3" t="inlineStr"/>
+      <c r="U49" s="3" t="inlineStr"/>
+      <c r="V49" s="3" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>STATO:0000039</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>statistic</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3412,7 +3408,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -3435,187 +3431,187 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="inlineStr">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>STATO:0000039</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>statistic</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D51" s="4" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr"/>
-      <c r="F51" s="4" t="inlineStr"/>
-      <c r="G51" s="4" t="inlineStr"/>
-      <c r="H51" s="4" t="inlineStr"/>
-      <c r="I51" s="4" t="inlineStr"/>
-      <c r="J51" s="4" t="inlineStr"/>
-      <c r="K51" s="4" t="inlineStr"/>
-      <c r="L51" s="4" t="inlineStr"/>
-      <c r="M51" s="4" t="inlineStr"/>
-      <c r="N51" s="4" t="inlineStr"/>
-      <c r="O51" s="4" t="inlineStr"/>
-      <c r="P51" s="4" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr"/>
+      <c r="F52" s="4" t="inlineStr"/>
+      <c r="G52" s="4" t="inlineStr"/>
+      <c r="H52" s="4" t="inlineStr"/>
+      <c r="I52" s="4" t="inlineStr"/>
+      <c r="J52" s="4" t="inlineStr"/>
+      <c r="K52" s="4" t="inlineStr"/>
+      <c r="L52" s="4" t="inlineStr"/>
+      <c r="M52" s="4" t="inlineStr"/>
+      <c r="N52" s="4" t="inlineStr"/>
+      <c r="O52" s="4" t="inlineStr"/>
+      <c r="P52" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q51" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R51" s="4" t="inlineStr"/>
-      <c r="S51" s="4" t="inlineStr">
+      <c r="Q52" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R52" s="4" t="inlineStr"/>
+      <c r="S52" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T51" s="4" t="inlineStr"/>
-      <c r="U51" s="4" t="inlineStr"/>
-      <c r="V51" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="T52" s="4" t="inlineStr"/>
+      <c r="U52" s="4" t="inlineStr"/>
+      <c r="V52" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr">
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000128</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>treatment as usual control arm</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="inlineStr"/>
-      <c r="F53" s="3" t="inlineStr"/>
-      <c r="G53" s="3" t="inlineStr"/>
-      <c r="H53" s="3" t="inlineStr"/>
-      <c r="I53" s="3" t="inlineStr"/>
-      <c r="J53" s="3" t="inlineStr"/>
-      <c r="K53" s="3" t="inlineStr"/>
-      <c r="L53" s="3" t="inlineStr"/>
-      <c r="M53" s="3" t="inlineStr"/>
-      <c r="N53" s="3" t="inlineStr"/>
-      <c r="O53" s="3" t="inlineStr"/>
-      <c r="P53" s="3" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q53" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R53" s="3" t="inlineStr"/>
-      <c r="S53" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T53" s="3" t="inlineStr"/>
-      <c r="U53" s="3" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V53" s="3" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000129</t>
+          <t>GMHO:0000128</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>waitlist control arm</t>
+          <t>treatment as usual control arm</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -3659,80 +3655,80 @@
       <c r="V54" s="3" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000129</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>waitlist control arm</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr"/>
+      <c r="F55" s="3" t="inlineStr"/>
+      <c r="G55" s="3" t="inlineStr"/>
+      <c r="H55" s="3" t="inlineStr"/>
+      <c r="I55" s="3" t="inlineStr"/>
+      <c r="J55" s="3" t="inlineStr"/>
+      <c r="K55" s="3" t="inlineStr"/>
+      <c r="L55" s="3" t="inlineStr"/>
+      <c r="M55" s="3" t="inlineStr"/>
+      <c r="N55" s="3" t="inlineStr"/>
+      <c r="O55" s="3" t="inlineStr"/>
+      <c r="P55" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="Q55" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R55" s="3" t="inlineStr"/>
+      <c r="S55" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T55" s="3" t="inlineStr"/>
+      <c r="U55" s="3" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V55" s="3" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3748,7 +3744,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -3773,22 +3769,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IAO:0000590</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A textual entity that denotes a particular in reality.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3804,7 +3800,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -3821,6 +3817,62 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>IAO:0000590</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A textual entity that denotes a particular in reality.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3189,164 +3189,162 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000239</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>psychological treatment</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>Mental health intervention content that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>mental health intervention content</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr"/>
+      <c r="F47" s="3" t="inlineStr"/>
+      <c r="G47" s="3" t="inlineStr"/>
+      <c r="H47" s="3" t="inlineStr"/>
+      <c r="I47" s="3" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr"/>
+      <c r="K47" s="3" t="inlineStr">
+        <is>
+          <t>https://bciosearch.org/BCIO_050364</t>
+        </is>
+      </c>
+      <c r="L47" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050364</t>
+        </is>
+      </c>
+      <c r="M47" s="3" t="inlineStr"/>
+      <c r="N47" s="3" t="inlineStr"/>
+      <c r="O47" s="3" t="inlineStr"/>
+      <c r="P47" s="3" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q47" s="3" t="inlineStr"/>
+      <c r="R47" s="3" t="inlineStr"/>
+      <c r="S47" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T47" s="3" t="inlineStr"/>
+      <c r="U47" s="3" t="inlineStr"/>
+      <c r="V47" s="3" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr">
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000195</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>resistance training behaviour</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="inlineStr"/>
-      <c r="F48" s="3" t="inlineStr"/>
-      <c r="G48" s="3" t="inlineStr">
-        <is>
-          <t>resistance training, strength training</t>
-        </is>
-      </c>
-      <c r="H48" s="3" t="inlineStr"/>
-      <c r="I48" s="3" t="inlineStr"/>
-      <c r="J48" s="3" t="inlineStr"/>
-      <c r="K48" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
-        </is>
-      </c>
-      <c r="L48" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> COPPER:1005</t>
-        </is>
-      </c>
-      <c r="M48" s="3" t="inlineStr"/>
-      <c r="N48" s="3" t="inlineStr"/>
-      <c r="O48" s="3" t="inlineStr"/>
-      <c r="P48" s="3" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q48" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R48" s="3" t="inlineStr"/>
-      <c r="S48" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T48" s="3" t="inlineStr"/>
-      <c r="U48" s="3" t="inlineStr"/>
-      <c r="V48" s="3" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000196</t>
+          <t>GMHO:0000195</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>resistance training behaviour</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr"/>
       <c r="F49" s="3" t="inlineStr"/>
-      <c r="G49" s="3" t="inlineStr"/>
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>resistance training, strength training</t>
+        </is>
+      </c>
       <c r="H49" s="3" t="inlineStr"/>
       <c r="I49" s="3" t="inlineStr"/>
       <c r="J49" s="3" t="inlineStr"/>
       <c r="K49" s="3" t="inlineStr">
         <is>
-          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
-Also drew on:
-- COPPER:1011"</t>
-        </is>
-      </c>
-      <c r="L49" s="3" t="inlineStr"/>
+          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
+        </is>
+      </c>
+      <c r="L49" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPPER:1005</t>
+        </is>
+      </c>
       <c r="M49" s="3" t="inlineStr"/>
       <c r="N49" s="3" t="inlineStr"/>
       <c r="O49" s="3" t="inlineStr"/>
@@ -3375,80 +3373,86 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>BCIO:011034</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mode of delivery</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>PS</t>
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000196</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr"/>
+      <c r="F50" s="3" t="inlineStr"/>
+      <c r="G50" s="3" t="inlineStr"/>
+      <c r="H50" s="3" t="inlineStr"/>
+      <c r="I50" s="3" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr"/>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
+Also drew on:
+- COPPER:1011"</t>
+        </is>
+      </c>
+      <c r="L50" s="3" t="inlineStr"/>
+      <c r="M50" s="3" t="inlineStr"/>
+      <c r="N50" s="3" t="inlineStr"/>
+      <c r="O50" s="3" t="inlineStr"/>
+      <c r="P50" s="3" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q50" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R50" s="3" t="inlineStr"/>
+      <c r="S50" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T50" s="3" t="inlineStr"/>
+      <c r="U50" s="3" t="inlineStr"/>
+      <c r="V50" s="3" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>STATO:0000039</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>statistic</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3464,7 +3468,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -3487,187 +3491,187 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="inlineStr">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>STATO:0000039</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>statistic</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="C53" s="4" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D52" s="4" t="inlineStr">
+      <c r="D53" s="4" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr"/>
-      <c r="F52" s="4" t="inlineStr"/>
-      <c r="G52" s="4" t="inlineStr"/>
-      <c r="H52" s="4" t="inlineStr"/>
-      <c r="I52" s="4" t="inlineStr"/>
-      <c r="J52" s="4" t="inlineStr"/>
-      <c r="K52" s="4" t="inlineStr"/>
-      <c r="L52" s="4" t="inlineStr"/>
-      <c r="M52" s="4" t="inlineStr"/>
-      <c r="N52" s="4" t="inlineStr"/>
-      <c r="O52" s="4" t="inlineStr"/>
-      <c r="P52" s="4" t="inlineStr">
+      <c r="E53" s="4" t="inlineStr"/>
+      <c r="F53" s="4" t="inlineStr"/>
+      <c r="G53" s="4" t="inlineStr"/>
+      <c r="H53" s="4" t="inlineStr"/>
+      <c r="I53" s="4" t="inlineStr"/>
+      <c r="J53" s="4" t="inlineStr"/>
+      <c r="K53" s="4" t="inlineStr"/>
+      <c r="L53" s="4" t="inlineStr"/>
+      <c r="M53" s="4" t="inlineStr"/>
+      <c r="N53" s="4" t="inlineStr"/>
+      <c r="O53" s="4" t="inlineStr"/>
+      <c r="P53" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q52" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R52" s="4" t="inlineStr"/>
-      <c r="S52" s="4" t="inlineStr">
+      <c r="Q53" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R53" s="4" t="inlineStr"/>
+      <c r="S53" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T52" s="4" t="inlineStr"/>
-      <c r="U52" s="4" t="inlineStr"/>
-      <c r="V52" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="T53" s="4" t="inlineStr"/>
+      <c r="U53" s="4" t="inlineStr"/>
+      <c r="V53" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000128</t>
-        </is>
-      </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>treatment as usual control arm</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E54" s="3" t="inlineStr"/>
-      <c r="F54" s="3" t="inlineStr"/>
-      <c r="G54" s="3" t="inlineStr"/>
-      <c r="H54" s="3" t="inlineStr"/>
-      <c r="I54" s="3" t="inlineStr"/>
-      <c r="J54" s="3" t="inlineStr"/>
-      <c r="K54" s="3" t="inlineStr"/>
-      <c r="L54" s="3" t="inlineStr"/>
-      <c r="M54" s="3" t="inlineStr"/>
-      <c r="N54" s="3" t="inlineStr"/>
-      <c r="O54" s="3" t="inlineStr"/>
-      <c r="P54" s="3" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q54" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R54" s="3" t="inlineStr"/>
-      <c r="S54" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T54" s="3" t="inlineStr"/>
-      <c r="U54" s="3" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V54" s="3" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000129</t>
+          <t>GMHO:0000128</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>waitlist control arm</t>
+          <t>treatment as usual control arm</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -3711,80 +3715,80 @@
       <c r="V55" s="3" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000129</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>waitlist control arm</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr"/>
+      <c r="F56" s="3" t="inlineStr"/>
+      <c r="G56" s="3" t="inlineStr"/>
+      <c r="H56" s="3" t="inlineStr"/>
+      <c r="I56" s="3" t="inlineStr"/>
+      <c r="J56" s="3" t="inlineStr"/>
+      <c r="K56" s="3" t="inlineStr"/>
+      <c r="L56" s="3" t="inlineStr"/>
+      <c r="M56" s="3" t="inlineStr"/>
+      <c r="N56" s="3" t="inlineStr"/>
+      <c r="O56" s="3" t="inlineStr"/>
+      <c r="P56" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="Q56" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R56" s="3" t="inlineStr"/>
+      <c r="S56" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T56" s="3" t="inlineStr"/>
+      <c r="U56" s="3" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V56" s="3" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3800,7 +3804,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -3825,22 +3829,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IAO:0000590</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A textual entity that denotes a particular in reality.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3856,7 +3860,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -3873,6 +3877,62 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>IAO:0000590</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A textual entity that denotes a particular in reality.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -1875,7 +1875,7 @@
       <c r="O24" s="4" t="inlineStr"/>
       <c r="P24" s="4" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q24" s="4" t="inlineStr">
@@ -1893,7 +1893,7 @@
       <c r="U24" s="4" t="inlineStr"/>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -39,12 +39,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002f4f4f"/>
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
     <fill>
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,126 +787,122 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000007</t>
+          <t>GMHO:0000240</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>average dose of pharmacological substance</t>
+          <t>attention management control arm</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>A average value of dose of pharmacological substance delivered to individuals in a group.</t>
+          <t>A control arm designation where the same dose of interpersonal interaction is provided as in the intervention group, but without any additional content from the intervention.</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>average value</t>
+          <t>control arm</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Attention control</t>
+        </is>
+      </c>
       <c r="H6" s="2" t="inlineStr"/>
       <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6858509/</t>
+        </is>
+      </c>
       <c r="L6" s="2" t="inlineStr"/>
       <c r="M6" s="2" t="inlineStr"/>
       <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>dose of pharmacological substance</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr"/>
       <c r="R6" s="2" t="inlineStr"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000007</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>average dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>A average value of dose of pharmacological substance delivered to individuals in a group.</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>average value</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="inlineStr"/>
+      <c r="N7" s="3" t="inlineStr"/>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr"/>
+      <c r="S7" s="3" t="inlineStr">
+        <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T6" s="2" t="inlineStr"/>
-      <c r="U6" s="2" t="inlineStr">
+      <c r="T7" s="3" t="inlineStr"/>
+      <c r="U7" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V6" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>OBI:0000679</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>average value</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A data item that is produced as the output of an averaging data transformation and represents the average value of the input data.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
+      <c r="V7" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -915,22 +911,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:011000</t>
+          <t>OBI:0000679</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>average value</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
+          <t>A data item that is produced as the output of an averaging data transformation and represents the average value of the input data.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -938,7 +934,11 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -961,11 +961,7 @@
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
           <t>PS</t>
@@ -975,22 +971,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:033000</t>
+          <t>BCIO:011000</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>BCI attribute</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1006,7 +1002,7 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1021,7 +1017,11 @@
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1029,344 +1029,340 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BCIO:033000</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>behaviour change technique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000197</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>bodybuilding behaviour</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>Individual human behaviour pattern involving consumption behaviour and physical performance behaviour in order to grow muscles.</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour pattern</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr"/>
-      <c r="F10" s="3" t="inlineStr"/>
-      <c r="G10" s="3" t="inlineStr"/>
-      <c r="H10" s="3" t="inlineStr"/>
-      <c r="I10" s="3" t="inlineStr"/>
-      <c r="J10" s="3" t="inlineStr"/>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>Insipred by https://www.merriam-webster.com/dictionary/bodybuilding</t>
         </is>
       </c>
-      <c r="L10" s="3" t="inlineStr"/>
-      <c r="M10" s="3" t="inlineStr"/>
-      <c r="N10" s="3" t="inlineStr"/>
-      <c r="O10" s="3" t="inlineStr"/>
-      <c r="P10" s="3" t="inlineStr"/>
-      <c r="Q10" s="3" t="inlineStr"/>
-      <c r="R10" s="3" t="inlineStr"/>
-      <c r="S10" s="3" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr"/>
+      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="inlineStr"/>
+      <c r="S11" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T10" s="3" t="inlineStr"/>
-      <c r="U10" s="3" t="inlineStr"/>
-      <c r="V10" s="3" t="inlineStr">
+      <c r="T11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="inlineStr"/>
+      <c r="V11" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>BCIO:011040</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>buccal mode of delivery</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000192</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>cardiovascular exercise behaviour</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Physical performance behaviour pattern that increases heart rate and respiration while using large muscle groups repetitively and rhythmically.</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>physical performance behaviour pattern</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr"/>
-      <c r="F12" s="3" t="inlineStr"/>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>cardio training, aerobic exercise, aerobics, endurance exercise, endurance training, cardiovascular exercise</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr"/>
-      <c r="I12" s="3" t="inlineStr"/>
-      <c r="J12" s="3" t="inlineStr"/>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>Cross-reference: COPPER:1044 - changed parent class</t>
         </is>
       </c>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>COPPER:1044</t>
         </is>
       </c>
-      <c r="M12" s="3" t="inlineStr"/>
-      <c r="N12" s="3" t="inlineStr"/>
-      <c r="O12" s="3" t="inlineStr"/>
-      <c r="P12" s="3" t="inlineStr">
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q12" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R12" s="3" t="inlineStr"/>
-      <c r="S12" s="3" t="inlineStr">
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr"/>
+      <c r="S13" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T12" s="3" t="inlineStr"/>
-      <c r="U12" s="3" t="inlineStr"/>
-      <c r="V12" s="3" t="inlineStr">
+      <c r="T13" s="2" t="inlineStr"/>
+      <c r="U13" s="2" t="inlineStr"/>
+      <c r="V13" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000122</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>A study arm designation as a comparator to some intervention arm.</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr"/>
-      <c r="F13" s="3" t="inlineStr"/>
-      <c r="G13" s="3" t="inlineStr"/>
-      <c r="H13" s="3" t="inlineStr"/>
-      <c r="I13" s="3" t="inlineStr"/>
-      <c r="J13" s="3" t="inlineStr"/>
-      <c r="K13" s="3" t="inlineStr"/>
-      <c r="L13" s="3" t="inlineStr"/>
-      <c r="M13" s="3" t="inlineStr"/>
-      <c r="N13" s="3" t="inlineStr"/>
-      <c r="O13" s="3" t="inlineStr"/>
-      <c r="P13" s="3" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="inlineStr"/>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr"/>
+      <c r="P14" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q13" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R13" s="3" t="inlineStr"/>
-      <c r="S13" s="3" t="inlineStr">
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr"/>
+      <c r="S14" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T13" s="3" t="inlineStr"/>
-      <c r="U13" s="3" t="inlineStr"/>
-      <c r="V13" s="3" t="inlineStr">
+      <c r="T14" s="2" t="inlineStr"/>
+      <c r="U14" s="2" t="inlineStr"/>
+      <c r="V14" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000177</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>daily dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Dose of pharmacological substance delivered to individuals within each day.</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr"/>
-      <c r="F14" s="3" t="inlineStr"/>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr"/>
-      <c r="J14" s="3" t="inlineStr"/>
-      <c r="K14" s="3" t="inlineStr"/>
-      <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr"/>
-      <c r="O14" s="3" t="inlineStr"/>
-      <c r="P14" s="3" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q14" s="3" t="inlineStr"/>
-      <c r="R14" s="3" t="inlineStr"/>
-      <c r="S14" s="3" t="inlineStr">
+      <c r="Q15" s="2" t="inlineStr"/>
+      <c r="R15" s="2" t="inlineStr"/>
+      <c r="S15" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T14" s="3" t="inlineStr"/>
-      <c r="U14" s="3" t="inlineStr"/>
-      <c r="V14" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>IAO:0000027</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr">
+      <c r="T15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="inlineStr"/>
+      <c r="V15" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1375,22 +1371,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OBI:0000984</t>
+          <t>IAO:0000027</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dose</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
+          <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1410,7 +1406,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1433,89 +1429,84 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>GMHO:0000001</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>dose of pharmacological substance</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Dose of pharmacological substance delivered to an individual.</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>OBI:0000984</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr"/>
-      <c r="F17" s="4" t="inlineStr"/>
-      <c r="G17" s="4" t="inlineStr"/>
-      <c r="H17" s="4" t="inlineStr"/>
-      <c r="I17" s="4" t="inlineStr"/>
-      <c r="J17" s="4" t="inlineStr"/>
-      <c r="K17" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parent class from Ontology for Biomedical Investigations
-</t>
-        </is>
-      </c>
-      <c r="L17" s="4" t="inlineStr"/>
-      <c r="M17" s="4" t="inlineStr"/>
-      <c r="N17" s="4" t="inlineStr"/>
-      <c r="O17" s="4" t="inlineStr"/>
-      <c r="P17" s="4" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q17" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R17" s="4" t="inlineStr"/>
-      <c r="S17" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T17" s="4" t="inlineStr"/>
-      <c r="U17" s="4" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V17" s="4" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>GMHO:0000002</t>
+          <t>GMHO:0000001</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>drug name</t>
+          <t>dose of pharmacological substance</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
+          <t>Dose of pharmacological substance delivered to an individual.</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>dose</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr"/>
@@ -1524,14 +1515,19 @@
       <c r="H18" s="4" t="inlineStr"/>
       <c r="I18" s="4" t="inlineStr"/>
       <c r="J18" s="4" t="inlineStr"/>
-      <c r="K18" s="4" t="inlineStr"/>
+      <c r="K18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parent class from Ontology for Biomedical Investigations
+</t>
+        </is>
+      </c>
       <c r="L18" s="4" t="inlineStr"/>
       <c r="M18" s="4" t="inlineStr"/>
       <c r="N18" s="4" t="inlineStr"/>
       <c r="O18" s="4" t="inlineStr"/>
       <c r="P18" s="4" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 1; LSR 3</t>
         </is>
       </c>
       <c r="Q18" s="4" t="inlineStr">
@@ -1553,121 +1549,125 @@
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000002</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>drug name</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr"/>
+      <c r="H19" s="4" t="inlineStr"/>
+      <c r="I19" s="4" t="inlineStr"/>
+      <c r="J19" s="4" t="inlineStr"/>
+      <c r="K19" s="4" t="inlineStr"/>
+      <c r="L19" s="4" t="inlineStr"/>
+      <c r="M19" s="4" t="inlineStr"/>
+      <c r="N19" s="4" t="inlineStr"/>
+      <c r="O19" s="4" t="inlineStr"/>
+      <c r="P19" s="4" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q19" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R19" s="4" t="inlineStr"/>
+      <c r="S19" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T19" s="4" t="inlineStr"/>
+      <c r="U19" s="4" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V19" s="4" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000003</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>frequency of pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr"/>
-      <c r="G19" s="3" t="inlineStr"/>
-      <c r="H19" s="3" t="inlineStr"/>
-      <c r="I19" s="3" t="inlineStr"/>
-      <c r="J19" s="3" t="inlineStr"/>
-      <c r="K19" s="3" t="inlineStr"/>
-      <c r="L19" s="3" t="inlineStr"/>
-      <c r="M19" s="3" t="inlineStr"/>
-      <c r="N19" s="3" t="inlineStr"/>
-      <c r="O19" s="3" t="inlineStr"/>
-      <c r="P19" s="3" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q19" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R19" s="3" t="inlineStr"/>
-      <c r="S19" s="3" t="inlineStr">
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T19" s="3" t="inlineStr"/>
-      <c r="U19" s="3" t="inlineStr">
+      <c r="T20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V19" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>BCIO:011035</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr">
+      <c r="V20" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1676,22 +1676,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1732,17 +1732,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>inhalation mode of delivery</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1788,22 +1788,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:037000</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>injection mode of delivery</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1811,11 +1811,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1823,10 +1819,14 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>LSR 1, LSR 2, LSR 3</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr"/>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
@@ -1842,80 +1842,80 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
-        <is>
-          <t>GMHO:0000123</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>intervention arm</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>study arm</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr"/>
-      <c r="F24" s="4" t="inlineStr"/>
-      <c r="G24" s="4" t="inlineStr"/>
-      <c r="H24" s="4" t="inlineStr"/>
-      <c r="I24" s="4" t="inlineStr"/>
-      <c r="J24" s="4" t="inlineStr"/>
-      <c r="K24" s="4" t="inlineStr"/>
-      <c r="L24" s="4" t="inlineStr"/>
-      <c r="M24" s="4" t="inlineStr"/>
-      <c r="N24" s="4" t="inlineStr"/>
-      <c r="O24" s="4" t="inlineStr"/>
-      <c r="P24" s="4" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2</t>
-        </is>
-      </c>
-      <c r="Q24" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R24" s="4" t="inlineStr"/>
-      <c r="S24" s="4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T24" s="4" t="inlineStr"/>
-      <c r="U24" s="4" t="inlineStr"/>
-      <c r="V24" s="4" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BCIO:037000</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A planned process that has the aim of influencing an outcome.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>LSR 1, LSR 2, LSR 3</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>GMHO:0000004</t>
+          <t>GMHO:0000123</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>intervention arm name</t>
+          <t>intervention arm</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
+          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>study arm</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr"/>
@@ -1931,7 +1931,7 @@
       <c r="O25" s="4" t="inlineStr"/>
       <c r="P25" s="4" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q25" s="4" t="inlineStr">
@@ -1946,535 +1946,543 @@
         </is>
       </c>
       <c r="T25" s="4" t="inlineStr"/>
-      <c r="U25" s="4" t="inlineStr">
+      <c r="U25" s="4" t="inlineStr"/>
+      <c r="V25" s="4" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000004</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>intervention arm name</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="inlineStr"/>
+      <c r="G26" s="4" t="inlineStr"/>
+      <c r="H26" s="4" t="inlineStr"/>
+      <c r="I26" s="4" t="inlineStr"/>
+      <c r="J26" s="4" t="inlineStr"/>
+      <c r="K26" s="4" t="inlineStr"/>
+      <c r="L26" s="4" t="inlineStr"/>
+      <c r="M26" s="4" t="inlineStr"/>
+      <c r="N26" s="4" t="inlineStr"/>
+      <c r="O26" s="4" t="inlineStr"/>
+      <c r="P26" s="4" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q26" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R26" s="4" t="inlineStr"/>
+      <c r="S26" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T26" s="4" t="inlineStr"/>
+      <c r="U26" s="4" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V25" s="4" t="inlineStr">
+      <c r="V26" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000124</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>intervention contact event duration</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention contact event.</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E26" s="3" t="inlineStr"/>
-      <c r="F26" s="3" t="inlineStr"/>
-      <c r="G26" s="3" t="inlineStr"/>
-      <c r="H26" s="3" t="inlineStr"/>
-      <c r="I26" s="3" t="inlineStr"/>
-      <c r="J26" s="3" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>intervention content and delivery</t>
         </is>
       </c>
-      <c r="K26" s="3" t="inlineStr">
+      <c r="K27" s="2" t="inlineStr">
         <is>
           <t>inspired by BCIO:008525</t>
         </is>
       </c>
-      <c r="L26" s="3" t="inlineStr">
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>BCIO:008525</t>
         </is>
       </c>
-      <c r="M26" s="3" t="inlineStr"/>
-      <c r="N26" s="3" t="inlineStr"/>
-      <c r="O26" s="3" t="inlineStr"/>
-      <c r="P26" s="3" t="inlineStr">
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q26" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R26" s="3" t="inlineStr"/>
-      <c r="S26" s="3" t="inlineStr">
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr"/>
+      <c r="S27" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T26" s="3" t="inlineStr">
+      <c r="T27" s="2" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U26" s="3" t="inlineStr"/>
-      <c r="V26" s="3" t="inlineStr">
+      <c r="U27" s="2" t="inlineStr"/>
+      <c r="V27" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000125</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="3" t="inlineStr"/>
-      <c r="G27" s="3" t="inlineStr"/>
-      <c r="H27" s="3" t="inlineStr"/>
-      <c r="I27" s="3" t="inlineStr"/>
-      <c r="J27" s="3" t="inlineStr"/>
-      <c r="K27" s="3" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Based on http://humanbehaviourchange.org/ontology/BCIO_007000
 </t>
         </is>
       </c>
-      <c r="L27" s="3" t="inlineStr">
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
-      <c r="M27" s="3" t="inlineStr"/>
-      <c r="N27" s="3" t="inlineStr"/>
-      <c r="O27" s="3" t="inlineStr"/>
-      <c r="P27" s="3" t="inlineStr">
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q27" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R27" s="3" t="inlineStr"/>
-      <c r="S27" s="3" t="inlineStr">
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr"/>
+      <c r="S28" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T27" s="3" t="inlineStr"/>
-      <c r="U27" s="3" t="inlineStr"/>
-      <c r="V27" s="3" t="inlineStr">
+      <c r="T28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="inlineStr"/>
+      <c r="V28" s="2" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000005</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>intervention duration</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention.</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr"/>
-      <c r="F28" s="4" t="inlineStr"/>
-      <c r="G28" s="4" t="inlineStr"/>
-      <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="4" t="inlineStr"/>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="inlineStr"/>
+      <c r="G29" s="4" t="inlineStr"/>
+      <c r="H29" s="4" t="inlineStr"/>
+      <c r="I29" s="4" t="inlineStr"/>
+      <c r="J29" s="4" t="inlineStr">
         <is>
           <t>intervention content and delivery</t>
         </is>
       </c>
-      <c r="K28" s="4" t="inlineStr">
+      <c r="K29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">inspired by BCIO:008560
 </t>
         </is>
       </c>
-      <c r="L28" s="4" t="inlineStr">
+      <c r="L29" s="4" t="inlineStr">
         <is>
           <t>BCIO:008560</t>
         </is>
       </c>
-      <c r="M28" s="4" t="inlineStr"/>
-      <c r="N28" s="4" t="inlineStr"/>
-      <c r="O28" s="4" t="inlineStr"/>
-      <c r="P28" s="4" t="inlineStr">
+      <c r="M29" s="4" t="inlineStr"/>
+      <c r="N29" s="4" t="inlineStr"/>
+      <c r="O29" s="4" t="inlineStr"/>
+      <c r="P29" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q28" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R28" s="4" t="inlineStr"/>
-      <c r="S28" s="4" t="inlineStr">
+      <c r="Q29" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R29" s="4" t="inlineStr"/>
+      <c r="S29" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T28" s="4" t="inlineStr">
+      <c r="T29" s="4" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U28" s="4" t="inlineStr">
+      <c r="U29" s="4" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V28" s="4" t="inlineStr">
+      <c r="V29" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>BCIO:008540</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>irregular intervention schedule</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr">
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000193</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>jogging</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>A locomotive behaviour that involves trotting or running at a slow and steady pace.</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>locomotive behaviour</t>
         </is>
       </c>
-      <c r="E30" s="3" t="inlineStr"/>
-      <c r="F30" s="3" t="inlineStr"/>
-      <c r="G30" s="3" t="inlineStr"/>
-      <c r="H30" s="3" t="inlineStr"/>
-      <c r="I30" s="3" t="inlineStr"/>
-      <c r="J30" s="3" t="inlineStr"/>
-      <c r="K30" s="3" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr">
         <is>
           <t>Drew on: https://www.oxfordlearnersdictionaries.com/definition/english/jogging#:~:text=jogging-,noun,as%20a%20form%20of%20exercise</t>
         </is>
       </c>
-      <c r="L30" s="3" t="inlineStr"/>
-      <c r="M30" s="3" t="inlineStr"/>
-      <c r="N30" s="3" t="inlineStr"/>
-      <c r="O30" s="3" t="inlineStr"/>
-      <c r="P30" s="3" t="inlineStr">
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q30" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R30" s="3" t="inlineStr"/>
-      <c r="S30" s="3" t="inlineStr">
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr"/>
+      <c r="S31" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T30" s="3" t="inlineStr"/>
-      <c r="U30" s="3" t="inlineStr"/>
-      <c r="V30" s="3" t="inlineStr">
+      <c r="T31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="inlineStr"/>
+      <c r="V31" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>BCIO:036026</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>locomotive behaviour</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>position-related behaviour</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr">
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000006</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>maximum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>maximum value</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr"/>
+      <c r="F33" s="3" t="inlineStr"/>
+      <c r="G33" s="3" t="inlineStr"/>
+      <c r="H33" s="3" t="inlineStr"/>
+      <c r="I33" s="3" t="inlineStr"/>
+      <c r="J33" s="3" t="inlineStr"/>
+      <c r="K33" s="3" t="inlineStr"/>
+      <c r="L33" s="3" t="inlineStr"/>
+      <c r="M33" s="3" t="inlineStr"/>
+      <c r="N33" s="3" t="inlineStr"/>
+      <c r="O33" s="3" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="P32" s="2" t="inlineStr">
+      <c r="P33" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr">
+      <c r="Q33" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R33" s="3" t="inlineStr"/>
+      <c r="S33" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T32" s="2" t="inlineStr"/>
-      <c r="U32" s="2" t="inlineStr">
+      <c r="T33" s="3" t="inlineStr"/>
+      <c r="U33" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V32" s="2" t="inlineStr">
+      <c r="V33" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>STATO:0000151</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>maximum value</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IAO:0000109</t>
+          <t>STATO:0000151</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>maximum value</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>information content entity</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2490,14 +2498,10 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
@@ -2506,235 +2510,227 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
+      <c r="V34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>IAO:0000109</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000008</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>minimum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D36" s="3" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr">
+      <c r="E36" s="3" t="inlineStr"/>
+      <c r="F36" s="3" t="inlineStr"/>
+      <c r="G36" s="3" t="inlineStr"/>
+      <c r="H36" s="3" t="inlineStr"/>
+      <c r="I36" s="3" t="inlineStr"/>
+      <c r="J36" s="3" t="inlineStr"/>
+      <c r="K36" s="3" t="inlineStr"/>
+      <c r="L36" s="3" t="inlineStr"/>
+      <c r="M36" s="3" t="inlineStr"/>
+      <c r="N36" s="3" t="inlineStr"/>
+      <c r="O36" s="3" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="P35" s="2" t="inlineStr">
+      <c r="P36" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R35" s="2" t="inlineStr"/>
-      <c r="S35" s="2" t="inlineStr">
+      <c r="Q36" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R36" s="3" t="inlineStr"/>
+      <c r="S36" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T35" s="2" t="inlineStr"/>
-      <c r="U35" s="2" t="inlineStr">
+      <c r="T36" s="3" t="inlineStr"/>
+      <c r="U36" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V35" s="2" t="inlineStr">
+      <c r="V36" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>STATO:0000150</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>A data item which denotes the smallest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr">
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000126</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>no treatment control arm</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>A control arm designation where there is no intervention.</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E37" s="3" t="inlineStr"/>
-      <c r="F37" s="3" t="inlineStr"/>
-      <c r="G37" s="3" t="inlineStr"/>
-      <c r="H37" s="3" t="inlineStr"/>
-      <c r="I37" s="3" t="inlineStr"/>
-      <c r="J37" s="3" t="inlineStr"/>
-      <c r="K37" s="3" t="inlineStr"/>
-      <c r="L37" s="3" t="inlineStr"/>
-      <c r="M37" s="3" t="inlineStr"/>
-      <c r="N37" s="3" t="inlineStr"/>
-      <c r="O37" s="3" t="inlineStr"/>
-      <c r="P37" s="3" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q37" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R37" s="3" t="inlineStr"/>
-      <c r="S37" s="3" t="inlineStr">
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr"/>
+      <c r="S38" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T37" s="3" t="inlineStr"/>
-      <c r="U37" s="3" t="inlineStr"/>
-      <c r="V37" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>BCIO:008515</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>number of contact events</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A data item that is the number of contact events in an intervention temporal part.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
+      <c r="T38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="inlineStr"/>
+      <c r="V38" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2743,22 +2739,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>number of contact events</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+          <t>A data item that is the number of contact events in an intervention temporal part.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2778,7 +2774,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -2803,22 +2799,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>person source role</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2826,7 +2822,11 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2834,7 +2834,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -2850,27 +2850,31 @@
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t>person source role</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>behaviour change intervention source</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2902,11 +2906,7 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">individual human behaviour </t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2945,7 +2945,11 @@
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
@@ -2956,559 +2960,555 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BCIO:036042</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">individual human behaviour </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
+        <is>
           <t>MS</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000194</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>physical performance behaviour pattern</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour pattern</t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr"/>
-      <c r="F43" s="3" t="inlineStr"/>
-      <c r="G43" s="3" t="inlineStr"/>
-      <c r="H43" s="3" t="inlineStr"/>
-      <c r="I43" s="3" t="inlineStr"/>
-      <c r="J43" s="3" t="inlineStr"/>
-      <c r="K43" s="3" t="inlineStr"/>
-      <c r="L43" s="3" t="inlineStr"/>
-      <c r="M43" s="3" t="inlineStr"/>
-      <c r="N43" s="3" t="inlineStr"/>
-      <c r="O43" s="3" t="inlineStr"/>
-      <c r="P43" s="3" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr"/>
+      <c r="P44" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q43" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R43" s="3" t="inlineStr"/>
-      <c r="S43" s="3" t="inlineStr">
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr"/>
+      <c r="S44" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T43" s="3" t="inlineStr"/>
-      <c r="U43" s="3" t="inlineStr"/>
-      <c r="V43" s="3" t="inlineStr">
+      <c r="T44" s="2" t="inlineStr"/>
+      <c r="U44" s="2" t="inlineStr"/>
+      <c r="V44" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000009</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>placebo intervention</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr"/>
-      <c r="F44" s="3" t="inlineStr"/>
-      <c r="G44" s="3" t="inlineStr"/>
-      <c r="H44" s="3" t="inlineStr"/>
-      <c r="I44" s="3" t="inlineStr"/>
-      <c r="J44" s="3" t="inlineStr"/>
-      <c r="K44" s="3" t="inlineStr"/>
-      <c r="L44" s="3" t="inlineStr"/>
-      <c r="M44" s="3" t="inlineStr"/>
-      <c r="N44" s="3" t="inlineStr"/>
-      <c r="O44" s="3" t="inlineStr"/>
-      <c r="P44" s="3" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr"/>
+      <c r="H45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="inlineStr"/>
+      <c r="P45" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q44" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R44" s="3" t="inlineStr"/>
-      <c r="S44" s="3" t="inlineStr">
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr"/>
+      <c r="S45" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T44" s="3" t="inlineStr"/>
-      <c r="U44" s="3" t="inlineStr">
+      <c r="T45" s="2" t="inlineStr"/>
+      <c r="U45" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V44" s="3" t="inlineStr">
+      <c r="V45" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>IAO:0000104</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>directive information entity</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr">
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr">
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="4" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D46" s="4" t="inlineStr">
+      <c r="D47" s="4" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr"/>
-      <c r="F46" s="4" t="inlineStr"/>
-      <c r="G46" s="4" t="inlineStr"/>
-      <c r="H46" s="4" t="inlineStr"/>
-      <c r="I46" s="4" t="inlineStr"/>
-      <c r="J46" s="4" t="inlineStr"/>
-      <c r="K46" s="4" t="inlineStr"/>
-      <c r="L46" s="4" t="inlineStr"/>
-      <c r="M46" s="4" t="inlineStr"/>
-      <c r="N46" s="4" t="inlineStr"/>
-      <c r="O46" s="4" t="inlineStr"/>
-      <c r="P46" s="4" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr"/>
+      <c r="F47" s="4" t="inlineStr"/>
+      <c r="G47" s="4" t="inlineStr"/>
+      <c r="H47" s="4" t="inlineStr"/>
+      <c r="I47" s="4" t="inlineStr"/>
+      <c r="J47" s="4" t="inlineStr"/>
+      <c r="K47" s="4" t="inlineStr"/>
+      <c r="L47" s="4" t="inlineStr"/>
+      <c r="M47" s="4" t="inlineStr"/>
+      <c r="N47" s="4" t="inlineStr"/>
+      <c r="O47" s="4" t="inlineStr"/>
+      <c r="P47" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q46" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R46" s="4" t="inlineStr"/>
-      <c r="S46" s="4" t="inlineStr">
+      <c r="Q47" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R47" s="4" t="inlineStr"/>
+      <c r="S47" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T46" s="4" t="inlineStr"/>
-      <c r="U46" s="4" t="inlineStr"/>
-      <c r="V46" s="4" t="inlineStr">
+      <c r="T47" s="4" t="inlineStr"/>
+      <c r="U47" s="4" t="inlineStr"/>
+      <c r="V47" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000239</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>psychological treatment</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Mental health intervention content that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D48" s="2" t="inlineStr">
         <is>
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr"/>
-      <c r="F47" s="3" t="inlineStr"/>
-      <c r="G47" s="3" t="inlineStr"/>
-      <c r="H47" s="3" t="inlineStr"/>
-      <c r="I47" s="3" t="inlineStr"/>
-      <c r="J47" s="3" t="inlineStr"/>
-      <c r="K47" s="3" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr">
         <is>
           <t>https://bciosearch.org/BCIO_050364</t>
         </is>
       </c>
-      <c r="L47" s="3" t="inlineStr">
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>BCIO:050364</t>
         </is>
       </c>
-      <c r="M47" s="3" t="inlineStr"/>
-      <c r="N47" s="3" t="inlineStr"/>
-      <c r="O47" s="3" t="inlineStr"/>
-      <c r="P47" s="3" t="inlineStr">
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q47" s="3" t="inlineStr"/>
-      <c r="R47" s="3" t="inlineStr"/>
-      <c r="S47" s="3" t="inlineStr">
+      <c r="Q48" s="2" t="inlineStr"/>
+      <c r="R48" s="2" t="inlineStr"/>
+      <c r="S48" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T47" s="3" t="inlineStr"/>
-      <c r="U47" s="3" t="inlineStr"/>
-      <c r="V47" s="3" t="inlineStr">
+      <c r="T48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr">
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000195</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>resistance training behaviour</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr">
+      <c r="D50" s="2" t="inlineStr">
         <is>
           <t>physical performance behaviour pattern</t>
         </is>
       </c>
-      <c r="E49" s="3" t="inlineStr"/>
-      <c r="F49" s="3" t="inlineStr"/>
-      <c r="G49" s="3" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
         <is>
           <t>resistance training, strength training</t>
         </is>
       </c>
-      <c r="H49" s="3" t="inlineStr"/>
-      <c r="I49" s="3" t="inlineStr"/>
-      <c r="J49" s="3" t="inlineStr"/>
-      <c r="K49" s="3" t="inlineStr">
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="inlineStr"/>
+      <c r="K50" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
         </is>
       </c>
-      <c r="L49" s="3" t="inlineStr">
+      <c r="L50" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> COPPER:1005</t>
         </is>
       </c>
-      <c r="M49" s="3" t="inlineStr"/>
-      <c r="N49" s="3" t="inlineStr"/>
-      <c r="O49" s="3" t="inlineStr"/>
-      <c r="P49" s="3" t="inlineStr">
+      <c r="M50" s="2" t="inlineStr"/>
+      <c r="N50" s="2" t="inlineStr"/>
+      <c r="O50" s="2" t="inlineStr"/>
+      <c r="P50" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q49" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R49" s="3" t="inlineStr"/>
-      <c r="S49" s="3" t="inlineStr">
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R50" s="2" t="inlineStr"/>
+      <c r="S50" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T49" s="3" t="inlineStr"/>
-      <c r="U49" s="3" t="inlineStr"/>
-      <c r="V49" s="3" t="inlineStr">
+      <c r="T50" s="2" t="inlineStr"/>
+      <c r="U50" s="2" t="inlineStr"/>
+      <c r="V50" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000196</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>running</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="D51" s="2" t="inlineStr">
         <is>
           <t>locomotive behaviour</t>
         </is>
       </c>
-      <c r="E50" s="3" t="inlineStr"/>
-      <c r="F50" s="3" t="inlineStr"/>
-      <c r="G50" s="3" t="inlineStr"/>
-      <c r="H50" s="3" t="inlineStr"/>
-      <c r="I50" s="3" t="inlineStr"/>
-      <c r="J50" s="3" t="inlineStr"/>
-      <c r="K50" s="3" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr"/>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr">
         <is>
           <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
 Also drew on:
 - COPPER:1011"</t>
         </is>
       </c>
-      <c r="L50" s="3" t="inlineStr"/>
-      <c r="M50" s="3" t="inlineStr"/>
-      <c r="N50" s="3" t="inlineStr"/>
-      <c r="O50" s="3" t="inlineStr"/>
-      <c r="P50" s="3" t="inlineStr">
+      <c r="L51" s="2" t="inlineStr"/>
+      <c r="M51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="inlineStr"/>
+      <c r="P51" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q50" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R50" s="3" t="inlineStr"/>
-      <c r="S50" s="3" t="inlineStr">
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R51" s="2" t="inlineStr"/>
+      <c r="S51" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T50" s="3" t="inlineStr"/>
-      <c r="U50" s="3" t="inlineStr"/>
-      <c r="V50" s="3" t="inlineStr">
+      <c r="T51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="inlineStr"/>
+      <c r="V51" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>BCIO:011034</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mode of delivery</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>STATO:0000039</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>statistic</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3524,7 +3524,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -3547,304 +3547,304 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="inlineStr">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>STATO:0000039</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>statistic</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D53" s="4" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr"/>
-      <c r="F53" s="4" t="inlineStr"/>
-      <c r="G53" s="4" t="inlineStr"/>
-      <c r="H53" s="4" t="inlineStr"/>
-      <c r="I53" s="4" t="inlineStr"/>
-      <c r="J53" s="4" t="inlineStr"/>
-      <c r="K53" s="4" t="inlineStr"/>
-      <c r="L53" s="4" t="inlineStr"/>
-      <c r="M53" s="4" t="inlineStr"/>
-      <c r="N53" s="4" t="inlineStr"/>
-      <c r="O53" s="4" t="inlineStr"/>
-      <c r="P53" s="4" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr"/>
+      <c r="F54" s="4" t="inlineStr"/>
+      <c r="G54" s="4" t="inlineStr"/>
+      <c r="H54" s="4" t="inlineStr"/>
+      <c r="I54" s="4" t="inlineStr"/>
+      <c r="J54" s="4" t="inlineStr"/>
+      <c r="K54" s="4" t="inlineStr"/>
+      <c r="L54" s="4" t="inlineStr"/>
+      <c r="M54" s="4" t="inlineStr"/>
+      <c r="N54" s="4" t="inlineStr"/>
+      <c r="O54" s="4" t="inlineStr"/>
+      <c r="P54" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q53" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R53" s="4" t="inlineStr"/>
-      <c r="S53" s="4" t="inlineStr">
+      <c r="Q54" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R54" s="4" t="inlineStr"/>
+      <c r="S54" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T53" s="4" t="inlineStr"/>
-      <c r="U53" s="4" t="inlineStr"/>
-      <c r="V53" s="4" t="inlineStr">
+      <c r="T54" s="4" t="inlineStr"/>
+      <c r="U54" s="4" t="inlineStr"/>
+      <c r="V54" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr">
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr">
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000128</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>treatment as usual control arm</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
+      <c r="D56" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E55" s="3" t="inlineStr"/>
-      <c r="F55" s="3" t="inlineStr"/>
-      <c r="G55" s="3" t="inlineStr"/>
-      <c r="H55" s="3" t="inlineStr"/>
-      <c r="I55" s="3" t="inlineStr"/>
-      <c r="J55" s="3" t="inlineStr"/>
-      <c r="K55" s="3" t="inlineStr"/>
-      <c r="L55" s="3" t="inlineStr"/>
-      <c r="M55" s="3" t="inlineStr"/>
-      <c r="N55" s="3" t="inlineStr"/>
-      <c r="O55" s="3" t="inlineStr"/>
-      <c r="P55" s="3" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr"/>
+      <c r="H56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="inlineStr"/>
+      <c r="K56" s="2" t="inlineStr"/>
+      <c r="L56" s="2" t="inlineStr"/>
+      <c r="M56" s="2" t="inlineStr"/>
+      <c r="N56" s="2" t="inlineStr"/>
+      <c r="O56" s="2" t="inlineStr"/>
+      <c r="P56" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q55" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R55" s="3" t="inlineStr"/>
-      <c r="S55" s="3" t="inlineStr">
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R56" s="2" t="inlineStr"/>
+      <c r="S56" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T55" s="3" t="inlineStr"/>
-      <c r="U55" s="3" t="inlineStr">
+      <c r="T56" s="2" t="inlineStr"/>
+      <c r="U56" s="2" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V55" s="3" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="inlineStr">
+      <c r="V56" s="2" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000129</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>waitlist control arm</t>
         </is>
       </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="D57" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr"/>
-      <c r="F56" s="3" t="inlineStr"/>
-      <c r="G56" s="3" t="inlineStr"/>
-      <c r="H56" s="3" t="inlineStr"/>
-      <c r="I56" s="3" t="inlineStr"/>
-      <c r="J56" s="3" t="inlineStr"/>
-      <c r="K56" s="3" t="inlineStr"/>
-      <c r="L56" s="3" t="inlineStr"/>
-      <c r="M56" s="3" t="inlineStr"/>
-      <c r="N56" s="3" t="inlineStr"/>
-      <c r="O56" s="3" t="inlineStr"/>
-      <c r="P56" s="3" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr"/>
+      <c r="H57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr"/>
+      <c r="M57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr"/>
+      <c r="O57" s="2" t="inlineStr"/>
+      <c r="P57" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q56" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R56" s="3" t="inlineStr"/>
-      <c r="S56" s="3" t="inlineStr">
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R57" s="2" t="inlineStr"/>
+      <c r="S57" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T56" s="3" t="inlineStr"/>
-      <c r="U56" s="3" t="inlineStr">
+      <c r="T57" s="2" t="inlineStr"/>
+      <c r="U57" s="2" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V56" s="3" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3860,7 +3860,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -3885,22 +3885,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IAO:0000590</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A textual entity that denotes a particular in reality.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -3933,6 +3933,62 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>IAO:0000590</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A textual entity that denotes a particular in reality.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -2965,52 +2965,52 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>BCIO:036042</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>physical performance behaviour</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">individual human behaviour </t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr"/>
+      <c r="F43" s="3" t="inlineStr"/>
+      <c r="G43" s="3" t="inlineStr"/>
+      <c r="H43" s="3" t="inlineStr"/>
+      <c r="I43" s="3" t="inlineStr"/>
+      <c r="J43" s="3" t="inlineStr"/>
+      <c r="K43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="inlineStr"/>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr"/>
+      <c r="O43" s="3" t="inlineStr"/>
+      <c r="P43" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
+      <c r="Q43" s="3" t="inlineStr"/>
+      <c r="R43" s="3" t="inlineStr"/>
+      <c r="S43" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T43" s="3" t="inlineStr"/>
+      <c r="U43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="inlineStr">
         <is>
           <t>MS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2911,22 +2911,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2940,16 +2940,8 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
@@ -2960,137 +2952,137 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BCIO:036042</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>BCIO:036042</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>physical performance behaviour</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">individual human behaviour </t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr"/>
-      <c r="F43" s="3" t="inlineStr"/>
-      <c r="G43" s="3" t="inlineStr"/>
-      <c r="H43" s="3" t="inlineStr"/>
-      <c r="I43" s="3" t="inlineStr"/>
-      <c r="J43" s="3" t="inlineStr"/>
-      <c r="K43" s="3" t="inlineStr"/>
-      <c r="L43" s="3" t="inlineStr"/>
-      <c r="M43" s="3" t="inlineStr"/>
-      <c r="N43" s="3" t="inlineStr"/>
-      <c r="O43" s="3" t="inlineStr"/>
-      <c r="P43" s="3" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr"/>
+      <c r="F44" s="3" t="inlineStr"/>
+      <c r="G44" s="3" t="inlineStr"/>
+      <c r="H44" s="3" t="inlineStr"/>
+      <c r="I44" s="3" t="inlineStr"/>
+      <c r="J44" s="3" t="inlineStr"/>
+      <c r="K44" s="3" t="inlineStr"/>
+      <c r="L44" s="3" t="inlineStr"/>
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr"/>
+      <c r="O44" s="3" t="inlineStr"/>
+      <c r="P44" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q43" s="3" t="inlineStr"/>
-      <c r="R43" s="3" t="inlineStr"/>
-      <c r="S43" s="3" t="inlineStr">
+      <c r="Q44" s="3" t="inlineStr"/>
+      <c r="R44" s="3" t="inlineStr"/>
+      <c r="S44" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T43" s="3" t="inlineStr"/>
-      <c r="U43" s="3" t="inlineStr"/>
-      <c r="V43" s="3" t="inlineStr">
+      <c r="T44" s="3" t="inlineStr"/>
+      <c r="U44" s="3" t="inlineStr"/>
+      <c r="V44" s="3" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000194</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr"/>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr"/>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R44" s="2" t="inlineStr"/>
-      <c r="S44" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T44" s="2" t="inlineStr"/>
-      <c r="U44" s="2" t="inlineStr"/>
-      <c r="V44" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000009</t>
+          <t>GMHO:0000194</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>placebo intervention</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
@@ -3106,7 +3098,7 @@
       <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
@@ -3121,348 +3113,342 @@
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr"/>
-      <c r="U45" s="2" t="inlineStr">
+      <c r="U45" s="2" t="inlineStr"/>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000009</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>placebo intervention</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr"/>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr"/>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V45" s="2" t="inlineStr">
+      <c r="V46" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>IAO:0000104</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>directive information entity</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr">
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="4" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D47" s="4" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr"/>
-      <c r="F47" s="4" t="inlineStr"/>
-      <c r="G47" s="4" t="inlineStr"/>
-      <c r="H47" s="4" t="inlineStr"/>
-      <c r="I47" s="4" t="inlineStr"/>
-      <c r="J47" s="4" t="inlineStr"/>
-      <c r="K47" s="4" t="inlineStr"/>
-      <c r="L47" s="4" t="inlineStr"/>
-      <c r="M47" s="4" t="inlineStr"/>
-      <c r="N47" s="4" t="inlineStr"/>
-      <c r="O47" s="4" t="inlineStr"/>
-      <c r="P47" s="4" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="4" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr"/>
+      <c r="H48" s="4" t="inlineStr"/>
+      <c r="I48" s="4" t="inlineStr"/>
+      <c r="J48" s="4" t="inlineStr"/>
+      <c r="K48" s="4" t="inlineStr"/>
+      <c r="L48" s="4" t="inlineStr"/>
+      <c r="M48" s="4" t="inlineStr"/>
+      <c r="N48" s="4" t="inlineStr"/>
+      <c r="O48" s="4" t="inlineStr"/>
+      <c r="P48" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q47" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R47" s="4" t="inlineStr"/>
-      <c r="S47" s="4" t="inlineStr">
+      <c r="Q48" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R48" s="4" t="inlineStr"/>
+      <c r="S48" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T47" s="4" t="inlineStr"/>
-      <c r="U47" s="4" t="inlineStr"/>
-      <c r="V47" s="4" t="inlineStr">
+      <c r="T48" s="4" t="inlineStr"/>
+      <c r="U48" s="4" t="inlineStr"/>
+      <c r="V48" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000239</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>psychological treatment</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Mental health intervention content that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
+      <c r="D49" s="2" t="inlineStr">
         <is>
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr">
+      <c r="E49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr"/>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr">
         <is>
           <t>https://bciosearch.org/BCIO_050364</t>
         </is>
       </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>BCIO:050364</t>
         </is>
       </c>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr">
+      <c r="M49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr"/>
+      <c r="P49" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q48" s="2" t="inlineStr"/>
-      <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr">
+      <c r="Q49" s="2" t="inlineStr"/>
+      <c r="R49" s="2" t="inlineStr"/>
+      <c r="S49" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T48" s="2" t="inlineStr"/>
-      <c r="U48" s="2" t="inlineStr"/>
-      <c r="V48" s="2" t="inlineStr">
+      <c r="T49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="inlineStr"/>
+      <c r="V49" s="2" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
         <is>
           <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000195</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>resistance training behaviour</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>resistance training, strength training</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr"/>
-      <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
-        </is>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> COPPER:1005</t>
-        </is>
-      </c>
-      <c r="M50" s="2" t="inlineStr"/>
-      <c r="N50" s="2" t="inlineStr"/>
-      <c r="O50" s="2" t="inlineStr"/>
-      <c r="P50" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q50" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T50" s="2" t="inlineStr"/>
-      <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000196</t>
+          <t>GMHO:0000195</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>resistance training behaviour</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>resistance training, strength training</t>
+        </is>
+      </c>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
-Also drew on:
-- COPPER:1011"</t>
-        </is>
-      </c>
-      <c r="L51" s="2" t="inlineStr"/>
+          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPPER:1005</t>
+        </is>
+      </c>
       <c r="M51" s="2" t="inlineStr"/>
       <c r="N51" s="2" t="inlineStr"/>
       <c r="O51" s="2" t="inlineStr"/>
@@ -3491,80 +3477,86 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>BCIO:011034</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mode of delivery</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>PS</t>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000196</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr"/>
+      <c r="H52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
+Also drew on:
+- COPPER:1011"</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr"/>
+      <c r="M52" s="2" t="inlineStr"/>
+      <c r="N52" s="2" t="inlineStr"/>
+      <c r="O52" s="2" t="inlineStr"/>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R52" s="2" t="inlineStr"/>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T52" s="2" t="inlineStr"/>
+      <c r="U52" s="2" t="inlineStr"/>
+      <c r="V52" s="2" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>STATO:0000039</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>statistic</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3580,7 +3572,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -3603,187 +3595,187 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="inlineStr">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>STATO:0000039</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>statistic</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D54" s="4" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr"/>
-      <c r="F54" s="4" t="inlineStr"/>
-      <c r="G54" s="4" t="inlineStr"/>
-      <c r="H54" s="4" t="inlineStr"/>
-      <c r="I54" s="4" t="inlineStr"/>
-      <c r="J54" s="4" t="inlineStr"/>
-      <c r="K54" s="4" t="inlineStr"/>
-      <c r="L54" s="4" t="inlineStr"/>
-      <c r="M54" s="4" t="inlineStr"/>
-      <c r="N54" s="4" t="inlineStr"/>
-      <c r="O54" s="4" t="inlineStr"/>
-      <c r="P54" s="4" t="inlineStr">
+      <c r="E55" s="4" t="inlineStr"/>
+      <c r="F55" s="4" t="inlineStr"/>
+      <c r="G55" s="4" t="inlineStr"/>
+      <c r="H55" s="4" t="inlineStr"/>
+      <c r="I55" s="4" t="inlineStr"/>
+      <c r="J55" s="4" t="inlineStr"/>
+      <c r="K55" s="4" t="inlineStr"/>
+      <c r="L55" s="4" t="inlineStr"/>
+      <c r="M55" s="4" t="inlineStr"/>
+      <c r="N55" s="4" t="inlineStr"/>
+      <c r="O55" s="4" t="inlineStr"/>
+      <c r="P55" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q54" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R54" s="4" t="inlineStr"/>
-      <c r="S54" s="4" t="inlineStr">
+      <c r="Q55" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R55" s="4" t="inlineStr"/>
+      <c r="S55" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T54" s="4" t="inlineStr"/>
-      <c r="U54" s="4" t="inlineStr"/>
-      <c r="V54" s="4" t="inlineStr">
+      <c r="T55" s="4" t="inlineStr"/>
+      <c r="U55" s="4" t="inlineStr"/>
+      <c r="V55" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr">
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000128</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>treatment as usual control arm</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr"/>
-      <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr"/>
-      <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="inlineStr"/>
-      <c r="N56" s="2" t="inlineStr"/>
-      <c r="O56" s="2" t="inlineStr"/>
-      <c r="P56" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q56" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R56" s="2" t="inlineStr"/>
-      <c r="S56" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T56" s="2" t="inlineStr"/>
-      <c r="U56" s="2" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000129</t>
+          <t>GMHO:0000128</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>waitlist control arm</t>
+          <t>treatment as usual control arm</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
@@ -3827,80 +3819,80 @@
       <c r="V57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000129</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>waitlist control arm</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr"/>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr"/>
+      <c r="P58" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R58" s="2" t="inlineStr"/>
+      <c r="S58" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3916,7 +3908,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -3941,22 +3933,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IAO:0000590</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A textual entity that denotes a particular in reality.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -3972,7 +3964,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -3989,6 +3981,62 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>IAO:0000590</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A textual entity that denotes a particular in reality.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,11 @@
         <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2086,65 +2092,65 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000125</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr"/>
+      <c r="F28" s="5" t="inlineStr"/>
+      <c r="G28" s="5" t="inlineStr"/>
+      <c r="H28" s="5" t="inlineStr"/>
+      <c r="I28" s="5" t="inlineStr"/>
+      <c r="J28" s="5" t="inlineStr"/>
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Based on http://humanbehaviourchange.org/ontology/BCIO_007000
 </t>
         </is>
       </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="L28" s="5" t="inlineStr">
         <is>
           <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr"/>
+      <c r="N28" s="5" t="inlineStr"/>
+      <c r="O28" s="5" t="inlineStr"/>
+      <c r="P28" s="5" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="inlineStr"/>
-      <c r="U28" s="2" t="inlineStr"/>
-      <c r="V28" s="2" t="inlineStr">
+      <c r="Q28" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R28" s="5" t="inlineStr"/>
+      <c r="S28" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T28" s="5" t="inlineStr"/>
+      <c r="U28" s="5" t="inlineStr"/>
+      <c r="V28" s="5" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
@@ -3013,52 +3019,52 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>BCIO:036042</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>physical performance behaviour</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t xml:space="preserve">individual human behaviour </t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr"/>
-      <c r="F44" s="3" t="inlineStr"/>
-      <c r="G44" s="3" t="inlineStr"/>
-      <c r="H44" s="3" t="inlineStr"/>
-      <c r="I44" s="3" t="inlineStr"/>
-      <c r="J44" s="3" t="inlineStr"/>
-      <c r="K44" s="3" t="inlineStr"/>
-      <c r="L44" s="3" t="inlineStr"/>
-      <c r="M44" s="3" t="inlineStr"/>
-      <c r="N44" s="3" t="inlineStr"/>
-      <c r="O44" s="3" t="inlineStr"/>
-      <c r="P44" s="3" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q44" s="3" t="inlineStr"/>
-      <c r="R44" s="3" t="inlineStr"/>
-      <c r="S44" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T44" s="3" t="inlineStr"/>
-      <c r="U44" s="3" t="inlineStr"/>
-      <c r="V44" s="3" t="inlineStr">
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
         <is>
           <t>MS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -52,11 +52,6 @@
         <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2092,65 +2086,65 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000125</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr"/>
-      <c r="F28" s="5" t="inlineStr"/>
-      <c r="G28" s="5" t="inlineStr"/>
-      <c r="H28" s="5" t="inlineStr"/>
-      <c r="I28" s="5" t="inlineStr"/>
-      <c r="J28" s="5" t="inlineStr"/>
-      <c r="K28" s="5" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr"/>
+      <c r="H28" s="4" t="inlineStr"/>
+      <c r="I28" s="4" t="inlineStr"/>
+      <c r="J28" s="4" t="inlineStr"/>
+      <c r="K28" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Based on http://humanbehaviourchange.org/ontology/BCIO_007000
 </t>
         </is>
       </c>
-      <c r="L28" s="5" t="inlineStr">
+      <c r="L28" s="4" t="inlineStr">
         <is>
           <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
-      <c r="M28" s="5" t="inlineStr"/>
-      <c r="N28" s="5" t="inlineStr"/>
-      <c r="O28" s="5" t="inlineStr"/>
-      <c r="P28" s="5" t="inlineStr">
+      <c r="M28" s="4" t="inlineStr"/>
+      <c r="N28" s="4" t="inlineStr"/>
+      <c r="O28" s="4" t="inlineStr"/>
+      <c r="P28" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q28" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R28" s="5" t="inlineStr"/>
-      <c r="S28" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T28" s="5" t="inlineStr"/>
-      <c r="U28" s="5" t="inlineStr"/>
-      <c r="V28" s="5" t="inlineStr">
+      <c r="Q28" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R28" s="4" t="inlineStr"/>
+      <c r="S28" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T28" s="4" t="inlineStr"/>
+      <c r="U28" s="4" t="inlineStr"/>
+      <c r="V28" s="4" t="inlineStr">
         <is>
           <t>MS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -45,6 +45,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="002f4f4f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1261,58 +1267,58 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000122</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>A study arm designation as a comparator to some intervention arm.</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr"/>
+      <c r="G14" s="4" t="inlineStr"/>
+      <c r="H14" s="4" t="inlineStr"/>
+      <c r="I14" s="4" t="inlineStr"/>
+      <c r="J14" s="4" t="inlineStr"/>
+      <c r="K14" s="4" t="inlineStr"/>
+      <c r="L14" s="4" t="inlineStr"/>
+      <c r="M14" s="4" t="inlineStr"/>
+      <c r="N14" s="4" t="inlineStr"/>
+      <c r="O14" s="4" t="inlineStr"/>
+      <c r="P14" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr"/>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
+      <c r="Q14" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R14" s="4" t="inlineStr"/>
+      <c r="S14" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T14" s="4" t="inlineStr"/>
+      <c r="U14" s="4" t="inlineStr"/>
+      <c r="V14" s="4" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
@@ -1489,125 +1495,125 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000001</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Dose of pharmacological substance delivered to an individual.</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr"/>
-      <c r="F18" s="4" t="inlineStr"/>
-      <c r="G18" s="4" t="inlineStr"/>
-      <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="4" t="inlineStr"/>
-      <c r="J18" s="4" t="inlineStr"/>
-      <c r="K18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr"/>
+      <c r="F18" s="5" t="inlineStr"/>
+      <c r="G18" s="5" t="inlineStr"/>
+      <c r="H18" s="5" t="inlineStr"/>
+      <c r="I18" s="5" t="inlineStr"/>
+      <c r="J18" s="5" t="inlineStr"/>
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Parent class from Ontology for Biomedical Investigations
 </t>
         </is>
       </c>
-      <c r="L18" s="4" t="inlineStr"/>
-      <c r="M18" s="4" t="inlineStr"/>
-      <c r="N18" s="4" t="inlineStr"/>
-      <c r="O18" s="4" t="inlineStr"/>
-      <c r="P18" s="4" t="inlineStr">
+      <c r="L18" s="5" t="inlineStr"/>
+      <c r="M18" s="5" t="inlineStr"/>
+      <c r="N18" s="5" t="inlineStr"/>
+      <c r="O18" s="5" t="inlineStr"/>
+      <c r="P18" s="5" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
         </is>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R18" s="4" t="inlineStr"/>
-      <c r="S18" s="4" t="inlineStr">
+      <c r="Q18" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R18" s="5" t="inlineStr"/>
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T18" s="4" t="inlineStr"/>
-      <c r="U18" s="4" t="inlineStr">
+      <c r="T18" s="5" t="inlineStr"/>
+      <c r="U18" s="5" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V18" s="4" t="inlineStr">
+      <c r="V18" s="5" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000002</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>drug name</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">A written name intended to identify a particular drug. </t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="4" t="inlineStr"/>
-      <c r="G19" s="4" t="inlineStr"/>
-      <c r="H19" s="4" t="inlineStr"/>
-      <c r="I19" s="4" t="inlineStr"/>
-      <c r="J19" s="4" t="inlineStr"/>
-      <c r="K19" s="4" t="inlineStr"/>
-      <c r="L19" s="4" t="inlineStr"/>
-      <c r="M19" s="4" t="inlineStr"/>
-      <c r="N19" s="4" t="inlineStr"/>
-      <c r="O19" s="4" t="inlineStr"/>
-      <c r="P19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr"/>
+      <c r="F19" s="5" t="inlineStr"/>
+      <c r="G19" s="5" t="inlineStr"/>
+      <c r="H19" s="5" t="inlineStr"/>
+      <c r="I19" s="5" t="inlineStr"/>
+      <c r="J19" s="5" t="inlineStr"/>
+      <c r="K19" s="5" t="inlineStr"/>
+      <c r="L19" s="5" t="inlineStr"/>
+      <c r="M19" s="5" t="inlineStr"/>
+      <c r="N19" s="5" t="inlineStr"/>
+      <c r="O19" s="5" t="inlineStr"/>
+      <c r="P19" s="5" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R19" s="4" t="inlineStr"/>
-      <c r="S19" s="4" t="inlineStr">
+      <c r="Q19" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R19" s="5" t="inlineStr"/>
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T19" s="4" t="inlineStr"/>
-      <c r="U19" s="4" t="inlineStr">
+      <c r="T19" s="5" t="inlineStr"/>
+      <c r="U19" s="5" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V19" s="4" t="inlineStr">
+      <c r="V19" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1898,116 +1904,116 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000123</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>intervention arm</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr"/>
-      <c r="F25" s="4" t="inlineStr"/>
-      <c r="G25" s="4" t="inlineStr"/>
-      <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="4" t="inlineStr"/>
-      <c r="J25" s="4" t="inlineStr"/>
-      <c r="K25" s="4" t="inlineStr"/>
-      <c r="L25" s="4" t="inlineStr"/>
-      <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr"/>
-      <c r="O25" s="4" t="inlineStr"/>
-      <c r="P25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr"/>
+      <c r="F25" s="5" t="inlineStr"/>
+      <c r="G25" s="5" t="inlineStr"/>
+      <c r="H25" s="5" t="inlineStr"/>
+      <c r="I25" s="5" t="inlineStr"/>
+      <c r="J25" s="5" t="inlineStr"/>
+      <c r="K25" s="5" t="inlineStr"/>
+      <c r="L25" s="5" t="inlineStr"/>
+      <c r="M25" s="5" t="inlineStr"/>
+      <c r="N25" s="5" t="inlineStr"/>
+      <c r="O25" s="5" t="inlineStr"/>
+      <c r="P25" s="5" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q25" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R25" s="4" t="inlineStr"/>
-      <c r="S25" s="4" t="inlineStr">
+      <c r="Q25" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R25" s="5" t="inlineStr"/>
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T25" s="4" t="inlineStr"/>
-      <c r="U25" s="4" t="inlineStr"/>
-      <c r="V25" s="4" t="inlineStr">
+      <c r="T25" s="5" t="inlineStr"/>
+      <c r="U25" s="5" t="inlineStr"/>
+      <c r="V25" s="5" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000004</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>intervention arm name</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
         </is>
       </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr"/>
-      <c r="F26" s="4" t="inlineStr"/>
-      <c r="G26" s="4" t="inlineStr"/>
-      <c r="H26" s="4" t="inlineStr"/>
-      <c r="I26" s="4" t="inlineStr"/>
-      <c r="J26" s="4" t="inlineStr"/>
-      <c r="K26" s="4" t="inlineStr"/>
-      <c r="L26" s="4" t="inlineStr"/>
-      <c r="M26" s="4" t="inlineStr"/>
-      <c r="N26" s="4" t="inlineStr"/>
-      <c r="O26" s="4" t="inlineStr"/>
-      <c r="P26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr"/>
+      <c r="F26" s="5" t="inlineStr"/>
+      <c r="G26" s="5" t="inlineStr"/>
+      <c r="H26" s="5" t="inlineStr"/>
+      <c r="I26" s="5" t="inlineStr"/>
+      <c r="J26" s="5" t="inlineStr"/>
+      <c r="K26" s="5" t="inlineStr"/>
+      <c r="L26" s="5" t="inlineStr"/>
+      <c r="M26" s="5" t="inlineStr"/>
+      <c r="N26" s="5" t="inlineStr"/>
+      <c r="O26" s="5" t="inlineStr"/>
+      <c r="P26" s="5" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q26" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R26" s="4" t="inlineStr"/>
-      <c r="S26" s="4" t="inlineStr">
+      <c r="Q26" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R26" s="5" t="inlineStr"/>
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T26" s="4" t="inlineStr"/>
-      <c r="U26" s="4" t="inlineStr">
+      <c r="T26" s="5" t="inlineStr"/>
+      <c r="U26" s="5" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V26" s="4" t="inlineStr">
+      <c r="V26" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2086,143 +2092,143 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000125</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr"/>
-      <c r="F28" s="4" t="inlineStr"/>
-      <c r="G28" s="4" t="inlineStr"/>
-      <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="4" t="inlineStr"/>
-      <c r="J28" s="4" t="inlineStr"/>
-      <c r="K28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr"/>
+      <c r="F28" s="5" t="inlineStr"/>
+      <c r="G28" s="5" t="inlineStr"/>
+      <c r="H28" s="5" t="inlineStr"/>
+      <c r="I28" s="5" t="inlineStr"/>
+      <c r="J28" s="5" t="inlineStr"/>
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Based on http://humanbehaviourchange.org/ontology/BCIO_007000
 </t>
         </is>
       </c>
-      <c r="L28" s="4" t="inlineStr">
+      <c r="L28" s="5" t="inlineStr">
         <is>
           <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
-      <c r="M28" s="4" t="inlineStr"/>
-      <c r="N28" s="4" t="inlineStr"/>
-      <c r="O28" s="4" t="inlineStr"/>
-      <c r="P28" s="4" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr"/>
+      <c r="N28" s="5" t="inlineStr"/>
+      <c r="O28" s="5" t="inlineStr"/>
+      <c r="P28" s="5" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q28" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R28" s="4" t="inlineStr"/>
-      <c r="S28" s="4" t="inlineStr">
+      <c r="Q28" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R28" s="5" t="inlineStr"/>
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T28" s="4" t="inlineStr"/>
-      <c r="U28" s="4" t="inlineStr"/>
-      <c r="V28" s="4" t="inlineStr">
+      <c r="T28" s="5" t="inlineStr"/>
+      <c r="U28" s="5" t="inlineStr"/>
+      <c r="V28" s="5" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000005</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>intervention duration</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention.</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr"/>
-      <c r="F29" s="4" t="inlineStr"/>
-      <c r="G29" s="4" t="inlineStr"/>
-      <c r="H29" s="4" t="inlineStr"/>
-      <c r="I29" s="4" t="inlineStr"/>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr"/>
+      <c r="F29" s="5" t="inlineStr"/>
+      <c r="G29" s="5" t="inlineStr"/>
+      <c r="H29" s="5" t="inlineStr"/>
+      <c r="I29" s="5" t="inlineStr"/>
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t>intervention content and delivery</t>
         </is>
       </c>
-      <c r="K29" s="4" t="inlineStr">
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">inspired by BCIO:008560
 </t>
         </is>
       </c>
-      <c r="L29" s="4" t="inlineStr">
+      <c r="L29" s="5" t="inlineStr">
         <is>
           <t>BCIO:008560</t>
         </is>
       </c>
-      <c r="M29" s="4" t="inlineStr"/>
-      <c r="N29" s="4" t="inlineStr"/>
-      <c r="O29" s="4" t="inlineStr"/>
-      <c r="P29" s="4" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr"/>
+      <c r="N29" s="5" t="inlineStr"/>
+      <c r="O29" s="5" t="inlineStr"/>
+      <c r="P29" s="5" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q29" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R29" s="4" t="inlineStr"/>
-      <c r="S29" s="4" t="inlineStr">
+      <c r="Q29" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R29" s="5" t="inlineStr"/>
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T29" s="4" t="inlineStr">
+      <c r="T29" s="5" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U29" s="4" t="inlineStr">
+      <c r="U29" s="5" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V29" s="4" t="inlineStr">
+      <c r="V29" s="5" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -3237,56 +3243,56 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="A48" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C48" s="5" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D48" s="4" t="inlineStr">
+      <c r="D48" s="5" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr"/>
-      <c r="F48" s="4" t="inlineStr"/>
-      <c r="G48" s="4" t="inlineStr"/>
-      <c r="H48" s="4" t="inlineStr"/>
-      <c r="I48" s="4" t="inlineStr"/>
-      <c r="J48" s="4" t="inlineStr"/>
-      <c r="K48" s="4" t="inlineStr"/>
-      <c r="L48" s="4" t="inlineStr"/>
-      <c r="M48" s="4" t="inlineStr"/>
-      <c r="N48" s="4" t="inlineStr"/>
-      <c r="O48" s="4" t="inlineStr"/>
-      <c r="P48" s="4" t="inlineStr">
+      <c r="E48" s="5" t="inlineStr"/>
+      <c r="F48" s="5" t="inlineStr"/>
+      <c r="G48" s="5" t="inlineStr"/>
+      <c r="H48" s="5" t="inlineStr"/>
+      <c r="I48" s="5" t="inlineStr"/>
+      <c r="J48" s="5" t="inlineStr"/>
+      <c r="K48" s="5" t="inlineStr"/>
+      <c r="L48" s="5" t="inlineStr"/>
+      <c r="M48" s="5" t="inlineStr"/>
+      <c r="N48" s="5" t="inlineStr"/>
+      <c r="O48" s="5" t="inlineStr"/>
+      <c r="P48" s="5" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q48" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R48" s="4" t="inlineStr"/>
-      <c r="S48" s="4" t="inlineStr">
+      <c r="Q48" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R48" s="5" t="inlineStr"/>
+      <c r="S48" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T48" s="4" t="inlineStr"/>
-      <c r="U48" s="4" t="inlineStr"/>
-      <c r="V48" s="4" t="inlineStr">
+      <c r="T48" s="5" t="inlineStr"/>
+      <c r="U48" s="5" t="inlineStr"/>
+      <c r="V48" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3651,56 +3657,56 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D55" s="4" t="inlineStr">
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr"/>
-      <c r="F55" s="4" t="inlineStr"/>
-      <c r="G55" s="4" t="inlineStr"/>
-      <c r="H55" s="4" t="inlineStr"/>
-      <c r="I55" s="4" t="inlineStr"/>
-      <c r="J55" s="4" t="inlineStr"/>
-      <c r="K55" s="4" t="inlineStr"/>
-      <c r="L55" s="4" t="inlineStr"/>
-      <c r="M55" s="4" t="inlineStr"/>
-      <c r="N55" s="4" t="inlineStr"/>
-      <c r="O55" s="4" t="inlineStr"/>
-      <c r="P55" s="4" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr"/>
+      <c r="F55" s="5" t="inlineStr"/>
+      <c r="G55" s="5" t="inlineStr"/>
+      <c r="H55" s="5" t="inlineStr"/>
+      <c r="I55" s="5" t="inlineStr"/>
+      <c r="J55" s="5" t="inlineStr"/>
+      <c r="K55" s="5" t="inlineStr"/>
+      <c r="L55" s="5" t="inlineStr"/>
+      <c r="M55" s="5" t="inlineStr"/>
+      <c r="N55" s="5" t="inlineStr"/>
+      <c r="O55" s="5" t="inlineStr"/>
+      <c r="P55" s="5" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q55" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R55" s="4" t="inlineStr"/>
-      <c r="S55" s="4" t="inlineStr">
+      <c r="Q55" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R55" s="5" t="inlineStr"/>
+      <c r="S55" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T55" s="4" t="inlineStr"/>
-      <c r="U55" s="4" t="inlineStr"/>
-      <c r="V55" s="4" t="inlineStr">
+      <c r="T55" s="5" t="inlineStr"/>
+      <c r="U55" s="5" t="inlineStr"/>
+      <c r="V55" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -45,11 +45,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="002f4f4f"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1311,7 +1305,7 @@
       <c r="R14" s="4" t="inlineStr"/>
       <c r="S14" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T14" s="4" t="inlineStr"/>
@@ -1495,125 +1489,125 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000001</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>Dose of pharmacological substance delivered to an individual.</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr"/>
+      <c r="F18" s="4" t="inlineStr"/>
+      <c r="G18" s="4" t="inlineStr"/>
+      <c r="H18" s="4" t="inlineStr"/>
+      <c r="I18" s="4" t="inlineStr"/>
+      <c r="J18" s="4" t="inlineStr"/>
+      <c r="K18" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parent class from Ontology for Biomedical Investigations
 </t>
         </is>
       </c>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr">
+      <c r="L18" s="4" t="inlineStr"/>
+      <c r="M18" s="4" t="inlineStr"/>
+      <c r="N18" s="4" t="inlineStr"/>
+      <c r="O18" s="4" t="inlineStr"/>
+      <c r="P18" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
         </is>
       </c>
-      <c r="Q18" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R18" s="5" t="inlineStr"/>
-      <c r="S18" s="5" t="inlineStr">
+      <c r="Q18" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R18" s="4" t="inlineStr"/>
+      <c r="S18" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T18" s="5" t="inlineStr"/>
-      <c r="U18" s="5" t="inlineStr">
+      <c r="T18" s="4" t="inlineStr"/>
+      <c r="U18" s="4" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V18" s="5" t="inlineStr">
+      <c r="V18" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000002</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>drug name</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A written name intended to identify a particular drug. </t>
         </is>
       </c>
-      <c r="D19" s="5" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr"/>
+      <c r="H19" s="4" t="inlineStr"/>
+      <c r="I19" s="4" t="inlineStr"/>
+      <c r="J19" s="4" t="inlineStr"/>
+      <c r="K19" s="4" t="inlineStr"/>
+      <c r="L19" s="4" t="inlineStr"/>
+      <c r="M19" s="4" t="inlineStr"/>
+      <c r="N19" s="4" t="inlineStr"/>
+      <c r="O19" s="4" t="inlineStr"/>
+      <c r="P19" s="4" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q19" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R19" s="5" t="inlineStr"/>
-      <c r="S19" s="5" t="inlineStr">
+      <c r="Q19" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R19" s="4" t="inlineStr"/>
+      <c r="S19" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T19" s="5" t="inlineStr"/>
-      <c r="U19" s="5" t="inlineStr">
+      <c r="T19" s="4" t="inlineStr"/>
+      <c r="U19" s="4" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V19" s="5" t="inlineStr">
+      <c r="V19" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1904,116 +1898,116 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000123</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>intervention arm</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D25" s="5" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="E25" s="5" t="inlineStr"/>
-      <c r="F25" s="5" t="inlineStr"/>
-      <c r="G25" s="5" t="inlineStr"/>
-      <c r="H25" s="5" t="inlineStr"/>
-      <c r="I25" s="5" t="inlineStr"/>
-      <c r="J25" s="5" t="inlineStr"/>
-      <c r="K25" s="5" t="inlineStr"/>
-      <c r="L25" s="5" t="inlineStr"/>
-      <c r="M25" s="5" t="inlineStr"/>
-      <c r="N25" s="5" t="inlineStr"/>
-      <c r="O25" s="5" t="inlineStr"/>
-      <c r="P25" s="5" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr"/>
+      <c r="H25" s="4" t="inlineStr"/>
+      <c r="I25" s="4" t="inlineStr"/>
+      <c r="J25" s="4" t="inlineStr"/>
+      <c r="K25" s="4" t="inlineStr"/>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr"/>
+      <c r="O25" s="4" t="inlineStr"/>
+      <c r="P25" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q25" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R25" s="5" t="inlineStr"/>
-      <c r="S25" s="5" t="inlineStr">
+      <c r="Q25" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R25" s="4" t="inlineStr"/>
+      <c r="S25" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T25" s="5" t="inlineStr"/>
-      <c r="U25" s="5" t="inlineStr"/>
-      <c r="V25" s="5" t="inlineStr">
+      <c r="T25" s="4" t="inlineStr"/>
+      <c r="U25" s="4" t="inlineStr"/>
+      <c r="V25" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000004</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>intervention arm name</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr"/>
-      <c r="F26" s="5" t="inlineStr"/>
-      <c r="G26" s="5" t="inlineStr"/>
-      <c r="H26" s="5" t="inlineStr"/>
-      <c r="I26" s="5" t="inlineStr"/>
-      <c r="J26" s="5" t="inlineStr"/>
-      <c r="K26" s="5" t="inlineStr"/>
-      <c r="L26" s="5" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr"/>
-      <c r="N26" s="5" t="inlineStr"/>
-      <c r="O26" s="5" t="inlineStr"/>
-      <c r="P26" s="5" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="inlineStr"/>
+      <c r="G26" s="4" t="inlineStr"/>
+      <c r="H26" s="4" t="inlineStr"/>
+      <c r="I26" s="4" t="inlineStr"/>
+      <c r="J26" s="4" t="inlineStr"/>
+      <c r="K26" s="4" t="inlineStr"/>
+      <c r="L26" s="4" t="inlineStr"/>
+      <c r="M26" s="4" t="inlineStr"/>
+      <c r="N26" s="4" t="inlineStr"/>
+      <c r="O26" s="4" t="inlineStr"/>
+      <c r="P26" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q26" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R26" s="5" t="inlineStr"/>
-      <c r="S26" s="5" t="inlineStr">
+      <c r="Q26" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R26" s="4" t="inlineStr"/>
+      <c r="S26" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T26" s="5" t="inlineStr"/>
-      <c r="U26" s="5" t="inlineStr">
+      <c r="T26" s="4" t="inlineStr"/>
+      <c r="U26" s="4" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V26" s="5" t="inlineStr">
+      <c r="V26" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2092,143 +2086,143 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000125</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr"/>
-      <c r="F28" s="5" t="inlineStr"/>
-      <c r="G28" s="5" t="inlineStr"/>
-      <c r="H28" s="5" t="inlineStr"/>
-      <c r="I28" s="5" t="inlineStr"/>
-      <c r="J28" s="5" t="inlineStr"/>
-      <c r="K28" s="5" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr"/>
+      <c r="H28" s="4" t="inlineStr"/>
+      <c r="I28" s="4" t="inlineStr"/>
+      <c r="J28" s="4" t="inlineStr"/>
+      <c r="K28" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Based on http://humanbehaviourchange.org/ontology/BCIO_007000
 </t>
         </is>
       </c>
-      <c r="L28" s="5" t="inlineStr">
+      <c r="L28" s="4" t="inlineStr">
         <is>
           <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
-      <c r="M28" s="5" t="inlineStr"/>
-      <c r="N28" s="5" t="inlineStr"/>
-      <c r="O28" s="5" t="inlineStr"/>
-      <c r="P28" s="5" t="inlineStr">
+      <c r="M28" s="4" t="inlineStr"/>
+      <c r="N28" s="4" t="inlineStr"/>
+      <c r="O28" s="4" t="inlineStr"/>
+      <c r="P28" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q28" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R28" s="5" t="inlineStr"/>
-      <c r="S28" s="5" t="inlineStr">
+      <c r="Q28" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R28" s="4" t="inlineStr"/>
+      <c r="S28" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T28" s="5" t="inlineStr"/>
-      <c r="U28" s="5" t="inlineStr"/>
-      <c r="V28" s="5" t="inlineStr">
+      <c r="T28" s="4" t="inlineStr"/>
+      <c r="U28" s="4" t="inlineStr"/>
+      <c r="V28" s="4" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000005</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>intervention duration</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention.</t>
         </is>
       </c>
-      <c r="D29" s="5" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr"/>
-      <c r="F29" s="5" t="inlineStr"/>
-      <c r="G29" s="5" t="inlineStr"/>
-      <c r="H29" s="5" t="inlineStr"/>
-      <c r="I29" s="5" t="inlineStr"/>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="inlineStr"/>
+      <c r="G29" s="4" t="inlineStr"/>
+      <c r="H29" s="4" t="inlineStr"/>
+      <c r="I29" s="4" t="inlineStr"/>
+      <c r="J29" s="4" t="inlineStr">
         <is>
           <t>intervention content and delivery</t>
         </is>
       </c>
-      <c r="K29" s="5" t="inlineStr">
+      <c r="K29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">inspired by BCIO:008560
 </t>
         </is>
       </c>
-      <c r="L29" s="5" t="inlineStr">
+      <c r="L29" s="4" t="inlineStr">
         <is>
           <t>BCIO:008560</t>
         </is>
       </c>
-      <c r="M29" s="5" t="inlineStr"/>
-      <c r="N29" s="5" t="inlineStr"/>
-      <c r="O29" s="5" t="inlineStr"/>
-      <c r="P29" s="5" t="inlineStr">
+      <c r="M29" s="4" t="inlineStr"/>
+      <c r="N29" s="4" t="inlineStr"/>
+      <c r="O29" s="4" t="inlineStr"/>
+      <c r="P29" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q29" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R29" s="5" t="inlineStr"/>
-      <c r="S29" s="5" t="inlineStr">
+      <c r="Q29" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R29" s="4" t="inlineStr"/>
+      <c r="S29" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T29" s="5" t="inlineStr">
+      <c r="T29" s="4" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U29" s="5" t="inlineStr">
+      <c r="U29" s="4" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V29" s="5" t="inlineStr">
+      <c r="V29" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -3243,56 +3237,56 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="inlineStr">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B48" s="5" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C48" s="5" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D48" s="5" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E48" s="5" t="inlineStr"/>
-      <c r="F48" s="5" t="inlineStr"/>
-      <c r="G48" s="5" t="inlineStr"/>
-      <c r="H48" s="5" t="inlineStr"/>
-      <c r="I48" s="5" t="inlineStr"/>
-      <c r="J48" s="5" t="inlineStr"/>
-      <c r="K48" s="5" t="inlineStr"/>
-      <c r="L48" s="5" t="inlineStr"/>
-      <c r="M48" s="5" t="inlineStr"/>
-      <c r="N48" s="5" t="inlineStr"/>
-      <c r="O48" s="5" t="inlineStr"/>
-      <c r="P48" s="5" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="4" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr"/>
+      <c r="H48" s="4" t="inlineStr"/>
+      <c r="I48" s="4" t="inlineStr"/>
+      <c r="J48" s="4" t="inlineStr"/>
+      <c r="K48" s="4" t="inlineStr"/>
+      <c r="L48" s="4" t="inlineStr"/>
+      <c r="M48" s="4" t="inlineStr"/>
+      <c r="N48" s="4" t="inlineStr"/>
+      <c r="O48" s="4" t="inlineStr"/>
+      <c r="P48" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q48" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R48" s="5" t="inlineStr"/>
-      <c r="S48" s="5" t="inlineStr">
+      <c r="Q48" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R48" s="4" t="inlineStr"/>
+      <c r="S48" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T48" s="5" t="inlineStr"/>
-      <c r="U48" s="5" t="inlineStr"/>
-      <c r="V48" s="5" t="inlineStr">
+      <c r="T48" s="4" t="inlineStr"/>
+      <c r="U48" s="4" t="inlineStr"/>
+      <c r="V48" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3657,56 +3651,56 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="inlineStr">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C55" s="5" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D55" s="5" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr"/>
-      <c r="F55" s="5" t="inlineStr"/>
-      <c r="G55" s="5" t="inlineStr"/>
-      <c r="H55" s="5" t="inlineStr"/>
-      <c r="I55" s="5" t="inlineStr"/>
-      <c r="J55" s="5" t="inlineStr"/>
-      <c r="K55" s="5" t="inlineStr"/>
-      <c r="L55" s="5" t="inlineStr"/>
-      <c r="M55" s="5" t="inlineStr"/>
-      <c r="N55" s="5" t="inlineStr"/>
-      <c r="O55" s="5" t="inlineStr"/>
-      <c r="P55" s="5" t="inlineStr">
+      <c r="E55" s="4" t="inlineStr"/>
+      <c r="F55" s="4" t="inlineStr"/>
+      <c r="G55" s="4" t="inlineStr"/>
+      <c r="H55" s="4" t="inlineStr"/>
+      <c r="I55" s="4" t="inlineStr"/>
+      <c r="J55" s="4" t="inlineStr"/>
+      <c r="K55" s="4" t="inlineStr"/>
+      <c r="L55" s="4" t="inlineStr"/>
+      <c r="M55" s="4" t="inlineStr"/>
+      <c r="N55" s="4" t="inlineStr"/>
+      <c r="O55" s="4" t="inlineStr"/>
+      <c r="P55" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q55" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R55" s="5" t="inlineStr"/>
-      <c r="S55" s="5" t="inlineStr">
+      <c r="Q55" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R55" s="4" t="inlineStr"/>
+      <c r="S55" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T55" s="5" t="inlineStr"/>
-      <c r="U55" s="5" t="inlineStr"/>
-      <c r="V55" s="5" t="inlineStr">
+      <c r="T55" s="4" t="inlineStr"/>
+      <c r="U55" s="4" t="inlineStr"/>
+      <c r="V55" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,11 @@
         <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3763,60 +3769,64 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="A57" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000128</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>treatment as usual control arm</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" s="5" t="inlineStr">
         <is>
           <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr">
+      <c r="D57" s="5" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr"/>
-      <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
-      <c r="O57" s="2" t="inlineStr"/>
-      <c r="P57" s="2" t="inlineStr">
+      <c r="E57" s="5" t="inlineStr"/>
+      <c r="F57" s="5" t="inlineStr"/>
+      <c r="G57" s="5" t="inlineStr"/>
+      <c r="H57" s="5" t="inlineStr"/>
+      <c r="I57" s="5" t="inlineStr"/>
+      <c r="J57" s="5" t="inlineStr"/>
+      <c r="K57" s="5" t="inlineStr"/>
+      <c r="L57" s="5" t="inlineStr"/>
+      <c r="M57" s="5" t="inlineStr"/>
+      <c r="N57" s="5" t="inlineStr"/>
+      <c r="O57" s="5" t="inlineStr"/>
+      <c r="P57" s="5" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q57" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R57" s="2" t="inlineStr"/>
-      <c r="S57" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T57" s="2" t="inlineStr"/>
-      <c r="U57" s="2" t="inlineStr">
+      <c r="Q57" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R57" s="5" t="inlineStr"/>
+      <c r="S57" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T57" s="5" t="inlineStr"/>
+      <c r="U57" s="5" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V57" s="2" t="inlineStr"/>
+      <c r="V57" s="5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -52,11 +52,6 @@
         <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3769,60 +3763,60 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="inlineStr">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000128</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>treatment as usual control arm</t>
         </is>
       </c>
-      <c r="C57" s="5" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
-      <c r="D57" s="5" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E57" s="5" t="inlineStr"/>
-      <c r="F57" s="5" t="inlineStr"/>
-      <c r="G57" s="5" t="inlineStr"/>
-      <c r="H57" s="5" t="inlineStr"/>
-      <c r="I57" s="5" t="inlineStr"/>
-      <c r="J57" s="5" t="inlineStr"/>
-      <c r="K57" s="5" t="inlineStr"/>
-      <c r="L57" s="5" t="inlineStr"/>
-      <c r="M57" s="5" t="inlineStr"/>
-      <c r="N57" s="5" t="inlineStr"/>
-      <c r="O57" s="5" t="inlineStr"/>
-      <c r="P57" s="5" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr"/>
+      <c r="F57" s="4" t="inlineStr"/>
+      <c r="G57" s="4" t="inlineStr"/>
+      <c r="H57" s="4" t="inlineStr"/>
+      <c r="I57" s="4" t="inlineStr"/>
+      <c r="J57" s="4" t="inlineStr"/>
+      <c r="K57" s="4" t="inlineStr"/>
+      <c r="L57" s="4" t="inlineStr"/>
+      <c r="M57" s="4" t="inlineStr"/>
+      <c r="N57" s="4" t="inlineStr"/>
+      <c r="O57" s="4" t="inlineStr"/>
+      <c r="P57" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q57" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R57" s="5" t="inlineStr"/>
-      <c r="S57" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T57" s="5" t="inlineStr"/>
-      <c r="U57" s="5" t="inlineStr">
+      <c r="Q57" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R57" s="4" t="inlineStr"/>
+      <c r="S57" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T57" s="4" t="inlineStr"/>
+      <c r="U57" s="4" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V57" s="5" t="inlineStr">
+      <c r="V57" s="4" t="inlineStr">
         <is>
           <t>MS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -39,12 +39,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="002f4f4f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -829,7 +835,7 @@
       <c r="R6" s="2" t="inlineStr"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr"/>
@@ -1085,52 +1091,52 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000197</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>bodybuilding behaviour</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Individual human behaviour pattern involving consumption behaviour and physical performance behaviour in order to grow muscles.</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>individual human behaviour pattern</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr"/>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr"/>
+      <c r="H11" s="4" t="inlineStr"/>
+      <c r="I11" s="4" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr"/>
+      <c r="K11" s="4" t="inlineStr">
         <is>
           <t>Insipred by https://www.merriam-webster.com/dictionary/bodybuilding</t>
         </is>
       </c>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
-      <c r="R11" s="2" t="inlineStr"/>
-      <c r="S11" s="2" t="inlineStr">
+      <c r="L11" s="4" t="inlineStr"/>
+      <c r="M11" s="4" t="inlineStr"/>
+      <c r="N11" s="4" t="inlineStr"/>
+      <c r="O11" s="4" t="inlineStr"/>
+      <c r="P11" s="4" t="inlineStr"/>
+      <c r="Q11" s="4" t="inlineStr"/>
+      <c r="R11" s="4" t="inlineStr"/>
+      <c r="S11" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T11" s="2" t="inlineStr"/>
-      <c r="U11" s="2" t="inlineStr"/>
-      <c r="V11" s="2" t="inlineStr">
+      <c r="T11" s="4" t="inlineStr"/>
+      <c r="U11" s="4" t="inlineStr"/>
+      <c r="V11" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -1193,176 +1199,176 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000192</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>cardiovascular exercise behaviour</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Physical performance behaviour pattern that increases heart rate and respiration while using large muscle groups repetitively and rhythmically.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>physical performance behaviour pattern</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr"/>
+      <c r="F13" s="4" t="inlineStr"/>
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>cardio training, aerobic exercise, aerobics, endurance exercise, endurance training, cardiovascular exercise</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr"/>
+      <c r="I13" s="4" t="inlineStr"/>
+      <c r="J13" s="4" t="inlineStr"/>
+      <c r="K13" s="4" t="inlineStr">
         <is>
           <t>Cross-reference: COPPER:1044 - changed parent class</t>
         </is>
       </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="L13" s="4" t="inlineStr">
         <is>
           <t>COPPER:1044</t>
         </is>
       </c>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr"/>
+      <c r="N13" s="4" t="inlineStr"/>
+      <c r="O13" s="4" t="inlineStr"/>
+      <c r="P13" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr"/>
-      <c r="S13" s="2" t="inlineStr">
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="inlineStr"/>
+      <c r="S13" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T13" s="2" t="inlineStr"/>
-      <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr">
+      <c r="T13" s="4" t="inlineStr"/>
+      <c r="U13" s="4" t="inlineStr"/>
+      <c r="V13" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000122</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>A study arm designation as a comparator to some intervention arm.</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr"/>
-      <c r="F14" s="4" t="inlineStr"/>
-      <c r="G14" s="4" t="inlineStr"/>
-      <c r="H14" s="4" t="inlineStr"/>
-      <c r="I14" s="4" t="inlineStr"/>
-      <c r="J14" s="4" t="inlineStr"/>
-      <c r="K14" s="4" t="inlineStr"/>
-      <c r="L14" s="4" t="inlineStr"/>
-      <c r="M14" s="4" t="inlineStr"/>
-      <c r="N14" s="4" t="inlineStr"/>
-      <c r="O14" s="4" t="inlineStr"/>
-      <c r="P14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr"/>
+      <c r="P14" s="5" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R14" s="4" t="inlineStr"/>
-      <c r="S14" s="4" t="inlineStr">
+      <c r="Q14" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R14" s="5" t="inlineStr"/>
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T14" s="4" t="inlineStr"/>
-      <c r="U14" s="4" t="inlineStr"/>
-      <c r="V14" s="4" t="inlineStr">
+      <c r="T14" s="5" t="inlineStr"/>
+      <c r="U14" s="5" t="inlineStr"/>
+      <c r="V14" s="5" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000177</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>daily dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Dose of pharmacological substance delivered to individuals within each day.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr"/>
+      <c r="H15" s="4" t="inlineStr"/>
+      <c r="I15" s="4" t="inlineStr"/>
+      <c r="J15" s="4" t="inlineStr"/>
+      <c r="K15" s="4" t="inlineStr"/>
+      <c r="L15" s="4" t="inlineStr"/>
+      <c r="M15" s="4" t="inlineStr"/>
+      <c r="N15" s="4" t="inlineStr"/>
+      <c r="O15" s="4" t="inlineStr"/>
+      <c r="P15" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q15" s="2" t="inlineStr"/>
-      <c r="R15" s="2" t="inlineStr"/>
-      <c r="S15" s="2" t="inlineStr">
+      <c r="Q15" s="4" t="inlineStr"/>
+      <c r="R15" s="4" t="inlineStr"/>
+      <c r="S15" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr">
+      <c r="T15" s="4" t="inlineStr"/>
+      <c r="U15" s="4" t="inlineStr"/>
+      <c r="V15" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1489,185 +1495,185 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000001</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Dose of pharmacological substance delivered to an individual.</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr"/>
-      <c r="F18" s="4" t="inlineStr"/>
-      <c r="G18" s="4" t="inlineStr"/>
-      <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="4" t="inlineStr"/>
-      <c r="J18" s="4" t="inlineStr"/>
-      <c r="K18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr"/>
+      <c r="F18" s="5" t="inlineStr"/>
+      <c r="G18" s="5" t="inlineStr"/>
+      <c r="H18" s="5" t="inlineStr"/>
+      <c r="I18" s="5" t="inlineStr"/>
+      <c r="J18" s="5" t="inlineStr"/>
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Parent class from Ontology for Biomedical Investigations
 </t>
         </is>
       </c>
-      <c r="L18" s="4" t="inlineStr"/>
-      <c r="M18" s="4" t="inlineStr"/>
-      <c r="N18" s="4" t="inlineStr"/>
-      <c r="O18" s="4" t="inlineStr"/>
-      <c r="P18" s="4" t="inlineStr">
+      <c r="L18" s="5" t="inlineStr"/>
+      <c r="M18" s="5" t="inlineStr"/>
+      <c r="N18" s="5" t="inlineStr"/>
+      <c r="O18" s="5" t="inlineStr"/>
+      <c r="P18" s="5" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
         </is>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R18" s="4" t="inlineStr"/>
-      <c r="S18" s="4" t="inlineStr">
+      <c r="Q18" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R18" s="5" t="inlineStr"/>
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T18" s="4" t="inlineStr"/>
-      <c r="U18" s="4" t="inlineStr">
+      <c r="T18" s="5" t="inlineStr"/>
+      <c r="U18" s="5" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V18" s="4" t="inlineStr">
+      <c r="V18" s="5" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000002</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>drug name</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">A written name intended to identify a particular drug. </t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="4" t="inlineStr"/>
-      <c r="G19" s="4" t="inlineStr"/>
-      <c r="H19" s="4" t="inlineStr"/>
-      <c r="I19" s="4" t="inlineStr"/>
-      <c r="J19" s="4" t="inlineStr"/>
-      <c r="K19" s="4" t="inlineStr"/>
-      <c r="L19" s="4" t="inlineStr"/>
-      <c r="M19" s="4" t="inlineStr"/>
-      <c r="N19" s="4" t="inlineStr"/>
-      <c r="O19" s="4" t="inlineStr"/>
-      <c r="P19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr"/>
+      <c r="F19" s="5" t="inlineStr"/>
+      <c r="G19" s="5" t="inlineStr"/>
+      <c r="H19" s="5" t="inlineStr"/>
+      <c r="I19" s="5" t="inlineStr"/>
+      <c r="J19" s="5" t="inlineStr"/>
+      <c r="K19" s="5" t="inlineStr"/>
+      <c r="L19" s="5" t="inlineStr"/>
+      <c r="M19" s="5" t="inlineStr"/>
+      <c r="N19" s="5" t="inlineStr"/>
+      <c r="O19" s="5" t="inlineStr"/>
+      <c r="P19" s="5" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R19" s="4" t="inlineStr"/>
-      <c r="S19" s="4" t="inlineStr">
+      <c r="Q19" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R19" s="5" t="inlineStr"/>
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T19" s="4" t="inlineStr"/>
-      <c r="U19" s="4" t="inlineStr">
+      <c r="T19" s="5" t="inlineStr"/>
+      <c r="U19" s="5" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V19" s="4" t="inlineStr">
+      <c r="V19" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000003</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>frequency of pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr"/>
+      <c r="G20" s="4" t="inlineStr"/>
+      <c r="H20" s="4" t="inlineStr"/>
+      <c r="I20" s="4" t="inlineStr"/>
+      <c r="J20" s="4" t="inlineStr"/>
+      <c r="K20" s="4" t="inlineStr"/>
+      <c r="L20" s="4" t="inlineStr"/>
+      <c r="M20" s="4" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr"/>
+      <c r="O20" s="4" t="inlineStr"/>
+      <c r="P20" s="4" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr">
+      <c r="Q20" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R20" s="4" t="inlineStr"/>
+      <c r="S20" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T20" s="2" t="inlineStr"/>
-      <c r="U20" s="2" t="inlineStr">
+      <c r="T20" s="4" t="inlineStr"/>
+      <c r="U20" s="4" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V20" s="2" t="inlineStr">
+      <c r="V20" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1898,331 +1904,331 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000123</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>intervention arm</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr"/>
-      <c r="F25" s="4" t="inlineStr"/>
-      <c r="G25" s="4" t="inlineStr"/>
-      <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="4" t="inlineStr"/>
-      <c r="J25" s="4" t="inlineStr"/>
-      <c r="K25" s="4" t="inlineStr"/>
-      <c r="L25" s="4" t="inlineStr"/>
-      <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr"/>
-      <c r="O25" s="4" t="inlineStr"/>
-      <c r="P25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr"/>
+      <c r="F25" s="5" t="inlineStr"/>
+      <c r="G25" s="5" t="inlineStr"/>
+      <c r="H25" s="5" t="inlineStr"/>
+      <c r="I25" s="5" t="inlineStr"/>
+      <c r="J25" s="5" t="inlineStr"/>
+      <c r="K25" s="5" t="inlineStr"/>
+      <c r="L25" s="5" t="inlineStr"/>
+      <c r="M25" s="5" t="inlineStr"/>
+      <c r="N25" s="5" t="inlineStr"/>
+      <c r="O25" s="5" t="inlineStr"/>
+      <c r="P25" s="5" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q25" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R25" s="4" t="inlineStr"/>
-      <c r="S25" s="4" t="inlineStr">
+      <c r="Q25" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R25" s="5" t="inlineStr"/>
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T25" s="4" t="inlineStr"/>
-      <c r="U25" s="4" t="inlineStr"/>
-      <c r="V25" s="4" t="inlineStr">
+      <c r="T25" s="5" t="inlineStr"/>
+      <c r="U25" s="5" t="inlineStr"/>
+      <c r="V25" s="5" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000004</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>intervention arm name</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
         </is>
       </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr"/>
-      <c r="F26" s="4" t="inlineStr"/>
-      <c r="G26" s="4" t="inlineStr"/>
-      <c r="H26" s="4" t="inlineStr"/>
-      <c r="I26" s="4" t="inlineStr"/>
-      <c r="J26" s="4" t="inlineStr"/>
-      <c r="K26" s="4" t="inlineStr"/>
-      <c r="L26" s="4" t="inlineStr"/>
-      <c r="M26" s="4" t="inlineStr"/>
-      <c r="N26" s="4" t="inlineStr"/>
-      <c r="O26" s="4" t="inlineStr"/>
-      <c r="P26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr"/>
+      <c r="F26" s="5" t="inlineStr"/>
+      <c r="G26" s="5" t="inlineStr"/>
+      <c r="H26" s="5" t="inlineStr"/>
+      <c r="I26" s="5" t="inlineStr"/>
+      <c r="J26" s="5" t="inlineStr"/>
+      <c r="K26" s="5" t="inlineStr"/>
+      <c r="L26" s="5" t="inlineStr"/>
+      <c r="M26" s="5" t="inlineStr"/>
+      <c r="N26" s="5" t="inlineStr"/>
+      <c r="O26" s="5" t="inlineStr"/>
+      <c r="P26" s="5" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q26" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R26" s="4" t="inlineStr"/>
-      <c r="S26" s="4" t="inlineStr">
+      <c r="Q26" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R26" s="5" t="inlineStr"/>
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T26" s="4" t="inlineStr"/>
-      <c r="U26" s="4" t="inlineStr">
+      <c r="T26" s="5" t="inlineStr"/>
+      <c r="U26" s="5" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V26" s="4" t="inlineStr">
+      <c r="V26" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000124</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>intervention contact event duration</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention contact event.</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr"/>
+      <c r="F27" s="4" t="inlineStr"/>
+      <c r="G27" s="4" t="inlineStr"/>
+      <c r="H27" s="4" t="inlineStr"/>
+      <c r="I27" s="4" t="inlineStr"/>
+      <c r="J27" s="4" t="inlineStr">
         <is>
           <t>intervention content and delivery</t>
         </is>
       </c>
-      <c r="K27" s="2" t="inlineStr">
+      <c r="K27" s="4" t="inlineStr">
         <is>
           <t>inspired by BCIO:008525</t>
         </is>
       </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="L27" s="4" t="inlineStr">
         <is>
           <t>BCIO:008525</t>
         </is>
       </c>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr">
+      <c r="M27" s="4" t="inlineStr"/>
+      <c r="N27" s="4" t="inlineStr"/>
+      <c r="O27" s="4" t="inlineStr"/>
+      <c r="P27" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr">
+      <c r="Q27" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R27" s="4" t="inlineStr"/>
+      <c r="S27" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T27" s="2" t="inlineStr">
+      <c r="T27" s="4" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr">
+      <c r="U27" s="4" t="inlineStr"/>
+      <c r="V27" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000125</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr"/>
-      <c r="F28" s="4" t="inlineStr"/>
-      <c r="G28" s="4" t="inlineStr"/>
-      <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="4" t="inlineStr"/>
-      <c r="J28" s="4" t="inlineStr"/>
-      <c r="K28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr"/>
+      <c r="F28" s="5" t="inlineStr"/>
+      <c r="G28" s="5" t="inlineStr"/>
+      <c r="H28" s="5" t="inlineStr"/>
+      <c r="I28" s="5" t="inlineStr"/>
+      <c r="J28" s="5" t="inlineStr"/>
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Based on http://humanbehaviourchange.org/ontology/BCIO_007000
 </t>
         </is>
       </c>
-      <c r="L28" s="4" t="inlineStr">
+      <c r="L28" s="5" t="inlineStr">
         <is>
           <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
-      <c r="M28" s="4" t="inlineStr"/>
-      <c r="N28" s="4" t="inlineStr"/>
-      <c r="O28" s="4" t="inlineStr"/>
-      <c r="P28" s="4" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr"/>
+      <c r="N28" s="5" t="inlineStr"/>
+      <c r="O28" s="5" t="inlineStr"/>
+      <c r="P28" s="5" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q28" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R28" s="4" t="inlineStr"/>
-      <c r="S28" s="4" t="inlineStr">
+      <c r="Q28" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R28" s="5" t="inlineStr"/>
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T28" s="4" t="inlineStr"/>
-      <c r="U28" s="4" t="inlineStr"/>
-      <c r="V28" s="4" t="inlineStr">
+      <c r="T28" s="5" t="inlineStr"/>
+      <c r="U28" s="5" t="inlineStr"/>
+      <c r="V28" s="5" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000005</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>intervention duration</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention.</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr"/>
-      <c r="F29" s="4" t="inlineStr"/>
-      <c r="G29" s="4" t="inlineStr"/>
-      <c r="H29" s="4" t="inlineStr"/>
-      <c r="I29" s="4" t="inlineStr"/>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr"/>
+      <c r="F29" s="5" t="inlineStr"/>
+      <c r="G29" s="5" t="inlineStr"/>
+      <c r="H29" s="5" t="inlineStr"/>
+      <c r="I29" s="5" t="inlineStr"/>
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t>intervention content and delivery</t>
         </is>
       </c>
-      <c r="K29" s="4" t="inlineStr">
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">inspired by BCIO:008560
 </t>
         </is>
       </c>
-      <c r="L29" s="4" t="inlineStr">
+      <c r="L29" s="5" t="inlineStr">
         <is>
           <t>BCIO:008560</t>
         </is>
       </c>
-      <c r="M29" s="4" t="inlineStr"/>
-      <c r="N29" s="4" t="inlineStr"/>
-      <c r="O29" s="4" t="inlineStr"/>
-      <c r="P29" s="4" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr"/>
+      <c r="N29" s="5" t="inlineStr"/>
+      <c r="O29" s="5" t="inlineStr"/>
+      <c r="P29" s="5" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q29" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R29" s="4" t="inlineStr"/>
-      <c r="S29" s="4" t="inlineStr">
+      <c r="Q29" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R29" s="5" t="inlineStr"/>
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T29" s="4" t="inlineStr">
+      <c r="T29" s="5" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U29" s="4" t="inlineStr">
+      <c r="U29" s="5" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V29" s="4" t="inlineStr">
+      <c r="V29" s="5" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -2285,60 +2291,60 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000193</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>jogging</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>A locomotive behaviour that involves trotting or running at a slow and steady pace.</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>locomotive behaviour</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr"/>
+      <c r="F31" s="4" t="inlineStr"/>
+      <c r="G31" s="4" t="inlineStr"/>
+      <c r="H31" s="4" t="inlineStr"/>
+      <c r="I31" s="4" t="inlineStr"/>
+      <c r="J31" s="4" t="inlineStr"/>
+      <c r="K31" s="4" t="inlineStr">
         <is>
           <t>Drew on: https://www.oxfordlearnersdictionaries.com/definition/english/jogging#:~:text=jogging-,noun,as%20a%20form%20of%20exercise</t>
         </is>
       </c>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr">
+      <c r="L31" s="4" t="inlineStr"/>
+      <c r="M31" s="4" t="inlineStr"/>
+      <c r="N31" s="4" t="inlineStr"/>
+      <c r="O31" s="4" t="inlineStr"/>
+      <c r="P31" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R31" s="2" t="inlineStr"/>
-      <c r="S31" s="2" t="inlineStr">
+      <c r="Q31" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R31" s="4" t="inlineStr"/>
+      <c r="S31" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T31" s="2" t="inlineStr"/>
-      <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr">
+      <c r="T31" s="4" t="inlineStr"/>
+      <c r="U31" s="4" t="inlineStr"/>
+      <c r="V31" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -2681,56 +2687,56 @@
       <c r="V37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000126</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>no treatment control arm</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>A control arm designation where there is no intervention.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr">
+      <c r="E38" s="4" t="inlineStr"/>
+      <c r="F38" s="4" t="inlineStr"/>
+      <c r="G38" s="4" t="inlineStr"/>
+      <c r="H38" s="4" t="inlineStr"/>
+      <c r="I38" s="4" t="inlineStr"/>
+      <c r="J38" s="4" t="inlineStr"/>
+      <c r="K38" s="4" t="inlineStr"/>
+      <c r="L38" s="4" t="inlineStr"/>
+      <c r="M38" s="4" t="inlineStr"/>
+      <c r="N38" s="4" t="inlineStr"/>
+      <c r="O38" s="4" t="inlineStr"/>
+      <c r="P38" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="inlineStr">
+      <c r="Q38" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R38" s="4" t="inlineStr"/>
+      <c r="S38" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T38" s="2" t="inlineStr"/>
-      <c r="U38" s="2" t="inlineStr"/>
-      <c r="V38" s="2" t="inlineStr">
+      <c r="T38" s="4" t="inlineStr"/>
+      <c r="U38" s="4" t="inlineStr"/>
+      <c r="V38" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3065,116 +3071,116 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000194</t>
         </is>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>physical performance behaviour pattern</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr">
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t>individual human behaviour pattern</t>
         </is>
       </c>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr"/>
+      <c r="F45" s="4" t="inlineStr"/>
+      <c r="G45" s="4" t="inlineStr"/>
+      <c r="H45" s="4" t="inlineStr"/>
+      <c r="I45" s="4" t="inlineStr"/>
+      <c r="J45" s="4" t="inlineStr"/>
+      <c r="K45" s="4" t="inlineStr"/>
+      <c r="L45" s="4" t="inlineStr"/>
+      <c r="M45" s="4" t="inlineStr"/>
+      <c r="N45" s="4" t="inlineStr"/>
+      <c r="O45" s="4" t="inlineStr"/>
+      <c r="P45" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q45" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R45" s="2" t="inlineStr"/>
-      <c r="S45" s="2" t="inlineStr">
+      <c r="Q45" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R45" s="4" t="inlineStr"/>
+      <c r="S45" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T45" s="2" t="inlineStr"/>
-      <c r="U45" s="2" t="inlineStr"/>
-      <c r="V45" s="2" t="inlineStr">
+      <c r="T45" s="4" t="inlineStr"/>
+      <c r="U45" s="4" t="inlineStr"/>
+      <c r="V45" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000009</t>
         </is>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>placebo intervention</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
-      <c r="P46" s="2" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr"/>
+      <c r="F46" s="4" t="inlineStr"/>
+      <c r="G46" s="4" t="inlineStr"/>
+      <c r="H46" s="4" t="inlineStr"/>
+      <c r="I46" s="4" t="inlineStr"/>
+      <c r="J46" s="4" t="inlineStr"/>
+      <c r="K46" s="4" t="inlineStr"/>
+      <c r="L46" s="4" t="inlineStr"/>
+      <c r="M46" s="4" t="inlineStr"/>
+      <c r="N46" s="4" t="inlineStr"/>
+      <c r="O46" s="4" t="inlineStr"/>
+      <c r="P46" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr">
+      <c r="Q46" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R46" s="4" t="inlineStr"/>
+      <c r="S46" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T46" s="2" t="inlineStr"/>
-      <c r="U46" s="2" t="inlineStr">
+      <c r="T46" s="4" t="inlineStr"/>
+      <c r="U46" s="4" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V46" s="2" t="inlineStr">
+      <c r="V46" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3237,116 +3243,116 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="A48" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C48" s="5" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D48" s="4" t="inlineStr">
+      <c r="D48" s="5" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr"/>
-      <c r="F48" s="4" t="inlineStr"/>
-      <c r="G48" s="4" t="inlineStr"/>
-      <c r="H48" s="4" t="inlineStr"/>
-      <c r="I48" s="4" t="inlineStr"/>
-      <c r="J48" s="4" t="inlineStr"/>
-      <c r="K48" s="4" t="inlineStr"/>
-      <c r="L48" s="4" t="inlineStr"/>
-      <c r="M48" s="4" t="inlineStr"/>
-      <c r="N48" s="4" t="inlineStr"/>
-      <c r="O48" s="4" t="inlineStr"/>
-      <c r="P48" s="4" t="inlineStr">
+      <c r="E48" s="5" t="inlineStr"/>
+      <c r="F48" s="5" t="inlineStr"/>
+      <c r="G48" s="5" t="inlineStr"/>
+      <c r="H48" s="5" t="inlineStr"/>
+      <c r="I48" s="5" t="inlineStr"/>
+      <c r="J48" s="5" t="inlineStr"/>
+      <c r="K48" s="5" t="inlineStr"/>
+      <c r="L48" s="5" t="inlineStr"/>
+      <c r="M48" s="5" t="inlineStr"/>
+      <c r="N48" s="5" t="inlineStr"/>
+      <c r="O48" s="5" t="inlineStr"/>
+      <c r="P48" s="5" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q48" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R48" s="4" t="inlineStr"/>
-      <c r="S48" s="4" t="inlineStr">
+      <c r="Q48" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R48" s="5" t="inlineStr"/>
+      <c r="S48" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T48" s="4" t="inlineStr"/>
-      <c r="U48" s="4" t="inlineStr"/>
-      <c r="V48" s="4" t="inlineStr">
+      <c r="T48" s="5" t="inlineStr"/>
+      <c r="U48" s="5" t="inlineStr"/>
+      <c r="V48" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000239</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>psychological treatment</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>Mental health intervention content that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr"/>
+      <c r="F49" s="4" t="inlineStr"/>
+      <c r="G49" s="4" t="inlineStr"/>
+      <c r="H49" s="4" t="inlineStr"/>
+      <c r="I49" s="4" t="inlineStr"/>
+      <c r="J49" s="4" t="inlineStr"/>
+      <c r="K49" s="4" t="inlineStr">
         <is>
           <t>https://bciosearch.org/BCIO_050364</t>
         </is>
       </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="L49" s="4" t="inlineStr">
         <is>
           <t>BCIO:050364</t>
         </is>
       </c>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr">
+      <c r="M49" s="4" t="inlineStr"/>
+      <c r="N49" s="4" t="inlineStr"/>
+      <c r="O49" s="4" t="inlineStr"/>
+      <c r="P49" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q49" s="2" t="inlineStr"/>
-      <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr">
+      <c r="Q49" s="4" t="inlineStr"/>
+      <c r="R49" s="4" t="inlineStr"/>
+      <c r="S49" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T49" s="2" t="inlineStr"/>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr">
+      <c r="T49" s="4" t="inlineStr"/>
+      <c r="U49" s="4" t="inlineStr"/>
+      <c r="V49" s="4" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
@@ -3409,130 +3415,130 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000195</t>
         </is>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>resistance training behaviour</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>physical performance behaviour pattern</t>
         </is>
       </c>
-      <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr"/>
+      <c r="F51" s="4" t="inlineStr"/>
+      <c r="G51" s="4" t="inlineStr">
         <is>
           <t>resistance training, strength training</t>
         </is>
       </c>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr">
+      <c r="H51" s="4" t="inlineStr"/>
+      <c r="I51" s="4" t="inlineStr"/>
+      <c r="J51" s="4" t="inlineStr"/>
+      <c r="K51" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
         </is>
       </c>
-      <c r="L51" s="2" t="inlineStr">
+      <c r="L51" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> COPPER:1005</t>
         </is>
       </c>
-      <c r="M51" s="2" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
-      <c r="P51" s="2" t="inlineStr">
+      <c r="M51" s="4" t="inlineStr"/>
+      <c r="N51" s="4" t="inlineStr"/>
+      <c r="O51" s="4" t="inlineStr"/>
+      <c r="P51" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q51" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="inlineStr">
+      <c r="Q51" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R51" s="4" t="inlineStr"/>
+      <c r="S51" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T51" s="2" t="inlineStr"/>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr">
+      <c r="T51" s="4" t="inlineStr"/>
+      <c r="U51" s="4" t="inlineStr"/>
+      <c r="V51" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000196</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>running</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>locomotive behaviour</t>
         </is>
       </c>
-      <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr"/>
-      <c r="H52" s="2" t="inlineStr"/>
-      <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr"/>
+      <c r="F52" s="4" t="inlineStr"/>
+      <c r="G52" s="4" t="inlineStr"/>
+      <c r="H52" s="4" t="inlineStr"/>
+      <c r="I52" s="4" t="inlineStr"/>
+      <c r="J52" s="4" t="inlineStr"/>
+      <c r="K52" s="4" t="inlineStr">
         <is>
           <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
 Also drew on:
 - COPPER:1011"</t>
         </is>
       </c>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr"/>
-      <c r="P52" s="2" t="inlineStr">
+      <c r="L52" s="4" t="inlineStr"/>
+      <c r="M52" s="4" t="inlineStr"/>
+      <c r="N52" s="4" t="inlineStr"/>
+      <c r="O52" s="4" t="inlineStr"/>
+      <c r="P52" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q52" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr">
+      <c r="Q52" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R52" s="4" t="inlineStr"/>
+      <c r="S52" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T52" s="2" t="inlineStr"/>
-      <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr">
+      <c r="T52" s="4" t="inlineStr"/>
+      <c r="U52" s="4" t="inlineStr"/>
+      <c r="V52" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -3651,56 +3657,56 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D55" s="4" t="inlineStr">
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr"/>
-      <c r="F55" s="4" t="inlineStr"/>
-      <c r="G55" s="4" t="inlineStr"/>
-      <c r="H55" s="4" t="inlineStr"/>
-      <c r="I55" s="4" t="inlineStr"/>
-      <c r="J55" s="4" t="inlineStr"/>
-      <c r="K55" s="4" t="inlineStr"/>
-      <c r="L55" s="4" t="inlineStr"/>
-      <c r="M55" s="4" t="inlineStr"/>
-      <c r="N55" s="4" t="inlineStr"/>
-      <c r="O55" s="4" t="inlineStr"/>
-      <c r="P55" s="4" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr"/>
+      <c r="F55" s="5" t="inlineStr"/>
+      <c r="G55" s="5" t="inlineStr"/>
+      <c r="H55" s="5" t="inlineStr"/>
+      <c r="I55" s="5" t="inlineStr"/>
+      <c r="J55" s="5" t="inlineStr"/>
+      <c r="K55" s="5" t="inlineStr"/>
+      <c r="L55" s="5" t="inlineStr"/>
+      <c r="M55" s="5" t="inlineStr"/>
+      <c r="N55" s="5" t="inlineStr"/>
+      <c r="O55" s="5" t="inlineStr"/>
+      <c r="P55" s="5" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q55" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R55" s="4" t="inlineStr"/>
-      <c r="S55" s="4" t="inlineStr">
+      <c r="Q55" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R55" s="5" t="inlineStr"/>
+      <c r="S55" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T55" s="4" t="inlineStr"/>
-      <c r="U55" s="4" t="inlineStr"/>
-      <c r="V55" s="4" t="inlineStr">
+      <c r="T55" s="5" t="inlineStr"/>
+      <c r="U55" s="5" t="inlineStr"/>
+      <c r="V55" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3763,120 +3769,120 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="inlineStr">
+      <c r="A57" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000128</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>treatment as usual control arm</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="C57" s="5" t="inlineStr">
         <is>
           <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
-      <c r="D57" s="4" t="inlineStr">
+      <c r="D57" s="5" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr"/>
-      <c r="F57" s="4" t="inlineStr"/>
-      <c r="G57" s="4" t="inlineStr"/>
-      <c r="H57" s="4" t="inlineStr"/>
-      <c r="I57" s="4" t="inlineStr"/>
-      <c r="J57" s="4" t="inlineStr"/>
-      <c r="K57" s="4" t="inlineStr"/>
-      <c r="L57" s="4" t="inlineStr"/>
-      <c r="M57" s="4" t="inlineStr"/>
-      <c r="N57" s="4" t="inlineStr"/>
-      <c r="O57" s="4" t="inlineStr"/>
-      <c r="P57" s="4" t="inlineStr">
+      <c r="E57" s="5" t="inlineStr"/>
+      <c r="F57" s="5" t="inlineStr"/>
+      <c r="G57" s="5" t="inlineStr"/>
+      <c r="H57" s="5" t="inlineStr"/>
+      <c r="I57" s="5" t="inlineStr"/>
+      <c r="J57" s="5" t="inlineStr"/>
+      <c r="K57" s="5" t="inlineStr"/>
+      <c r="L57" s="5" t="inlineStr"/>
+      <c r="M57" s="5" t="inlineStr"/>
+      <c r="N57" s="5" t="inlineStr"/>
+      <c r="O57" s="5" t="inlineStr"/>
+      <c r="P57" s="5" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q57" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R57" s="4" t="inlineStr"/>
-      <c r="S57" s="4" t="inlineStr">
+      <c r="Q57" s="5" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R57" s="5" t="inlineStr"/>
+      <c r="S57" s="5" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T57" s="4" t="inlineStr"/>
-      <c r="U57" s="4" t="inlineStr">
+      <c r="T57" s="5" t="inlineStr"/>
+      <c r="U57" s="5" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V57" s="4" t="inlineStr">
+      <c r="V57" s="5" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="A58" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000129</t>
         </is>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
         <is>
           <t>waitlist control arm</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" s="4" t="inlineStr">
         <is>
           <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr">
+      <c r="D58" s="4" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr"/>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
-      <c r="O58" s="2" t="inlineStr"/>
-      <c r="P58" s="2" t="inlineStr">
+      <c r="E58" s="4" t="inlineStr"/>
+      <c r="F58" s="4" t="inlineStr"/>
+      <c r="G58" s="4" t="inlineStr"/>
+      <c r="H58" s="4" t="inlineStr"/>
+      <c r="I58" s="4" t="inlineStr"/>
+      <c r="J58" s="4" t="inlineStr"/>
+      <c r="K58" s="4" t="inlineStr"/>
+      <c r="L58" s="4" t="inlineStr"/>
+      <c r="M58" s="4" t="inlineStr"/>
+      <c r="N58" s="4" t="inlineStr"/>
+      <c r="O58" s="4" t="inlineStr"/>
+      <c r="P58" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q58" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R58" s="2" t="inlineStr"/>
-      <c r="S58" s="2" t="inlineStr">
+      <c r="Q58" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R58" s="4" t="inlineStr"/>
+      <c r="S58" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T58" s="2" t="inlineStr"/>
-      <c r="U58" s="2" t="inlineStr">
+      <c r="T58" s="4" t="inlineStr"/>
+      <c r="U58" s="4" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V58" s="2" t="inlineStr"/>
+      <c r="V58" s="4" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -39,7 +39,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
+        <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
     <fill>
@@ -50,11 +50,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffffff"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
   </fills>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -835,7 +829,7 @@
       <c r="R6" s="2" t="inlineStr"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr"/>
@@ -1267,56 +1261,56 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000122</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>A study arm designation as a comparator to some intervention arm.</t>
         </is>
       </c>
-      <c r="D14" s="5" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="inlineStr"/>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr"/>
+      <c r="P14" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q14" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R14" s="5" t="inlineStr"/>
-      <c r="S14" s="5" t="inlineStr">
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr"/>
+      <c r="S14" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T14" s="5" t="inlineStr"/>
-      <c r="U14" s="5" t="inlineStr"/>
-      <c r="V14" s="5" t="inlineStr">
+      <c r="T14" s="2" t="inlineStr"/>
+      <c r="U14" s="2" t="inlineStr"/>
+      <c r="V14" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -1495,125 +1489,125 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000001</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>Dose of pharmacological substance delivered to an individual.</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parent class from Ontology for Biomedical Investigations
 </t>
         </is>
       </c>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr">
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
         </is>
       </c>
-      <c r="Q18" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R18" s="5" t="inlineStr"/>
-      <c r="S18" s="5" t="inlineStr">
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T18" s="5" t="inlineStr"/>
-      <c r="U18" s="5" t="inlineStr">
+      <c r="T18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V18" s="5" t="inlineStr">
+      <c r="V18" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000002</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>drug name</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A written name intended to identify a particular drug. </t>
         </is>
       </c>
-      <c r="D19" s="5" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q19" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R19" s="5" t="inlineStr"/>
-      <c r="S19" s="5" t="inlineStr">
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T19" s="5" t="inlineStr"/>
-      <c r="U19" s="5" t="inlineStr">
+      <c r="T19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V19" s="5" t="inlineStr">
+      <c r="V19" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1904,116 +1898,116 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000123</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>intervention arm</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D25" s="5" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="E25" s="5" t="inlineStr"/>
-      <c r="F25" s="5" t="inlineStr"/>
-      <c r="G25" s="5" t="inlineStr"/>
-      <c r="H25" s="5" t="inlineStr"/>
-      <c r="I25" s="5" t="inlineStr"/>
-      <c r="J25" s="5" t="inlineStr"/>
-      <c r="K25" s="5" t="inlineStr"/>
-      <c r="L25" s="5" t="inlineStr"/>
-      <c r="M25" s="5" t="inlineStr"/>
-      <c r="N25" s="5" t="inlineStr"/>
-      <c r="O25" s="5" t="inlineStr"/>
-      <c r="P25" s="5" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q25" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R25" s="5" t="inlineStr"/>
-      <c r="S25" s="5" t="inlineStr">
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr"/>
+      <c r="S25" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T25" s="5" t="inlineStr"/>
-      <c r="U25" s="5" t="inlineStr"/>
-      <c r="V25" s="5" t="inlineStr">
+      <c r="T25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000004</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>intervention arm name</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr"/>
-      <c r="F26" s="5" t="inlineStr"/>
-      <c r="G26" s="5" t="inlineStr"/>
-      <c r="H26" s="5" t="inlineStr"/>
-      <c r="I26" s="5" t="inlineStr"/>
-      <c r="J26" s="5" t="inlineStr"/>
-      <c r="K26" s="5" t="inlineStr"/>
-      <c r="L26" s="5" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr"/>
-      <c r="N26" s="5" t="inlineStr"/>
-      <c r="O26" s="5" t="inlineStr"/>
-      <c r="P26" s="5" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q26" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R26" s="5" t="inlineStr"/>
-      <c r="S26" s="5" t="inlineStr">
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr"/>
+      <c r="S26" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T26" s="5" t="inlineStr"/>
-      <c r="U26" s="5" t="inlineStr">
+      <c r="T26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V26" s="5" t="inlineStr">
+      <c r="V26" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2092,143 +2086,143 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000125</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr"/>
-      <c r="F28" s="5" t="inlineStr"/>
-      <c r="G28" s="5" t="inlineStr"/>
-      <c r="H28" s="5" t="inlineStr"/>
-      <c r="I28" s="5" t="inlineStr"/>
-      <c r="J28" s="5" t="inlineStr"/>
-      <c r="K28" s="5" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Based on http://humanbehaviourchange.org/ontology/BCIO_007000
 </t>
         </is>
       </c>
-      <c r="L28" s="5" t="inlineStr">
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
-      <c r="M28" s="5" t="inlineStr"/>
-      <c r="N28" s="5" t="inlineStr"/>
-      <c r="O28" s="5" t="inlineStr"/>
-      <c r="P28" s="5" t="inlineStr">
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q28" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R28" s="5" t="inlineStr"/>
-      <c r="S28" s="5" t="inlineStr">
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr"/>
+      <c r="S28" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T28" s="5" t="inlineStr"/>
-      <c r="U28" s="5" t="inlineStr"/>
-      <c r="V28" s="5" t="inlineStr">
+      <c r="T28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="inlineStr"/>
+      <c r="V28" s="2" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000005</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>intervention duration</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention.</t>
         </is>
       </c>
-      <c r="D29" s="5" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr"/>
-      <c r="F29" s="5" t="inlineStr"/>
-      <c r="G29" s="5" t="inlineStr"/>
-      <c r="H29" s="5" t="inlineStr"/>
-      <c r="I29" s="5" t="inlineStr"/>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="inlineStr">
         <is>
           <t>intervention content and delivery</t>
         </is>
       </c>
-      <c r="K29" s="5" t="inlineStr">
+      <c r="K29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">inspired by BCIO:008560
 </t>
         </is>
       </c>
-      <c r="L29" s="5" t="inlineStr">
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>BCIO:008560</t>
         </is>
       </c>
-      <c r="M29" s="5" t="inlineStr"/>
-      <c r="N29" s="5" t="inlineStr"/>
-      <c r="O29" s="5" t="inlineStr"/>
-      <c r="P29" s="5" t="inlineStr">
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="inlineStr"/>
+      <c r="P29" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q29" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R29" s="5" t="inlineStr"/>
-      <c r="S29" s="5" t="inlineStr">
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr"/>
+      <c r="S29" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T29" s="5" t="inlineStr">
+      <c r="T29" s="2" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U29" s="5" t="inlineStr">
+      <c r="U29" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V29" s="5" t="inlineStr">
+      <c r="V29" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -3243,56 +3237,56 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B48" s="5" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C48" s="5" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D48" s="5" t="inlineStr">
+      <c r="D48" s="2" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E48" s="5" t="inlineStr"/>
-      <c r="F48" s="5" t="inlineStr"/>
-      <c r="G48" s="5" t="inlineStr"/>
-      <c r="H48" s="5" t="inlineStr"/>
-      <c r="I48" s="5" t="inlineStr"/>
-      <c r="J48" s="5" t="inlineStr"/>
-      <c r="K48" s="5" t="inlineStr"/>
-      <c r="L48" s="5" t="inlineStr"/>
-      <c r="M48" s="5" t="inlineStr"/>
-      <c r="N48" s="5" t="inlineStr"/>
-      <c r="O48" s="5" t="inlineStr"/>
-      <c r="P48" s="5" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q48" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R48" s="5" t="inlineStr"/>
-      <c r="S48" s="5" t="inlineStr">
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="inlineStr"/>
+      <c r="S48" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T48" s="5" t="inlineStr"/>
-      <c r="U48" s="5" t="inlineStr"/>
-      <c r="V48" s="5" t="inlineStr">
+      <c r="T48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3657,56 +3651,56 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C55" s="5" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D55" s="5" t="inlineStr">
+      <c r="D55" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr"/>
-      <c r="F55" s="5" t="inlineStr"/>
-      <c r="G55" s="5" t="inlineStr"/>
-      <c r="H55" s="5" t="inlineStr"/>
-      <c r="I55" s="5" t="inlineStr"/>
-      <c r="J55" s="5" t="inlineStr"/>
-      <c r="K55" s="5" t="inlineStr"/>
-      <c r="L55" s="5" t="inlineStr"/>
-      <c r="M55" s="5" t="inlineStr"/>
-      <c r="N55" s="5" t="inlineStr"/>
-      <c r="O55" s="5" t="inlineStr"/>
-      <c r="P55" s="5" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr"/>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr"/>
+      <c r="M55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr"/>
+      <c r="O55" s="2" t="inlineStr"/>
+      <c r="P55" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q55" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R55" s="5" t="inlineStr"/>
-      <c r="S55" s="5" t="inlineStr">
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R55" s="2" t="inlineStr"/>
+      <c r="S55" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T55" s="5" t="inlineStr"/>
-      <c r="U55" s="5" t="inlineStr"/>
-      <c r="V55" s="5" t="inlineStr">
+      <c r="T55" s="2" t="inlineStr"/>
+      <c r="U55" s="2" t="inlineStr"/>
+      <c r="V55" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3769,60 +3763,60 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000128</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>treatment as usual control arm</t>
         </is>
       </c>
-      <c r="C57" s="5" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
-      <c r="D57" s="5" t="inlineStr">
+      <c r="D57" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E57" s="5" t="inlineStr"/>
-      <c r="F57" s="5" t="inlineStr"/>
-      <c r="G57" s="5" t="inlineStr"/>
-      <c r="H57" s="5" t="inlineStr"/>
-      <c r="I57" s="5" t="inlineStr"/>
-      <c r="J57" s="5" t="inlineStr"/>
-      <c r="K57" s="5" t="inlineStr"/>
-      <c r="L57" s="5" t="inlineStr"/>
-      <c r="M57" s="5" t="inlineStr"/>
-      <c r="N57" s="5" t="inlineStr"/>
-      <c r="O57" s="5" t="inlineStr"/>
-      <c r="P57" s="5" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr"/>
+      <c r="H57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr"/>
+      <c r="M57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr"/>
+      <c r="O57" s="2" t="inlineStr"/>
+      <c r="P57" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q57" s="5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R57" s="5" t="inlineStr"/>
-      <c r="S57" s="5" t="inlineStr">
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R57" s="2" t="inlineStr"/>
+      <c r="S57" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T57" s="5" t="inlineStr"/>
-      <c r="U57" s="5" t="inlineStr">
+      <c r="T57" s="2" t="inlineStr"/>
+      <c r="U57" s="2" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V57" s="5" t="inlineStr">
+      <c r="V57" s="2" t="inlineStr">
         <is>
           <t>MS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -2940,7 +2940,11 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -3017,52 +3017,52 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>BCIO:036042</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>physical performance behaviour</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">individual human behaviour </t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr"/>
+      <c r="F44" s="3" t="inlineStr"/>
+      <c r="G44" s="3" t="inlineStr"/>
+      <c r="H44" s="3" t="inlineStr"/>
+      <c r="I44" s="3" t="inlineStr"/>
+      <c r="J44" s="3" t="inlineStr"/>
+      <c r="K44" s="3" t="inlineStr"/>
+      <c r="L44" s="3" t="inlineStr"/>
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr"/>
+      <c r="O44" s="3" t="inlineStr"/>
+      <c r="P44" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
+      <c r="Q44" s="3" t="inlineStr"/>
+      <c r="R44" s="3" t="inlineStr"/>
+      <c r="S44" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T44" s="3" t="inlineStr"/>
+      <c r="U44" s="3" t="inlineStr"/>
+      <c r="V44" s="3" t="inlineStr">
         <is>
           <t>MS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,344 +1085,332 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BCIO:050435</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A process attribute of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000197</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>bodybuilding behaviour</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Individual human behaviour pattern involving consumption behaviour and physical performance behaviour in order to grow muscles.</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>individual human behaviour pattern</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr"/>
-      <c r="F11" s="4" t="inlineStr"/>
-      <c r="G11" s="4" t="inlineStr"/>
-      <c r="H11" s="4" t="inlineStr"/>
-      <c r="I11" s="4" t="inlineStr"/>
-      <c r="J11" s="4" t="inlineStr"/>
-      <c r="K11" s="4" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr"/>
+      <c r="F12" s="4" t="inlineStr"/>
+      <c r="G12" s="4" t="inlineStr"/>
+      <c r="H12" s="4" t="inlineStr"/>
+      <c r="I12" s="4" t="inlineStr"/>
+      <c r="J12" s="4" t="inlineStr"/>
+      <c r="K12" s="4" t="inlineStr">
         <is>
           <t>Insipred by https://www.merriam-webster.com/dictionary/bodybuilding</t>
         </is>
       </c>
-      <c r="L11" s="4" t="inlineStr"/>
-      <c r="M11" s="4" t="inlineStr"/>
-      <c r="N11" s="4" t="inlineStr"/>
-      <c r="O11" s="4" t="inlineStr"/>
-      <c r="P11" s="4" t="inlineStr"/>
-      <c r="Q11" s="4" t="inlineStr"/>
-      <c r="R11" s="4" t="inlineStr"/>
-      <c r="S11" s="4" t="inlineStr">
+      <c r="L12" s="4" t="inlineStr"/>
+      <c r="M12" s="4" t="inlineStr"/>
+      <c r="N12" s="4" t="inlineStr"/>
+      <c r="O12" s="4" t="inlineStr"/>
+      <c r="P12" s="4" t="inlineStr"/>
+      <c r="Q12" s="4" t="inlineStr"/>
+      <c r="R12" s="4" t="inlineStr"/>
+      <c r="S12" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T11" s="4" t="inlineStr"/>
-      <c r="U11" s="4" t="inlineStr"/>
-      <c r="V11" s="4" t="inlineStr">
+      <c r="T12" s="4" t="inlineStr"/>
+      <c r="U12" s="4" t="inlineStr"/>
+      <c r="V12" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>BCIO:011040</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>buccal mode of delivery</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr">
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000192</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>cardiovascular exercise behaviour</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Physical performance behaviour pattern that increases heart rate and respiration while using large muscle groups repetitively and rhythmically.</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>physical performance behaviour pattern</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr"/>
-      <c r="F13" s="4" t="inlineStr"/>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr"/>
+      <c r="G14" s="4" t="inlineStr">
         <is>
           <t>cardio training, aerobic exercise, aerobics, endurance exercise, endurance training, cardiovascular exercise</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr"/>
-      <c r="I13" s="4" t="inlineStr"/>
-      <c r="J13" s="4" t="inlineStr"/>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="H14" s="4" t="inlineStr"/>
+      <c r="I14" s="4" t="inlineStr"/>
+      <c r="J14" s="4" t="inlineStr"/>
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>Cross-reference: COPPER:1044 - changed parent class</t>
         </is>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="L14" s="4" t="inlineStr">
         <is>
           <t>COPPER:1044</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr"/>
-      <c r="N13" s="4" t="inlineStr"/>
-      <c r="O13" s="4" t="inlineStr"/>
-      <c r="P13" s="4" t="inlineStr">
+      <c r="M14" s="4" t="inlineStr"/>
+      <c r="N14" s="4" t="inlineStr"/>
+      <c r="O14" s="4" t="inlineStr"/>
+      <c r="P14" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R13" s="4" t="inlineStr"/>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="Q14" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R14" s="4" t="inlineStr"/>
+      <c r="S14" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T13" s="4" t="inlineStr"/>
-      <c r="U13" s="4" t="inlineStr"/>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="T14" s="4" t="inlineStr"/>
+      <c r="U14" s="4" t="inlineStr"/>
+      <c r="V14" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000122</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>A study arm designation as a comparator to some intervention arm.</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="inlineStr">
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr"/>
+      <c r="S15" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T14" s="2" t="inlineStr"/>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr">
+      <c r="T15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="inlineStr"/>
+      <c r="V15" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000177</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>daily dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Dose of pharmacological substance delivered to individuals within each day.</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr"/>
-      <c r="F15" s="4" t="inlineStr"/>
-      <c r="G15" s="4" t="inlineStr"/>
-      <c r="H15" s="4" t="inlineStr"/>
-      <c r="I15" s="4" t="inlineStr"/>
-      <c r="J15" s="4" t="inlineStr"/>
-      <c r="K15" s="4" t="inlineStr"/>
-      <c r="L15" s="4" t="inlineStr"/>
-      <c r="M15" s="4" t="inlineStr"/>
-      <c r="N15" s="4" t="inlineStr"/>
-      <c r="O15" s="4" t="inlineStr"/>
-      <c r="P15" s="4" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
+      <c r="G16" s="4" t="inlineStr"/>
+      <c r="H16" s="4" t="inlineStr"/>
+      <c r="I16" s="4" t="inlineStr"/>
+      <c r="J16" s="4" t="inlineStr"/>
+      <c r="K16" s="4" t="inlineStr"/>
+      <c r="L16" s="4" t="inlineStr"/>
+      <c r="M16" s="4" t="inlineStr"/>
+      <c r="N16" s="4" t="inlineStr"/>
+      <c r="O16" s="4" t="inlineStr"/>
+      <c r="P16" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q15" s="4" t="inlineStr"/>
-      <c r="R15" s="4" t="inlineStr"/>
-      <c r="S15" s="4" t="inlineStr">
+      <c r="Q16" s="4" t="inlineStr"/>
+      <c r="R16" s="4" t="inlineStr"/>
+      <c r="S16" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T15" s="4" t="inlineStr"/>
-      <c r="U15" s="4" t="inlineStr"/>
-      <c r="V15" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>IAO:0000027</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr">
+      <c r="T16" s="4" t="inlineStr"/>
+      <c r="U16" s="4" t="inlineStr"/>
+      <c r="V16" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1431,22 +1419,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OBI:0000984</t>
+          <t>IAO:0000027</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dose</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
+          <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1466,7 +1454,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1489,89 +1477,84 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000001</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>dose of pharmacological substance</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Dose of pharmacological substance delivered to an individual.</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>OBI:0000984</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parent class from Ontology for Biomedical Investigations
-</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V18" s="2" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000002</t>
+          <t>GMHO:0000001</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>drug name</t>
+          <t>dose of pharmacological substance</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
+          <t>Dose of pharmacological substance delivered to an individual.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>dose</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
@@ -1580,14 +1563,19 @@
       <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parent class from Ontology for Biomedical Investigations
+</t>
+        </is>
+      </c>
       <c r="L19" s="2" t="inlineStr"/>
       <c r="M19" s="2" t="inlineStr"/>
       <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 1; LSR 3</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -1609,121 +1597,125 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000002</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>drug name</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000003</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>frequency of pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr"/>
-      <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr"/>
-      <c r="H20" s="4" t="inlineStr"/>
-      <c r="I20" s="4" t="inlineStr"/>
-      <c r="J20" s="4" t="inlineStr"/>
-      <c r="K20" s="4" t="inlineStr"/>
-      <c r="L20" s="4" t="inlineStr"/>
-      <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr"/>
-      <c r="O20" s="4" t="inlineStr"/>
-      <c r="P20" s="4" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="4" t="inlineStr"/>
+      <c r="I21" s="4" t="inlineStr"/>
+      <c r="J21" s="4" t="inlineStr"/>
+      <c r="K21" s="4" t="inlineStr"/>
+      <c r="L21" s="4" t="inlineStr"/>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
+      <c r="O21" s="4" t="inlineStr"/>
+      <c r="P21" s="4" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q20" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R20" s="4" t="inlineStr"/>
-      <c r="S20" s="4" t="inlineStr">
+      <c r="Q21" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R21" s="4" t="inlineStr"/>
+      <c r="S21" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T20" s="4" t="inlineStr"/>
-      <c r="U20" s="4" t="inlineStr">
+      <c r="T21" s="4" t="inlineStr"/>
+      <c r="U21" s="4" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V20" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>BCIO:011035</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr">
+      <c r="V21" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1732,22 +1724,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1788,17 +1780,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>inhalation mode of delivery</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1844,22 +1836,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:037000</t>
+          <t>BCIO:011042</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>injection mode of delivery</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1867,11 +1859,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -1879,10 +1867,14 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>LSR 1, LSR 2, LSR 3</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr"/>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
@@ -1898,80 +1890,80 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000123</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>intervention arm</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>study arm</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2</t>
-        </is>
-      </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="inlineStr"/>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BCIO:037000</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A planned process that has the aim of influencing an outcome.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>LSR 1, LSR 2, LSR 3</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000004</t>
+          <t>GMHO:0000123</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>intervention arm name</t>
+          <t>intervention arm</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
+          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>study arm</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
@@ -1987,7 +1979,7 @@
       <c r="O26" s="2" t="inlineStr"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -2002,173 +1994,164 @@
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr"/>
-      <c r="U26" s="2" t="inlineStr">
+      <c r="U26" s="2" t="inlineStr"/>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000004</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>intervention arm name</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr"/>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V26" s="2" t="inlineStr">
+      <c r="V27" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000124</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>intervention contact event duration</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention contact event.</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr"/>
-      <c r="F27" s="4" t="inlineStr"/>
-      <c r="G27" s="4" t="inlineStr"/>
-      <c r="H27" s="4" t="inlineStr"/>
-      <c r="I27" s="4" t="inlineStr"/>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr"/>
+      <c r="H28" s="4" t="inlineStr"/>
+      <c r="I28" s="4" t="inlineStr"/>
+      <c r="J28" s="4" t="inlineStr">
         <is>
           <t>intervention content and delivery</t>
         </is>
       </c>
-      <c r="K27" s="4" t="inlineStr">
+      <c r="K28" s="4" t="inlineStr">
         <is>
           <t>inspired by BCIO:008525</t>
         </is>
       </c>
-      <c r="L27" s="4" t="inlineStr">
+      <c r="L28" s="4" t="inlineStr">
         <is>
           <t>BCIO:008525</t>
         </is>
       </c>
-      <c r="M27" s="4" t="inlineStr"/>
-      <c r="N27" s="4" t="inlineStr"/>
-      <c r="O27" s="4" t="inlineStr"/>
-      <c r="P27" s="4" t="inlineStr">
+      <c r="M28" s="4" t="inlineStr"/>
+      <c r="N28" s="4" t="inlineStr"/>
+      <c r="O28" s="4" t="inlineStr"/>
+      <c r="P28" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q27" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R27" s="4" t="inlineStr"/>
-      <c r="S27" s="4" t="inlineStr">
+      <c r="Q28" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R28" s="4" t="inlineStr"/>
+      <c r="S28" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T27" s="4" t="inlineStr">
+      <c r="T28" s="4" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U27" s="4" t="inlineStr"/>
-      <c r="V27" s="4" t="inlineStr">
+      <c r="U28" s="4" t="inlineStr"/>
+      <c r="V28" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000125</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>intervention content</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Based on http://humanbehaviourchange.org/ontology/BCIO_007000
-</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="inlineStr"/>
-      <c r="U28" s="2" t="inlineStr"/>
-      <c r="V28" s="2" t="inlineStr">
-        <is>
-          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000005</t>
+          <t>GMHO:0000125</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>intervention duration</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -2176,20 +2159,16 @@
       <c r="G29" s="2" t="inlineStr"/>
       <c r="H29" s="2" t="inlineStr"/>
       <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inspired by BCIO:008560
+          <t xml:space="preserve">Based on http://humanbehaviourchange.org/ontology/BCIO_007000
 </t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008560</t>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr"/>
@@ -2197,7 +2176,7 @@
       <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -2211,326 +2190,347 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T29" s="2" t="inlineStr">
+      <c r="T29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="inlineStr"/>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000005</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>intervention duration</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of an intervention.</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inspired by BCIO:008560
+</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008560</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr"/>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U29" s="2" t="inlineStr">
+      <c r="U30" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V29" s="2" t="inlineStr">
+      <c r="V30" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>BCIO:008540</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>irregular intervention schedule</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000193</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>jogging</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>A locomotive behaviour that involves trotting or running at a slow and steady pace.</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr">
         <is>
           <t>locomotive behaviour</t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="4" t="inlineStr"/>
-      <c r="G31" s="4" t="inlineStr"/>
-      <c r="H31" s="4" t="inlineStr"/>
-      <c r="I31" s="4" t="inlineStr"/>
-      <c r="J31" s="4" t="inlineStr"/>
-      <c r="K31" s="4" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr"/>
+      <c r="F32" s="4" t="inlineStr"/>
+      <c r="G32" s="4" t="inlineStr"/>
+      <c r="H32" s="4" t="inlineStr"/>
+      <c r="I32" s="4" t="inlineStr"/>
+      <c r="J32" s="4" t="inlineStr"/>
+      <c r="K32" s="4" t="inlineStr">
         <is>
           <t>Drew on: https://www.oxfordlearnersdictionaries.com/definition/english/jogging#:~:text=jogging-,noun,as%20a%20form%20of%20exercise</t>
         </is>
       </c>
-      <c r="L31" s="4" t="inlineStr"/>
-      <c r="M31" s="4" t="inlineStr"/>
-      <c r="N31" s="4" t="inlineStr"/>
-      <c r="O31" s="4" t="inlineStr"/>
-      <c r="P31" s="4" t="inlineStr">
+      <c r="L32" s="4" t="inlineStr"/>
+      <c r="M32" s="4" t="inlineStr"/>
+      <c r="N32" s="4" t="inlineStr"/>
+      <c r="O32" s="4" t="inlineStr"/>
+      <c r="P32" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q31" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R31" s="4" t="inlineStr"/>
-      <c r="S31" s="4" t="inlineStr">
+      <c r="Q32" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R32" s="4" t="inlineStr"/>
+      <c r="S32" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T31" s="4" t="inlineStr"/>
-      <c r="U31" s="4" t="inlineStr"/>
-      <c r="V31" s="4" t="inlineStr">
+      <c r="T32" s="4" t="inlineStr"/>
+      <c r="U32" s="4" t="inlineStr"/>
+      <c r="V32" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>BCIO:036026</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>locomotive behaviour</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>position-related behaviour</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000006</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>maximum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>maximum value</t>
         </is>
       </c>
-      <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="3" t="inlineStr"/>
-      <c r="G33" s="3" t="inlineStr"/>
-      <c r="H33" s="3" t="inlineStr"/>
-      <c r="I33" s="3" t="inlineStr"/>
-      <c r="J33" s="3" t="inlineStr"/>
-      <c r="K33" s="3" t="inlineStr"/>
-      <c r="L33" s="3" t="inlineStr"/>
-      <c r="M33" s="3" t="inlineStr"/>
-      <c r="N33" s="3" t="inlineStr"/>
-      <c r="O33" s="3" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
+      <c r="G34" s="3" t="inlineStr"/>
+      <c r="H34" s="3" t="inlineStr"/>
+      <c r="I34" s="3" t="inlineStr"/>
+      <c r="J34" s="3" t="inlineStr"/>
+      <c r="K34" s="3" t="inlineStr"/>
+      <c r="L34" s="3" t="inlineStr"/>
+      <c r="M34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="inlineStr"/>
+      <c r="O34" s="3" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="P33" s="3" t="inlineStr">
+      <c r="P34" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q33" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R33" s="3" t="inlineStr"/>
-      <c r="S33" s="3" t="inlineStr">
+      <c r="Q34" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R34" s="3" t="inlineStr"/>
+      <c r="S34" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T33" s="3" t="inlineStr"/>
-      <c r="U33" s="3" t="inlineStr">
+      <c r="T34" s="3" t="inlineStr"/>
+      <c r="U34" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V33" s="3" t="inlineStr">
+      <c r="V34" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>STATO:0000151</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>maximum value</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IAO:0000109</t>
+          <t>STATO:0000151</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>maximum value</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>information content entity</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2546,14 +2546,10 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr">
         <is>
@@ -2562,235 +2558,227 @@
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
+      <c r="V35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>IAO:0000109</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000008</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>minimum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="E36" s="3" t="inlineStr"/>
-      <c r="F36" s="3" t="inlineStr"/>
-      <c r="G36" s="3" t="inlineStr"/>
-      <c r="H36" s="3" t="inlineStr"/>
-      <c r="I36" s="3" t="inlineStr"/>
-      <c r="J36" s="3" t="inlineStr"/>
-      <c r="K36" s="3" t="inlineStr"/>
-      <c r="L36" s="3" t="inlineStr"/>
-      <c r="M36" s="3" t="inlineStr"/>
-      <c r="N36" s="3" t="inlineStr"/>
-      <c r="O36" s="3" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr"/>
+      <c r="F37" s="3" t="inlineStr"/>
+      <c r="G37" s="3" t="inlineStr"/>
+      <c r="H37" s="3" t="inlineStr"/>
+      <c r="I37" s="3" t="inlineStr"/>
+      <c r="J37" s="3" t="inlineStr"/>
+      <c r="K37" s="3" t="inlineStr"/>
+      <c r="L37" s="3" t="inlineStr"/>
+      <c r="M37" s="3" t="inlineStr"/>
+      <c r="N37" s="3" t="inlineStr"/>
+      <c r="O37" s="3" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="P36" s="3" t="inlineStr">
+      <c r="P37" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q36" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R36" s="3" t="inlineStr"/>
-      <c r="S36" s="3" t="inlineStr">
+      <c r="Q37" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R37" s="3" t="inlineStr"/>
+      <c r="S37" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T36" s="3" t="inlineStr"/>
-      <c r="U36" s="3" t="inlineStr">
+      <c r="T37" s="3" t="inlineStr"/>
+      <c r="U37" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V36" s="3" t="inlineStr">
+      <c r="V37" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>STATO:0000150</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>A data item which denotes the smallest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr">
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000126</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>no treatment control arm</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>A control arm designation where there is no intervention.</t>
         </is>
       </c>
-      <c r="D38" s="4" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr"/>
-      <c r="F38" s="4" t="inlineStr"/>
-      <c r="G38" s="4" t="inlineStr"/>
-      <c r="H38" s="4" t="inlineStr"/>
-      <c r="I38" s="4" t="inlineStr"/>
-      <c r="J38" s="4" t="inlineStr"/>
-      <c r="K38" s="4" t="inlineStr"/>
-      <c r="L38" s="4" t="inlineStr"/>
-      <c r="M38" s="4" t="inlineStr"/>
-      <c r="N38" s="4" t="inlineStr"/>
-      <c r="O38" s="4" t="inlineStr"/>
-      <c r="P38" s="4" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="inlineStr"/>
+      <c r="H39" s="4" t="inlineStr"/>
+      <c r="I39" s="4" t="inlineStr"/>
+      <c r="J39" s="4" t="inlineStr"/>
+      <c r="K39" s="4" t="inlineStr"/>
+      <c r="L39" s="4" t="inlineStr"/>
+      <c r="M39" s="4" t="inlineStr"/>
+      <c r="N39" s="4" t="inlineStr"/>
+      <c r="O39" s="4" t="inlineStr"/>
+      <c r="P39" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q38" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R38" s="4" t="inlineStr"/>
-      <c r="S38" s="4" t="inlineStr">
+      <c r="Q39" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R39" s="4" t="inlineStr"/>
+      <c r="S39" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T38" s="4" t="inlineStr"/>
-      <c r="U38" s="4" t="inlineStr"/>
-      <c r="V38" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>BCIO:008515</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>number of contact events</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A data item that is the number of contact events in an intervention temporal part.</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
+      <c r="T39" s="4" t="inlineStr"/>
+      <c r="U39" s="4" t="inlineStr"/>
+      <c r="V39" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2799,22 +2787,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>number of contact events</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+          <t>A data item that is the number of contact events in an intervention temporal part.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2834,7 +2822,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -2859,22 +2847,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>person source role</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2882,7 +2870,11 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2890,7 +2882,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -2906,27 +2898,31 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>person source role</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>behaviour change intervention source</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2945,7 +2941,11 @@
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
@@ -2954,31 +2954,27 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+      <c r="V42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2997,11 +2993,7 @@
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
@@ -3012,137 +3004,137 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BCIO:036042</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>BCIO:036042</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>physical performance behaviour</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t xml:space="preserve">individual human behaviour </t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr"/>
-      <c r="F44" s="3" t="inlineStr"/>
-      <c r="G44" s="3" t="inlineStr"/>
-      <c r="H44" s="3" t="inlineStr"/>
-      <c r="I44" s="3" t="inlineStr"/>
-      <c r="J44" s="3" t="inlineStr"/>
-      <c r="K44" s="3" t="inlineStr"/>
-      <c r="L44" s="3" t="inlineStr"/>
-      <c r="M44" s="3" t="inlineStr"/>
-      <c r="N44" s="3" t="inlineStr"/>
-      <c r="O44" s="3" t="inlineStr"/>
-      <c r="P44" s="3" t="inlineStr">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q44" s="3" t="inlineStr"/>
-      <c r="R44" s="3" t="inlineStr"/>
-      <c r="S44" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T44" s="3" t="inlineStr"/>
-      <c r="U44" s="3" t="inlineStr"/>
-      <c r="V44" s="3" t="inlineStr">
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="inlineStr">
-        <is>
-          <t>GMHO:0000194</t>
-        </is>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E45" s="4" t="inlineStr"/>
-      <c r="F45" s="4" t="inlineStr"/>
-      <c r="G45" s="4" t="inlineStr"/>
-      <c r="H45" s="4" t="inlineStr"/>
-      <c r="I45" s="4" t="inlineStr"/>
-      <c r="J45" s="4" t="inlineStr"/>
-      <c r="K45" s="4" t="inlineStr"/>
-      <c r="L45" s="4" t="inlineStr"/>
-      <c r="M45" s="4" t="inlineStr"/>
-      <c r="N45" s="4" t="inlineStr"/>
-      <c r="O45" s="4" t="inlineStr"/>
-      <c r="P45" s="4" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q45" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R45" s="4" t="inlineStr"/>
-      <c r="S45" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T45" s="4" t="inlineStr"/>
-      <c r="U45" s="4" t="inlineStr"/>
-      <c r="V45" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>GMHO:0000009</t>
+          <t>GMHO:0000194</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>placebo intervention</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr"/>
@@ -3158,7 +3150,7 @@
       <c r="O46" s="4" t="inlineStr"/>
       <c r="P46" s="4" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q46" s="4" t="inlineStr">
@@ -3173,348 +3165,342 @@
         </is>
       </c>
       <c r="T46" s="4" t="inlineStr"/>
-      <c r="U46" s="4" t="inlineStr">
+      <c r="U46" s="4" t="inlineStr"/>
+      <c r="V46" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000009</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>placebo intervention</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="inlineStr"/>
+      <c r="F47" s="4" t="inlineStr"/>
+      <c r="G47" s="4" t="inlineStr"/>
+      <c r="H47" s="4" t="inlineStr"/>
+      <c r="I47" s="4" t="inlineStr"/>
+      <c r="J47" s="4" t="inlineStr"/>
+      <c r="K47" s="4" t="inlineStr"/>
+      <c r="L47" s="4" t="inlineStr"/>
+      <c r="M47" s="4" t="inlineStr"/>
+      <c r="N47" s="4" t="inlineStr"/>
+      <c r="O47" s="4" t="inlineStr"/>
+      <c r="P47" s="4" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q47" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R47" s="4" t="inlineStr"/>
+      <c r="S47" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T47" s="4" t="inlineStr"/>
+      <c r="U47" s="4" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V46" s="4" t="inlineStr">
+      <c r="V47" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>IAO:0000104</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>directive information entity</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr">
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
+      <c r="D49" s="2" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr">
+      <c r="E49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr"/>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr"/>
+      <c r="M49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr"/>
+      <c r="P49" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr">
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R49" s="2" t="inlineStr"/>
+      <c r="S49" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T48" s="2" t="inlineStr"/>
-      <c r="U48" s="2" t="inlineStr"/>
-      <c r="V48" s="2" t="inlineStr">
+      <c r="T49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="inlineStr"/>
+      <c r="V49" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="4" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000239</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>psychological treatment</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Mental health intervention content that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
-      <c r="D49" s="4" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr"/>
-      <c r="F49" s="4" t="inlineStr"/>
-      <c r="G49" s="4" t="inlineStr"/>
-      <c r="H49" s="4" t="inlineStr"/>
-      <c r="I49" s="4" t="inlineStr"/>
-      <c r="J49" s="4" t="inlineStr"/>
-      <c r="K49" s="4" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr"/>
+      <c r="F50" s="4" t="inlineStr"/>
+      <c r="G50" s="4" t="inlineStr"/>
+      <c r="H50" s="4" t="inlineStr"/>
+      <c r="I50" s="4" t="inlineStr"/>
+      <c r="J50" s="4" t="inlineStr"/>
+      <c r="K50" s="4" t="inlineStr">
         <is>
           <t>https://bciosearch.org/BCIO_050364</t>
         </is>
       </c>
-      <c r="L49" s="4" t="inlineStr">
+      <c r="L50" s="4" t="inlineStr">
         <is>
           <t>BCIO:050364</t>
         </is>
       </c>
-      <c r="M49" s="4" t="inlineStr"/>
-      <c r="N49" s="4" t="inlineStr"/>
-      <c r="O49" s="4" t="inlineStr"/>
-      <c r="P49" s="4" t="inlineStr">
+      <c r="M50" s="4" t="inlineStr"/>
+      <c r="N50" s="4" t="inlineStr"/>
+      <c r="O50" s="4" t="inlineStr"/>
+      <c r="P50" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q49" s="4" t="inlineStr"/>
-      <c r="R49" s="4" t="inlineStr"/>
-      <c r="S49" s="4" t="inlineStr">
+      <c r="Q50" s="4" t="inlineStr"/>
+      <c r="R50" s="4" t="inlineStr"/>
+      <c r="S50" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T49" s="4" t="inlineStr"/>
-      <c r="U49" s="4" t="inlineStr"/>
-      <c r="V49" s="4" t="inlineStr">
+      <c r="T50" s="4" t="inlineStr"/>
+      <c r="U50" s="4" t="inlineStr"/>
+      <c r="V50" s="4" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr">
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr">
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
         <is>
           <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="inlineStr">
-        <is>
-          <t>GMHO:0000195</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>resistance training behaviour</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="inlineStr"/>
-      <c r="F51" s="4" t="inlineStr"/>
-      <c r="G51" s="4" t="inlineStr">
-        <is>
-          <t>resistance training, strength training</t>
-        </is>
-      </c>
-      <c r="H51" s="4" t="inlineStr"/>
-      <c r="I51" s="4" t="inlineStr"/>
-      <c r="J51" s="4" t="inlineStr"/>
-      <c r="K51" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
-        </is>
-      </c>
-      <c r="L51" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> COPPER:1005</t>
-        </is>
-      </c>
-      <c r="M51" s="4" t="inlineStr"/>
-      <c r="N51" s="4" t="inlineStr"/>
-      <c r="O51" s="4" t="inlineStr"/>
-      <c r="P51" s="4" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q51" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R51" s="4" t="inlineStr"/>
-      <c r="S51" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T51" s="4" t="inlineStr"/>
-      <c r="U51" s="4" t="inlineStr"/>
-      <c r="V51" s="4" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>GMHO:0000196</t>
+          <t>GMHO:0000195</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>resistance training behaviour</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr"/>
       <c r="F52" s="4" t="inlineStr"/>
-      <c r="G52" s="4" t="inlineStr"/>
+      <c r="G52" s="4" t="inlineStr">
+        <is>
+          <t>resistance training, strength training</t>
+        </is>
+      </c>
       <c r="H52" s="4" t="inlineStr"/>
       <c r="I52" s="4" t="inlineStr"/>
       <c r="J52" s="4" t="inlineStr"/>
       <c r="K52" s="4" t="inlineStr">
         <is>
-          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
-Also drew on:
-- COPPER:1011"</t>
-        </is>
-      </c>
-      <c r="L52" s="4" t="inlineStr"/>
+          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
+        </is>
+      </c>
+      <c r="L52" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPPER:1005</t>
+        </is>
+      </c>
       <c r="M52" s="4" t="inlineStr"/>
       <c r="N52" s="4" t="inlineStr"/>
       <c r="O52" s="4" t="inlineStr"/>
@@ -3543,80 +3529,86 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>BCIO:011034</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mode of delivery</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>PS</t>
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000196</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr"/>
+      <c r="F53" s="4" t="inlineStr"/>
+      <c r="G53" s="4" t="inlineStr"/>
+      <c r="H53" s="4" t="inlineStr"/>
+      <c r="I53" s="4" t="inlineStr"/>
+      <c r="J53" s="4" t="inlineStr"/>
+      <c r="K53" s="4" t="inlineStr">
+        <is>
+          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
+Also drew on:
+- COPPER:1011"</t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="inlineStr"/>
+      <c r="M53" s="4" t="inlineStr"/>
+      <c r="N53" s="4" t="inlineStr"/>
+      <c r="O53" s="4" t="inlineStr"/>
+      <c r="P53" s="4" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q53" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R53" s="4" t="inlineStr"/>
+      <c r="S53" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T53" s="4" t="inlineStr"/>
+      <c r="U53" s="4" t="inlineStr"/>
+      <c r="V53" s="4" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>STATO:0000039</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>statistic</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3632,7 +3624,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -3655,308 +3647,308 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>STATO:0000039</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>statistic</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr">
+      <c r="D56" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr"/>
-      <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr"/>
-      <c r="P55" s="2" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr"/>
+      <c r="H56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="inlineStr"/>
+      <c r="K56" s="2" t="inlineStr"/>
+      <c r="L56" s="2" t="inlineStr"/>
+      <c r="M56" s="2" t="inlineStr"/>
+      <c r="N56" s="2" t="inlineStr"/>
+      <c r="O56" s="2" t="inlineStr"/>
+      <c r="P56" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q55" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr">
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R56" s="2" t="inlineStr"/>
+      <c r="S56" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T55" s="2" t="inlineStr"/>
-      <c r="U55" s="2" t="inlineStr"/>
-      <c r="V55" s="2" t="inlineStr">
+      <c r="T56" s="2" t="inlineStr"/>
+      <c r="U56" s="2" t="inlineStr"/>
+      <c r="V56" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr">
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000128</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>treatment as usual control arm</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr">
+      <c r="D58" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr"/>
-      <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
-      <c r="O57" s="2" t="inlineStr"/>
-      <c r="P57" s="2" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr"/>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr"/>
+      <c r="P58" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q57" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R57" s="2" t="inlineStr"/>
-      <c r="S57" s="2" t="inlineStr">
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R58" s="2" t="inlineStr"/>
+      <c r="S58" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T57" s="2" t="inlineStr"/>
-      <c r="U57" s="2" t="inlineStr">
+      <c r="T58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V57" s="2" t="inlineStr">
+      <c r="V58" s="2" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="4" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000129</t>
         </is>
       </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>waitlist control arm</t>
         </is>
       </c>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="C59" s="4" t="inlineStr">
         <is>
           <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
         </is>
       </c>
-      <c r="D58" s="4" t="inlineStr">
+      <c r="D59" s="4" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E58" s="4" t="inlineStr"/>
-      <c r="F58" s="4" t="inlineStr"/>
-      <c r="G58" s="4" t="inlineStr"/>
-      <c r="H58" s="4" t="inlineStr"/>
-      <c r="I58" s="4" t="inlineStr"/>
-      <c r="J58" s="4" t="inlineStr"/>
-      <c r="K58" s="4" t="inlineStr"/>
-      <c r="L58" s="4" t="inlineStr"/>
-      <c r="M58" s="4" t="inlineStr"/>
-      <c r="N58" s="4" t="inlineStr"/>
-      <c r="O58" s="4" t="inlineStr"/>
-      <c r="P58" s="4" t="inlineStr">
+      <c r="E59" s="4" t="inlineStr"/>
+      <c r="F59" s="4" t="inlineStr"/>
+      <c r="G59" s="4" t="inlineStr"/>
+      <c r="H59" s="4" t="inlineStr"/>
+      <c r="I59" s="4" t="inlineStr"/>
+      <c r="J59" s="4" t="inlineStr"/>
+      <c r="K59" s="4" t="inlineStr"/>
+      <c r="L59" s="4" t="inlineStr"/>
+      <c r="M59" s="4" t="inlineStr"/>
+      <c r="N59" s="4" t="inlineStr"/>
+      <c r="O59" s="4" t="inlineStr"/>
+      <c r="P59" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q58" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R58" s="4" t="inlineStr"/>
-      <c r="S58" s="4" t="inlineStr">
+      <c r="Q59" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R59" s="4" t="inlineStr"/>
+      <c r="S59" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T58" s="4" t="inlineStr"/>
-      <c r="U58" s="4" t="inlineStr">
+      <c r="T59" s="4" t="inlineStr"/>
+      <c r="U59" s="4" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V58" s="4" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V59" s="4" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -3972,7 +3964,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -3997,22 +3989,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IAO:0000590</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A textual entity that denotes a particular in reality.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -4028,7 +4020,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -4045,6 +4037,62 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>IAO:0000590</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A textual entity that denotes a particular in reality.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2617,228 +2617,220 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000241</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>mental health intervention content</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>An intervention content that is part of a mental health intervention.</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>intervention content</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr">
+        <is>
+          <t>Any intervention content delivered in the context of a mental health intervention.</t>
+        </is>
+      </c>
+      <c r="G37" s="4" t="inlineStr"/>
+      <c r="H37" s="4" t="inlineStr"/>
+      <c r="I37" s="4" t="inlineStr"/>
+      <c r="J37" s="4" t="inlineStr"/>
+      <c r="K37" s="4" t="inlineStr"/>
+      <c r="L37" s="4" t="inlineStr"/>
+      <c r="M37" s="4" t="inlineStr"/>
+      <c r="N37" s="4" t="inlineStr"/>
+      <c r="O37" s="4" t="inlineStr"/>
+      <c r="P37" s="4" t="inlineStr"/>
+      <c r="Q37" s="4" t="inlineStr"/>
+      <c r="R37" s="4" t="inlineStr"/>
+      <c r="S37" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T37" s="4" t="inlineStr"/>
+      <c r="U37" s="4" t="inlineStr"/>
+      <c r="V37" s="4" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000008</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>minimum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="E37" s="3" t="inlineStr"/>
-      <c r="F37" s="3" t="inlineStr"/>
-      <c r="G37" s="3" t="inlineStr"/>
-      <c r="H37" s="3" t="inlineStr"/>
-      <c r="I37" s="3" t="inlineStr"/>
-      <c r="J37" s="3" t="inlineStr"/>
-      <c r="K37" s="3" t="inlineStr"/>
-      <c r="L37" s="3" t="inlineStr"/>
-      <c r="M37" s="3" t="inlineStr"/>
-      <c r="N37" s="3" t="inlineStr"/>
-      <c r="O37" s="3" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr"/>
+      <c r="F38" s="3" t="inlineStr"/>
+      <c r="G38" s="3" t="inlineStr"/>
+      <c r="H38" s="3" t="inlineStr"/>
+      <c r="I38" s="3" t="inlineStr"/>
+      <c r="J38" s="3" t="inlineStr"/>
+      <c r="K38" s="3" t="inlineStr"/>
+      <c r="L38" s="3" t="inlineStr"/>
+      <c r="M38" s="3" t="inlineStr"/>
+      <c r="N38" s="3" t="inlineStr"/>
+      <c r="O38" s="3" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="P37" s="3" t="inlineStr">
+      <c r="P38" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q37" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R37" s="3" t="inlineStr"/>
-      <c r="S37" s="3" t="inlineStr">
+      <c r="Q38" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R38" s="3" t="inlineStr"/>
+      <c r="S38" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T37" s="3" t="inlineStr"/>
-      <c r="U37" s="3" t="inlineStr">
+      <c r="T38" s="3" t="inlineStr"/>
+      <c r="U38" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V37" s="3" t="inlineStr">
+      <c r="V38" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>STATO:0000150</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>A data item which denotes the smallest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr">
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000126</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>no treatment control arm</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>A control arm designation where there is no intervention.</t>
         </is>
       </c>
-      <c r="D39" s="4" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr"/>
-      <c r="F39" s="4" t="inlineStr"/>
-      <c r="G39" s="4" t="inlineStr"/>
-      <c r="H39" s="4" t="inlineStr"/>
-      <c r="I39" s="4" t="inlineStr"/>
-      <c r="J39" s="4" t="inlineStr"/>
-      <c r="K39" s="4" t="inlineStr"/>
-      <c r="L39" s="4" t="inlineStr"/>
-      <c r="M39" s="4" t="inlineStr"/>
-      <c r="N39" s="4" t="inlineStr"/>
-      <c r="O39" s="4" t="inlineStr"/>
-      <c r="P39" s="4" t="inlineStr">
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr"/>
+      <c r="H40" s="4" t="inlineStr"/>
+      <c r="I40" s="4" t="inlineStr"/>
+      <c r="J40" s="4" t="inlineStr"/>
+      <c r="K40" s="4" t="inlineStr"/>
+      <c r="L40" s="4" t="inlineStr"/>
+      <c r="M40" s="4" t="inlineStr"/>
+      <c r="N40" s="4" t="inlineStr"/>
+      <c r="O40" s="4" t="inlineStr"/>
+      <c r="P40" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q39" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R39" s="4" t="inlineStr"/>
-      <c r="S39" s="4" t="inlineStr">
+      <c r="Q40" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R40" s="4" t="inlineStr"/>
+      <c r="S40" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T39" s="4" t="inlineStr"/>
-      <c r="U39" s="4" t="inlineStr"/>
-      <c r="V39" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>BCIO:008515</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>number of contact events</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A data item that is the number of contact events in an intervention temporal part.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
+      <c r="T40" s="4" t="inlineStr"/>
+      <c r="U40" s="4" t="inlineStr"/>
+      <c r="V40" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2847,22 +2839,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>number of contact events</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+          <t>A data item that is the number of contact events in an intervention temporal part.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2882,7 +2874,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -2907,22 +2899,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>person source role</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2930,7 +2922,11 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -2938,7 +2934,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -2954,27 +2950,31 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>person source role</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>behaviour change intervention source</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2993,7 +2993,11 @@
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
@@ -3002,31 +3006,27 @@
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+      <c r="V43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -3045,11 +3045,7 @@
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
@@ -3060,7 +3056,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3078,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">individual human behaviour </t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -3101,7 +3097,11 @@
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
@@ -3112,85 +3112,81 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BCIO:036042</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">individual human behaviour </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
           <t>MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="inlineStr">
-        <is>
-          <t>GMHO:0000194</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E46" s="4" t="inlineStr"/>
-      <c r="F46" s="4" t="inlineStr"/>
-      <c r="G46" s="4" t="inlineStr"/>
-      <c r="H46" s="4" t="inlineStr"/>
-      <c r="I46" s="4" t="inlineStr"/>
-      <c r="J46" s="4" t="inlineStr"/>
-      <c r="K46" s="4" t="inlineStr"/>
-      <c r="L46" s="4" t="inlineStr"/>
-      <c r="M46" s="4" t="inlineStr"/>
-      <c r="N46" s="4" t="inlineStr"/>
-      <c r="O46" s="4" t="inlineStr"/>
-      <c r="P46" s="4" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q46" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R46" s="4" t="inlineStr"/>
-      <c r="S46" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T46" s="4" t="inlineStr"/>
-      <c r="U46" s="4" t="inlineStr"/>
-      <c r="V46" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>GMHO:0000009</t>
+          <t>GMHO:0000194</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>placebo intervention</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr"/>
@@ -3206,7 +3202,7 @@
       <c r="O47" s="4" t="inlineStr"/>
       <c r="P47" s="4" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q47" s="4" t="inlineStr">
@@ -3221,348 +3217,342 @@
         </is>
       </c>
       <c r="T47" s="4" t="inlineStr"/>
-      <c r="U47" s="4" t="inlineStr">
+      <c r="U47" s="4" t="inlineStr"/>
+      <c r="V47" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000009</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>placebo intervention</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="4" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr"/>
+      <c r="H48" s="4" t="inlineStr"/>
+      <c r="I48" s="4" t="inlineStr"/>
+      <c r="J48" s="4" t="inlineStr"/>
+      <c r="K48" s="4" t="inlineStr"/>
+      <c r="L48" s="4" t="inlineStr"/>
+      <c r="M48" s="4" t="inlineStr"/>
+      <c r="N48" s="4" t="inlineStr"/>
+      <c r="O48" s="4" t="inlineStr"/>
+      <c r="P48" s="4" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q48" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R48" s="4" t="inlineStr"/>
+      <c r="S48" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T48" s="4" t="inlineStr"/>
+      <c r="U48" s="4" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V47" s="4" t="inlineStr">
+      <c r="V48" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>IAO:0000104</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>directive information entity</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr">
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr">
+      <c r="D50" s="2" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr"/>
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="inlineStr"/>
+      <c r="K50" s="2" t="inlineStr"/>
+      <c r="L50" s="2" t="inlineStr"/>
+      <c r="M50" s="2" t="inlineStr"/>
+      <c r="N50" s="2" t="inlineStr"/>
+      <c r="O50" s="2" t="inlineStr"/>
+      <c r="P50" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q49" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr">
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R50" s="2" t="inlineStr"/>
+      <c r="S50" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T49" s="2" t="inlineStr"/>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr">
+      <c r="T50" s="2" t="inlineStr"/>
+      <c r="U50" s="2" t="inlineStr"/>
+      <c r="V50" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="4" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000239</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>psychological treatment</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>Mental health intervention content that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
-      <c r="D50" s="4" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr"/>
-      <c r="F50" s="4" t="inlineStr"/>
-      <c r="G50" s="4" t="inlineStr"/>
-      <c r="H50" s="4" t="inlineStr"/>
-      <c r="I50" s="4" t="inlineStr"/>
-      <c r="J50" s="4" t="inlineStr"/>
-      <c r="K50" s="4" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr"/>
+      <c r="F51" s="4" t="inlineStr"/>
+      <c r="G51" s="4" t="inlineStr"/>
+      <c r="H51" s="4" t="inlineStr"/>
+      <c r="I51" s="4" t="inlineStr"/>
+      <c r="J51" s="4" t="inlineStr"/>
+      <c r="K51" s="4" t="inlineStr">
         <is>
           <t>https://bciosearch.org/BCIO_050364</t>
         </is>
       </c>
-      <c r="L50" s="4" t="inlineStr">
+      <c r="L51" s="4" t="inlineStr">
         <is>
           <t>BCIO:050364</t>
         </is>
       </c>
-      <c r="M50" s="4" t="inlineStr"/>
-      <c r="N50" s="4" t="inlineStr"/>
-      <c r="O50" s="4" t="inlineStr"/>
-      <c r="P50" s="4" t="inlineStr">
+      <c r="M51" s="4" t="inlineStr"/>
+      <c r="N51" s="4" t="inlineStr"/>
+      <c r="O51" s="4" t="inlineStr"/>
+      <c r="P51" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q50" s="4" t="inlineStr"/>
-      <c r="R50" s="4" t="inlineStr"/>
-      <c r="S50" s="4" t="inlineStr">
+      <c r="Q51" s="4" t="inlineStr"/>
+      <c r="R51" s="4" t="inlineStr"/>
+      <c r="S51" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T50" s="4" t="inlineStr"/>
-      <c r="U50" s="4" t="inlineStr"/>
-      <c r="V50" s="4" t="inlineStr">
+      <c r="T51" s="4" t="inlineStr"/>
+      <c r="U51" s="4" t="inlineStr"/>
+      <c r="V51" s="4" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr">
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr">
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr">
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
         <is>
           <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="4" t="inlineStr">
-        <is>
-          <t>GMHO:0000195</t>
-        </is>
-      </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>resistance training behaviour</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
-        </is>
-      </c>
-      <c r="D52" s="4" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E52" s="4" t="inlineStr"/>
-      <c r="F52" s="4" t="inlineStr"/>
-      <c r="G52" s="4" t="inlineStr">
-        <is>
-          <t>resistance training, strength training</t>
-        </is>
-      </c>
-      <c r="H52" s="4" t="inlineStr"/>
-      <c r="I52" s="4" t="inlineStr"/>
-      <c r="J52" s="4" t="inlineStr"/>
-      <c r="K52" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
-        </is>
-      </c>
-      <c r="L52" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> COPPER:1005</t>
-        </is>
-      </c>
-      <c r="M52" s="4" t="inlineStr"/>
-      <c r="N52" s="4" t="inlineStr"/>
-      <c r="O52" s="4" t="inlineStr"/>
-      <c r="P52" s="4" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q52" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R52" s="4" t="inlineStr"/>
-      <c r="S52" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T52" s="4" t="inlineStr"/>
-      <c r="U52" s="4" t="inlineStr"/>
-      <c r="V52" s="4" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>GMHO:0000196</t>
+          <t>GMHO:0000195</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>resistance training behaviour</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr"/>
       <c r="F53" s="4" t="inlineStr"/>
-      <c r="G53" s="4" t="inlineStr"/>
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>resistance training, strength training</t>
+        </is>
+      </c>
       <c r="H53" s="4" t="inlineStr"/>
       <c r="I53" s="4" t="inlineStr"/>
       <c r="J53" s="4" t="inlineStr"/>
       <c r="K53" s="4" t="inlineStr">
         <is>
-          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
-Also drew on:
-- COPPER:1011"</t>
-        </is>
-      </c>
-      <c r="L53" s="4" t="inlineStr"/>
+          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPPER:1005</t>
+        </is>
+      </c>
       <c r="M53" s="4" t="inlineStr"/>
       <c r="N53" s="4" t="inlineStr"/>
       <c r="O53" s="4" t="inlineStr"/>
@@ -3591,80 +3581,86 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>BCIO:011034</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mode of delivery</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>PS</t>
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000196</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr"/>
+      <c r="F54" s="4" t="inlineStr"/>
+      <c r="G54" s="4" t="inlineStr"/>
+      <c r="H54" s="4" t="inlineStr"/>
+      <c r="I54" s="4" t="inlineStr"/>
+      <c r="J54" s="4" t="inlineStr"/>
+      <c r="K54" s="4" t="inlineStr">
+        <is>
+          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
+Also drew on:
+- COPPER:1011"</t>
+        </is>
+      </c>
+      <c r="L54" s="4" t="inlineStr"/>
+      <c r="M54" s="4" t="inlineStr"/>
+      <c r="N54" s="4" t="inlineStr"/>
+      <c r="O54" s="4" t="inlineStr"/>
+      <c r="P54" s="4" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q54" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R54" s="4" t="inlineStr"/>
+      <c r="S54" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T54" s="4" t="inlineStr"/>
+      <c r="U54" s="4" t="inlineStr"/>
+      <c r="V54" s="4" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>STATO:0000039</t>
+          <t>BCIO:011034</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>statistic</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3680,7 +3676,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -3703,308 +3699,308 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>STATO:0000039</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>statistic</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr">
+      <c r="D57" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr"/>
-      <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr"/>
-      <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="inlineStr"/>
-      <c r="N56" s="2" t="inlineStr"/>
-      <c r="O56" s="2" t="inlineStr"/>
-      <c r="P56" s="2" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr"/>
+      <c r="H57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr"/>
+      <c r="M57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr"/>
+      <c r="O57" s="2" t="inlineStr"/>
+      <c r="P57" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q56" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R56" s="2" t="inlineStr"/>
-      <c r="S56" s="2" t="inlineStr">
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R57" s="2" t="inlineStr"/>
+      <c r="S57" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T56" s="2" t="inlineStr"/>
-      <c r="U56" s="2" t="inlineStr"/>
-      <c r="V56" s="2" t="inlineStr">
+      <c r="T57" s="2" t="inlineStr"/>
+      <c r="U57" s="2" t="inlineStr"/>
+      <c r="V57" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr">
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr">
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr">
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000128</t>
         </is>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>treatment as usual control arm</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr">
+      <c r="D59" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr"/>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
-      <c r="O58" s="2" t="inlineStr"/>
-      <c r="P58" s="2" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr"/>
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr"/>
+      <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
+      <c r="L59" s="2" t="inlineStr"/>
+      <c r="M59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="inlineStr"/>
+      <c r="O59" s="2" t="inlineStr"/>
+      <c r="P59" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q58" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R58" s="2" t="inlineStr"/>
-      <c r="S58" s="2" t="inlineStr">
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R59" s="2" t="inlineStr"/>
+      <c r="S59" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T58" s="2" t="inlineStr"/>
-      <c r="U58" s="2" t="inlineStr">
+      <c r="T59" s="2" t="inlineStr"/>
+      <c r="U59" s="2" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V58" s="2" t="inlineStr">
+      <c r="V59" s="2" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="4" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000129</t>
         </is>
       </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="B60" s="4" t="inlineStr">
         <is>
           <t>waitlist control arm</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="C60" s="4" t="inlineStr">
         <is>
           <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
         </is>
       </c>
-      <c r="D59" s="4" t="inlineStr">
+      <c r="D60" s="4" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E59" s="4" t="inlineStr"/>
-      <c r="F59" s="4" t="inlineStr"/>
-      <c r="G59" s="4" t="inlineStr"/>
-      <c r="H59" s="4" t="inlineStr"/>
-      <c r="I59" s="4" t="inlineStr"/>
-      <c r="J59" s="4" t="inlineStr"/>
-      <c r="K59" s="4" t="inlineStr"/>
-      <c r="L59" s="4" t="inlineStr"/>
-      <c r="M59" s="4" t="inlineStr"/>
-      <c r="N59" s="4" t="inlineStr"/>
-      <c r="O59" s="4" t="inlineStr"/>
-      <c r="P59" s="4" t="inlineStr">
+      <c r="E60" s="4" t="inlineStr"/>
+      <c r="F60" s="4" t="inlineStr"/>
+      <c r="G60" s="4" t="inlineStr"/>
+      <c r="H60" s="4" t="inlineStr"/>
+      <c r="I60" s="4" t="inlineStr"/>
+      <c r="J60" s="4" t="inlineStr"/>
+      <c r="K60" s="4" t="inlineStr"/>
+      <c r="L60" s="4" t="inlineStr"/>
+      <c r="M60" s="4" t="inlineStr"/>
+      <c r="N60" s="4" t="inlineStr"/>
+      <c r="O60" s="4" t="inlineStr"/>
+      <c r="P60" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q59" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R59" s="4" t="inlineStr"/>
-      <c r="S59" s="4" t="inlineStr">
+      <c r="Q60" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R60" s="4" t="inlineStr"/>
+      <c r="S60" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T59" s="4" t="inlineStr"/>
-      <c r="U59" s="4" t="inlineStr">
+      <c r="T60" s="4" t="inlineStr"/>
+      <c r="U60" s="4" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V59" s="4" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V60" s="4" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -4020,7 +4016,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -4045,22 +4041,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IAO:0000590</t>
+          <t>BCIO:011046</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A textual entity that denotes a particular in reality.</t>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>textual entity</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -4076,7 +4072,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -4093,6 +4089,62 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>IAO:0000590</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A textual entity that denotes a particular in reality.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>textual entity</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -39,12 +39,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007fffd4"/>
+        <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002f4f4f"/>
+        <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
     <fill>
@@ -557,352 +557,352 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>BCIO:008500</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>A BCI attribute that is its temporal organisation.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">BCI attribute </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="2" t="inlineStr">
         <is>
           <t>PS; BG</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>BCIO:011037</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>alimentary mode of delivery</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>CHEBI:35469</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>antidepressant</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>A mood-stimulating drug used primarily in the treatment of affective disorders and related conditions.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>psychotropic drug</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>CHEBI:35476</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>antipsychotic agent</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>An agent that controls agitated psychotic behaviour, alleviate acute psychotic states, reduce psychotic symptoms, and exert a quieting effect.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>tranquilizing drug</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000240</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>attention management control arm</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>A control arm designation where the same dose of interpersonal interaction is provided as in the intervention group, but without any additional content from the intervention.</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>Attention control</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>Based on https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6858509/</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
-      <c r="R6" s="2" t="inlineStr"/>
-      <c r="S6" s="2" t="inlineStr">
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="n"/>
+      <c r="Q6" s="3" t="n"/>
+      <c r="R6" s="3" t="n"/>
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T6" s="2" t="inlineStr"/>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr">
+      <c r="T6" s="3" t="n"/>
+      <c r="U6" s="3" t="n"/>
+      <c r="V6" s="3" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000007</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>average dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>A average value of dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>average value</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr"/>
-      <c r="F7" s="3" t="inlineStr"/>
-      <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr"/>
-      <c r="I7" s="3" t="inlineStr"/>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr"/>
-      <c r="L7" s="3" t="inlineStr"/>
-      <c r="M7" s="3" t="inlineStr"/>
-      <c r="N7" s="3" t="inlineStr"/>
-      <c r="O7" s="3" t="inlineStr">
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="P7" s="3" t="inlineStr">
+      <c r="P7" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q7" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R7" s="3" t="inlineStr"/>
-      <c r="S7" s="3" t="inlineStr">
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T7" s="3" t="inlineStr"/>
-      <c r="U7" s="3" t="inlineStr">
+      <c r="T7" s="2" t="n"/>
+      <c r="U7" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V7" s="3" t="inlineStr">
+      <c r="V7" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -929,21 +929,11 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -954,14 +944,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
           <t>PS</t>
@@ -969,448 +956,448 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>BCIO:011000</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="2" t="n"/>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="n"/>
+      <c r="U9" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V9" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>BCIO:033000</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="n"/>
+      <c r="U10" s="2" t="n"/>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>BCIO:050435</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>behavioural attribute</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>A process attribute of an individual human behaviour.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="n"/>
+      <c r="U11" s="2" t="n"/>
+      <c r="V11" s="2" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000197</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>bodybuilding behaviour</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Individual human behaviour pattern involving consumption behaviour and physical performance behaviour in order to grow muscles.</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour pattern</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr"/>
-      <c r="F12" s="4" t="inlineStr"/>
-      <c r="G12" s="4" t="inlineStr"/>
-      <c r="H12" s="4" t="inlineStr"/>
-      <c r="I12" s="4" t="inlineStr"/>
-      <c r="J12" s="4" t="inlineStr"/>
-      <c r="K12" s="4" t="inlineStr">
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>Insipred by https://www.merriam-webster.com/dictionary/bodybuilding</t>
         </is>
       </c>
-      <c r="L12" s="4" t="inlineStr"/>
-      <c r="M12" s="4" t="inlineStr"/>
-      <c r="N12" s="4" t="inlineStr"/>
-      <c r="O12" s="4" t="inlineStr"/>
-      <c r="P12" s="4" t="inlineStr"/>
-      <c r="Q12" s="4" t="inlineStr"/>
-      <c r="R12" s="4" t="inlineStr"/>
-      <c r="S12" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T12" s="4" t="inlineStr"/>
-      <c r="U12" s="4" t="inlineStr"/>
-      <c r="V12" s="4" t="inlineStr">
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="n"/>
+      <c r="U12" s="2" t="n"/>
+      <c r="V12" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>BCIO:011040</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>buccal mode of delivery</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="n"/>
+      <c r="U13" s="2" t="n"/>
+      <c r="V13" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000192</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>cardiovascular exercise behaviour</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>Physical performance behaviour pattern that increases heart rate and respiration while using large muscle groups repetitively and rhythmically.</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>physical performance behaviour pattern</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr"/>
-      <c r="F14" s="4" t="inlineStr"/>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>cardio training, aerobic exercise, aerobics, endurance exercise, endurance training, cardiovascular exercise</t>
         </is>
       </c>
-      <c r="H14" s="4" t="inlineStr"/>
-      <c r="I14" s="4" t="inlineStr"/>
-      <c r="J14" s="4" t="inlineStr"/>
-      <c r="K14" s="4" t="inlineStr">
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>Cross-reference: COPPER:1044 - changed parent class</t>
         </is>
       </c>
-      <c r="L14" s="4" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>COPPER:1044</t>
         </is>
       </c>
-      <c r="M14" s="4" t="inlineStr"/>
-      <c r="N14" s="4" t="inlineStr"/>
-      <c r="O14" s="4" t="inlineStr"/>
-      <c r="P14" s="4" t="inlineStr">
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R14" s="4" t="inlineStr"/>
-      <c r="S14" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T14" s="4" t="inlineStr"/>
-      <c r="U14" s="4" t="inlineStr"/>
-      <c r="V14" s="4" t="inlineStr">
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="n"/>
+      <c r="U14" s="2" t="n"/>
+      <c r="V14" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000122</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>A study arm designation as a comparator to some intervention arm.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr"/>
-      <c r="S15" s="2" t="inlineStr">
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R15" s="3" t="n"/>
+      <c r="S15" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr">
+      <c r="T15" s="3" t="n"/>
+      <c r="U15" s="3" t="n"/>
+      <c r="V15" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000177</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>daily dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>Dose of pharmacological substance delivered to individuals within each day.</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr"/>
-      <c r="F16" s="4" t="inlineStr"/>
-      <c r="G16" s="4" t="inlineStr"/>
-      <c r="H16" s="4" t="inlineStr"/>
-      <c r="I16" s="4" t="inlineStr"/>
-      <c r="J16" s="4" t="inlineStr"/>
-      <c r="K16" s="4" t="inlineStr"/>
-      <c r="L16" s="4" t="inlineStr"/>
-      <c r="M16" s="4" t="inlineStr"/>
-      <c r="N16" s="4" t="inlineStr"/>
-      <c r="O16" s="4" t="inlineStr"/>
-      <c r="P16" s="4" t="inlineStr">
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q16" s="4" t="inlineStr"/>
-      <c r="R16" s="4" t="inlineStr"/>
-      <c r="S16" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T16" s="4" t="inlineStr"/>
-      <c r="U16" s="4" t="inlineStr"/>
-      <c r="V16" s="4" t="inlineStr">
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="n"/>
+      <c r="U16" s="2" t="n"/>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1437,21 +1424,11 @@
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>LSR 2</t>
@@ -1462,14 +1439,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1497,21 +1471,11 @@
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -1522,14 +1486,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1537,353 +1498,353 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000001</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>Dose of pharmacological substance delivered to an individual.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr">
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parent class from Ontology for Biomedical Investigations
 </t>
         </is>
       </c>
-      <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr">
+      <c r="L19" s="3" t="n"/>
+      <c r="M19" s="3" t="n"/>
+      <c r="N19" s="3" t="n"/>
+      <c r="O19" s="3" t="n"/>
+      <c r="P19" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr"/>
-      <c r="S19" s="2" t="inlineStr">
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="n"/>
+      <c r="S19" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T19" s="2" t="inlineStr"/>
-      <c r="U19" s="2" t="inlineStr">
+      <c r="T19" s="3" t="n"/>
+      <c r="U19" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V19" s="2" t="inlineStr">
+      <c r="V19" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000002</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>drug name</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A written name intended to identify a particular drug. </t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr">
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
+      <c r="J20" s="3" t="n"/>
+      <c r="K20" s="3" t="n"/>
+      <c r="L20" s="3" t="n"/>
+      <c r="M20" s="3" t="n"/>
+      <c r="N20" s="3" t="n"/>
+      <c r="O20" s="3" t="n"/>
+      <c r="P20" s="3" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr">
+      <c r="Q20" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R20" s="3" t="n"/>
+      <c r="S20" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T20" s="2" t="inlineStr"/>
-      <c r="U20" s="2" t="inlineStr">
+      <c r="T20" s="3" t="n"/>
+      <c r="U20" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V20" s="2" t="inlineStr">
+      <c r="V20" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000003</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>frequency of pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr"/>
-      <c r="F21" s="4" t="inlineStr"/>
-      <c r="G21" s="4" t="inlineStr"/>
-      <c r="H21" s="4" t="inlineStr"/>
-      <c r="I21" s="4" t="inlineStr"/>
-      <c r="J21" s="4" t="inlineStr"/>
-      <c r="K21" s="4" t="inlineStr"/>
-      <c r="L21" s="4" t="inlineStr"/>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr"/>
-      <c r="O21" s="4" t="inlineStr"/>
-      <c r="P21" s="4" t="inlineStr">
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="n"/>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q21" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R21" s="4" t="inlineStr"/>
-      <c r="S21" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T21" s="4" t="inlineStr"/>
-      <c r="U21" s="4" t="inlineStr">
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="n"/>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="n"/>
+      <c r="U21" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V21" s="4" t="inlineStr">
+      <c r="V21" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>BCIO:011035</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>somatic mode of delivery</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr">
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="n"/>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="n"/>
+      <c r="U22" s="2" t="n"/>
+      <c r="V22" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>BCIO:011041</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>inhalation mode of delivery</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
+      <c r="H23" s="2" t="n"/>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="n"/>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="n"/>
+      <c r="U23" s="2" t="n"/>
+      <c r="V23" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>BCIO:011042</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>injection mode of delivery</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2" t="n"/>
+      <c r="L24" s="2" t="n"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="n"/>
+      <c r="P24" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="n"/>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="n"/>
+      <c r="U24" s="2" t="n"/>
+      <c r="V24" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1910,35 +1871,21 @@
           <t>planned process</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>LSR 1, LSR 2, LSR 3</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1946,116 +1893,116 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000123</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>intervention arm</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
-      <c r="M26" s="2" t="inlineStr"/>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="2" t="inlineStr">
+      <c r="E26" s="3" t="n"/>
+      <c r="F26" s="3" t="n"/>
+      <c r="G26" s="3" t="n"/>
+      <c r="H26" s="3" t="n"/>
+      <c r="I26" s="3" t="n"/>
+      <c r="J26" s="3" t="n"/>
+      <c r="K26" s="3" t="n"/>
+      <c r="L26" s="3" t="n"/>
+      <c r="M26" s="3" t="n"/>
+      <c r="N26" s="3" t="n"/>
+      <c r="O26" s="3" t="n"/>
+      <c r="P26" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr"/>
-      <c r="S26" s="2" t="inlineStr">
+      <c r="Q26" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R26" s="3" t="n"/>
+      <c r="S26" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T26" s="2" t="inlineStr"/>
-      <c r="U26" s="2" t="inlineStr"/>
-      <c r="V26" s="2" t="inlineStr">
+      <c r="T26" s="3" t="n"/>
+      <c r="U26" s="3" t="n"/>
+      <c r="V26" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000004</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>intervention arm name</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr">
+      <c r="E27" s="3" t="n"/>
+      <c r="F27" s="3" t="n"/>
+      <c r="G27" s="3" t="n"/>
+      <c r="H27" s="3" t="n"/>
+      <c r="I27" s="3" t="n"/>
+      <c r="J27" s="3" t="n"/>
+      <c r="K27" s="3" t="n"/>
+      <c r="L27" s="3" t="n"/>
+      <c r="M27" s="3" t="n"/>
+      <c r="N27" s="3" t="n"/>
+      <c r="O27" s="3" t="n"/>
+      <c r="P27" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr">
+      <c r="Q27" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R27" s="3" t="n"/>
+      <c r="S27" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T27" s="2" t="inlineStr"/>
-      <c r="U27" s="2" t="inlineStr">
+      <c r="T27" s="3" t="n"/>
+      <c r="U27" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V27" s="2" t="inlineStr">
+      <c r="V27" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2082,11 +2029,11 @@
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr"/>
-      <c r="F28" s="4" t="inlineStr"/>
-      <c r="G28" s="4" t="inlineStr"/>
-      <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="4" t="inlineStr"/>
+      <c r="E28" s="4" t="n"/>
+      <c r="F28" s="4" t="n"/>
+      <c r="G28" s="4" t="n"/>
+      <c r="H28" s="4" t="n"/>
+      <c r="I28" s="4" t="n"/>
       <c r="J28" s="4" t="inlineStr">
         <is>
           <t>intervention content and delivery</t>
@@ -2102,9 +2049,9 @@
           <t>BCIO:008525</t>
         </is>
       </c>
-      <c r="M28" s="4" t="inlineStr"/>
-      <c r="N28" s="4" t="inlineStr"/>
-      <c r="O28" s="4" t="inlineStr"/>
+      <c r="M28" s="4" t="n"/>
+      <c r="N28" s="4" t="n"/>
+      <c r="O28" s="4" t="n"/>
       <c r="P28" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
@@ -2115,7 +2062,7 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R28" s="4" t="inlineStr"/>
+      <c r="R28" s="4" t="n"/>
       <c r="S28" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2126,7 +2073,7 @@
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U28" s="4" t="inlineStr"/>
+      <c r="U28" s="4" t="n"/>
       <c r="V28" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
@@ -2134,143 +2081,143 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000125</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr">
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
+      <c r="J29" s="3" t="n"/>
+      <c r="K29" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Based on http://humanbehaviourchange.org/ontology/BCIO_007000
 </t>
         </is>
       </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="L29" s="3" t="inlineStr">
         <is>
           <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr">
+      <c r="M29" s="3" t="n"/>
+      <c r="N29" s="3" t="n"/>
+      <c r="O29" s="3" t="n"/>
+      <c r="P29" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr">
+      <c r="Q29" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R29" s="3" t="n"/>
+      <c r="S29" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T29" s="2" t="inlineStr"/>
-      <c r="U29" s="2" t="inlineStr"/>
-      <c r="V29" s="2" t="inlineStr">
+      <c r="T29" s="3" t="n"/>
+      <c r="U29" s="3" t="n"/>
+      <c r="V29" s="3" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000005</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>intervention duration</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
+      <c r="J30" s="3" t="inlineStr">
         <is>
           <t>intervention content and delivery</t>
         </is>
       </c>
-      <c r="K30" s="2" t="inlineStr">
+      <c r="K30" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">inspired by BCIO:008560
 </t>
         </is>
       </c>
-      <c r="L30" s="2" t="inlineStr">
+      <c r="L30" s="3" t="inlineStr">
         <is>
           <t>BCIO:008560</t>
         </is>
       </c>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr">
+      <c r="M30" s="3" t="n"/>
+      <c r="N30" s="3" t="n"/>
+      <c r="O30" s="3" t="n"/>
+      <c r="P30" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr"/>
-      <c r="S30" s="2" t="inlineStr">
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="n"/>
+      <c r="S30" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T30" s="2" t="inlineStr">
+      <c r="T30" s="3" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U30" s="2" t="inlineStr">
+      <c r="U30" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V30" s="2" t="inlineStr">
+      <c r="V30" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -2297,17 +2244,6 @@
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -2318,14 +2254,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2353,21 +2286,21 @@
           <t>locomotive behaviour</t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr"/>
-      <c r="F32" s="4" t="inlineStr"/>
-      <c r="G32" s="4" t="inlineStr"/>
-      <c r="H32" s="4" t="inlineStr"/>
-      <c r="I32" s="4" t="inlineStr"/>
-      <c r="J32" s="4" t="inlineStr"/>
+      <c r="E32" s="4" t="n"/>
+      <c r="F32" s="4" t="n"/>
+      <c r="G32" s="4" t="n"/>
+      <c r="H32" s="4" t="n"/>
+      <c r="I32" s="4" t="n"/>
+      <c r="J32" s="4" t="n"/>
       <c r="K32" s="4" t="inlineStr">
         <is>
           <t>Drew on: https://www.oxfordlearnersdictionaries.com/definition/english/jogging#:~:text=jogging-,noun,as%20a%20form%20of%20exercise</t>
         </is>
       </c>
-      <c r="L32" s="4" t="inlineStr"/>
-      <c r="M32" s="4" t="inlineStr"/>
-      <c r="N32" s="4" t="inlineStr"/>
-      <c r="O32" s="4" t="inlineStr"/>
+      <c r="L32" s="4" t="n"/>
+      <c r="M32" s="4" t="n"/>
+      <c r="N32" s="4" t="n"/>
+      <c r="O32" s="4" t="n"/>
       <c r="P32" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
@@ -2378,14 +2311,14 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R32" s="4" t="inlineStr"/>
+      <c r="R32" s="4" t="n"/>
       <c r="S32" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T32" s="4" t="inlineStr"/>
-      <c r="U32" s="4" t="inlineStr"/>
+      <c r="T32" s="4" t="n"/>
+      <c r="U32" s="4" t="n"/>
       <c r="V32" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
@@ -2413,17 +2346,6 @@
           <t>position-related behaviour</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>LSR 2</t>
@@ -2434,14 +2356,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2449,64 +2368,64 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000006</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>maximum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D34" s="3" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>maximum value</t>
         </is>
       </c>
-      <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr"/>
-      <c r="G34" s="3" t="inlineStr"/>
-      <c r="H34" s="3" t="inlineStr"/>
-      <c r="I34" s="3" t="inlineStr"/>
-      <c r="J34" s="3" t="inlineStr"/>
-      <c r="K34" s="3" t="inlineStr"/>
-      <c r="L34" s="3" t="inlineStr"/>
-      <c r="M34" s="3" t="inlineStr"/>
-      <c r="N34" s="3" t="inlineStr"/>
-      <c r="O34" s="3" t="inlineStr">
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="P34" s="3" t="inlineStr">
+      <c r="P34" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q34" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R34" s="3" t="inlineStr"/>
-      <c r="S34" s="3" t="inlineStr">
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="n"/>
+      <c r="S34" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T34" s="3" t="inlineStr"/>
-      <c r="U34" s="3" t="inlineStr">
+      <c r="T34" s="2" t="n"/>
+      <c r="U34" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V34" s="3" t="inlineStr">
+      <c r="V34" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2533,32 +2452,16 @@
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2581,17 +2484,6 @@
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>LSR 1</t>
@@ -2602,14 +2494,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2637,31 +2526,31 @@
           <t>intervention content</t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr"/>
+      <c r="E37" s="4" t="n"/>
       <c r="F37" s="4" t="inlineStr">
         <is>
           <t>Any intervention content delivered in the context of a mental health intervention.</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr"/>
-      <c r="H37" s="4" t="inlineStr"/>
-      <c r="I37" s="4" t="inlineStr"/>
-      <c r="J37" s="4" t="inlineStr"/>
-      <c r="K37" s="4" t="inlineStr"/>
-      <c r="L37" s="4" t="inlineStr"/>
-      <c r="M37" s="4" t="inlineStr"/>
-      <c r="N37" s="4" t="inlineStr"/>
-      <c r="O37" s="4" t="inlineStr"/>
-      <c r="P37" s="4" t="inlineStr"/>
-      <c r="Q37" s="4" t="inlineStr"/>
-      <c r="R37" s="4" t="inlineStr"/>
+      <c r="G37" s="4" t="n"/>
+      <c r="H37" s="4" t="n"/>
+      <c r="I37" s="4" t="n"/>
+      <c r="J37" s="4" t="n"/>
+      <c r="K37" s="4" t="n"/>
+      <c r="L37" s="4" t="n"/>
+      <c r="M37" s="4" t="n"/>
+      <c r="N37" s="4" t="n"/>
+      <c r="O37" s="4" t="n"/>
+      <c r="P37" s="4" t="n"/>
+      <c r="Q37" s="4" t="n"/>
+      <c r="R37" s="4" t="n"/>
       <c r="S37" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T37" s="4" t="inlineStr"/>
-      <c r="U37" s="4" t="inlineStr"/>
+      <c r="T37" s="4" t="n"/>
+      <c r="U37" s="4" t="n"/>
       <c r="V37" s="4" t="inlineStr">
         <is>
           <t>MS</t>
@@ -2669,64 +2558,64 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000008</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>minimum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="E38" s="3" t="inlineStr"/>
-      <c r="F38" s="3" t="inlineStr"/>
-      <c r="G38" s="3" t="inlineStr"/>
-      <c r="H38" s="3" t="inlineStr"/>
-      <c r="I38" s="3" t="inlineStr"/>
-      <c r="J38" s="3" t="inlineStr"/>
-      <c r="K38" s="3" t="inlineStr"/>
-      <c r="L38" s="3" t="inlineStr"/>
-      <c r="M38" s="3" t="inlineStr"/>
-      <c r="N38" s="3" t="inlineStr"/>
-      <c r="O38" s="3" t="inlineStr">
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="n"/>
+      <c r="G38" s="2" t="n"/>
+      <c r="H38" s="2" t="n"/>
+      <c r="I38" s="2" t="n"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="P38" s="3" t="inlineStr">
+      <c r="P38" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q38" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R38" s="3" t="inlineStr"/>
-      <c r="S38" s="3" t="inlineStr">
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="n"/>
+      <c r="S38" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T38" s="3" t="inlineStr"/>
-      <c r="U38" s="3" t="inlineStr">
+      <c r="T38" s="2" t="n"/>
+      <c r="U38" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V38" s="3" t="inlineStr">
+      <c r="V38" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2753,32 +2642,16 @@
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -2801,17 +2674,17 @@
           <t>control arm</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr"/>
-      <c r="F40" s="4" t="inlineStr"/>
-      <c r="G40" s="4" t="inlineStr"/>
-      <c r="H40" s="4" t="inlineStr"/>
-      <c r="I40" s="4" t="inlineStr"/>
-      <c r="J40" s="4" t="inlineStr"/>
-      <c r="K40" s="4" t="inlineStr"/>
-      <c r="L40" s="4" t="inlineStr"/>
-      <c r="M40" s="4" t="inlineStr"/>
-      <c r="N40" s="4" t="inlineStr"/>
-      <c r="O40" s="4" t="inlineStr"/>
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="4" t="n"/>
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="4" t="n"/>
+      <c r="I40" s="4" t="n"/>
+      <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
+      <c r="L40" s="4" t="n"/>
+      <c r="M40" s="4" t="n"/>
+      <c r="N40" s="4" t="n"/>
+      <c r="O40" s="4" t="n"/>
       <c r="P40" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
@@ -2822,14 +2695,14 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R40" s="4" t="inlineStr"/>
+      <c r="R40" s="4" t="n"/>
       <c r="S40" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T40" s="4" t="inlineStr"/>
-      <c r="U40" s="4" t="inlineStr"/>
+      <c r="T40" s="4" t="n"/>
+      <c r="U40" s="4" t="n"/>
       <c r="V40" s="4" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2857,21 +2730,11 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>LSR 2</t>
@@ -2882,14 +2745,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2917,21 +2777,11 @@
           <t>temporal region</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -2942,14 +2792,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2977,17 +2824,6 @@
           <t>behaviour change intervention source</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>LSR 2</t>
@@ -2998,15 +2834,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3029,31 +2861,16 @@
           <t>behavioural attribute</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
           <t>MS</t>
@@ -3081,17 +2898,6 @@
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>LSR 2</t>
@@ -3102,14 +2908,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3137,31 +2940,16 @@
           <t xml:space="preserve">individual human behaviour </t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
           <t>MS</t>
@@ -3189,17 +2977,17 @@
           <t>individual human behaviour pattern</t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr"/>
-      <c r="F47" s="4" t="inlineStr"/>
-      <c r="G47" s="4" t="inlineStr"/>
-      <c r="H47" s="4" t="inlineStr"/>
-      <c r="I47" s="4" t="inlineStr"/>
-      <c r="J47" s="4" t="inlineStr"/>
-      <c r="K47" s="4" t="inlineStr"/>
-      <c r="L47" s="4" t="inlineStr"/>
-      <c r="M47" s="4" t="inlineStr"/>
-      <c r="N47" s="4" t="inlineStr"/>
-      <c r="O47" s="4" t="inlineStr"/>
+      <c r="E47" s="4" t="n"/>
+      <c r="F47" s="4" t="n"/>
+      <c r="G47" s="4" t="n"/>
+      <c r="H47" s="4" t="n"/>
+      <c r="I47" s="4" t="n"/>
+      <c r="J47" s="4" t="n"/>
+      <c r="K47" s="4" t="n"/>
+      <c r="L47" s="4" t="n"/>
+      <c r="M47" s="4" t="n"/>
+      <c r="N47" s="4" t="n"/>
+      <c r="O47" s="4" t="n"/>
       <c r="P47" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
@@ -3210,14 +2998,14 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R47" s="4" t="inlineStr"/>
+      <c r="R47" s="4" t="n"/>
       <c r="S47" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T47" s="4" t="inlineStr"/>
-      <c r="U47" s="4" t="inlineStr"/>
+      <c r="T47" s="4" t="n"/>
+      <c r="U47" s="4" t="n"/>
       <c r="V47" s="4" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3245,17 +3033,17 @@
           <t>intervention</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr"/>
-      <c r="F48" s="4" t="inlineStr"/>
-      <c r="G48" s="4" t="inlineStr"/>
-      <c r="H48" s="4" t="inlineStr"/>
-      <c r="I48" s="4" t="inlineStr"/>
-      <c r="J48" s="4" t="inlineStr"/>
-      <c r="K48" s="4" t="inlineStr"/>
-      <c r="L48" s="4" t="inlineStr"/>
-      <c r="M48" s="4" t="inlineStr"/>
-      <c r="N48" s="4" t="inlineStr"/>
-      <c r="O48" s="4" t="inlineStr"/>
+      <c r="E48" s="4" t="n"/>
+      <c r="F48" s="4" t="n"/>
+      <c r="G48" s="4" t="n"/>
+      <c r="H48" s="4" t="n"/>
+      <c r="I48" s="4" t="n"/>
+      <c r="J48" s="4" t="n"/>
+      <c r="K48" s="4" t="n"/>
+      <c r="L48" s="4" t="n"/>
+      <c r="M48" s="4" t="n"/>
+      <c r="N48" s="4" t="n"/>
+      <c r="O48" s="4" t="n"/>
       <c r="P48" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -3266,13 +3054,13 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R48" s="4" t="inlineStr"/>
+      <c r="R48" s="4" t="n"/>
       <c r="S48" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T48" s="4" t="inlineStr"/>
+      <c r="T48" s="4" t="n"/>
       <c r="U48" s="4" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
@@ -3305,17 +3093,6 @@
           <t>directive information entity</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>LSR 1</t>
@@ -3326,14 +3103,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3341,56 +3115,56 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr">
+      <c r="D50" s="3" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr"/>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr"/>
-      <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr"/>
-      <c r="L50" s="2" t="inlineStr"/>
-      <c r="M50" s="2" t="inlineStr"/>
-      <c r="N50" s="2" t="inlineStr"/>
-      <c r="O50" s="2" t="inlineStr"/>
-      <c r="P50" s="2" t="inlineStr">
+      <c r="E50" s="3" t="n"/>
+      <c r="F50" s="3" t="n"/>
+      <c r="G50" s="3" t="n"/>
+      <c r="H50" s="3" t="n"/>
+      <c r="I50" s="3" t="n"/>
+      <c r="J50" s="3" t="n"/>
+      <c r="K50" s="3" t="n"/>
+      <c r="L50" s="3" t="n"/>
+      <c r="M50" s="3" t="n"/>
+      <c r="N50" s="3" t="n"/>
+      <c r="O50" s="3" t="n"/>
+      <c r="P50" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q50" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr">
+      <c r="Q50" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R50" s="3" t="n"/>
+      <c r="S50" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T50" s="2" t="inlineStr"/>
-      <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr">
+      <c r="T50" s="3" t="n"/>
+      <c r="U50" s="3" t="n"/>
+      <c r="V50" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3417,12 +3191,12 @@
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr"/>
-      <c r="F51" s="4" t="inlineStr"/>
-      <c r="G51" s="4" t="inlineStr"/>
-      <c r="H51" s="4" t="inlineStr"/>
-      <c r="I51" s="4" t="inlineStr"/>
-      <c r="J51" s="4" t="inlineStr"/>
+      <c r="E51" s="4" t="n"/>
+      <c r="F51" s="4" t="n"/>
+      <c r="G51" s="4" t="n"/>
+      <c r="H51" s="4" t="n"/>
+      <c r="I51" s="4" t="n"/>
+      <c r="J51" s="4" t="n"/>
       <c r="K51" s="4" t="inlineStr">
         <is>
           <t>https://bciosearch.org/BCIO_050364</t>
@@ -3433,23 +3207,23 @@
           <t>BCIO:050364</t>
         </is>
       </c>
-      <c r="M51" s="4" t="inlineStr"/>
-      <c r="N51" s="4" t="inlineStr"/>
-      <c r="O51" s="4" t="inlineStr"/>
+      <c r="M51" s="4" t="n"/>
+      <c r="N51" s="4" t="n"/>
+      <c r="O51" s="4" t="n"/>
       <c r="P51" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q51" s="4" t="inlineStr"/>
-      <c r="R51" s="4" t="inlineStr"/>
+      <c r="Q51" s="4" t="n"/>
+      <c r="R51" s="4" t="n"/>
       <c r="S51" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T51" s="4" t="inlineStr"/>
-      <c r="U51" s="4" t="inlineStr"/>
+      <c r="T51" s="4" t="n"/>
+      <c r="U51" s="4" t="n"/>
       <c r="V51" s="4" t="inlineStr">
         <is>
           <t>MS</t>
@@ -3477,17 +3251,6 @@
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -3498,14 +3261,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3533,16 +3293,16 @@
           <t>physical performance behaviour pattern</t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr"/>
-      <c r="F53" s="4" t="inlineStr"/>
+      <c r="E53" s="4" t="n"/>
+      <c r="F53" s="4" t="n"/>
       <c r="G53" s="4" t="inlineStr">
         <is>
           <t>resistance training, strength training</t>
         </is>
       </c>
-      <c r="H53" s="4" t="inlineStr"/>
-      <c r="I53" s="4" t="inlineStr"/>
-      <c r="J53" s="4" t="inlineStr"/>
+      <c r="H53" s="4" t="n"/>
+      <c r="I53" s="4" t="n"/>
+      <c r="J53" s="4" t="n"/>
       <c r="K53" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
@@ -3553,9 +3313,9 @@
           <t xml:space="preserve"> COPPER:1005</t>
         </is>
       </c>
-      <c r="M53" s="4" t="inlineStr"/>
-      <c r="N53" s="4" t="inlineStr"/>
-      <c r="O53" s="4" t="inlineStr"/>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
+      <c r="O53" s="4" t="n"/>
       <c r="P53" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
@@ -3566,14 +3326,14 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R53" s="4" t="inlineStr"/>
+      <c r="R53" s="4" t="n"/>
       <c r="S53" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T53" s="4" t="inlineStr"/>
-      <c r="U53" s="4" t="inlineStr"/>
+      <c r="T53" s="4" t="n"/>
+      <c r="U53" s="4" t="n"/>
       <c r="V53" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
@@ -3601,12 +3361,12 @@
           <t>locomotive behaviour</t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr"/>
-      <c r="F54" s="4" t="inlineStr"/>
-      <c r="G54" s="4" t="inlineStr"/>
-      <c r="H54" s="4" t="inlineStr"/>
-      <c r="I54" s="4" t="inlineStr"/>
-      <c r="J54" s="4" t="inlineStr"/>
+      <c r="E54" s="4" t="n"/>
+      <c r="F54" s="4" t="n"/>
+      <c r="G54" s="4" t="n"/>
+      <c r="H54" s="4" t="n"/>
+      <c r="I54" s="4" t="n"/>
+      <c r="J54" s="4" t="n"/>
       <c r="K54" s="4" t="inlineStr">
         <is>
           <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
@@ -3614,10 +3374,10 @@
 - COPPER:1011"</t>
         </is>
       </c>
-      <c r="L54" s="4" t="inlineStr"/>
-      <c r="M54" s="4" t="inlineStr"/>
-      <c r="N54" s="4" t="inlineStr"/>
-      <c r="O54" s="4" t="inlineStr"/>
+      <c r="L54" s="4" t="n"/>
+      <c r="M54" s="4" t="n"/>
+      <c r="N54" s="4" t="n"/>
+      <c r="O54" s="4" t="n"/>
       <c r="P54" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
@@ -3628,14 +3388,14 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R54" s="4" t="inlineStr"/>
+      <c r="R54" s="4" t="n"/>
       <c r="S54" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T54" s="4" t="inlineStr"/>
-      <c r="U54" s="4" t="inlineStr"/>
+      <c r="T54" s="4" t="n"/>
+      <c r="U54" s="4" t="n"/>
       <c r="V54" s="4" t="inlineStr">
         <is>
           <t>PS; MS</t>
@@ -3663,17 +3423,6 @@
           <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -3684,14 +3433,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3719,17 +3465,6 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>LSR 1</t>
@@ -3740,14 +3475,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3755,56 +3487,56 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" s="3" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr">
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr"/>
-      <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
-      <c r="O57" s="2" t="inlineStr"/>
-      <c r="P57" s="2" t="inlineStr">
+      <c r="E57" s="3" t="n"/>
+      <c r="F57" s="3" t="n"/>
+      <c r="G57" s="3" t="n"/>
+      <c r="H57" s="3" t="n"/>
+      <c r="I57" s="3" t="n"/>
+      <c r="J57" s="3" t="n"/>
+      <c r="K57" s="3" t="n"/>
+      <c r="L57" s="3" t="n"/>
+      <c r="M57" s="3" t="n"/>
+      <c r="N57" s="3" t="n"/>
+      <c r="O57" s="3" t="n"/>
+      <c r="P57" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q57" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R57" s="2" t="inlineStr"/>
-      <c r="S57" s="2" t="inlineStr">
+      <c r="Q57" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R57" s="3" t="n"/>
+      <c r="S57" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T57" s="2" t="inlineStr"/>
-      <c r="U57" s="2" t="inlineStr"/>
-      <c r="V57" s="2" t="inlineStr">
+      <c r="T57" s="3" t="n"/>
+      <c r="U57" s="3" t="n"/>
+      <c r="V57" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3831,17 +3563,6 @@
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -3852,14 +3573,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3867,60 +3585,60 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000128</t>
         </is>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" s="3" t="inlineStr">
         <is>
           <t>treatment as usual control arm</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr">
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="inlineStr"/>
-      <c r="N59" s="2" t="inlineStr"/>
-      <c r="O59" s="2" t="inlineStr"/>
-      <c r="P59" s="2" t="inlineStr">
+      <c r="E59" s="3" t="n"/>
+      <c r="F59" s="3" t="n"/>
+      <c r="G59" s="3" t="n"/>
+      <c r="H59" s="3" t="n"/>
+      <c r="I59" s="3" t="n"/>
+      <c r="J59" s="3" t="n"/>
+      <c r="K59" s="3" t="n"/>
+      <c r="L59" s="3" t="n"/>
+      <c r="M59" s="3" t="n"/>
+      <c r="N59" s="3" t="n"/>
+      <c r="O59" s="3" t="n"/>
+      <c r="P59" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q59" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R59" s="2" t="inlineStr"/>
-      <c r="S59" s="2" t="inlineStr">
+      <c r="Q59" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R59" s="3" t="n"/>
+      <c r="S59" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T59" s="2" t="inlineStr"/>
-      <c r="U59" s="2" t="inlineStr">
+      <c r="T59" s="3" t="n"/>
+      <c r="U59" s="3" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V59" s="2" t="inlineStr">
+      <c r="V59" s="3" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
@@ -3947,17 +3665,17 @@
           <t>control arm</t>
         </is>
       </c>
-      <c r="E60" s="4" t="inlineStr"/>
-      <c r="F60" s="4" t="inlineStr"/>
-      <c r="G60" s="4" t="inlineStr"/>
-      <c r="H60" s="4" t="inlineStr"/>
-      <c r="I60" s="4" t="inlineStr"/>
-      <c r="J60" s="4" t="inlineStr"/>
-      <c r="K60" s="4" t="inlineStr"/>
-      <c r="L60" s="4" t="inlineStr"/>
-      <c r="M60" s="4" t="inlineStr"/>
-      <c r="N60" s="4" t="inlineStr"/>
-      <c r="O60" s="4" t="inlineStr"/>
+      <c r="E60" s="4" t="n"/>
+      <c r="F60" s="4" t="n"/>
+      <c r="G60" s="4" t="n"/>
+      <c r="H60" s="4" t="n"/>
+      <c r="I60" s="4" t="n"/>
+      <c r="J60" s="4" t="n"/>
+      <c r="K60" s="4" t="n"/>
+      <c r="L60" s="4" t="n"/>
+      <c r="M60" s="4" t="n"/>
+      <c r="N60" s="4" t="n"/>
+      <c r="O60" s="4" t="n"/>
       <c r="P60" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
@@ -3968,19 +3686,19 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R60" s="4" t="inlineStr"/>
+      <c r="R60" s="4" t="n"/>
       <c r="S60" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T60" s="4" t="inlineStr"/>
+      <c r="T60" s="4" t="n"/>
       <c r="U60" s="4" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V60" s="4" t="inlineStr"/>
+      <c r="V60" s="4" t="n"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4003,17 +3721,6 @@
           <t>locomotive behaviour</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>LSR 2</t>
@@ -4024,14 +3731,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4059,17 +3763,6 @@
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -4080,14 +3773,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4115,17 +3805,6 @@
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
@@ -4136,14 +3815,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
           <t>PS</t>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -2009,72 +2009,72 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000124</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>intervention contact event duration</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention contact event.</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
-      <c r="I28" s="4" t="n"/>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="2" t="n"/>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="inlineStr">
         <is>
           <t>intervention content and delivery</t>
         </is>
       </c>
-      <c r="K28" s="4" t="inlineStr">
+      <c r="K28" s="2" t="inlineStr">
         <is>
           <t>inspired by BCIO:008525</t>
         </is>
       </c>
-      <c r="L28" s="4" t="inlineStr">
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>BCIO:008525</t>
         </is>
       </c>
-      <c r="M28" s="4" t="n"/>
-      <c r="N28" s="4" t="n"/>
-      <c r="O28" s="4" t="n"/>
-      <c r="P28" s="4" t="inlineStr">
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q28" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R28" s="4" t="n"/>
-      <c r="S28" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T28" s="4" t="inlineStr">
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="n"/>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U28" s="4" t="n"/>
-      <c r="V28" s="4" t="inlineStr">
+      <c r="U28" s="2" t="n"/>
+      <c r="V28" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -2224,144 +2224,172 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>BCIO:008540</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>irregular intervention schedule</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="n"/>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="n"/>
+      <c r="U31" s="2" t="n"/>
+      <c r="V31" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000193</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>jogging</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>A locomotive behaviour that involves trotting or running at a slow and steady pace.</t>
         </is>
       </c>
-      <c r="D32" s="4" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>locomotive behaviour</t>
         </is>
       </c>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
-      <c r="I32" s="4" t="n"/>
-      <c r="J32" s="4" t="n"/>
-      <c r="K32" s="4" t="inlineStr">
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="inlineStr">
         <is>
           <t>Drew on: https://www.oxfordlearnersdictionaries.com/definition/english/jogging#:~:text=jogging-,noun,as%20a%20form%20of%20exercise</t>
         </is>
       </c>
-      <c r="L32" s="4" t="n"/>
-      <c r="M32" s="4" t="n"/>
-      <c r="N32" s="4" t="n"/>
-      <c r="O32" s="4" t="n"/>
-      <c r="P32" s="4" t="inlineStr">
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q32" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R32" s="4" t="n"/>
-      <c r="S32" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T32" s="4" t="n"/>
-      <c r="U32" s="4" t="n"/>
-      <c r="V32" s="4" t="inlineStr">
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="n"/>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="n"/>
+      <c r="U32" s="2" t="n"/>
+      <c r="V32" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>BCIO:036026</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>locomotive behaviour</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>position-related behaviour</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+      <c r="H33" s="2" t="n"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
+      <c r="P33" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="n"/>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="n"/>
+      <c r="U33" s="2" t="n"/>
+      <c r="V33" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2710,135 +2738,176 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>BCIO:008515</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>number of contact events</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>A data item that is the number of contact events in an intervention temporal part.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
+      <c r="E41" s="2" t="n"/>
+      <c r="F41" s="2" t="n"/>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="2" t="n"/>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="n"/>
+      <c r="L41" s="2" t="n"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="n"/>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T41" s="2" t="n"/>
+      <c r="U41" s="2" t="n"/>
+      <c r="V41" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>BFO:0000038</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>temporal region</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="2" t="n"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="n"/>
+      <c r="L42" s="2" t="n"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="n"/>
+      <c r="P42" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="n"/>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="n"/>
+      <c r="U42" s="2" t="n"/>
+      <c r="V42" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>BCIO:010001</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>person source role</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>A behaviour change intervention source role that inheres in a person.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention source</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="n"/>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="n"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2957,158 +3026,172 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000194</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>physical performance behaviour pattern</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
         </is>
       </c>
-      <c r="D47" s="4" t="inlineStr">
+      <c r="D47" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour pattern</t>
         </is>
       </c>
-      <c r="E47" s="4" t="n"/>
-      <c r="F47" s="4" t="n"/>
-      <c r="G47" s="4" t="n"/>
-      <c r="H47" s="4" t="n"/>
-      <c r="I47" s="4" t="n"/>
-      <c r="J47" s="4" t="n"/>
-      <c r="K47" s="4" t="n"/>
-      <c r="L47" s="4" t="n"/>
-      <c r="M47" s="4" t="n"/>
-      <c r="N47" s="4" t="n"/>
-      <c r="O47" s="4" t="n"/>
-      <c r="P47" s="4" t="inlineStr">
+      <c r="E47" s="2" t="n"/>
+      <c r="F47" s="2" t="n"/>
+      <c r="G47" s="2" t="n"/>
+      <c r="H47" s="2" t="n"/>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
+      <c r="P47" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q47" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R47" s="4" t="n"/>
-      <c r="S47" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T47" s="4" t="n"/>
-      <c r="U47" s="4" t="n"/>
-      <c r="V47" s="4" t="inlineStr">
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R47" s="2" t="n"/>
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T47" s="2" t="n"/>
+      <c r="U47" s="2" t="n"/>
+      <c r="V47" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000009</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>placebo intervention</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
         </is>
       </c>
-      <c r="D48" s="4" t="inlineStr">
+      <c r="D48" s="2" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="E48" s="4" t="n"/>
-      <c r="F48" s="4" t="n"/>
-      <c r="G48" s="4" t="n"/>
-      <c r="H48" s="4" t="n"/>
-      <c r="I48" s="4" t="n"/>
-      <c r="J48" s="4" t="n"/>
-      <c r="K48" s="4" t="n"/>
-      <c r="L48" s="4" t="n"/>
-      <c r="M48" s="4" t="n"/>
-      <c r="N48" s="4" t="n"/>
-      <c r="O48" s="4" t="n"/>
-      <c r="P48" s="4" t="inlineStr">
+      <c r="E48" s="2" t="n"/>
+      <c r="F48" s="2" t="n"/>
+      <c r="G48" s="2" t="n"/>
+      <c r="H48" s="2" t="n"/>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
+      <c r="P48" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q48" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R48" s="4" t="n"/>
-      <c r="S48" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T48" s="4" t="n"/>
-      <c r="U48" s="4" t="inlineStr">
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="n"/>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="n"/>
+      <c r="U48" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V48" s="4" t="inlineStr">
+      <c r="V48" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>IAO:0000104</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" s="2" t="inlineStr">
         <is>
           <t>directive information entity</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="E49" s="2" t="n"/>
+      <c r="F49" s="2" t="n"/>
+      <c r="G49" s="2" t="n"/>
+      <c r="H49" s="2" t="n"/>
+      <c r="I49" s="2" t="n"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
+      <c r="M49" s="2" t="n"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="n"/>
+      <c r="P49" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R49" s="2" t="n"/>
+      <c r="S49" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T49" s="2" t="n"/>
+      <c r="U49" s="2" t="n"/>
+      <c r="V49" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3231,214 +3314,242 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="E52" s="2" t="n"/>
+      <c r="F52" s="2" t="n"/>
+      <c r="G52" s="2" t="n"/>
+      <c r="H52" s="2" t="n"/>
+      <c r="I52" s="2" t="n"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
+      <c r="P52" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R52" s="2" t="n"/>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T52" s="2" t="n"/>
+      <c r="U52" s="2" t="n"/>
+      <c r="V52" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000195</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>resistance training behaviour</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
-      <c r="D53" s="4" t="inlineStr">
+      <c r="D53" s="2" t="inlineStr">
         <is>
           <t>physical performance behaviour pattern</t>
         </is>
       </c>
-      <c r="E53" s="4" t="n"/>
-      <c r="F53" s="4" t="n"/>
-      <c r="G53" s="4" t="inlineStr">
+      <c r="E53" s="2" t="n"/>
+      <c r="F53" s="2" t="n"/>
+      <c r="G53" s="2" t="inlineStr">
         <is>
           <t>resistance training, strength training</t>
         </is>
       </c>
-      <c r="H53" s="4" t="n"/>
-      <c r="I53" s="4" t="n"/>
-      <c r="J53" s="4" t="n"/>
-      <c r="K53" s="4" t="inlineStr">
+      <c r="H53" s="2" t="n"/>
+      <c r="I53" s="2" t="n"/>
+      <c r="J53" s="2" t="n"/>
+      <c r="K53" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
         </is>
       </c>
-      <c r="L53" s="4" t="inlineStr">
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> COPPER:1005</t>
         </is>
       </c>
-      <c r="M53" s="4" t="n"/>
-      <c r="N53" s="4" t="n"/>
-      <c r="O53" s="4" t="n"/>
-      <c r="P53" s="4" t="inlineStr">
+      <c r="M53" s="2" t="n"/>
+      <c r="N53" s="2" t="n"/>
+      <c r="O53" s="2" t="n"/>
+      <c r="P53" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q53" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R53" s="4" t="n"/>
-      <c r="S53" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T53" s="4" t="n"/>
-      <c r="U53" s="4" t="n"/>
-      <c r="V53" s="4" t="inlineStr">
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R53" s="2" t="n"/>
+      <c r="S53" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T53" s="2" t="n"/>
+      <c r="U53" s="2" t="n"/>
+      <c r="V53" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000196</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>running</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
         </is>
       </c>
-      <c r="D54" s="4" t="inlineStr">
+      <c r="D54" s="2" t="inlineStr">
         <is>
           <t>locomotive behaviour</t>
         </is>
       </c>
-      <c r="E54" s="4" t="n"/>
-      <c r="F54" s="4" t="n"/>
-      <c r="G54" s="4" t="n"/>
-      <c r="H54" s="4" t="n"/>
-      <c r="I54" s="4" t="n"/>
-      <c r="J54" s="4" t="n"/>
-      <c r="K54" s="4" t="inlineStr">
+      <c r="E54" s="2" t="n"/>
+      <c r="F54" s="2" t="n"/>
+      <c r="G54" s="2" t="n"/>
+      <c r="H54" s="2" t="n"/>
+      <c r="I54" s="2" t="n"/>
+      <c r="J54" s="2" t="n"/>
+      <c r="K54" s="2" t="inlineStr">
         <is>
           <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
 Also drew on:
 - COPPER:1011"</t>
         </is>
       </c>
-      <c r="L54" s="4" t="n"/>
-      <c r="M54" s="4" t="n"/>
-      <c r="N54" s="4" t="n"/>
-      <c r="O54" s="4" t="n"/>
-      <c r="P54" s="4" t="inlineStr">
+      <c r="L54" s="2" t="n"/>
+      <c r="M54" s="2" t="n"/>
+      <c r="N54" s="2" t="n"/>
+      <c r="O54" s="2" t="n"/>
+      <c r="P54" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q54" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R54" s="4" t="n"/>
-      <c r="S54" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T54" s="4" t="n"/>
-      <c r="U54" s="4" t="n"/>
-      <c r="V54" s="4" t="inlineStr">
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R54" s="2" t="n"/>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="n"/>
+      <c r="U54" s="2" t="n"/>
+      <c r="V54" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>BCIO:011034</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>somatic mode of delivery</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="E55" s="2" t="n"/>
+      <c r="F55" s="2" t="n"/>
+      <c r="G55" s="2" t="n"/>
+      <c r="H55" s="2" t="n"/>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
+      <c r="P55" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R55" s="2" t="n"/>
+      <c r="S55" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T55" s="2" t="n"/>
+      <c r="U55" s="2" t="n"/>
+      <c r="V55" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3543,42 +3654,56 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" s="2" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="E58" s="2" t="n"/>
+      <c r="F58" s="2" t="n"/>
+      <c r="G58" s="2" t="n"/>
+      <c r="H58" s="2" t="n"/>
+      <c r="I58" s="2" t="n"/>
+      <c r="J58" s="2" t="n"/>
+      <c r="K58" s="2" t="n"/>
+      <c r="L58" s="2" t="n"/>
+      <c r="M58" s="2" t="n"/>
+      <c r="N58" s="2" t="n"/>
+      <c r="O58" s="2" t="n"/>
+      <c r="P58" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R58" s="2" t="n"/>
+      <c r="S58" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T58" s="2" t="n"/>
+      <c r="U58" s="2" t="n"/>
+      <c r="V58" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3645,182 +3770,224 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000129</t>
         </is>
       </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>waitlist control arm</t>
         </is>
       </c>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
         </is>
       </c>
-      <c r="D60" s="4" t="inlineStr">
+      <c r="D60" s="2" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E60" s="4" t="n"/>
-      <c r="F60" s="4" t="n"/>
-      <c r="G60" s="4" t="n"/>
-      <c r="H60" s="4" t="n"/>
-      <c r="I60" s="4" t="n"/>
-      <c r="J60" s="4" t="n"/>
-      <c r="K60" s="4" t="n"/>
-      <c r="L60" s="4" t="n"/>
-      <c r="M60" s="4" t="n"/>
-      <c r="N60" s="4" t="n"/>
-      <c r="O60" s="4" t="n"/>
-      <c r="P60" s="4" t="inlineStr">
+      <c r="E60" s="2" t="n"/>
+      <c r="F60" s="2" t="n"/>
+      <c r="G60" s="2" t="n"/>
+      <c r="H60" s="2" t="n"/>
+      <c r="I60" s="2" t="n"/>
+      <c r="J60" s="2" t="n"/>
+      <c r="K60" s="2" t="n"/>
+      <c r="L60" s="2" t="n"/>
+      <c r="M60" s="2" t="n"/>
+      <c r="N60" s="2" t="n"/>
+      <c r="O60" s="2" t="n"/>
+      <c r="P60" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q60" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R60" s="4" t="n"/>
-      <c r="S60" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T60" s="4" t="n"/>
-      <c r="U60" s="4" t="inlineStr">
+      <c r="Q60" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R60" s="2" t="n"/>
+      <c r="S60" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T60" s="2" t="n"/>
+      <c r="U60" s="2" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V60" s="4" t="n"/>
+      <c r="V60" s="2" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>BCIO:036108</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>walking</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" s="2" t="inlineStr">
         <is>
           <t>locomotive behaviour</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="E61" s="2" t="n"/>
+      <c r="F61" s="2" t="n"/>
+      <c r="G61" s="2" t="n"/>
+      <c r="H61" s="2" t="n"/>
+      <c r="I61" s="2" t="n"/>
+      <c r="J61" s="2" t="n"/>
+      <c r="K61" s="2" t="n"/>
+      <c r="L61" s="2" t="n"/>
+      <c r="M61" s="2" t="n"/>
+      <c r="N61" s="2" t="n"/>
+      <c r="O61" s="2" t="n"/>
+      <c r="P61" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
+      <c r="Q61" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R61" s="2" t="n"/>
+      <c r="S61" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T61" s="2" t="n"/>
+      <c r="U61" s="2" t="n"/>
+      <c r="V61" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>BCIO:011046</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>wearable ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" s="2" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="E62" s="2" t="n"/>
+      <c r="F62" s="2" t="n"/>
+      <c r="G62" s="2" t="n"/>
+      <c r="H62" s="2" t="n"/>
+      <c r="I62" s="2" t="n"/>
+      <c r="J62" s="2" t="n"/>
+      <c r="K62" s="2" t="n"/>
+      <c r="L62" s="2" t="n"/>
+      <c r="M62" s="2" t="n"/>
+      <c r="N62" s="2" t="n"/>
+      <c r="O62" s="2" t="n"/>
+      <c r="P62" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
+      <c r="Q62" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R62" s="2" t="n"/>
+      <c r="S62" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T62" s="2" t="n"/>
+      <c r="U62" s="2" t="n"/>
+      <c r="V62" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>IAO:0000590</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>A textual entity that denotes a particular in reality.</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" s="2" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="E63" s="2" t="n"/>
+      <c r="F63" s="2" t="n"/>
+      <c r="G63" s="2" t="n"/>
+      <c r="H63" s="2" t="n"/>
+      <c r="I63" s="2" t="n"/>
+      <c r="J63" s="2" t="n"/>
+      <c r="K63" s="2" t="n"/>
+      <c r="L63" s="2" t="n"/>
+      <c r="M63" s="2" t="n"/>
+      <c r="N63" s="2" t="n"/>
+      <c r="O63" s="2" t="n"/>
+      <c r="P63" s="2" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R63" s="2" t="n"/>
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T63" s="2" t="n"/>
+      <c r="U63" s="2" t="n"/>
+      <c r="V63" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -3938,56 +3938,42 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
+      <c r="A63" t="inlineStr">
         <is>
           <t>IAO:0000590</t>
         </is>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>A textual entity that denotes a particular in reality.</t>
         </is>
       </c>
-      <c r="D63" s="2" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="E63" s="2" t="n"/>
-      <c r="F63" s="2" t="n"/>
-      <c r="G63" s="2" t="n"/>
-      <c r="H63" s="2" t="n"/>
-      <c r="I63" s="2" t="n"/>
-      <c r="J63" s="2" t="n"/>
-      <c r="K63" s="2" t="n"/>
-      <c r="L63" s="2" t="n"/>
-      <c r="M63" s="2" t="n"/>
-      <c r="N63" s="2" t="n"/>
-      <c r="O63" s="2" t="n"/>
-      <c r="P63" s="2" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q63" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R63" s="2" t="n"/>
-      <c r="S63" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T63" s="2" t="n"/>
-      <c r="U63" s="2" t="n"/>
-      <c r="V63" s="2" t="inlineStr">
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,48 +1072,32 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>BCIO:050435</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>behavioural attribute</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>A process attribute of an individual human behaviour.</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="n"/>
-      <c r="P11" s="2" t="n"/>
-      <c r="Q11" s="2" t="n"/>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="n"/>
-      <c r="U11" s="2" t="n"/>
-      <c r="V11" s="2" t="inlineStr">
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
@@ -1683,80 +1667,80 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:011035</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
-      <c r="H22" s="2" t="n"/>
-      <c r="I22" s="2" t="n"/>
-      <c r="J22" s="2" t="n"/>
-      <c r="K22" s="2" t="n"/>
-      <c r="L22" s="2" t="n"/>
-      <c r="M22" s="2" t="n"/>
-      <c r="N22" s="2" t="n"/>
-      <c r="O22" s="2" t="n"/>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="n"/>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="n"/>
-      <c r="U22" s="2" t="n"/>
-      <c r="V22" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="E23" s="2" t="n"/>
@@ -1797,17 +1781,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>inhalation mode of delivery</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1851,122 +1835,122 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:011042</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>injection mode of delivery</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="n"/>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="n"/>
+      <c r="U25" s="2" t="n"/>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>BCIO:037000</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>LSR 1, LSR 2, LSR 3</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000123</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>intervention arm</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>study arm</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="n"/>
-      <c r="F26" s="3" t="n"/>
-      <c r="G26" s="3" t="n"/>
-      <c r="H26" s="3" t="n"/>
-      <c r="I26" s="3" t="n"/>
-      <c r="J26" s="3" t="n"/>
-      <c r="K26" s="3" t="n"/>
-      <c r="L26" s="3" t="n"/>
-      <c r="M26" s="3" t="n"/>
-      <c r="N26" s="3" t="n"/>
-      <c r="O26" s="3" t="n"/>
-      <c r="P26" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2</t>
-        </is>
-      </c>
-      <c r="Q26" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R26" s="3" t="n"/>
-      <c r="S26" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T26" s="3" t="n"/>
-      <c r="U26" s="3" t="n"/>
-      <c r="V26" s="3" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000004</t>
+          <t>GMHO:0000123</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>intervention arm name</t>
+          <t>intervention arm</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
+          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>study arm</t>
         </is>
       </c>
       <c r="E27" s="3" t="n"/>
@@ -1982,7 +1966,7 @@
       <c r="O27" s="3" t="n"/>
       <c r="P27" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q27" s="3" t="inlineStr">
@@ -1997,173 +1981,164 @@
         </is>
       </c>
       <c r="T27" s="3" t="n"/>
-      <c r="U27" s="3" t="inlineStr">
+      <c r="U27" s="3" t="n"/>
+      <c r="V27" s="3" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000004</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>intervention arm name</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="n"/>
+      <c r="F28" s="3" t="n"/>
+      <c r="G28" s="3" t="n"/>
+      <c r="H28" s="3" t="n"/>
+      <c r="I28" s="3" t="n"/>
+      <c r="J28" s="3" t="n"/>
+      <c r="K28" s="3" t="n"/>
+      <c r="L28" s="3" t="n"/>
+      <c r="M28" s="3" t="n"/>
+      <c r="N28" s="3" t="n"/>
+      <c r="O28" s="3" t="n"/>
+      <c r="P28" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q28" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R28" s="3" t="n"/>
+      <c r="S28" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T28" s="3" t="n"/>
+      <c r="U28" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V27" s="3" t="inlineStr">
+      <c r="V28" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000124</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>intervention contact event duration</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention contact event.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
-      <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="n"/>
-      <c r="J28" s="2" t="inlineStr">
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="inlineStr">
         <is>
           <t>intervention content and delivery</t>
         </is>
       </c>
-      <c r="K28" s="2" t="inlineStr">
+      <c r="K29" s="2" t="inlineStr">
         <is>
           <t>inspired by BCIO:008525</t>
         </is>
       </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>BCIO:008525</t>
         </is>
       </c>
-      <c r="M28" s="2" t="n"/>
-      <c r="N28" s="2" t="n"/>
-      <c r="O28" s="2" t="n"/>
-      <c r="P28" s="2" t="inlineStr">
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="n"/>
-      <c r="S28" s="2" t="inlineStr">
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="n"/>
+      <c r="S29" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T28" s="2" t="inlineStr">
+      <c r="T29" s="2" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U28" s="2" t="n"/>
-      <c r="V28" s="2" t="inlineStr">
+      <c r="U29" s="2" t="n"/>
+      <c r="V29" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000125</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>intervention content</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="n"/>
-      <c r="F29" s="3" t="n"/>
-      <c r="G29" s="3" t="n"/>
-      <c r="H29" s="3" t="n"/>
-      <c r="I29" s="3" t="n"/>
-      <c r="J29" s="3" t="n"/>
-      <c r="K29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Based on http://humanbehaviourchange.org/ontology/BCIO_007000
-</t>
-        </is>
-      </c>
-      <c r="L29" s="3" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
-        </is>
-      </c>
-      <c r="M29" s="3" t="n"/>
-      <c r="N29" s="3" t="n"/>
-      <c r="O29" s="3" t="n"/>
-      <c r="P29" s="3" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q29" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R29" s="3" t="n"/>
-      <c r="S29" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T29" s="3" t="n"/>
-      <c r="U29" s="3" t="n"/>
-      <c r="V29" s="3" t="inlineStr">
-        <is>
-          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000005</t>
+          <t>GMHO:0000125</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>intervention duration</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E30" s="3" t="n"/>
@@ -2171,20 +2146,16 @@
       <c r="G30" s="3" t="n"/>
       <c r="H30" s="3" t="n"/>
       <c r="I30" s="3" t="n"/>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J30" s="3" t="n"/>
       <c r="K30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">inspired by BCIO:008560
+          <t xml:space="preserve">Based on http://humanbehaviourchange.org/ontology/BCIO_007000
 </t>
         </is>
       </c>
       <c r="L30" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008560</t>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
       <c r="M30" s="3" t="n"/>
@@ -2192,7 +2163,7 @@
       <c r="O30" s="3" t="n"/>
       <c r="P30" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q30" s="3" t="inlineStr">
@@ -2206,98 +2177,111 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T30" s="3" t="inlineStr">
+      <c r="T30" s="3" t="n"/>
+      <c r="U30" s="3" t="n"/>
+      <c r="V30" s="3" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000005</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>intervention duration</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of an intervention.</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inspired by BCIO:008560
+</t>
+        </is>
+      </c>
+      <c r="L31" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008560</t>
+        </is>
+      </c>
+      <c r="M31" s="3" t="n"/>
+      <c r="N31" s="3" t="n"/>
+      <c r="O31" s="3" t="n"/>
+      <c r="P31" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q31" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R31" s="3" t="n"/>
+      <c r="S31" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T31" s="3" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U30" s="3" t="inlineStr">
+      <c r="U31" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V30" s="3" t="inlineStr">
+      <c r="V31" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008540</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>irregular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
-      <c r="J31" s="2" t="n"/>
-      <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="n"/>
-      <c r="M31" s="2" t="n"/>
-      <c r="N31" s="2" t="n"/>
-      <c r="O31" s="2" t="n"/>
-      <c r="P31" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R31" s="2" t="n"/>
-      <c r="S31" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T31" s="2" t="n"/>
-      <c r="U31" s="2" t="n"/>
-      <c r="V31" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000193</t>
+          <t>BCIO:008540</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>jogging</t>
+          <t>irregular intervention schedule</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves trotting or running at a slow and steady pace.</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E32" s="2" t="n"/>
@@ -2306,18 +2290,14 @@
       <c r="H32" s="2" t="n"/>
       <c r="I32" s="2" t="n"/>
       <c r="J32" s="2" t="n"/>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>Drew on: https://www.oxfordlearnersdictionaries.com/definition/english/jogging#:~:text=jogging-,noun,as%20a%20form%20of%20exercise</t>
-        </is>
-      </c>
+      <c r="K32" s="2" t="n"/>
       <c r="L32" s="2" t="n"/>
       <c r="M32" s="2" t="n"/>
       <c r="N32" s="2" t="n"/>
       <c r="O32" s="2" t="n"/>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -2335,29 +2315,29 @@
       <c r="U32" s="2" t="n"/>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>PS; MS</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>GMHO:0000193</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
+          <t>jogging</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves trotting or running at a slow and steady pace.</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
           <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="E33" s="2" t="n"/>
@@ -2366,7 +2346,11 @@
       <c r="H33" s="2" t="n"/>
       <c r="I33" s="2" t="n"/>
       <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>Drew on: https://www.oxfordlearnersdictionaries.com/definition/english/jogging#:~:text=jogging-,noun,as%20a%20form%20of%20exercise</t>
+        </is>
+      </c>
       <c r="L33" s="2" t="n"/>
       <c r="M33" s="2" t="n"/>
       <c r="N33" s="2" t="n"/>
@@ -2391,29 +2375,29 @@
       <c r="U33" s="2" t="n"/>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000006</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>maximum dose of pharmacological substance</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>maximum value</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="E34" s="2" t="n"/>
@@ -2426,14 +2410,10 @@
       <c r="L34" s="2" t="n"/>
       <c r="M34" s="2" t="n"/>
       <c r="N34" s="2" t="n"/>
-      <c r="O34" s="2" t="inlineStr">
-        <is>
-          <t>dose of pharmacological substance</t>
-        </is>
-      </c>
+      <c r="O34" s="2" t="n"/>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -2448,350 +2428,350 @@
         </is>
       </c>
       <c r="T34" s="2" t="n"/>
-      <c r="U34" s="2" t="inlineStr">
+      <c r="U34" s="2" t="n"/>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000006</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>maximum dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>maximum value</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="n"/>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="n"/>
+      <c r="U35" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V34" s="2" t="inlineStr">
+      <c r="V35" s="2" t="inlineStr">
         <is>
           <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>STATO:0000151</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>maximum value</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>STATO:0000151</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>maximum value</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>IAO:0000109</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="V37" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000241</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>An intervention content that is part of a mental health intervention.</t>
         </is>
       </c>
-      <c r="D37" s="4" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="E37" s="4" t="n"/>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="E38" s="4" t="n"/>
+      <c r="F38" s="4" t="inlineStr">
         <is>
           <t>Any intervention content delivered in the context of a mental health intervention.</t>
         </is>
       </c>
-      <c r="G37" s="4" t="n"/>
-      <c r="H37" s="4" t="n"/>
-      <c r="I37" s="4" t="n"/>
-      <c r="J37" s="4" t="n"/>
-      <c r="K37" s="4" t="n"/>
-      <c r="L37" s="4" t="n"/>
-      <c r="M37" s="4" t="n"/>
-      <c r="N37" s="4" t="n"/>
-      <c r="O37" s="4" t="n"/>
-      <c r="P37" s="4" t="n"/>
-      <c r="Q37" s="4" t="n"/>
-      <c r="R37" s="4" t="n"/>
-      <c r="S37" s="4" t="inlineStr">
+      <c r="G38" s="4" t="n"/>
+      <c r="H38" s="4" t="n"/>
+      <c r="I38" s="4" t="n"/>
+      <c r="J38" s="4" t="n"/>
+      <c r="K38" s="4" t="n"/>
+      <c r="L38" s="4" t="n"/>
+      <c r="M38" s="4" t="n"/>
+      <c r="N38" s="4" t="n"/>
+      <c r="O38" s="4" t="n"/>
+      <c r="P38" s="4" t="n"/>
+      <c r="Q38" s="4" t="n"/>
+      <c r="R38" s="4" t="n"/>
+      <c r="S38" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T37" s="4" t="n"/>
-      <c r="U37" s="4" t="n"/>
-      <c r="V37" s="4" t="inlineStr">
+      <c r="T38" s="4" t="n"/>
+      <c r="U38" s="4" t="n"/>
+      <c r="V38" s="4" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000008</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>minimum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="E38" s="2" t="n"/>
-      <c r="F38" s="2" t="n"/>
-      <c r="G38" s="2" t="n"/>
-      <c r="H38" s="2" t="n"/>
-      <c r="I38" s="2" t="n"/>
-      <c r="J38" s="2" t="n"/>
-      <c r="K38" s="2" t="n"/>
-      <c r="L38" s="2" t="n"/>
-      <c r="M38" s="2" t="n"/>
-      <c r="N38" s="2" t="n"/>
-      <c r="O38" s="2" t="inlineStr">
+      <c r="E39" s="2" t="n"/>
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="2" t="n"/>
+      <c r="H39" s="2" t="n"/>
+      <c r="I39" s="2" t="n"/>
+      <c r="J39" s="2" t="n"/>
+      <c r="K39" s="2" t="n"/>
+      <c r="L39" s="2" t="n"/>
+      <c r="M39" s="2" t="n"/>
+      <c r="N39" s="2" t="n"/>
+      <c r="O39" s="2" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="P38" s="2" t="inlineStr">
+      <c r="P39" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="n"/>
-      <c r="S38" s="2" t="inlineStr">
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="n"/>
+      <c r="S39" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T38" s="2" t="n"/>
-      <c r="U38" s="2" t="inlineStr">
+      <c r="T39" s="2" t="n"/>
+      <c r="U39" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V38" s="2" t="inlineStr">
+      <c r="V39" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>STATO:0000150</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>A data item which denotes the smallest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000126</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>no treatment control arm</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>A control arm designation where there is no intervention.</t>
         </is>
       </c>
-      <c r="D40" s="4" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E40" s="4" t="n"/>
-      <c r="F40" s="4" t="n"/>
-      <c r="G40" s="4" t="n"/>
-      <c r="H40" s="4" t="n"/>
-      <c r="I40" s="4" t="n"/>
-      <c r="J40" s="4" t="n"/>
-      <c r="K40" s="4" t="n"/>
-      <c r="L40" s="4" t="n"/>
-      <c r="M40" s="4" t="n"/>
-      <c r="N40" s="4" t="n"/>
-      <c r="O40" s="4" t="n"/>
-      <c r="P40" s="4" t="inlineStr">
+      <c r="E41" s="4" t="n"/>
+      <c r="F41" s="4" t="n"/>
+      <c r="G41" s="4" t="n"/>
+      <c r="H41" s="4" t="n"/>
+      <c r="I41" s="4" t="n"/>
+      <c r="J41" s="4" t="n"/>
+      <c r="K41" s="4" t="n"/>
+      <c r="L41" s="4" t="n"/>
+      <c r="M41" s="4" t="n"/>
+      <c r="N41" s="4" t="n"/>
+      <c r="O41" s="4" t="n"/>
+      <c r="P41" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q40" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R40" s="4" t="n"/>
-      <c r="S40" s="4" t="inlineStr">
+      <c r="Q41" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R41" s="4" t="n"/>
+      <c r="S41" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T40" s="4" t="n"/>
-      <c r="U40" s="4" t="n"/>
-      <c r="V40" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008515</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>number of contact events</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is the number of contact events in an intervention temporal part.</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="n"/>
-      <c r="F41" s="2" t="n"/>
-      <c r="G41" s="2" t="n"/>
-      <c r="H41" s="2" t="n"/>
-      <c r="I41" s="2" t="n"/>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="n"/>
-      <c r="L41" s="2" t="n"/>
-      <c r="M41" s="2" t="n"/>
-      <c r="N41" s="2" t="n"/>
-      <c r="O41" s="2" t="n"/>
-      <c r="P41" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q41" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R41" s="2" t="n"/>
-      <c r="S41" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T41" s="2" t="n"/>
-      <c r="U41" s="2" t="n"/>
-      <c r="V41" s="2" t="inlineStr">
+      <c r="T41" s="4" t="n"/>
+      <c r="U41" s="4" t="n"/>
+      <c r="V41" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2800,22 +2780,22 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>number of contact events</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+          <t>A data item that is the number of contact events in an intervention temporal part.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E42" s="2" t="n"/>
@@ -2835,7 +2815,7 @@
       <c r="O42" s="2" t="n"/>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -2860,22 +2840,22 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>person source role</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="E43" s="2" t="n"/>
@@ -2883,7 +2863,11 @@
       <c r="G43" s="2" t="n"/>
       <c r="H43" s="2" t="n"/>
       <c r="I43" s="2" t="n"/>
-      <c r="J43" s="2" t="n"/>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K43" s="2" t="n"/>
       <c r="L43" s="2" t="n"/>
       <c r="M43" s="2" t="n"/>
@@ -2891,7 +2875,7 @@
       <c r="O43" s="2" t="n"/>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -2907,64 +2891,83 @@
       </c>
       <c r="T43" s="2" t="n"/>
       <c r="U43" s="2" t="n"/>
-      <c r="V43" s="2" t="n"/>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>BCIO:050432</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:010001</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
+      <c r="H44" s="2" t="n"/>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="n"/>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="n"/>
+      <c r="U44" s="2" t="n"/>
+      <c r="V44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -2972,11 +2975,6 @@
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
       <c r="S45" t="inlineStr">
         <is>
           <t>External</t>
@@ -2984,7 +2982,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -3006,100 +3004,86 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BCIO:036042</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t xml:space="preserve">individual human behaviour </t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr">
+      <c r="V47" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000194</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="n"/>
-      <c r="F47" s="2" t="n"/>
-      <c r="G47" s="2" t="n"/>
-      <c r="H47" s="2" t="n"/>
-      <c r="I47" s="2" t="n"/>
-      <c r="J47" s="2" t="n"/>
-      <c r="K47" s="2" t="n"/>
-      <c r="L47" s="2" t="n"/>
-      <c r="M47" s="2" t="n"/>
-      <c r="N47" s="2" t="n"/>
-      <c r="O47" s="2" t="n"/>
-      <c r="P47" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q47" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R47" s="2" t="n"/>
-      <c r="S47" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T47" s="2" t="n"/>
-      <c r="U47" s="2" t="n"/>
-      <c r="V47" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000009</t>
+          <t>GMHO:0000194</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>placebo intervention</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="E48" s="2" t="n"/>
@@ -3115,7 +3099,7 @@
       <c r="O48" s="2" t="n"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -3130,11 +3114,7 @@
         </is>
       </c>
       <c r="T48" s="2" t="n"/>
-      <c r="U48" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U48" s="2" t="n"/>
       <c r="V48" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3144,22 +3124,22 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>IAO:0000104</t>
+          <t>GMHO:0000009</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>plan specification</t>
+          <t>placebo intervention</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
+          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>directive information entity</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="E49" s="2" t="n"/>
@@ -3175,7 +3155,7 @@
       <c r="O49" s="2" t="n"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -3190,7 +3170,11 @@
         </is>
       </c>
       <c r="T49" s="2" t="n"/>
-      <c r="U49" s="2" t="n"/>
+      <c r="U49" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3198,224 +3182,198 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>IAO:0000104</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>plan specification</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>directive information entity</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E50" s="3" t="n"/>
-      <c r="F50" s="3" t="n"/>
-      <c r="G50" s="3" t="n"/>
-      <c r="H50" s="3" t="n"/>
-      <c r="I50" s="3" t="n"/>
-      <c r="J50" s="3" t="n"/>
-      <c r="K50" s="3" t="n"/>
-      <c r="L50" s="3" t="n"/>
-      <c r="M50" s="3" t="n"/>
-      <c r="N50" s="3" t="n"/>
-      <c r="O50" s="3" t="n"/>
-      <c r="P50" s="3" t="inlineStr">
+      <c r="E51" s="3" t="n"/>
+      <c r="F51" s="3" t="n"/>
+      <c r="G51" s="3" t="n"/>
+      <c r="H51" s="3" t="n"/>
+      <c r="I51" s="3" t="n"/>
+      <c r="J51" s="3" t="n"/>
+      <c r="K51" s="3" t="n"/>
+      <c r="L51" s="3" t="n"/>
+      <c r="M51" s="3" t="n"/>
+      <c r="N51" s="3" t="n"/>
+      <c r="O51" s="3" t="n"/>
+      <c r="P51" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q50" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R50" s="3" t="n"/>
-      <c r="S50" s="3" t="inlineStr">
+      <c r="Q51" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R51" s="3" t="n"/>
+      <c r="S51" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T50" s="3" t="n"/>
-      <c r="U50" s="3" t="n"/>
-      <c r="V50" s="3" t="inlineStr">
+      <c r="T51" s="3" t="n"/>
+      <c r="U51" s="3" t="n"/>
+      <c r="V51" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="4" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000239</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>psychological treatment</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>Mental health intervention content that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
-      <c r="D51" s="4" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="E51" s="4" t="n"/>
-      <c r="F51" s="4" t="n"/>
-      <c r="G51" s="4" t="n"/>
-      <c r="H51" s="4" t="n"/>
-      <c r="I51" s="4" t="n"/>
-      <c r="J51" s="4" t="n"/>
-      <c r="K51" s="4" t="inlineStr">
+      <c r="E52" s="4" t="n"/>
+      <c r="F52" s="4" t="n"/>
+      <c r="G52" s="4" t="n"/>
+      <c r="H52" s="4" t="n"/>
+      <c r="I52" s="4" t="n"/>
+      <c r="J52" s="4" t="n"/>
+      <c r="K52" s="4" t="inlineStr">
         <is>
           <t>https://bciosearch.org/BCIO_050364</t>
         </is>
       </c>
-      <c r="L51" s="4" t="inlineStr">
+      <c r="L52" s="4" t="inlineStr">
         <is>
           <t>BCIO:050364</t>
         </is>
       </c>
-      <c r="M51" s="4" t="n"/>
-      <c r="N51" s="4" t="n"/>
-      <c r="O51" s="4" t="n"/>
-      <c r="P51" s="4" t="inlineStr">
+      <c r="M52" s="4" t="n"/>
+      <c r="N52" s="4" t="n"/>
+      <c r="O52" s="4" t="n"/>
+      <c r="P52" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q51" s="4" t="n"/>
-      <c r="R51" s="4" t="n"/>
-      <c r="S51" s="4" t="inlineStr">
+      <c r="Q52" s="4" t="n"/>
+      <c r="R52" s="4" t="n"/>
+      <c r="S52" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T51" s="4" t="n"/>
-      <c r="U51" s="4" t="n"/>
-      <c r="V51" s="4" t="inlineStr">
+      <c r="T52" s="4" t="n"/>
+      <c r="U52" s="4" t="n"/>
+      <c r="V52" s="4" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008535</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>regular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="n"/>
-      <c r="F52" s="2" t="n"/>
-      <c r="G52" s="2" t="n"/>
-      <c r="H52" s="2" t="n"/>
-      <c r="I52" s="2" t="n"/>
-      <c r="J52" s="2" t="n"/>
-      <c r="K52" s="2" t="n"/>
-      <c r="L52" s="2" t="n"/>
-      <c r="M52" s="2" t="n"/>
-      <c r="N52" s="2" t="n"/>
-      <c r="O52" s="2" t="n"/>
-      <c r="P52" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q52" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R52" s="2" t="n"/>
-      <c r="S52" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T52" s="2" t="n"/>
-      <c r="U52" s="2" t="n"/>
-      <c r="V52" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000195</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>resistance training behaviour</t>
+          <t>regular intervention schedule</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour pattern</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t>resistance training, strength training</t>
-        </is>
-      </c>
+      <c r="G53" s="2" t="n"/>
       <c r="H53" s="2" t="n"/>
       <c r="I53" s="2" t="n"/>
       <c r="J53" s="2" t="n"/>
-      <c r="K53" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
-        </is>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> COPPER:1005</t>
-        </is>
-      </c>
+      <c r="K53" s="2" t="n"/>
+      <c r="L53" s="2" t="n"/>
       <c r="M53" s="2" t="n"/>
       <c r="N53" s="2" t="n"/>
       <c r="O53" s="2" t="n"/>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
@@ -3433,45 +3391,51 @@
       <c r="U53" s="2" t="n"/>
       <c r="V53" s="2" t="inlineStr">
         <is>
-          <t>PS; MS</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000196</t>
+          <t>GMHO:0000195</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>resistance training behaviour</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
-      <c r="G54" s="2" t="n"/>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>resistance training, strength training</t>
+        </is>
+      </c>
       <c r="H54" s="2" t="n"/>
       <c r="I54" s="2" t="n"/>
       <c r="J54" s="2" t="n"/>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
-Also drew on:
-- COPPER:1011"</t>
-        </is>
-      </c>
-      <c r="L54" s="2" t="n"/>
+          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPPER:1005</t>
+        </is>
+      </c>
       <c r="M54" s="2" t="n"/>
       <c r="N54" s="2" t="n"/>
       <c r="O54" s="2" t="n"/>
@@ -3502,22 +3466,22 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>GMHO:0000196</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E55" s="2" t="n"/>
@@ -3526,14 +3490,20 @@
       <c r="H55" s="2" t="n"/>
       <c r="I55" s="2" t="n"/>
       <c r="J55" s="2" t="n"/>
-      <c r="K55" s="2" t="n"/>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
+Also drew on:
+- COPPER:1011"</t>
+        </is>
+      </c>
       <c r="L55" s="2" t="n"/>
       <c r="M55" s="2" t="n"/>
       <c r="N55" s="2" t="n"/>
       <c r="O55" s="2" t="n"/>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
@@ -3551,299 +3521,299 @@
       <c r="U55" s="2" t="n"/>
       <c r="V55" s="2" t="inlineStr">
         <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:011034</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n"/>
+      <c r="F56" s="2" t="n"/>
+      <c r="G56" s="2" t="n"/>
+      <c r="H56" s="2" t="n"/>
+      <c r="I56" s="2" t="n"/>
+      <c r="J56" s="2" t="n"/>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
+      <c r="N56" s="2" t="n"/>
+      <c r="O56" s="2" t="n"/>
+      <c r="P56" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R56" s="2" t="n"/>
+      <c r="S56" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T56" s="2" t="n"/>
+      <c r="U56" s="2" t="n"/>
+      <c r="V56" s="2" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>STATO:0000039</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>statistic</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V56" t="inlineStr">
+      <c r="V57" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="3" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
+      <c r="B58" s="3" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C57" s="3" t="inlineStr">
+      <c r="C58" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr">
+      <c r="D58" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E57" s="3" t="n"/>
-      <c r="F57" s="3" t="n"/>
-      <c r="G57" s="3" t="n"/>
-      <c r="H57" s="3" t="n"/>
-      <c r="I57" s="3" t="n"/>
-      <c r="J57" s="3" t="n"/>
-      <c r="K57" s="3" t="n"/>
-      <c r="L57" s="3" t="n"/>
-      <c r="M57" s="3" t="n"/>
-      <c r="N57" s="3" t="n"/>
-      <c r="O57" s="3" t="n"/>
-      <c r="P57" s="3" t="inlineStr">
+      <c r="E58" s="3" t="n"/>
+      <c r="F58" s="3" t="n"/>
+      <c r="G58" s="3" t="n"/>
+      <c r="H58" s="3" t="n"/>
+      <c r="I58" s="3" t="n"/>
+      <c r="J58" s="3" t="n"/>
+      <c r="K58" s="3" t="n"/>
+      <c r="L58" s="3" t="n"/>
+      <c r="M58" s="3" t="n"/>
+      <c r="N58" s="3" t="n"/>
+      <c r="O58" s="3" t="n"/>
+      <c r="P58" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q57" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R57" s="3" t="n"/>
-      <c r="S57" s="3" t="inlineStr">
+      <c r="Q58" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R58" s="3" t="n"/>
+      <c r="S58" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T57" s="3" t="n"/>
-      <c r="U57" s="3" t="n"/>
-      <c r="V57" s="3" t="inlineStr">
+      <c r="T58" s="3" t="n"/>
+      <c r="U58" s="3" t="n"/>
+      <c r="V58" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr">
+      <c r="D59" s="2" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E58" s="2" t="n"/>
-      <c r="F58" s="2" t="n"/>
-      <c r="G58" s="2" t="n"/>
-      <c r="H58" s="2" t="n"/>
-      <c r="I58" s="2" t="n"/>
-      <c r="J58" s="2" t="n"/>
-      <c r="K58" s="2" t="n"/>
-      <c r="L58" s="2" t="n"/>
-      <c r="M58" s="2" t="n"/>
-      <c r="N58" s="2" t="n"/>
-      <c r="O58" s="2" t="n"/>
-      <c r="P58" s="2" t="inlineStr">
+      <c r="E59" s="2" t="n"/>
+      <c r="F59" s="2" t="n"/>
+      <c r="G59" s="2" t="n"/>
+      <c r="H59" s="2" t="n"/>
+      <c r="I59" s="2" t="n"/>
+      <c r="J59" s="2" t="n"/>
+      <c r="K59" s="2" t="n"/>
+      <c r="L59" s="2" t="n"/>
+      <c r="M59" s="2" t="n"/>
+      <c r="N59" s="2" t="n"/>
+      <c r="O59" s="2" t="n"/>
+      <c r="P59" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q58" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R58" s="2" t="n"/>
-      <c r="S58" s="2" t="inlineStr">
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R59" s="2" t="n"/>
+      <c r="S59" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T58" s="2" t="n"/>
-      <c r="U58" s="2" t="n"/>
-      <c r="V58" s="2" t="inlineStr">
+      <c r="T59" s="2" t="n"/>
+      <c r="U59" s="2" t="n"/>
+      <c r="V59" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="3" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000128</t>
         </is>
       </c>
-      <c r="B59" s="3" t="inlineStr">
+      <c r="B60" s="3" t="inlineStr">
         <is>
           <t>treatment as usual control arm</t>
         </is>
       </c>
-      <c r="C59" s="3" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr">
+      <c r="D60" s="3" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E59" s="3" t="n"/>
-      <c r="F59" s="3" t="n"/>
-      <c r="G59" s="3" t="n"/>
-      <c r="H59" s="3" t="n"/>
-      <c r="I59" s="3" t="n"/>
-      <c r="J59" s="3" t="n"/>
-      <c r="K59" s="3" t="n"/>
-      <c r="L59" s="3" t="n"/>
-      <c r="M59" s="3" t="n"/>
-      <c r="N59" s="3" t="n"/>
-      <c r="O59" s="3" t="n"/>
-      <c r="P59" s="3" t="inlineStr">
+      <c r="E60" s="3" t="n"/>
+      <c r="F60" s="3" t="n"/>
+      <c r="G60" s="3" t="n"/>
+      <c r="H60" s="3" t="n"/>
+      <c r="I60" s="3" t="n"/>
+      <c r="J60" s="3" t="n"/>
+      <c r="K60" s="3" t="n"/>
+      <c r="L60" s="3" t="n"/>
+      <c r="M60" s="3" t="n"/>
+      <c r="N60" s="3" t="n"/>
+      <c r="O60" s="3" t="n"/>
+      <c r="P60" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q59" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R59" s="3" t="n"/>
-      <c r="S59" s="3" t="inlineStr">
+      <c r="Q60" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R60" s="3" t="n"/>
+      <c r="S60" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T59" s="3" t="n"/>
-      <c r="U59" s="3" t="inlineStr">
+      <c r="T60" s="3" t="n"/>
+      <c r="U60" s="3" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V59" s="3" t="inlineStr">
+      <c r="V60" s="3" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000129</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>waitlist control arm</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="n"/>
-      <c r="F60" s="2" t="n"/>
-      <c r="G60" s="2" t="n"/>
-      <c r="H60" s="2" t="n"/>
-      <c r="I60" s="2" t="n"/>
-      <c r="J60" s="2" t="n"/>
-      <c r="K60" s="2" t="n"/>
-      <c r="L60" s="2" t="n"/>
-      <c r="M60" s="2" t="n"/>
-      <c r="N60" s="2" t="n"/>
-      <c r="O60" s="2" t="n"/>
-      <c r="P60" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q60" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R60" s="2" t="n"/>
-      <c r="S60" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T60" s="2" t="n"/>
-      <c r="U60" s="2" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V60" s="2" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>GMHO:0000129</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>waitlist control arm</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>control arm</t>
         </is>
       </c>
       <c r="E61" s="2" t="n"/>
@@ -3874,32 +3844,32 @@
         </is>
       </c>
       <c r="T61" s="2" t="n"/>
-      <c r="U61" s="2" t="n"/>
-      <c r="V61" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="U61" s="2" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V61" s="2" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E62" s="2" t="n"/>
@@ -3915,7 +3885,7 @@
       <c r="O62" s="2" t="n"/>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
@@ -3938,42 +3908,99 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:011046</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>wearable ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n"/>
+      <c r="F63" s="2" t="n"/>
+      <c r="G63" s="2" t="n"/>
+      <c r="H63" s="2" t="n"/>
+      <c r="I63" s="2" t="n"/>
+      <c r="J63" s="2" t="n"/>
+      <c r="K63" s="2" t="n"/>
+      <c r="L63" s="2" t="n"/>
+      <c r="M63" s="2" t="n"/>
+      <c r="N63" s="2" t="n"/>
+      <c r="O63" s="2" t="n"/>
+      <c r="P63" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R63" s="2" t="n"/>
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T63" s="2" t="n"/>
+      <c r="U63" s="2" t="n"/>
+      <c r="V63" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>IAO:0000590</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>A textual entity that denotes a particular in reality.</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="G64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V63" t="inlineStr">
+      <c r="V64" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1437,134 +1437,117 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>IAO:0000033</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>directive information entity</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>An information content entity whose concretizations indicate to their bearer how to realize them in a process.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>OBI:0000984</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000001</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>dose of pharmacological substance</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Dose of pharmacological substance delivered to an individual.</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>dose</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
-      <c r="H19" s="3" t="n"/>
-      <c r="I19" s="3" t="n"/>
-      <c r="J19" s="3" t="n"/>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parent class from Ontology for Biomedical Investigations
-</t>
-        </is>
-      </c>
-      <c r="L19" s="3" t="n"/>
-      <c r="M19" s="3" t="n"/>
-      <c r="N19" s="3" t="n"/>
-      <c r="O19" s="3" t="n"/>
-      <c r="P19" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q19" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R19" s="3" t="n"/>
-      <c r="S19" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T19" s="3" t="n"/>
-      <c r="U19" s="3" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V19" s="3" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000002</t>
+          <t>GMHO:0000001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>drug name</t>
+          <t>dose of pharmacological substance</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
+          <t>Dose of pharmacological substance delivered to an individual.</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>dose</t>
         </is>
       </c>
       <c r="E20" s="3" t="n"/>
@@ -1573,14 +1556,19 @@
       <c r="H20" s="3" t="n"/>
       <c r="I20" s="3" t="n"/>
       <c r="J20" s="3" t="n"/>
-      <c r="K20" s="3" t="n"/>
+      <c r="K20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parent class from Ontology for Biomedical Investigations
+</t>
+        </is>
+      </c>
       <c r="L20" s="3" t="n"/>
       <c r="M20" s="3" t="n"/>
       <c r="N20" s="3" t="n"/>
       <c r="O20" s="3" t="n"/>
       <c r="P20" s="3" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 1; LSR 3</t>
         </is>
       </c>
       <c r="Q20" s="3" t="inlineStr">
@@ -1602,201 +1590,191 @@
       </c>
       <c r="V20" s="3" t="inlineStr">
         <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000002</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>drug name</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A written name intended to identify a particular drug. </t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="n"/>
+      <c r="K21" s="3" t="n"/>
+      <c r="L21" s="3" t="n"/>
+      <c r="M21" s="3" t="n"/>
+      <c r="N21" s="3" t="n"/>
+      <c r="O21" s="3" t="n"/>
+      <c r="P21" s="3" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q21" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R21" s="3" t="n"/>
+      <c r="S21" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T21" s="3" t="n"/>
+      <c r="U21" s="3" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V21" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000003</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>frequency of pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>A data item that is about the number of times a dose of pharmacological substance is delivered during an intervention.</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
-      <c r="M21" s="2" t="n"/>
-      <c r="N21" s="2" t="n"/>
-      <c r="O21" s="2" t="n"/>
-      <c r="P21" s="2" t="inlineStr">
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R21" s="2" t="n"/>
-      <c r="S21" s="2" t="inlineStr">
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="n"/>
+      <c r="S22" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T21" s="2" t="n"/>
-      <c r="U21" s="2" t="inlineStr">
+      <c r="T22" s="2" t="n"/>
+      <c r="U22" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V21" s="2" t="inlineStr">
+      <c r="V22" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>BCIO:036000</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Also referred to in definitions as human behaviour or just behaviour.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
         <is>
           <t>External</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:011035</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>somatic mode of delivery</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
-      <c r="H23" s="2" t="n"/>
-      <c r="I23" s="2" t="n"/>
-      <c r="J23" s="2" t="n"/>
-      <c r="K23" s="2" t="n"/>
-      <c r="L23" s="2" t="n"/>
-      <c r="M23" s="2" t="n"/>
-      <c r="N23" s="2" t="n"/>
-      <c r="O23" s="2" t="n"/>
-      <c r="P23" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R23" s="2" t="n"/>
-      <c r="S23" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T23" s="2" t="n"/>
-      <c r="U23" s="2" t="n"/>
-      <c r="V23" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011041</t>
+          <t>BCIO:011035</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>inhalation mode of delivery</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
+          <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>somatic mode of delivery</t>
         </is>
       </c>
       <c r="E24" s="2" t="n"/>
@@ -1837,17 +1815,17 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011042</t>
+          <t>BCIO:011041</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>injection mode of delivery</t>
+          <t>inhalation mode of delivery</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+          <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1891,122 +1869,122 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:011042</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>injection mode of delivery</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="n"/>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="n"/>
+      <c r="U26" s="2" t="n"/>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>BCIO:037000</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>LSR 1, LSR 2, LSR 3</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000123</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>intervention arm</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>study arm</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="n"/>
-      <c r="F27" s="3" t="n"/>
-      <c r="G27" s="3" t="n"/>
-      <c r="H27" s="3" t="n"/>
-      <c r="I27" s="3" t="n"/>
-      <c r="J27" s="3" t="n"/>
-      <c r="K27" s="3" t="n"/>
-      <c r="L27" s="3" t="n"/>
-      <c r="M27" s="3" t="n"/>
-      <c r="N27" s="3" t="n"/>
-      <c r="O27" s="3" t="n"/>
-      <c r="P27" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2</t>
-        </is>
-      </c>
-      <c r="Q27" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R27" s="3" t="n"/>
-      <c r="S27" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T27" s="3" t="n"/>
-      <c r="U27" s="3" t="n"/>
-      <c r="V27" s="3" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000004</t>
+          <t>GMHO:0000123</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>intervention arm name</t>
+          <t>intervention arm</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
+          <t>A study arm that is subject to evaluation in an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>written name</t>
+          <t>study arm</t>
         </is>
       </c>
       <c r="E28" s="3" t="n"/>
@@ -2022,7 +2000,7 @@
       <c r="O28" s="3" t="n"/>
       <c r="P28" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q28" s="3" t="inlineStr">
@@ -2037,173 +2015,164 @@
         </is>
       </c>
       <c r="T28" s="3" t="n"/>
-      <c r="U28" s="3" t="inlineStr">
+      <c r="U28" s="3" t="n"/>
+      <c r="V28" s="3" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000004</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>intervention arm name</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A written name intended to identify a particular intervention arm. </t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>written name</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
+      <c r="J29" s="3" t="n"/>
+      <c r="K29" s="3" t="n"/>
+      <c r="L29" s="3" t="n"/>
+      <c r="M29" s="3" t="n"/>
+      <c r="N29" s="3" t="n"/>
+      <c r="O29" s="3" t="n"/>
+      <c r="P29" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q29" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R29" s="3" t="n"/>
+      <c r="S29" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T29" s="3" t="n"/>
+      <c r="U29" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V28" s="3" t="inlineStr">
+      <c r="V29" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000124</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>intervention contact event duration</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention contact event.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
-      <c r="J29" s="2" t="inlineStr">
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t>intervention content and delivery</t>
         </is>
       </c>
-      <c r="K29" s="2" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr">
         <is>
           <t>inspired by BCIO:008525</t>
         </is>
       </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>BCIO:008525</t>
         </is>
       </c>
-      <c r="M29" s="2" t="n"/>
-      <c r="N29" s="2" t="n"/>
-      <c r="O29" s="2" t="n"/>
-      <c r="P29" s="2" t="inlineStr">
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="n"/>
-      <c r="S29" s="2" t="inlineStr">
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="n"/>
+      <c r="S30" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T29" s="2" t="inlineStr">
+      <c r="T30" s="2" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U29" s="2" t="n"/>
-      <c r="V29" s="2" t="inlineStr">
+      <c r="U30" s="2" t="n"/>
+      <c r="V30" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000125</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>intervention content</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="n"/>
-      <c r="F30" s="3" t="n"/>
-      <c r="G30" s="3" t="n"/>
-      <c r="H30" s="3" t="n"/>
-      <c r="I30" s="3" t="n"/>
-      <c r="J30" s="3" t="n"/>
-      <c r="K30" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Based on http://humanbehaviourchange.org/ontology/BCIO_007000
-</t>
-        </is>
-      </c>
-      <c r="L30" s="3" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
-        </is>
-      </c>
-      <c r="M30" s="3" t="n"/>
-      <c r="N30" s="3" t="n"/>
-      <c r="O30" s="3" t="n"/>
-      <c r="P30" s="3" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q30" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R30" s="3" t="n"/>
-      <c r="S30" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T30" s="3" t="n"/>
-      <c r="U30" s="3" t="n"/>
-      <c r="V30" s="3" t="inlineStr">
-        <is>
-          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000005</t>
+          <t>GMHO:0000125</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>intervention duration</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing its target outcome or outcomes.</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E31" s="3" t="n"/>
@@ -2211,20 +2180,16 @@
       <c r="G31" s="3" t="n"/>
       <c r="H31" s="3" t="n"/>
       <c r="I31" s="3" t="n"/>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>intervention content and delivery</t>
-        </is>
-      </c>
+      <c r="J31" s="3" t="n"/>
       <c r="K31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">inspired by BCIO:008560
+          <t xml:space="preserve">Based on http://humanbehaviourchange.org/ontology/BCIO_007000
 </t>
         </is>
       </c>
       <c r="L31" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008560</t>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_007000</t>
         </is>
       </c>
       <c r="M31" s="3" t="n"/>
@@ -2232,7 +2197,7 @@
       <c r="O31" s="3" t="n"/>
       <c r="P31" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q31" s="3" t="inlineStr">
@@ -2246,98 +2211,111 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T31" s="3" t="inlineStr">
+      <c r="T31" s="3" t="n"/>
+      <c r="U31" s="3" t="n"/>
+      <c r="V31" s="3" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000005</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>intervention duration</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of an intervention.</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inspired by BCIO:008560
+</t>
+        </is>
+      </c>
+      <c r="L32" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008560</t>
+        </is>
+      </c>
+      <c r="M32" s="3" t="n"/>
+      <c r="N32" s="3" t="n"/>
+      <c r="O32" s="3" t="n"/>
+      <c r="P32" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q32" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R32" s="3" t="n"/>
+      <c r="S32" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T32" s="3" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U31" s="3" t="inlineStr">
+      <c r="U32" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V31" s="3" t="inlineStr">
+      <c r="V32" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008540</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>irregular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
-      <c r="J32" s="2" t="n"/>
-      <c r="K32" s="2" t="n"/>
-      <c r="L32" s="2" t="n"/>
-      <c r="M32" s="2" t="n"/>
-      <c r="N32" s="2" t="n"/>
-      <c r="O32" s="2" t="n"/>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="n"/>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T32" s="2" t="n"/>
-      <c r="U32" s="2" t="n"/>
-      <c r="V32" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000193</t>
+          <t>BCIO:008540</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>jogging</t>
+          <t>irregular intervention schedule</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves trotting or running at a slow and steady pace.</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E33" s="2" t="n"/>
@@ -2346,18 +2324,14 @@
       <c r="H33" s="2" t="n"/>
       <c r="I33" s="2" t="n"/>
       <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>Drew on: https://www.oxfordlearnersdictionaries.com/definition/english/jogging#:~:text=jogging-,noun,as%20a%20form%20of%20exercise</t>
-        </is>
-      </c>
+      <c r="K33" s="2" t="n"/>
       <c r="L33" s="2" t="n"/>
       <c r="M33" s="2" t="n"/>
       <c r="N33" s="2" t="n"/>
       <c r="O33" s="2" t="n"/>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -2375,29 +2349,29 @@
       <c r="U33" s="2" t="n"/>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>PS; MS</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>GMHO:0000193</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
+          <t>jogging</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves trotting or running at a slow and steady pace.</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
           <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="E34" s="2" t="n"/>
@@ -2406,7 +2380,11 @@
       <c r="H34" s="2" t="n"/>
       <c r="I34" s="2" t="n"/>
       <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>Drew on: https://www.oxfordlearnersdictionaries.com/definition/english/jogging#:~:text=jogging-,noun,as%20a%20form%20of%20exercise</t>
+        </is>
+      </c>
       <c r="L34" s="2" t="n"/>
       <c r="M34" s="2" t="n"/>
       <c r="N34" s="2" t="n"/>
@@ -2431,29 +2409,29 @@
       <c r="U34" s="2" t="n"/>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000006</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>maximum dose of pharmacological substance</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>maximum value</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="E35" s="2" t="n"/>
@@ -2466,14 +2444,10 @@
       <c r="L35" s="2" t="n"/>
       <c r="M35" s="2" t="n"/>
       <c r="N35" s="2" t="n"/>
-      <c r="O35" s="2" t="inlineStr">
-        <is>
-          <t>dose of pharmacological substance</t>
-        </is>
-      </c>
+      <c r="O35" s="2" t="n"/>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -2488,350 +2462,350 @@
         </is>
       </c>
       <c r="T35" s="2" t="n"/>
-      <c r="U35" s="2" t="inlineStr">
+      <c r="U35" s="2" t="n"/>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000006</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>maximum dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>maximum value</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+      <c r="K36" s="2" t="n"/>
+      <c r="L36" s="2" t="n"/>
+      <c r="M36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="n"/>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="n"/>
+      <c r="U36" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V35" s="2" t="inlineStr">
+      <c r="V36" s="2" t="inlineStr">
         <is>
           <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>STATO:0000151</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>maximum value</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>STATO:0000151</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>maximum value</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>IAO:0000109</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="V38" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000241</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>An intervention content that is part of a mental health intervention.</t>
         </is>
       </c>
-      <c r="D38" s="4" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="E38" s="4" t="n"/>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="E39" s="4" t="n"/>
+      <c r="F39" s="4" t="inlineStr">
         <is>
           <t>Any intervention content delivered in the context of a mental health intervention.</t>
         </is>
       </c>
-      <c r="G38" s="4" t="n"/>
-      <c r="H38" s="4" t="n"/>
-      <c r="I38" s="4" t="n"/>
-      <c r="J38" s="4" t="n"/>
-      <c r="K38" s="4" t="n"/>
-      <c r="L38" s="4" t="n"/>
-      <c r="M38" s="4" t="n"/>
-      <c r="N38" s="4" t="n"/>
-      <c r="O38" s="4" t="n"/>
-      <c r="P38" s="4" t="n"/>
-      <c r="Q38" s="4" t="n"/>
-      <c r="R38" s="4" t="n"/>
-      <c r="S38" s="4" t="inlineStr">
+      <c r="G39" s="4" t="n"/>
+      <c r="H39" s="4" t="n"/>
+      <c r="I39" s="4" t="n"/>
+      <c r="J39" s="4" t="n"/>
+      <c r="K39" s="4" t="n"/>
+      <c r="L39" s="4" t="n"/>
+      <c r="M39" s="4" t="n"/>
+      <c r="N39" s="4" t="n"/>
+      <c r="O39" s="4" t="n"/>
+      <c r="P39" s="4" t="n"/>
+      <c r="Q39" s="4" t="n"/>
+      <c r="R39" s="4" t="n"/>
+      <c r="S39" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T38" s="4" t="n"/>
-      <c r="U38" s="4" t="n"/>
-      <c r="V38" s="4" t="inlineStr">
+      <c r="T39" s="4" t="n"/>
+      <c r="U39" s="4" t="n"/>
+      <c r="V39" s="4" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000008</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>minimum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="E39" s="2" t="n"/>
-      <c r="F39" s="2" t="n"/>
-      <c r="G39" s="2" t="n"/>
-      <c r="H39" s="2" t="n"/>
-      <c r="I39" s="2" t="n"/>
-      <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="n"/>
-      <c r="L39" s="2" t="n"/>
-      <c r="M39" s="2" t="n"/>
-      <c r="N39" s="2" t="n"/>
-      <c r="O39" s="2" t="inlineStr">
+      <c r="E40" s="2" t="n"/>
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="n"/>
+      <c r="H40" s="2" t="n"/>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="P39" s="2" t="inlineStr">
+      <c r="P40" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="n"/>
-      <c r="S39" s="2" t="inlineStr">
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="n"/>
+      <c r="S40" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T39" s="2" t="n"/>
-      <c r="U39" s="2" t="inlineStr">
+      <c r="T40" s="2" t="n"/>
+      <c r="U40" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V39" s="2" t="inlineStr">
+      <c r="V40" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>STATO:0000150</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>A data item which denotes the smallest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000126</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>no treatment control arm</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>A control arm designation where there is no intervention.</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E41" s="4" t="n"/>
-      <c r="F41" s="4" t="n"/>
-      <c r="G41" s="4" t="n"/>
-      <c r="H41" s="4" t="n"/>
-      <c r="I41" s="4" t="n"/>
-      <c r="J41" s="4" t="n"/>
-      <c r="K41" s="4" t="n"/>
-      <c r="L41" s="4" t="n"/>
-      <c r="M41" s="4" t="n"/>
-      <c r="N41" s="4" t="n"/>
-      <c r="O41" s="4" t="n"/>
-      <c r="P41" s="4" t="inlineStr">
+      <c r="E42" s="4" t="n"/>
+      <c r="F42" s="4" t="n"/>
+      <c r="G42" s="4" t="n"/>
+      <c r="H42" s="4" t="n"/>
+      <c r="I42" s="4" t="n"/>
+      <c r="J42" s="4" t="n"/>
+      <c r="K42" s="4" t="n"/>
+      <c r="L42" s="4" t="n"/>
+      <c r="M42" s="4" t="n"/>
+      <c r="N42" s="4" t="n"/>
+      <c r="O42" s="4" t="n"/>
+      <c r="P42" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q41" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R41" s="4" t="n"/>
-      <c r="S41" s="4" t="inlineStr">
+      <c r="Q42" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R42" s="4" t="n"/>
+      <c r="S42" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T41" s="4" t="n"/>
-      <c r="U41" s="4" t="n"/>
-      <c r="V41" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008515</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>number of contact events</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is the number of contact events in an intervention temporal part.</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="n"/>
-      <c r="F42" s="2" t="n"/>
-      <c r="G42" s="2" t="n"/>
-      <c r="H42" s="2" t="n"/>
-      <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="n"/>
-      <c r="L42" s="2" t="n"/>
-      <c r="M42" s="2" t="n"/>
-      <c r="N42" s="2" t="n"/>
-      <c r="O42" s="2" t="n"/>
-      <c r="P42" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q42" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R42" s="2" t="n"/>
-      <c r="S42" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T42" s="2" t="n"/>
-      <c r="U42" s="2" t="n"/>
-      <c r="V42" s="2" t="inlineStr">
+      <c r="T42" s="4" t="n"/>
+      <c r="U42" s="4" t="n"/>
+      <c r="V42" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2840,22 +2814,22 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>number of contact events</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+          <t>A data item that is the number of contact events in an intervention temporal part.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E43" s="2" t="n"/>
@@ -2875,7 +2849,7 @@
       <c r="O43" s="2" t="n"/>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -2900,22 +2874,22 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>person source role</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="E44" s="2" t="n"/>
@@ -2923,7 +2897,11 @@
       <c r="G44" s="2" t="n"/>
       <c r="H44" s="2" t="n"/>
       <c r="I44" s="2" t="n"/>
-      <c r="J44" s="2" t="n"/>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K44" s="2" t="n"/>
       <c r="L44" s="2" t="n"/>
       <c r="M44" s="2" t="n"/>
@@ -2931,7 +2909,7 @@
       <c r="O44" s="2" t="n"/>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -2947,64 +2925,83 @@
       </c>
       <c r="T44" s="2" t="n"/>
       <c r="U44" s="2" t="n"/>
-      <c r="V44" s="2" t="n"/>
+      <c r="V44" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>BCIO:050432</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:010001</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="n"/>
+      <c r="S45" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="n"/>
+      <c r="U45" s="2" t="n"/>
+      <c r="V45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3012,11 +3009,6 @@
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
       <c r="S46" t="inlineStr">
         <is>
           <t>External</t>
@@ -3024,7 +3016,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -3046,100 +3038,86 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BCIO:036042</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t xml:space="preserve">individual human behaviour </t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000194</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="n"/>
-      <c r="F48" s="2" t="n"/>
-      <c r="G48" s="2" t="n"/>
-      <c r="H48" s="2" t="n"/>
-      <c r="I48" s="2" t="n"/>
-      <c r="J48" s="2" t="n"/>
-      <c r="K48" s="2" t="n"/>
-      <c r="L48" s="2" t="n"/>
-      <c r="M48" s="2" t="n"/>
-      <c r="N48" s="2" t="n"/>
-      <c r="O48" s="2" t="n"/>
-      <c r="P48" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R48" s="2" t="n"/>
-      <c r="S48" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T48" s="2" t="n"/>
-      <c r="U48" s="2" t="n"/>
-      <c r="V48" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000009</t>
+          <t>GMHO:0000194</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>placebo intervention</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="E49" s="2" t="n"/>
@@ -3155,7 +3133,7 @@
       <c r="O49" s="2" t="n"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -3170,318 +3148,302 @@
         </is>
       </c>
       <c r="T49" s="2" t="n"/>
-      <c r="U49" s="2" t="inlineStr">
+      <c r="U49" s="2" t="n"/>
+      <c r="V49" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000009</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>placebo intervention</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n"/>
+      <c r="F50" s="2" t="n"/>
+      <c r="G50" s="2" t="n"/>
+      <c r="H50" s="2" t="n"/>
+      <c r="I50" s="2" t="n"/>
+      <c r="J50" s="2" t="n"/>
+      <c r="K50" s="2" t="n"/>
+      <c r="L50" s="2" t="n"/>
+      <c r="M50" s="2" t="n"/>
+      <c r="N50" s="2" t="n"/>
+      <c r="O50" s="2" t="n"/>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R50" s="2" t="n"/>
+      <c r="S50" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T50" s="2" t="n"/>
+      <c r="U50" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V49" s="2" t="inlineStr">
+      <c r="V50" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>IAO:0000104</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>directive information entity</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr">
+      <c r="V51" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E51" s="3" t="n"/>
-      <c r="F51" s="3" t="n"/>
-      <c r="G51" s="3" t="n"/>
-      <c r="H51" s="3" t="n"/>
-      <c r="I51" s="3" t="n"/>
-      <c r="J51" s="3" t="n"/>
-      <c r="K51" s="3" t="n"/>
-      <c r="L51" s="3" t="n"/>
-      <c r="M51" s="3" t="n"/>
-      <c r="N51" s="3" t="n"/>
-      <c r="O51" s="3" t="n"/>
-      <c r="P51" s="3" t="inlineStr">
+      <c r="E52" s="3" t="n"/>
+      <c r="F52" s="3" t="n"/>
+      <c r="G52" s="3" t="n"/>
+      <c r="H52" s="3" t="n"/>
+      <c r="I52" s="3" t="n"/>
+      <c r="J52" s="3" t="n"/>
+      <c r="K52" s="3" t="n"/>
+      <c r="L52" s="3" t="n"/>
+      <c r="M52" s="3" t="n"/>
+      <c r="N52" s="3" t="n"/>
+      <c r="O52" s="3" t="n"/>
+      <c r="P52" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q51" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R51" s="3" t="n"/>
-      <c r="S51" s="3" t="inlineStr">
+      <c r="Q52" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R52" s="3" t="n"/>
+      <c r="S52" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T51" s="3" t="n"/>
-      <c r="U51" s="3" t="n"/>
-      <c r="V51" s="3" t="inlineStr">
+      <c r="T52" s="3" t="n"/>
+      <c r="U52" s="3" t="n"/>
+      <c r="V52" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="4" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BCIO:043000</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A process profile that is an attribute of a process.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000239</t>
         </is>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>psychological treatment</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Mental health intervention content that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
-      <c r="D52" s="4" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="E52" s="4" t="n"/>
-      <c r="F52" s="4" t="n"/>
-      <c r="G52" s="4" t="n"/>
-      <c r="H52" s="4" t="n"/>
-      <c r="I52" s="4" t="n"/>
-      <c r="J52" s="4" t="n"/>
-      <c r="K52" s="4" t="inlineStr">
+      <c r="E54" s="4" t="n"/>
+      <c r="F54" s="4" t="n"/>
+      <c r="G54" s="4" t="n"/>
+      <c r="H54" s="4" t="n"/>
+      <c r="I54" s="4" t="n"/>
+      <c r="J54" s="4" t="n"/>
+      <c r="K54" s="4" t="inlineStr">
         <is>
           <t>https://bciosearch.org/BCIO_050364</t>
         </is>
       </c>
-      <c r="L52" s="4" t="inlineStr">
+      <c r="L54" s="4" t="inlineStr">
         <is>
           <t>BCIO:050364</t>
         </is>
       </c>
-      <c r="M52" s="4" t="n"/>
-      <c r="N52" s="4" t="n"/>
-      <c r="O52" s="4" t="n"/>
-      <c r="P52" s="4" t="inlineStr">
+      <c r="M54" s="4" t="n"/>
+      <c r="N54" s="4" t="n"/>
+      <c r="O54" s="4" t="n"/>
+      <c r="P54" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q52" s="4" t="n"/>
-      <c r="R52" s="4" t="n"/>
-      <c r="S52" s="4" t="inlineStr">
+      <c r="Q54" s="4" t="n"/>
+      <c r="R54" s="4" t="n"/>
+      <c r="S54" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T52" s="4" t="n"/>
-      <c r="U52" s="4" t="n"/>
-      <c r="V52" s="4" t="inlineStr">
+      <c r="T54" s="4" t="n"/>
+      <c r="U54" s="4" t="n"/>
+      <c r="V54" s="4" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008535</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>regular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="n"/>
-      <c r="F53" s="2" t="n"/>
-      <c r="G53" s="2" t="n"/>
-      <c r="H53" s="2" t="n"/>
-      <c r="I53" s="2" t="n"/>
-      <c r="J53" s="2" t="n"/>
-      <c r="K53" s="2" t="n"/>
-      <c r="L53" s="2" t="n"/>
-      <c r="M53" s="2" t="n"/>
-      <c r="N53" s="2" t="n"/>
-      <c r="O53" s="2" t="n"/>
-      <c r="P53" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q53" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R53" s="2" t="n"/>
-      <c r="S53" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T53" s="2" t="n"/>
-      <c r="U53" s="2" t="n"/>
-      <c r="V53" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000195</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>resistance training behaviour</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="n"/>
-      <c r="F54" s="2" t="n"/>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>resistance training, strength training</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="n"/>
-      <c r="I54" s="2" t="n"/>
-      <c r="J54" s="2" t="n"/>
-      <c r="K54" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
-        </is>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> COPPER:1005</t>
-        </is>
-      </c>
-      <c r="M54" s="2" t="n"/>
-      <c r="N54" s="2" t="n"/>
-      <c r="O54" s="2" t="n"/>
-      <c r="P54" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R54" s="2" t="n"/>
-      <c r="S54" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T54" s="2" t="n"/>
-      <c r="U54" s="2" t="n"/>
-      <c r="V54" s="2" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000196</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>regular intervention schedule</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E55" s="2" t="n"/>
@@ -3490,20 +3452,14 @@
       <c r="H55" s="2" t="n"/>
       <c r="I55" s="2" t="n"/>
       <c r="J55" s="2" t="n"/>
-      <c r="K55" s="2" t="inlineStr">
-        <is>
-          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
-Also drew on:
-- COPPER:1011"</t>
-        </is>
-      </c>
+      <c r="K55" s="2" t="n"/>
       <c r="L55" s="2" t="n"/>
       <c r="M55" s="2" t="n"/>
       <c r="N55" s="2" t="n"/>
       <c r="O55" s="2" t="n"/>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
@@ -3521,45 +3477,57 @@
       <c r="U55" s="2" t="n"/>
       <c r="V55" s="2" t="inlineStr">
         <is>
-          <t>PS; MS</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>GMHO:0000195</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>resistance training behaviour</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
-      <c r="G56" s="2" t="n"/>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>resistance training, strength training</t>
+        </is>
+      </c>
       <c r="H56" s="2" t="n"/>
       <c r="I56" s="2" t="n"/>
       <c r="J56" s="2" t="n"/>
-      <c r="K56" s="2" t="n"/>
-      <c r="L56" s="2" t="n"/>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPPER:1005</t>
+        </is>
+      </c>
       <c r="M56" s="2" t="n"/>
       <c r="N56" s="2" t="n"/>
       <c r="O56" s="2" t="n"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
@@ -3577,159 +3545,165 @@
       <c r="U56" s="2" t="n"/>
       <c r="V56" s="2" t="inlineStr">
         <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000196</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n"/>
+      <c r="F57" s="2" t="n"/>
+      <c r="G57" s="2" t="n"/>
+      <c r="H57" s="2" t="n"/>
+      <c r="I57" s="2" t="n"/>
+      <c r="J57" s="2" t="n"/>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
+Also drew on:
+- COPPER:1011"</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="n"/>
+      <c r="M57" s="2" t="n"/>
+      <c r="N57" s="2" t="n"/>
+      <c r="O57" s="2" t="n"/>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R57" s="2" t="n"/>
+      <c r="S57" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T57" s="2" t="n"/>
+      <c r="U57" s="2" t="n"/>
+      <c r="V57" s="2" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:011034</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n"/>
+      <c r="F58" s="2" t="n"/>
+      <c r="G58" s="2" t="n"/>
+      <c r="H58" s="2" t="n"/>
+      <c r="I58" s="2" t="n"/>
+      <c r="J58" s="2" t="n"/>
+      <c r="K58" s="2" t="n"/>
+      <c r="L58" s="2" t="n"/>
+      <c r="M58" s="2" t="n"/>
+      <c r="N58" s="2" t="n"/>
+      <c r="O58" s="2" t="n"/>
+      <c r="P58" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R58" s="2" t="n"/>
+      <c r="S58" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T58" s="2" t="n"/>
+      <c r="U58" s="2" t="n"/>
+      <c r="V58" s="2" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>STATO:0000039</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>statistic</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000127</t>
-        </is>
-      </c>
-      <c r="B58" s="3" t="inlineStr">
-        <is>
-          <t>study arm</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="E58" s="3" t="n"/>
-      <c r="F58" s="3" t="n"/>
-      <c r="G58" s="3" t="n"/>
-      <c r="H58" s="3" t="n"/>
-      <c r="I58" s="3" t="n"/>
-      <c r="J58" s="3" t="n"/>
-      <c r="K58" s="3" t="n"/>
-      <c r="L58" s="3" t="n"/>
-      <c r="M58" s="3" t="n"/>
-      <c r="N58" s="3" t="n"/>
-      <c r="O58" s="3" t="n"/>
-      <c r="P58" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q58" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R58" s="3" t="n"/>
-      <c r="S58" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T58" s="3" t="n"/>
-      <c r="U58" s="3" t="n"/>
-      <c r="V58" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:011036</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>transdermal mode of delivery</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr">
-        <is>
-          <t>ingestion mode of delivery</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="n"/>
-      <c r="F59" s="2" t="n"/>
-      <c r="G59" s="2" t="n"/>
-      <c r="H59" s="2" t="n"/>
-      <c r="I59" s="2" t="n"/>
-      <c r="J59" s="2" t="n"/>
-      <c r="K59" s="2" t="n"/>
-      <c r="L59" s="2" t="n"/>
-      <c r="M59" s="2" t="n"/>
-      <c r="N59" s="2" t="n"/>
-      <c r="O59" s="2" t="n"/>
-      <c r="P59" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q59" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R59" s="2" t="n"/>
-      <c r="S59" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T59" s="2" t="n"/>
-      <c r="U59" s="2" t="n"/>
-      <c r="V59" s="2" t="inlineStr">
+      <c r="V59" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3738,22 +3712,22 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000128</t>
+          <t>GMHO:0000127</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>treatment as usual control arm</t>
+          <t>study arm</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
+          <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>control arm</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E60" s="3" t="n"/>
@@ -3769,7 +3743,7 @@
       <c r="O60" s="3" t="n"/>
       <c r="P60" s="3" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q60" s="3" t="inlineStr">
@@ -3784,36 +3758,32 @@
         </is>
       </c>
       <c r="T60" s="3" t="n"/>
-      <c r="U60" s="3" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
+      <c r="U60" s="3" t="n"/>
       <c r="V60" s="3" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000129</t>
+          <t>BCIO:011036</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>waitlist control arm</t>
+          <t>transdermal mode of delivery</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
+          <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>control arm</t>
+          <t>ingestion mode of delivery</t>
         </is>
       </c>
       <c r="E61" s="2" t="n"/>
@@ -3829,7 +3799,7 @@
       <c r="O61" s="2" t="n"/>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
@@ -3844,88 +3814,92 @@
         </is>
       </c>
       <c r="T61" s="2" t="n"/>
-      <c r="U61" s="2" t="inlineStr">
+      <c r="U61" s="2" t="n"/>
+      <c r="V61" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000128</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>treatment as usual control arm</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>control arm</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="n"/>
+      <c r="F62" s="3" t="n"/>
+      <c r="G62" s="3" t="n"/>
+      <c r="H62" s="3" t="n"/>
+      <c r="I62" s="3" t="n"/>
+      <c r="J62" s="3" t="n"/>
+      <c r="K62" s="3" t="n"/>
+      <c r="L62" s="3" t="n"/>
+      <c r="M62" s="3" t="n"/>
+      <c r="N62" s="3" t="n"/>
+      <c r="O62" s="3" t="n"/>
+      <c r="P62" s="3" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q62" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R62" s="3" t="n"/>
+      <c r="S62" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T62" s="3" t="n"/>
+      <c r="U62" s="3" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V61" s="2" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="n"/>
-      <c r="F62" s="2" t="n"/>
-      <c r="G62" s="2" t="n"/>
-      <c r="H62" s="2" t="n"/>
-      <c r="I62" s="2" t="n"/>
-      <c r="J62" s="2" t="n"/>
-      <c r="K62" s="2" t="n"/>
-      <c r="L62" s="2" t="n"/>
-      <c r="M62" s="2" t="n"/>
-      <c r="N62" s="2" t="n"/>
-      <c r="O62" s="2" t="n"/>
-      <c r="P62" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q62" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R62" s="2" t="n"/>
-      <c r="S62" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T62" s="2" t="n"/>
-      <c r="U62" s="2" t="n"/>
-      <c r="V62" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
+      <c r="V62" s="3" t="inlineStr">
+        <is>
+          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>GMHO:0000129</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>waitlist control arm</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>control arm</t>
         </is>
       </c>
       <c r="E63" s="2" t="n"/>
@@ -3941,7 +3915,7 @@
       <c r="O63" s="2" t="n"/>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
@@ -3956,51 +3930,162 @@
         </is>
       </c>
       <c r="T63" s="2" t="n"/>
-      <c r="U63" s="2" t="n"/>
-      <c r="V63" s="2" t="inlineStr">
+      <c r="U63" s="2" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V63" s="2" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:036108</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n"/>
+      <c r="F64" s="2" t="n"/>
+      <c r="G64" s="2" t="n"/>
+      <c r="H64" s="2" t="n"/>
+      <c r="I64" s="2" t="n"/>
+      <c r="J64" s="2" t="n"/>
+      <c r="K64" s="2" t="n"/>
+      <c r="L64" s="2" t="n"/>
+      <c r="M64" s="2" t="n"/>
+      <c r="N64" s="2" t="n"/>
+      <c r="O64" s="2" t="n"/>
+      <c r="P64" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q64" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R64" s="2" t="n"/>
+      <c r="S64" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T64" s="2" t="n"/>
+      <c r="U64" s="2" t="n"/>
+      <c r="V64" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:011046</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>wearable ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="2" t="n"/>
+      <c r="G65" s="2" t="n"/>
+      <c r="H65" s="2" t="n"/>
+      <c r="I65" s="2" t="n"/>
+      <c r="J65" s="2" t="n"/>
+      <c r="K65" s="2" t="n"/>
+      <c r="L65" s="2" t="n"/>
+      <c r="M65" s="2" t="n"/>
+      <c r="N65" s="2" t="n"/>
+      <c r="O65" s="2" t="n"/>
+      <c r="P65" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q65" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R65" s="2" t="n"/>
+      <c r="S65" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T65" s="2" t="n"/>
+      <c r="U65" s="2" t="n"/>
+      <c r="V65" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>IAO:0000590</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>A textual entity that denotes a particular in reality.</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="P64" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr">
+      <c r="V66" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1455,32 +1455,16 @@
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2608,264 +2592,256 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>IAO:0000003</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>measurement unit label</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A measurement unit label is as a label that is part of a scalar measurement datum and denotes a unit of measure.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>datum label</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>LSR1; LSR2; LSR3</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000241</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>An intervention content that is part of a mental health intervention.</t>
         </is>
       </c>
-      <c r="D39" s="4" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="E39" s="4" t="n"/>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="4" t="inlineStr">
         <is>
           <t>Any intervention content delivered in the context of a mental health intervention.</t>
         </is>
       </c>
-      <c r="G39" s="4" t="n"/>
-      <c r="H39" s="4" t="n"/>
-      <c r="I39" s="4" t="n"/>
-      <c r="J39" s="4" t="n"/>
-      <c r="K39" s="4" t="n"/>
-      <c r="L39" s="4" t="n"/>
-      <c r="M39" s="4" t="n"/>
-      <c r="N39" s="4" t="n"/>
-      <c r="O39" s="4" t="n"/>
-      <c r="P39" s="4" t="n"/>
-      <c r="Q39" s="4" t="n"/>
-      <c r="R39" s="4" t="n"/>
-      <c r="S39" s="4" t="inlineStr">
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="4" t="n"/>
+      <c r="I40" s="4" t="n"/>
+      <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
+      <c r="L40" s="4" t="n"/>
+      <c r="M40" s="4" t="n"/>
+      <c r="N40" s="4" t="n"/>
+      <c r="O40" s="4" t="n"/>
+      <c r="P40" s="4" t="n"/>
+      <c r="Q40" s="4" t="n"/>
+      <c r="R40" s="4" t="n"/>
+      <c r="S40" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T39" s="4" t="n"/>
-      <c r="U39" s="4" t="n"/>
-      <c r="V39" s="4" t="inlineStr">
+      <c r="T40" s="4" t="n"/>
+      <c r="U40" s="4" t="n"/>
+      <c r="V40" s="4" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000008</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>minimum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="E40" s="2" t="n"/>
-      <c r="F40" s="2" t="n"/>
-      <c r="G40" s="2" t="n"/>
-      <c r="H40" s="2" t="n"/>
-      <c r="I40" s="2" t="n"/>
-      <c r="J40" s="2" t="n"/>
-      <c r="K40" s="2" t="n"/>
-      <c r="L40" s="2" t="n"/>
-      <c r="M40" s="2" t="n"/>
-      <c r="N40" s="2" t="n"/>
-      <c r="O40" s="2" t="inlineStr">
+      <c r="E41" s="2" t="n"/>
+      <c r="F41" s="2" t="n"/>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="2" t="n"/>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="n"/>
+      <c r="K41" s="2" t="n"/>
+      <c r="L41" s="2" t="n"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="P40" s="2" t="inlineStr">
+      <c r="P41" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R40" s="2" t="n"/>
-      <c r="S40" s="2" t="inlineStr">
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="n"/>
+      <c r="S41" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T40" s="2" t="n"/>
-      <c r="U40" s="2" t="inlineStr">
+      <c r="T41" s="2" t="n"/>
+      <c r="U41" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V40" s="2" t="inlineStr">
+      <c r="V41" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>STATO:0000150</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>A data item which denotes the smallest value found in a dataset or resulting from a calculation.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="4" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000126</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>no treatment control arm</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>A control arm designation where there is no intervention.</t>
         </is>
       </c>
-      <c r="D42" s="4" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E42" s="4" t="n"/>
-      <c r="F42" s="4" t="n"/>
-      <c r="G42" s="4" t="n"/>
-      <c r="H42" s="4" t="n"/>
-      <c r="I42" s="4" t="n"/>
-      <c r="J42" s="4" t="n"/>
-      <c r="K42" s="4" t="n"/>
-      <c r="L42" s="4" t="n"/>
-      <c r="M42" s="4" t="n"/>
-      <c r="N42" s="4" t="n"/>
-      <c r="O42" s="4" t="n"/>
-      <c r="P42" s="4" t="inlineStr">
+      <c r="E43" s="4" t="n"/>
+      <c r="F43" s="4" t="n"/>
+      <c r="G43" s="4" t="n"/>
+      <c r="H43" s="4" t="n"/>
+      <c r="I43" s="4" t="n"/>
+      <c r="J43" s="4" t="n"/>
+      <c r="K43" s="4" t="n"/>
+      <c r="L43" s="4" t="n"/>
+      <c r="M43" s="4" t="n"/>
+      <c r="N43" s="4" t="n"/>
+      <c r="O43" s="4" t="n"/>
+      <c r="P43" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q42" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R42" s="4" t="n"/>
-      <c r="S42" s="4" t="inlineStr">
+      <c r="Q43" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R43" s="4" t="n"/>
+      <c r="S43" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T42" s="4" t="n"/>
-      <c r="U42" s="4" t="n"/>
-      <c r="V42" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008515</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>number of contact events</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is the number of contact events in an intervention temporal part.</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="n"/>
-      <c r="F43" s="2" t="n"/>
-      <c r="G43" s="2" t="n"/>
-      <c r="H43" s="2" t="n"/>
-      <c r="I43" s="2" t="n"/>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="n"/>
-      <c r="L43" s="2" t="n"/>
-      <c r="M43" s="2" t="n"/>
-      <c r="N43" s="2" t="n"/>
-      <c r="O43" s="2" t="n"/>
-      <c r="P43" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q43" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R43" s="2" t="n"/>
-      <c r="S43" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T43" s="2" t="n"/>
-      <c r="U43" s="2" t="n"/>
-      <c r="V43" s="2" t="inlineStr">
+      <c r="T43" s="4" t="n"/>
+      <c r="U43" s="4" t="n"/>
+      <c r="V43" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2874,22 +2850,22 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>number of contact events</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+          <t>A data item that is the number of contact events in an intervention temporal part.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E44" s="2" t="n"/>
@@ -2909,7 +2885,7 @@
       <c r="O44" s="2" t="n"/>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -2934,22 +2910,22 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>person source role</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
+          <t>temporal region</t>
         </is>
       </c>
       <c r="E45" s="2" t="n"/>
@@ -2957,7 +2933,11 @@
       <c r="G45" s="2" t="n"/>
       <c r="H45" s="2" t="n"/>
       <c r="I45" s="2" t="n"/>
-      <c r="J45" s="2" t="n"/>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
       <c r="K45" s="2" t="n"/>
       <c r="L45" s="2" t="n"/>
       <c r="M45" s="2" t="n"/>
@@ -2965,7 +2945,7 @@
       <c r="O45" s="2" t="n"/>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
@@ -2981,64 +2961,83 @@
       </c>
       <c r="T45" s="2" t="n"/>
       <c r="U45" s="2" t="n"/>
-      <c r="V45" s="2" t="n"/>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>BCIO:050432</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:010001</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>person source role</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
+      <c r="H46" s="2" t="n"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
+      <c r="P46" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="n"/>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="n"/>
+      <c r="U46" s="2" t="n"/>
+      <c r="V46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3046,11 +3045,6 @@
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
       <c r="S47" t="inlineStr">
         <is>
           <t>External</t>
@@ -3058,7 +3052,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -3080,100 +3074,86 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BCIO:036042</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t xml:space="preserve">individual human behaviour </t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000194</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="n"/>
-      <c r="F49" s="2" t="n"/>
-      <c r="G49" s="2" t="n"/>
-      <c r="H49" s="2" t="n"/>
-      <c r="I49" s="2" t="n"/>
-      <c r="J49" s="2" t="n"/>
-      <c r="K49" s="2" t="n"/>
-      <c r="L49" s="2" t="n"/>
-      <c r="M49" s="2" t="n"/>
-      <c r="N49" s="2" t="n"/>
-      <c r="O49" s="2" t="n"/>
-      <c r="P49" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q49" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R49" s="2" t="n"/>
-      <c r="S49" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T49" s="2" t="n"/>
-      <c r="U49" s="2" t="n"/>
-      <c r="V49" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000009</t>
+          <t>GMHO:0000194</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>placebo intervention</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="E50" s="2" t="n"/>
@@ -3189,7 +3169,7 @@
       <c r="O50" s="2" t="n"/>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -3204,330 +3184,303 @@
         </is>
       </c>
       <c r="T50" s="2" t="n"/>
-      <c r="U50" s="2" t="inlineStr">
+      <c r="U50" s="2" t="n"/>
+      <c r="V50" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000009</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>placebo intervention</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n"/>
+      <c r="F51" s="2" t="n"/>
+      <c r="G51" s="2" t="n"/>
+      <c r="H51" s="2" t="n"/>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R51" s="2" t="n"/>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T51" s="2" t="n"/>
+      <c r="U51" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V50" s="2" t="inlineStr">
+      <c r="V51" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>IAO:0000104</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>directive information entity</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V51" t="inlineStr">
+      <c r="V52" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E52" s="3" t="n"/>
-      <c r="F52" s="3" t="n"/>
-      <c r="G52" s="3" t="n"/>
-      <c r="H52" s="3" t="n"/>
-      <c r="I52" s="3" t="n"/>
-      <c r="J52" s="3" t="n"/>
-      <c r="K52" s="3" t="n"/>
-      <c r="L52" s="3" t="n"/>
-      <c r="M52" s="3" t="n"/>
-      <c r="N52" s="3" t="n"/>
-      <c r="O52" s="3" t="n"/>
-      <c r="P52" s="3" t="inlineStr">
+      <c r="E53" s="3" t="n"/>
+      <c r="F53" s="3" t="n"/>
+      <c r="G53" s="3" t="n"/>
+      <c r="H53" s="3" t="n"/>
+      <c r="I53" s="3" t="n"/>
+      <c r="J53" s="3" t="n"/>
+      <c r="K53" s="3" t="n"/>
+      <c r="L53" s="3" t="n"/>
+      <c r="M53" s="3" t="n"/>
+      <c r="N53" s="3" t="n"/>
+      <c r="O53" s="3" t="n"/>
+      <c r="P53" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q52" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R52" s="3" t="n"/>
-      <c r="S52" s="3" t="inlineStr">
+      <c r="Q53" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R53" s="3" t="n"/>
+      <c r="S53" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T52" s="3" t="n"/>
-      <c r="U52" s="3" t="n"/>
-      <c r="V52" s="3" t="inlineStr">
+      <c r="T53" s="3" t="n"/>
+      <c r="U53" s="3" t="n"/>
+      <c r="V53" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>BCIO:043000</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>A process profile that is an attribute of a process.</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="4" t="inlineStr">
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000239</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>psychological treatment</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>Mental health intervention content that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
-      <c r="D54" s="4" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="E54" s="4" t="n"/>
-      <c r="F54" s="4" t="n"/>
-      <c r="G54" s="4" t="n"/>
-      <c r="H54" s="4" t="n"/>
-      <c r="I54" s="4" t="n"/>
-      <c r="J54" s="4" t="n"/>
-      <c r="K54" s="4" t="inlineStr">
+      <c r="E55" s="4" t="n"/>
+      <c r="F55" s="4" t="n"/>
+      <c r="G55" s="4" t="n"/>
+      <c r="H55" s="4" t="n"/>
+      <c r="I55" s="4" t="n"/>
+      <c r="J55" s="4" t="n"/>
+      <c r="K55" s="4" t="inlineStr">
         <is>
           <t>https://bciosearch.org/BCIO_050364</t>
         </is>
       </c>
-      <c r="L54" s="4" t="inlineStr">
+      <c r="L55" s="4" t="inlineStr">
         <is>
           <t>BCIO:050364</t>
         </is>
       </c>
-      <c r="M54" s="4" t="n"/>
-      <c r="N54" s="4" t="n"/>
-      <c r="O54" s="4" t="n"/>
-      <c r="P54" s="4" t="inlineStr">
+      <c r="M55" s="4" t="n"/>
+      <c r="N55" s="4" t="n"/>
+      <c r="O55" s="4" t="n"/>
+      <c r="P55" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q54" s="4" t="n"/>
-      <c r="R54" s="4" t="n"/>
-      <c r="S54" s="4" t="inlineStr">
+      <c r="Q55" s="4" t="n"/>
+      <c r="R55" s="4" t="n"/>
+      <c r="S55" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T54" s="4" t="n"/>
-      <c r="U54" s="4" t="n"/>
-      <c r="V54" s="4" t="inlineStr">
+      <c r="T55" s="4" t="n"/>
+      <c r="U55" s="4" t="n"/>
+      <c r="V55" s="4" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008535</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>regular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="n"/>
-      <c r="F55" s="2" t="n"/>
-      <c r="G55" s="2" t="n"/>
-      <c r="H55" s="2" t="n"/>
-      <c r="I55" s="2" t="n"/>
-      <c r="J55" s="2" t="n"/>
-      <c r="K55" s="2" t="n"/>
-      <c r="L55" s="2" t="n"/>
-      <c r="M55" s="2" t="n"/>
-      <c r="N55" s="2" t="n"/>
-      <c r="O55" s="2" t="n"/>
-      <c r="P55" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q55" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R55" s="2" t="n"/>
-      <c r="S55" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T55" s="2" t="n"/>
-      <c r="U55" s="2" t="n"/>
-      <c r="V55" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000195</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>resistance training behaviour</t>
+          <t>regular intervention schedule</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour pattern</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>resistance training, strength training</t>
-        </is>
-      </c>
+      <c r="G56" s="2" t="n"/>
       <c r="H56" s="2" t="n"/>
       <c r="I56" s="2" t="n"/>
       <c r="J56" s="2" t="n"/>
-      <c r="K56" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
-        </is>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> COPPER:1005</t>
-        </is>
-      </c>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
       <c r="M56" s="2" t="n"/>
       <c r="N56" s="2" t="n"/>
       <c r="O56" s="2" t="n"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
@@ -3545,45 +3498,51 @@
       <c r="U56" s="2" t="n"/>
       <c r="V56" s="2" t="inlineStr">
         <is>
-          <t>PS; MS</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000196</t>
+          <t>GMHO:0000195</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>resistance training behaviour</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
-      <c r="G57" s="2" t="n"/>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>resistance training, strength training</t>
+        </is>
+      </c>
       <c r="H57" s="2" t="n"/>
       <c r="I57" s="2" t="n"/>
       <c r="J57" s="2" t="n"/>
       <c r="K57" s="2" t="inlineStr">
         <is>
-          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
-Also drew on:
-- COPPER:1011"</t>
-        </is>
-      </c>
-      <c r="L57" s="2" t="n"/>
+          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPPER:1005</t>
+        </is>
+      </c>
       <c r="M57" s="2" t="n"/>
       <c r="N57" s="2" t="n"/>
       <c r="O57" s="2" t="n"/>
@@ -3614,22 +3573,22 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>GMHO:0000196</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E58" s="2" t="n"/>
@@ -3638,14 +3597,20 @@
       <c r="H58" s="2" t="n"/>
       <c r="I58" s="2" t="n"/>
       <c r="J58" s="2" t="n"/>
-      <c r="K58" s="2" t="n"/>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
+Also drew on:
+- COPPER:1011"</t>
+        </is>
+      </c>
       <c r="L58" s="2" t="n"/>
       <c r="M58" s="2" t="n"/>
       <c r="N58" s="2" t="n"/>
       <c r="O58" s="2" t="n"/>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
@@ -3663,299 +3628,299 @@
       <c r="U58" s="2" t="n"/>
       <c r="V58" s="2" t="inlineStr">
         <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:011034</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n"/>
+      <c r="F59" s="2" t="n"/>
+      <c r="G59" s="2" t="n"/>
+      <c r="H59" s="2" t="n"/>
+      <c r="I59" s="2" t="n"/>
+      <c r="J59" s="2" t="n"/>
+      <c r="K59" s="2" t="n"/>
+      <c r="L59" s="2" t="n"/>
+      <c r="M59" s="2" t="n"/>
+      <c r="N59" s="2" t="n"/>
+      <c r="O59" s="2" t="n"/>
+      <c r="P59" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R59" s="2" t="n"/>
+      <c r="S59" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T59" s="2" t="n"/>
+      <c r="U59" s="2" t="n"/>
+      <c r="V59" s="2" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>STATO:0000039</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>statistic</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V59" t="inlineStr">
+      <c r="V60" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B60" s="3" t="inlineStr">
+      <c r="B61" s="3" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C60" s="3" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr">
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E60" s="3" t="n"/>
-      <c r="F60" s="3" t="n"/>
-      <c r="G60" s="3" t="n"/>
-      <c r="H60" s="3" t="n"/>
-      <c r="I60" s="3" t="n"/>
-      <c r="J60" s="3" t="n"/>
-      <c r="K60" s="3" t="n"/>
-      <c r="L60" s="3" t="n"/>
-      <c r="M60" s="3" t="n"/>
-      <c r="N60" s="3" t="n"/>
-      <c r="O60" s="3" t="n"/>
-      <c r="P60" s="3" t="inlineStr">
+      <c r="E61" s="3" t="n"/>
+      <c r="F61" s="3" t="n"/>
+      <c r="G61" s="3" t="n"/>
+      <c r="H61" s="3" t="n"/>
+      <c r="I61" s="3" t="n"/>
+      <c r="J61" s="3" t="n"/>
+      <c r="K61" s="3" t="n"/>
+      <c r="L61" s="3" t="n"/>
+      <c r="M61" s="3" t="n"/>
+      <c r="N61" s="3" t="n"/>
+      <c r="O61" s="3" t="n"/>
+      <c r="P61" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q60" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R60" s="3" t="n"/>
-      <c r="S60" s="3" t="inlineStr">
+      <c r="Q61" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R61" s="3" t="n"/>
+      <c r="S61" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T60" s="3" t="n"/>
-      <c r="U60" s="3" t="n"/>
-      <c r="V60" s="3" t="inlineStr">
+      <c r="T61" s="3" t="n"/>
+      <c r="U61" s="3" t="n"/>
+      <c r="V61" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr">
+      <c r="D62" s="2" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E61" s="2" t="n"/>
-      <c r="F61" s="2" t="n"/>
-      <c r="G61" s="2" t="n"/>
-      <c r="H61" s="2" t="n"/>
-      <c r="I61" s="2" t="n"/>
-      <c r="J61" s="2" t="n"/>
-      <c r="K61" s="2" t="n"/>
-      <c r="L61" s="2" t="n"/>
-      <c r="M61" s="2" t="n"/>
-      <c r="N61" s="2" t="n"/>
-      <c r="O61" s="2" t="n"/>
-      <c r="P61" s="2" t="inlineStr">
+      <c r="E62" s="2" t="n"/>
+      <c r="F62" s="2" t="n"/>
+      <c r="G62" s="2" t="n"/>
+      <c r="H62" s="2" t="n"/>
+      <c r="I62" s="2" t="n"/>
+      <c r="J62" s="2" t="n"/>
+      <c r="K62" s="2" t="n"/>
+      <c r="L62" s="2" t="n"/>
+      <c r="M62" s="2" t="n"/>
+      <c r="N62" s="2" t="n"/>
+      <c r="O62" s="2" t="n"/>
+      <c r="P62" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q61" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R61" s="2" t="n"/>
-      <c r="S61" s="2" t="inlineStr">
+      <c r="Q62" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R62" s="2" t="n"/>
+      <c r="S62" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T61" s="2" t="n"/>
-      <c r="U61" s="2" t="n"/>
-      <c r="V61" s="2" t="inlineStr">
+      <c r="T62" s="2" t="n"/>
+      <c r="U62" s="2" t="n"/>
+      <c r="V62" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="3" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000128</t>
         </is>
       </c>
-      <c r="B62" s="3" t="inlineStr">
+      <c r="B63" s="3" t="inlineStr">
         <is>
           <t>treatment as usual control arm</t>
         </is>
       </c>
-      <c r="C62" s="3" t="inlineStr">
+      <c r="C63" s="3" t="inlineStr">
         <is>
           <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
-      <c r="D62" s="3" t="inlineStr">
+      <c r="D63" s="3" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E62" s="3" t="n"/>
-      <c r="F62" s="3" t="n"/>
-      <c r="G62" s="3" t="n"/>
-      <c r="H62" s="3" t="n"/>
-      <c r="I62" s="3" t="n"/>
-      <c r="J62" s="3" t="n"/>
-      <c r="K62" s="3" t="n"/>
-      <c r="L62" s="3" t="n"/>
-      <c r="M62" s="3" t="n"/>
-      <c r="N62" s="3" t="n"/>
-      <c r="O62" s="3" t="n"/>
-      <c r="P62" s="3" t="inlineStr">
+      <c r="E63" s="3" t="n"/>
+      <c r="F63" s="3" t="n"/>
+      <c r="G63" s="3" t="n"/>
+      <c r="H63" s="3" t="n"/>
+      <c r="I63" s="3" t="n"/>
+      <c r="J63" s="3" t="n"/>
+      <c r="K63" s="3" t="n"/>
+      <c r="L63" s="3" t="n"/>
+      <c r="M63" s="3" t="n"/>
+      <c r="N63" s="3" t="n"/>
+      <c r="O63" s="3" t="n"/>
+      <c r="P63" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q62" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R62" s="3" t="n"/>
-      <c r="S62" s="3" t="inlineStr">
+      <c r="Q63" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R63" s="3" t="n"/>
+      <c r="S63" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T62" s="3" t="n"/>
-      <c r="U62" s="3" t="inlineStr">
+      <c r="T63" s="3" t="n"/>
+      <c r="U63" s="3" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V62" s="3" t="inlineStr">
+      <c r="V63" s="3" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000129</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>waitlist control arm</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="n"/>
-      <c r="F63" s="2" t="n"/>
-      <c r="G63" s="2" t="n"/>
-      <c r="H63" s="2" t="n"/>
-      <c r="I63" s="2" t="n"/>
-      <c r="J63" s="2" t="n"/>
-      <c r="K63" s="2" t="n"/>
-      <c r="L63" s="2" t="n"/>
-      <c r="M63" s="2" t="n"/>
-      <c r="N63" s="2" t="n"/>
-      <c r="O63" s="2" t="n"/>
-      <c r="P63" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q63" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R63" s="2" t="n"/>
-      <c r="S63" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T63" s="2" t="n"/>
-      <c r="U63" s="2" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V63" s="2" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>GMHO:0000129</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>waitlist control arm</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>control arm</t>
         </is>
       </c>
       <c r="E64" s="2" t="n"/>
@@ -3986,32 +3951,32 @@
         </is>
       </c>
       <c r="T64" s="2" t="n"/>
-      <c r="U64" s="2" t="n"/>
-      <c r="V64" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="U64" s="2" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V64" s="2" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E65" s="2" t="n"/>
@@ -4027,7 +3992,7 @@
       <c r="O65" s="2" t="n"/>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
@@ -4050,42 +4015,98 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:011046</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>wearable ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n"/>
+      <c r="F66" s="2" t="n"/>
+      <c r="G66" s="2" t="n"/>
+      <c r="H66" s="2" t="n"/>
+      <c r="I66" s="2" t="n"/>
+      <c r="J66" s="2" t="n"/>
+      <c r="K66" s="2" t="n"/>
+      <c r="L66" s="2" t="n"/>
+      <c r="M66" s="2" t="n"/>
+      <c r="N66" s="2" t="n"/>
+      <c r="O66" s="2" t="n"/>
+      <c r="P66" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q66" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R66" s="2" t="n"/>
+      <c r="S66" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T66" s="2" t="n"/>
+      <c r="U66" s="2" t="n"/>
+      <c r="V66" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>IAO:0000590</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>A textual entity that denotes a particular in reality.</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V66" t="inlineStr">
+      <c r="V67" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2612,17 +2612,6 @@
           <t>datum label</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>LSR1; LSR2; LSR3</t>
@@ -2633,15 +2622,11 @@
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -3020,61 +3005,76 @@
       <c r="V46" s="2" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>BCIO:050432</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000262</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>pharmacological treatment</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Mental health intervention content that uses pharmacological substances to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>mental health intervention content</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="inlineStr"/>
+      <c r="F47" s="4" t="inlineStr"/>
+      <c r="G47" s="4" t="inlineStr"/>
+      <c r="H47" s="4" t="inlineStr"/>
+      <c r="I47" s="4" t="inlineStr"/>
+      <c r="J47" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K47" s="4" t="inlineStr"/>
+      <c r="L47" s="4" t="inlineStr"/>
+      <c r="M47" s="4" t="inlineStr"/>
+      <c r="N47" s="4" t="inlineStr"/>
+      <c r="O47" s="4" t="inlineStr"/>
+      <c r="P47" s="4" t="inlineStr">
+        <is>
+          <t>LSR 1, LSR3</t>
+        </is>
+      </c>
+      <c r="Q47" s="4" t="inlineStr"/>
+      <c r="R47" s="4" t="inlineStr"/>
+      <c r="S47" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T47" s="4" t="inlineStr"/>
+      <c r="U47" s="4" t="inlineStr"/>
+      <c r="V47" s="4" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -3082,11 +3082,6 @@
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
       <c r="S48" t="inlineStr">
         <is>
           <t>External</t>
@@ -3094,7 +3089,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -3116,100 +3111,86 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BCIO:036042</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t xml:space="preserve">individual human behaviour </t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr">
+      <c r="V50" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000194</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="n"/>
-      <c r="F50" s="2" t="n"/>
-      <c r="G50" s="2" t="n"/>
-      <c r="H50" s="2" t="n"/>
-      <c r="I50" s="2" t="n"/>
-      <c r="J50" s="2" t="n"/>
-      <c r="K50" s="2" t="n"/>
-      <c r="L50" s="2" t="n"/>
-      <c r="M50" s="2" t="n"/>
-      <c r="N50" s="2" t="n"/>
-      <c r="O50" s="2" t="n"/>
-      <c r="P50" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q50" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R50" s="2" t="n"/>
-      <c r="S50" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T50" s="2" t="n"/>
-      <c r="U50" s="2" t="n"/>
-      <c r="V50" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000009</t>
+          <t>GMHO:0000194</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>placebo intervention</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="E51" s="2" t="n"/>
@@ -3225,7 +3206,7 @@
       <c r="O51" s="2" t="n"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
@@ -3240,315 +3221,303 @@
         </is>
       </c>
       <c r="T51" s="2" t="n"/>
-      <c r="U51" s="2" t="inlineStr">
+      <c r="U51" s="2" t="n"/>
+      <c r="V51" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000009</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>placebo intervention</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n"/>
+      <c r="F52" s="2" t="n"/>
+      <c r="G52" s="2" t="n"/>
+      <c r="H52" s="2" t="n"/>
+      <c r="I52" s="2" t="n"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R52" s="2" t="n"/>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T52" s="2" t="n"/>
+      <c r="U52" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V51" s="2" t="inlineStr">
+      <c r="V52" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>IAO:0000104</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>directive information entity</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V52" t="inlineStr">
+      <c r="V53" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B54" s="3" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr">
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E53" s="3" t="n"/>
-      <c r="F53" s="3" t="n"/>
-      <c r="G53" s="3" t="n"/>
-      <c r="H53" s="3" t="n"/>
-      <c r="I53" s="3" t="n"/>
-      <c r="J53" s="3" t="n"/>
-      <c r="K53" s="3" t="n"/>
-      <c r="L53" s="3" t="n"/>
-      <c r="M53" s="3" t="n"/>
-      <c r="N53" s="3" t="n"/>
-      <c r="O53" s="3" t="n"/>
-      <c r="P53" s="3" t="inlineStr">
+      <c r="E54" s="3" t="n"/>
+      <c r="F54" s="3" t="n"/>
+      <c r="G54" s="3" t="n"/>
+      <c r="H54" s="3" t="n"/>
+      <c r="I54" s="3" t="n"/>
+      <c r="J54" s="3" t="n"/>
+      <c r="K54" s="3" t="n"/>
+      <c r="L54" s="3" t="n"/>
+      <c r="M54" s="3" t="n"/>
+      <c r="N54" s="3" t="n"/>
+      <c r="O54" s="3" t="n"/>
+      <c r="P54" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q53" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R53" s="3" t="n"/>
-      <c r="S53" s="3" t="inlineStr">
+      <c r="Q54" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R54" s="3" t="n"/>
+      <c r="S54" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T53" s="3" t="n"/>
-      <c r="U53" s="3" t="n"/>
-      <c r="V53" s="3" t="inlineStr">
+      <c r="T54" s="3" t="n"/>
+      <c r="U54" s="3" t="n"/>
+      <c r="V54" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>BCIO:043000</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>A process profile that is an attribute of a process.</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="4" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000239</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>psychological treatment</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Mental health intervention content that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
-      <c r="D55" s="4" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="E55" s="4" t="n"/>
-      <c r="F55" s="4" t="n"/>
-      <c r="G55" s="4" t="n"/>
-      <c r="H55" s="4" t="n"/>
-      <c r="I55" s="4" t="n"/>
-      <c r="J55" s="4" t="n"/>
-      <c r="K55" s="4" t="inlineStr">
+      <c r="E56" s="4" t="n"/>
+      <c r="F56" s="4" t="n"/>
+      <c r="G56" s="4" t="n"/>
+      <c r="H56" s="4" t="n"/>
+      <c r="I56" s="4" t="n"/>
+      <c r="J56" s="4" t="n"/>
+      <c r="K56" s="4" t="inlineStr">
         <is>
           <t>https://bciosearch.org/BCIO_050364</t>
         </is>
       </c>
-      <c r="L55" s="4" t="inlineStr">
+      <c r="L56" s="4" t="inlineStr">
         <is>
           <t>BCIO:050364</t>
         </is>
       </c>
-      <c r="M55" s="4" t="n"/>
-      <c r="N55" s="4" t="n"/>
-      <c r="O55" s="4" t="n"/>
-      <c r="P55" s="4" t="inlineStr">
+      <c r="M56" s="4" t="n"/>
+      <c r="N56" s="4" t="n"/>
+      <c r="O56" s="4" t="n"/>
+      <c r="P56" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q55" s="4" t="n"/>
-      <c r="R55" s="4" t="n"/>
-      <c r="S55" s="4" t="inlineStr">
+      <c r="Q56" s="4" t="n"/>
+      <c r="R56" s="4" t="n"/>
+      <c r="S56" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T55" s="4" t="n"/>
-      <c r="U55" s="4" t="n"/>
-      <c r="V55" s="4" t="inlineStr">
+      <c r="T56" s="4" t="n"/>
+      <c r="U56" s="4" t="n"/>
+      <c r="V56" s="4" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008535</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>regular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="n"/>
-      <c r="F56" s="2" t="n"/>
-      <c r="G56" s="2" t="n"/>
-      <c r="H56" s="2" t="n"/>
-      <c r="I56" s="2" t="n"/>
-      <c r="J56" s="2" t="n"/>
-      <c r="K56" s="2" t="n"/>
-      <c r="L56" s="2" t="n"/>
-      <c r="M56" s="2" t="n"/>
-      <c r="N56" s="2" t="n"/>
-      <c r="O56" s="2" t="n"/>
-      <c r="P56" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q56" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R56" s="2" t="n"/>
-      <c r="S56" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T56" s="2" t="n"/>
-      <c r="U56" s="2" t="n"/>
-      <c r="V56" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000195</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>resistance training behaviour</t>
+          <t>regular intervention schedule</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour pattern</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>resistance training, strength training</t>
-        </is>
-      </c>
+      <c r="G57" s="2" t="n"/>
       <c r="H57" s="2" t="n"/>
       <c r="I57" s="2" t="n"/>
       <c r="J57" s="2" t="n"/>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
-        </is>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> COPPER:1005</t>
-        </is>
-      </c>
+      <c r="K57" s="2" t="n"/>
+      <c r="L57" s="2" t="n"/>
       <c r="M57" s="2" t="n"/>
       <c r="N57" s="2" t="n"/>
       <c r="O57" s="2" t="n"/>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
@@ -3566,45 +3535,51 @@
       <c r="U57" s="2" t="n"/>
       <c r="V57" s="2" t="inlineStr">
         <is>
-          <t>PS; MS</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000196</t>
+          <t>GMHO:0000195</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>resistance training behaviour</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
-      <c r="G58" s="2" t="n"/>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>resistance training, strength training</t>
+        </is>
+      </c>
       <c r="H58" s="2" t="n"/>
       <c r="I58" s="2" t="n"/>
       <c r="J58" s="2" t="n"/>
       <c r="K58" s="2" t="inlineStr">
         <is>
-          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
-Also drew on:
-- COPPER:1011"</t>
-        </is>
-      </c>
-      <c r="L58" s="2" t="n"/>
+          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPPER:1005</t>
+        </is>
+      </c>
       <c r="M58" s="2" t="n"/>
       <c r="N58" s="2" t="n"/>
       <c r="O58" s="2" t="n"/>
@@ -3635,22 +3610,22 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>GMHO:0000196</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E59" s="2" t="n"/>
@@ -3659,14 +3634,20 @@
       <c r="H59" s="2" t="n"/>
       <c r="I59" s="2" t="n"/>
       <c r="J59" s="2" t="n"/>
-      <c r="K59" s="2" t="n"/>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
+Also drew on:
+- COPPER:1011"</t>
+        </is>
+      </c>
       <c r="L59" s="2" t="n"/>
       <c r="M59" s="2" t="n"/>
       <c r="N59" s="2" t="n"/>
       <c r="O59" s="2" t="n"/>
       <c r="P59" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q59" s="2" t="inlineStr">
@@ -3684,299 +3665,299 @@
       <c r="U59" s="2" t="n"/>
       <c r="V59" s="2" t="inlineStr">
         <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:011034</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n"/>
+      <c r="F60" s="2" t="n"/>
+      <c r="G60" s="2" t="n"/>
+      <c r="H60" s="2" t="n"/>
+      <c r="I60" s="2" t="n"/>
+      <c r="J60" s="2" t="n"/>
+      <c r="K60" s="2" t="n"/>
+      <c r="L60" s="2" t="n"/>
+      <c r="M60" s="2" t="n"/>
+      <c r="N60" s="2" t="n"/>
+      <c r="O60" s="2" t="n"/>
+      <c r="P60" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q60" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R60" s="2" t="n"/>
+      <c r="S60" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T60" s="2" t="n"/>
+      <c r="U60" s="2" t="n"/>
+      <c r="V60" s="2" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>STATO:0000039</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>statistic</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V60" t="inlineStr">
+      <c r="V61" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B61" s="3" t="inlineStr">
+      <c r="B62" s="3" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C61" s="3" t="inlineStr">
+      <c r="C62" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr">
+      <c r="D62" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E61" s="3" t="n"/>
-      <c r="F61" s="3" t="n"/>
-      <c r="G61" s="3" t="n"/>
-      <c r="H61" s="3" t="n"/>
-      <c r="I61" s="3" t="n"/>
-      <c r="J61" s="3" t="n"/>
-      <c r="K61" s="3" t="n"/>
-      <c r="L61" s="3" t="n"/>
-      <c r="M61" s="3" t="n"/>
-      <c r="N61" s="3" t="n"/>
-      <c r="O61" s="3" t="n"/>
-      <c r="P61" s="3" t="inlineStr">
+      <c r="E62" s="3" t="n"/>
+      <c r="F62" s="3" t="n"/>
+      <c r="G62" s="3" t="n"/>
+      <c r="H62" s="3" t="n"/>
+      <c r="I62" s="3" t="n"/>
+      <c r="J62" s="3" t="n"/>
+      <c r="K62" s="3" t="n"/>
+      <c r="L62" s="3" t="n"/>
+      <c r="M62" s="3" t="n"/>
+      <c r="N62" s="3" t="n"/>
+      <c r="O62" s="3" t="n"/>
+      <c r="P62" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q61" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R61" s="3" t="n"/>
-      <c r="S61" s="3" t="inlineStr">
+      <c r="Q62" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R62" s="3" t="n"/>
+      <c r="S62" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T61" s="3" t="n"/>
-      <c r="U61" s="3" t="n"/>
-      <c r="V61" s="3" t="inlineStr">
+      <c r="T62" s="3" t="n"/>
+      <c r="U62" s="3" t="n"/>
+      <c r="V62" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D62" s="2" t="inlineStr">
+      <c r="D63" s="2" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E62" s="2" t="n"/>
-      <c r="F62" s="2" t="n"/>
-      <c r="G62" s="2" t="n"/>
-      <c r="H62" s="2" t="n"/>
-      <c r="I62" s="2" t="n"/>
-      <c r="J62" s="2" t="n"/>
-      <c r="K62" s="2" t="n"/>
-      <c r="L62" s="2" t="n"/>
-      <c r="M62" s="2" t="n"/>
-      <c r="N62" s="2" t="n"/>
-      <c r="O62" s="2" t="n"/>
-      <c r="P62" s="2" t="inlineStr">
+      <c r="E63" s="2" t="n"/>
+      <c r="F63" s="2" t="n"/>
+      <c r="G63" s="2" t="n"/>
+      <c r="H63" s="2" t="n"/>
+      <c r="I63" s="2" t="n"/>
+      <c r="J63" s="2" t="n"/>
+      <c r="K63" s="2" t="n"/>
+      <c r="L63" s="2" t="n"/>
+      <c r="M63" s="2" t="n"/>
+      <c r="N63" s="2" t="n"/>
+      <c r="O63" s="2" t="n"/>
+      <c r="P63" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q62" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R62" s="2" t="n"/>
-      <c r="S62" s="2" t="inlineStr">
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R63" s="2" t="n"/>
+      <c r="S63" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T62" s="2" t="n"/>
-      <c r="U62" s="2" t="n"/>
-      <c r="V62" s="2" t="inlineStr">
+      <c r="T63" s="2" t="n"/>
+      <c r="U63" s="2" t="n"/>
+      <c r="V63" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000128</t>
         </is>
       </c>
-      <c r="B63" s="3" t="inlineStr">
+      <c r="B64" s="3" t="inlineStr">
         <is>
           <t>treatment as usual control arm</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
-      <c r="D63" s="3" t="inlineStr">
+      <c r="D64" s="3" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E63" s="3" t="n"/>
-      <c r="F63" s="3" t="n"/>
-      <c r="G63" s="3" t="n"/>
-      <c r="H63" s="3" t="n"/>
-      <c r="I63" s="3" t="n"/>
-      <c r="J63" s="3" t="n"/>
-      <c r="K63" s="3" t="n"/>
-      <c r="L63" s="3" t="n"/>
-      <c r="M63" s="3" t="n"/>
-      <c r="N63" s="3" t="n"/>
-      <c r="O63" s="3" t="n"/>
-      <c r="P63" s="3" t="inlineStr">
+      <c r="E64" s="3" t="n"/>
+      <c r="F64" s="3" t="n"/>
+      <c r="G64" s="3" t="n"/>
+      <c r="H64" s="3" t="n"/>
+      <c r="I64" s="3" t="n"/>
+      <c r="J64" s="3" t="n"/>
+      <c r="K64" s="3" t="n"/>
+      <c r="L64" s="3" t="n"/>
+      <c r="M64" s="3" t="n"/>
+      <c r="N64" s="3" t="n"/>
+      <c r="O64" s="3" t="n"/>
+      <c r="P64" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q63" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R63" s="3" t="n"/>
-      <c r="S63" s="3" t="inlineStr">
+      <c r="Q64" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R64" s="3" t="n"/>
+      <c r="S64" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T63" s="3" t="n"/>
-      <c r="U63" s="3" t="inlineStr">
+      <c r="T64" s="3" t="n"/>
+      <c r="U64" s="3" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V63" s="3" t="inlineStr">
+      <c r="V64" s="3" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000129</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>waitlist control arm</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="n"/>
-      <c r="F64" s="2" t="n"/>
-      <c r="G64" s="2" t="n"/>
-      <c r="H64" s="2" t="n"/>
-      <c r="I64" s="2" t="n"/>
-      <c r="J64" s="2" t="n"/>
-      <c r="K64" s="2" t="n"/>
-      <c r="L64" s="2" t="n"/>
-      <c r="M64" s="2" t="n"/>
-      <c r="N64" s="2" t="n"/>
-      <c r="O64" s="2" t="n"/>
-      <c r="P64" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q64" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R64" s="2" t="n"/>
-      <c r="S64" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T64" s="2" t="n"/>
-      <c r="U64" s="2" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V64" s="2" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>GMHO:0000129</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>waitlist control arm</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>control arm</t>
         </is>
       </c>
       <c r="E65" s="2" t="n"/>
@@ -4007,32 +3988,32 @@
         </is>
       </c>
       <c r="T65" s="2" t="n"/>
-      <c r="U65" s="2" t="n"/>
-      <c r="V65" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="U65" s="2" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V65" s="2" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E66" s="2" t="n"/>
@@ -4048,7 +4029,7 @@
       <c r="O66" s="2" t="n"/>
       <c r="P66" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q66" s="2" t="inlineStr">
@@ -4071,42 +4052,98 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:011046</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>wearable ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n"/>
+      <c r="F67" s="2" t="n"/>
+      <c r="G67" s="2" t="n"/>
+      <c r="H67" s="2" t="n"/>
+      <c r="I67" s="2" t="n"/>
+      <c r="J67" s="2" t="n"/>
+      <c r="K67" s="2" t="n"/>
+      <c r="L67" s="2" t="n"/>
+      <c r="M67" s="2" t="n"/>
+      <c r="N67" s="2" t="n"/>
+      <c r="O67" s="2" t="n"/>
+      <c r="P67" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q67" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R67" s="2" t="n"/>
+      <c r="S67" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T67" s="2" t="n"/>
+      <c r="U67" s="2" t="n"/>
+      <c r="V67" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>IAO:0000590</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>A textual entity that denotes a particular in reality.</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V67" t="inlineStr">
+      <c r="V68" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3025,93 +3025,116 @@
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr"/>
-      <c r="F47" s="4" t="inlineStr"/>
-      <c r="G47" s="4" t="inlineStr"/>
-      <c r="H47" s="4" t="inlineStr"/>
-      <c r="I47" s="4" t="inlineStr"/>
+      <c r="E47" s="4" t="n"/>
+      <c r="F47" s="4" t="n"/>
+      <c r="G47" s="4" t="n"/>
+      <c r="H47" s="4" t="n"/>
+      <c r="I47" s="4" t="n"/>
       <c r="J47" s="4" t="inlineStr">
         <is>
           <t>Intervention content and delivery</t>
         </is>
       </c>
-      <c r="K47" s="4" t="inlineStr"/>
-      <c r="L47" s="4" t="inlineStr"/>
-      <c r="M47" s="4" t="inlineStr"/>
-      <c r="N47" s="4" t="inlineStr"/>
-      <c r="O47" s="4" t="inlineStr"/>
+      <c r="K47" s="4" t="n"/>
+      <c r="L47" s="4" t="n"/>
+      <c r="M47" s="4" t="n"/>
+      <c r="N47" s="4" t="n"/>
+      <c r="O47" s="4" t="n"/>
       <c r="P47" s="4" t="inlineStr">
         <is>
           <t>LSR 1, LSR3</t>
         </is>
       </c>
-      <c r="Q47" s="4" t="inlineStr"/>
-      <c r="R47" s="4" t="inlineStr"/>
+      <c r="Q47" s="4" t="n"/>
+      <c r="R47" s="4" t="n"/>
       <c r="S47" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T47" s="4" t="inlineStr"/>
-      <c r="U47" s="4" t="inlineStr"/>
-      <c r="V47" s="4" t="inlineStr"/>
+      <c r="T47" s="4" t="n"/>
+      <c r="U47" s="4" t="n"/>
+      <c r="V47" s="4" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>BCIO:050432</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000264</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>physical activity intervention</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Mental health intervention content that uses physical performance behaviour to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>mental health intervention content</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="4" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr"/>
+      <c r="H48" s="4" t="inlineStr"/>
+      <c r="I48" s="4" t="inlineStr"/>
+      <c r="J48" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K48" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:036042; GMHO:0000239</t>
+        </is>
+      </c>
+      <c r="L48" s="4" t="inlineStr"/>
+      <c r="M48" s="4" t="inlineStr"/>
+      <c r="N48" s="4" t="inlineStr"/>
+      <c r="O48" s="4" t="inlineStr"/>
+      <c r="P48" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+      <c r="Q48" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R48" s="4" t="inlineStr"/>
+      <c r="S48" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T48" s="4" t="inlineStr"/>
+      <c r="U48" s="4" t="inlineStr"/>
+      <c r="V48" s="4" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -3119,11 +3142,6 @@
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
       <c r="S49" t="inlineStr">
         <is>
           <t>External</t>
@@ -3131,7 +3149,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -3153,100 +3171,86 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BCIO:036042</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t xml:space="preserve">individual human behaviour </t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr">
+      <c r="V51" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000194</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="n"/>
-      <c r="F51" s="2" t="n"/>
-      <c r="G51" s="2" t="n"/>
-      <c r="H51" s="2" t="n"/>
-      <c r="I51" s="2" t="n"/>
-      <c r="J51" s="2" t="n"/>
-      <c r="K51" s="2" t="n"/>
-      <c r="L51" s="2" t="n"/>
-      <c r="M51" s="2" t="n"/>
-      <c r="N51" s="2" t="n"/>
-      <c r="O51" s="2" t="n"/>
-      <c r="P51" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q51" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R51" s="2" t="n"/>
-      <c r="S51" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T51" s="2" t="n"/>
-      <c r="U51" s="2" t="n"/>
-      <c r="V51" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000009</t>
+          <t>GMHO:0000194</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>placebo intervention</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="E52" s="2" t="n"/>
@@ -3262,7 +3266,7 @@
       <c r="O52" s="2" t="n"/>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
@@ -3277,315 +3281,303 @@
         </is>
       </c>
       <c r="T52" s="2" t="n"/>
-      <c r="U52" s="2" t="inlineStr">
+      <c r="U52" s="2" t="n"/>
+      <c r="V52" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000009</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>placebo intervention</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n"/>
+      <c r="F53" s="2" t="n"/>
+      <c r="G53" s="2" t="n"/>
+      <c r="H53" s="2" t="n"/>
+      <c r="I53" s="2" t="n"/>
+      <c r="J53" s="2" t="n"/>
+      <c r="K53" s="2" t="n"/>
+      <c r="L53" s="2" t="n"/>
+      <c r="M53" s="2" t="n"/>
+      <c r="N53" s="2" t="n"/>
+      <c r="O53" s="2" t="n"/>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R53" s="2" t="n"/>
+      <c r="S53" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T53" s="2" t="n"/>
+      <c r="U53" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V52" s="2" t="inlineStr">
+      <c r="V53" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>IAO:0000104</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>directive information entity</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V53" t="inlineStr">
+      <c r="V54" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E54" s="3" t="n"/>
-      <c r="F54" s="3" t="n"/>
-      <c r="G54" s="3" t="n"/>
-      <c r="H54" s="3" t="n"/>
-      <c r="I54" s="3" t="n"/>
-      <c r="J54" s="3" t="n"/>
-      <c r="K54" s="3" t="n"/>
-      <c r="L54" s="3" t="n"/>
-      <c r="M54" s="3" t="n"/>
-      <c r="N54" s="3" t="n"/>
-      <c r="O54" s="3" t="n"/>
-      <c r="P54" s="3" t="inlineStr">
+      <c r="E55" s="3" t="n"/>
+      <c r="F55" s="3" t="n"/>
+      <c r="G55" s="3" t="n"/>
+      <c r="H55" s="3" t="n"/>
+      <c r="I55" s="3" t="n"/>
+      <c r="J55" s="3" t="n"/>
+      <c r="K55" s="3" t="n"/>
+      <c r="L55" s="3" t="n"/>
+      <c r="M55" s="3" t="n"/>
+      <c r="N55" s="3" t="n"/>
+      <c r="O55" s="3" t="n"/>
+      <c r="P55" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q54" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R54" s="3" t="n"/>
-      <c r="S54" s="3" t="inlineStr">
+      <c r="Q55" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R55" s="3" t="n"/>
+      <c r="S55" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T54" s="3" t="n"/>
-      <c r="U54" s="3" t="n"/>
-      <c r="V54" s="3" t="inlineStr">
+      <c r="T55" s="3" t="n"/>
+      <c r="U55" s="3" t="n"/>
+      <c r="V55" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>BCIO:043000</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>A process profile that is an attribute of a process.</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="4" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000239</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>psychological treatment</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Mental health intervention content that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
-      <c r="D56" s="4" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="E56" s="4" t="n"/>
-      <c r="F56" s="4" t="n"/>
-      <c r="G56" s="4" t="n"/>
-      <c r="H56" s="4" t="n"/>
-      <c r="I56" s="4" t="n"/>
-      <c r="J56" s="4" t="n"/>
-      <c r="K56" s="4" t="inlineStr">
+      <c r="E57" s="4" t="n"/>
+      <c r="F57" s="4" t="n"/>
+      <c r="G57" s="4" t="n"/>
+      <c r="H57" s="4" t="n"/>
+      <c r="I57" s="4" t="n"/>
+      <c r="J57" s="4" t="n"/>
+      <c r="K57" s="4" t="inlineStr">
         <is>
           <t>https://bciosearch.org/BCIO_050364</t>
         </is>
       </c>
-      <c r="L56" s="4" t="inlineStr">
+      <c r="L57" s="4" t="inlineStr">
         <is>
           <t>BCIO:050364</t>
         </is>
       </c>
-      <c r="M56" s="4" t="n"/>
-      <c r="N56" s="4" t="n"/>
-      <c r="O56" s="4" t="n"/>
-      <c r="P56" s="4" t="inlineStr">
+      <c r="M57" s="4" t="n"/>
+      <c r="N57" s="4" t="n"/>
+      <c r="O57" s="4" t="n"/>
+      <c r="P57" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q56" s="4" t="n"/>
-      <c r="R56" s="4" t="n"/>
-      <c r="S56" s="4" t="inlineStr">
+      <c r="Q57" s="4" t="n"/>
+      <c r="R57" s="4" t="n"/>
+      <c r="S57" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T56" s="4" t="n"/>
-      <c r="U56" s="4" t="n"/>
-      <c r="V56" s="4" t="inlineStr">
+      <c r="T57" s="4" t="n"/>
+      <c r="U57" s="4" t="n"/>
+      <c r="V57" s="4" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008535</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>regular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="n"/>
-      <c r="F57" s="2" t="n"/>
-      <c r="G57" s="2" t="n"/>
-      <c r="H57" s="2" t="n"/>
-      <c r="I57" s="2" t="n"/>
-      <c r="J57" s="2" t="n"/>
-      <c r="K57" s="2" t="n"/>
-      <c r="L57" s="2" t="n"/>
-      <c r="M57" s="2" t="n"/>
-      <c r="N57" s="2" t="n"/>
-      <c r="O57" s="2" t="n"/>
-      <c r="P57" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q57" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R57" s="2" t="n"/>
-      <c r="S57" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T57" s="2" t="n"/>
-      <c r="U57" s="2" t="n"/>
-      <c r="V57" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000195</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>resistance training behaviour</t>
+          <t>regular intervention schedule</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour pattern</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>resistance training, strength training</t>
-        </is>
-      </c>
+      <c r="G58" s="2" t="n"/>
       <c r="H58" s="2" t="n"/>
       <c r="I58" s="2" t="n"/>
       <c r="J58" s="2" t="n"/>
-      <c r="K58" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
-        </is>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> COPPER:1005</t>
-        </is>
-      </c>
+      <c r="K58" s="2" t="n"/>
+      <c r="L58" s="2" t="n"/>
       <c r="M58" s="2" t="n"/>
       <c r="N58" s="2" t="n"/>
       <c r="O58" s="2" t="n"/>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
@@ -3603,45 +3595,51 @@
       <c r="U58" s="2" t="n"/>
       <c r="V58" s="2" t="inlineStr">
         <is>
-          <t>PS; MS</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000196</t>
+          <t>GMHO:0000195</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>resistance training behaviour</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
-      <c r="G59" s="2" t="n"/>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>resistance training, strength training</t>
+        </is>
+      </c>
       <c r="H59" s="2" t="n"/>
       <c r="I59" s="2" t="n"/>
       <c r="J59" s="2" t="n"/>
       <c r="K59" s="2" t="inlineStr">
         <is>
-          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
-Also drew on:
-- COPPER:1011"</t>
-        </is>
-      </c>
-      <c r="L59" s="2" t="n"/>
+          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPPER:1005</t>
+        </is>
+      </c>
       <c r="M59" s="2" t="n"/>
       <c r="N59" s="2" t="n"/>
       <c r="O59" s="2" t="n"/>
@@ -3672,22 +3670,22 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>GMHO:0000196</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E60" s="2" t="n"/>
@@ -3696,14 +3694,20 @@
       <c r="H60" s="2" t="n"/>
       <c r="I60" s="2" t="n"/>
       <c r="J60" s="2" t="n"/>
-      <c r="K60" s="2" t="n"/>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
+Also drew on:
+- COPPER:1011"</t>
+        </is>
+      </c>
       <c r="L60" s="2" t="n"/>
       <c r="M60" s="2" t="n"/>
       <c r="N60" s="2" t="n"/>
       <c r="O60" s="2" t="n"/>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
@@ -3721,299 +3725,299 @@
       <c r="U60" s="2" t="n"/>
       <c r="V60" s="2" t="inlineStr">
         <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:011034</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n"/>
+      <c r="F61" s="2" t="n"/>
+      <c r="G61" s="2" t="n"/>
+      <c r="H61" s="2" t="n"/>
+      <c r="I61" s="2" t="n"/>
+      <c r="J61" s="2" t="n"/>
+      <c r="K61" s="2" t="n"/>
+      <c r="L61" s="2" t="n"/>
+      <c r="M61" s="2" t="n"/>
+      <c r="N61" s="2" t="n"/>
+      <c r="O61" s="2" t="n"/>
+      <c r="P61" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q61" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R61" s="2" t="n"/>
+      <c r="S61" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T61" s="2" t="n"/>
+      <c r="U61" s="2" t="n"/>
+      <c r="V61" s="2" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>STATO:0000039</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>statistic</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V61" t="inlineStr">
+      <c r="V62" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="3" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B62" s="3" t="inlineStr">
+      <c r="B63" s="3" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C62" s="3" t="inlineStr">
+      <c r="C63" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D62" s="3" t="inlineStr">
+      <c r="D63" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E62" s="3" t="n"/>
-      <c r="F62" s="3" t="n"/>
-      <c r="G62" s="3" t="n"/>
-      <c r="H62" s="3" t="n"/>
-      <c r="I62" s="3" t="n"/>
-      <c r="J62" s="3" t="n"/>
-      <c r="K62" s="3" t="n"/>
-      <c r="L62" s="3" t="n"/>
-      <c r="M62" s="3" t="n"/>
-      <c r="N62" s="3" t="n"/>
-      <c r="O62" s="3" t="n"/>
-      <c r="P62" s="3" t="inlineStr">
+      <c r="E63" s="3" t="n"/>
+      <c r="F63" s="3" t="n"/>
+      <c r="G63" s="3" t="n"/>
+      <c r="H63" s="3" t="n"/>
+      <c r="I63" s="3" t="n"/>
+      <c r="J63" s="3" t="n"/>
+      <c r="K63" s="3" t="n"/>
+      <c r="L63" s="3" t="n"/>
+      <c r="M63" s="3" t="n"/>
+      <c r="N63" s="3" t="n"/>
+      <c r="O63" s="3" t="n"/>
+      <c r="P63" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q62" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R62" s="3" t="n"/>
-      <c r="S62" s="3" t="inlineStr">
+      <c r="Q63" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R63" s="3" t="n"/>
+      <c r="S63" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T62" s="3" t="n"/>
-      <c r="U62" s="3" t="n"/>
-      <c r="V62" s="3" t="inlineStr">
+      <c r="T63" s="3" t="n"/>
+      <c r="U63" s="3" t="n"/>
+      <c r="V63" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D63" s="2" t="inlineStr">
+      <c r="D64" s="2" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E63" s="2" t="n"/>
-      <c r="F63" s="2" t="n"/>
-      <c r="G63" s="2" t="n"/>
-      <c r="H63" s="2" t="n"/>
-      <c r="I63" s="2" t="n"/>
-      <c r="J63" s="2" t="n"/>
-      <c r="K63" s="2" t="n"/>
-      <c r="L63" s="2" t="n"/>
-      <c r="M63" s="2" t="n"/>
-      <c r="N63" s="2" t="n"/>
-      <c r="O63" s="2" t="n"/>
-      <c r="P63" s="2" t="inlineStr">
+      <c r="E64" s="2" t="n"/>
+      <c r="F64" s="2" t="n"/>
+      <c r="G64" s="2" t="n"/>
+      <c r="H64" s="2" t="n"/>
+      <c r="I64" s="2" t="n"/>
+      <c r="J64" s="2" t="n"/>
+      <c r="K64" s="2" t="n"/>
+      <c r="L64" s="2" t="n"/>
+      <c r="M64" s="2" t="n"/>
+      <c r="N64" s="2" t="n"/>
+      <c r="O64" s="2" t="n"/>
+      <c r="P64" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q63" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R63" s="2" t="n"/>
-      <c r="S63" s="2" t="inlineStr">
+      <c r="Q64" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R64" s="2" t="n"/>
+      <c r="S64" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T63" s="2" t="n"/>
-      <c r="U63" s="2" t="n"/>
-      <c r="V63" s="2" t="inlineStr">
+      <c r="T64" s="2" t="n"/>
+      <c r="U64" s="2" t="n"/>
+      <c r="V64" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000128</t>
         </is>
       </c>
-      <c r="B64" s="3" t="inlineStr">
+      <c r="B65" s="3" t="inlineStr">
         <is>
           <t>treatment as usual control arm</t>
         </is>
       </c>
-      <c r="C64" s="3" t="inlineStr">
+      <c r="C65" s="3" t="inlineStr">
         <is>
           <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
-      <c r="D64" s="3" t="inlineStr">
+      <c r="D65" s="3" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E64" s="3" t="n"/>
-      <c r="F64" s="3" t="n"/>
-      <c r="G64" s="3" t="n"/>
-      <c r="H64" s="3" t="n"/>
-      <c r="I64" s="3" t="n"/>
-      <c r="J64" s="3" t="n"/>
-      <c r="K64" s="3" t="n"/>
-      <c r="L64" s="3" t="n"/>
-      <c r="M64" s="3" t="n"/>
-      <c r="N64" s="3" t="n"/>
-      <c r="O64" s="3" t="n"/>
-      <c r="P64" s="3" t="inlineStr">
+      <c r="E65" s="3" t="n"/>
+      <c r="F65" s="3" t="n"/>
+      <c r="G65" s="3" t="n"/>
+      <c r="H65" s="3" t="n"/>
+      <c r="I65" s="3" t="n"/>
+      <c r="J65" s="3" t="n"/>
+      <c r="K65" s="3" t="n"/>
+      <c r="L65" s="3" t="n"/>
+      <c r="M65" s="3" t="n"/>
+      <c r="N65" s="3" t="n"/>
+      <c r="O65" s="3" t="n"/>
+      <c r="P65" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q64" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R64" s="3" t="n"/>
-      <c r="S64" s="3" t="inlineStr">
+      <c r="Q65" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R65" s="3" t="n"/>
+      <c r="S65" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T64" s="3" t="n"/>
-      <c r="U64" s="3" t="inlineStr">
+      <c r="T65" s="3" t="n"/>
+      <c r="U65" s="3" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V64" s="3" t="inlineStr">
+      <c r="V65" s="3" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000129</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>waitlist control arm</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="n"/>
-      <c r="F65" s="2" t="n"/>
-      <c r="G65" s="2" t="n"/>
-      <c r="H65" s="2" t="n"/>
-      <c r="I65" s="2" t="n"/>
-      <c r="J65" s="2" t="n"/>
-      <c r="K65" s="2" t="n"/>
-      <c r="L65" s="2" t="n"/>
-      <c r="M65" s="2" t="n"/>
-      <c r="N65" s="2" t="n"/>
-      <c r="O65" s="2" t="n"/>
-      <c r="P65" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q65" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R65" s="2" t="n"/>
-      <c r="S65" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T65" s="2" t="n"/>
-      <c r="U65" s="2" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V65" s="2" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>GMHO:0000129</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>waitlist control arm</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>control arm</t>
         </is>
       </c>
       <c r="E66" s="2" t="n"/>
@@ -4044,32 +4048,32 @@
         </is>
       </c>
       <c r="T66" s="2" t="n"/>
-      <c r="U66" s="2" t="n"/>
-      <c r="V66" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="U66" s="2" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V66" s="2" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E67" s="2" t="n"/>
@@ -4085,7 +4089,7 @@
       <c r="O67" s="2" t="n"/>
       <c r="P67" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q67" s="2" t="inlineStr">
@@ -4108,42 +4112,98 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:011046</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>wearable ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n"/>
+      <c r="F68" s="2" t="n"/>
+      <c r="G68" s="2" t="n"/>
+      <c r="H68" s="2" t="n"/>
+      <c r="I68" s="2" t="n"/>
+      <c r="J68" s="2" t="n"/>
+      <c r="K68" s="2" t="n"/>
+      <c r="L68" s="2" t="n"/>
+      <c r="M68" s="2" t="n"/>
+      <c r="N68" s="2" t="n"/>
+      <c r="O68" s="2" t="n"/>
+      <c r="P68" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q68" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R68" s="2" t="n"/>
+      <c r="S68" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T68" s="2" t="n"/>
+      <c r="U68" s="2" t="n"/>
+      <c r="V68" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>IAO:0000590</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>A textual entity that denotes a particular in reality.</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V68" t="inlineStr">
+      <c r="V69" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3005,173 +3005,188 @@
       <c r="V46" s="2" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="inlineStr">
-        <is>
-          <t>GMHO:0000262</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>pharmacological treatment</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>Mental health intervention content that uses pharmacological substances to assess and improve a person’s adaptive mental or behavioural functioning.</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="inlineStr">
-        <is>
-          <t>mental health intervention content</t>
-        </is>
-      </c>
-      <c r="E47" s="4" t="n"/>
-      <c r="F47" s="4" t="n"/>
-      <c r="G47" s="4" t="n"/>
-      <c r="H47" s="4" t="n"/>
-      <c r="I47" s="4" t="n"/>
-      <c r="J47" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K47" s="4" t="n"/>
-      <c r="L47" s="4" t="n"/>
-      <c r="M47" s="4" t="n"/>
-      <c r="N47" s="4" t="n"/>
-      <c r="O47" s="4" t="n"/>
-      <c r="P47" s="4" t="inlineStr">
-        <is>
-          <t>LSR 1, LSR3</t>
-        </is>
-      </c>
-      <c r="Q47" s="4" t="n"/>
-      <c r="R47" s="4" t="n"/>
-      <c r="S47" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T47" s="4" t="n"/>
-      <c r="U47" s="4" t="n"/>
-      <c r="V47" s="4" t="n"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CHEBI:52210</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>pharmacological role</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A biological role which describes how a drug interacts within a biological system and how the interactions affect its medicinal properties.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>biological role</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
+          <t>GMHO:0000262</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>pharmacological treatment</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Mental health intervention content that uses pharmacological substances to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>mental health intervention content</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="n"/>
+      <c r="F48" s="4" t="n"/>
+      <c r="G48" s="4" t="n"/>
+      <c r="H48" s="4" t="n"/>
+      <c r="I48" s="4" t="n"/>
+      <c r="J48" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K48" s="4" t="n"/>
+      <c r="L48" s="4" t="n"/>
+      <c r="M48" s="4" t="n"/>
+      <c r="N48" s="4" t="n"/>
+      <c r="O48" s="4" t="n"/>
+      <c r="P48" s="4" t="inlineStr">
+        <is>
+          <t>LSR 1, LSR3</t>
+        </is>
+      </c>
+      <c r="Q48" s="4" t="n"/>
+      <c r="R48" s="4" t="n"/>
+      <c r="S48" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T48" s="4" t="n"/>
+      <c r="U48" s="4" t="n"/>
+      <c r="V48" s="4" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
           <t>GMHO:0000264</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>physical activity intervention</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>Mental health intervention content that uses physical performance behaviour to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
-      <c r="D48" s="4" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr"/>
-      <c r="F48" s="4" t="inlineStr"/>
-      <c r="G48" s="4" t="inlineStr"/>
-      <c r="H48" s="4" t="inlineStr"/>
-      <c r="I48" s="4" t="inlineStr"/>
-      <c r="J48" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="K48" s="4" t="inlineStr">
+      <c r="E49" s="4" t="n"/>
+      <c r="F49" s="4" t="n"/>
+      <c r="G49" s="4" t="n"/>
+      <c r="H49" s="4" t="n"/>
+      <c r="I49" s="4" t="n"/>
+      <c r="J49" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="K49" s="4" t="inlineStr">
         <is>
           <t>BCIO:036042; GMHO:0000239</t>
         </is>
       </c>
-      <c r="L48" s="4" t="inlineStr"/>
-      <c r="M48" s="4" t="inlineStr"/>
-      <c r="N48" s="4" t="inlineStr"/>
-      <c r="O48" s="4" t="inlineStr"/>
-      <c r="P48" s="4" t="inlineStr">
+      <c r="L49" s="4" t="n"/>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
+      <c r="O49" s="4" t="n"/>
+      <c r="P49" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q48" s="4" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R48" s="4" t="inlineStr"/>
-      <c r="S48" s="4" t="inlineStr">
+      <c r="Q49" s="4" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R49" s="4" t="n"/>
+      <c r="S49" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T48" s="4" t="inlineStr"/>
-      <c r="U48" s="4" t="inlineStr"/>
-      <c r="V48" s="4" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>BCIO:050432</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+      <c r="T49" s="4" t="n"/>
+      <c r="U49" s="4" t="n"/>
+      <c r="V49" s="4" t="n"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -3179,11 +3194,6 @@
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
       <c r="S50" t="inlineStr">
         <is>
           <t>External</t>
@@ -3191,7 +3201,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -3213,100 +3223,86 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BCIO:036042</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t xml:space="preserve">individual human behaviour </t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V51" t="inlineStr">
+      <c r="V52" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000194</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>physical performance behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="n"/>
-      <c r="F52" s="2" t="n"/>
-      <c r="G52" s="2" t="n"/>
-      <c r="H52" s="2" t="n"/>
-      <c r="I52" s="2" t="n"/>
-      <c r="J52" s="2" t="n"/>
-      <c r="K52" s="2" t="n"/>
-      <c r="L52" s="2" t="n"/>
-      <c r="M52" s="2" t="n"/>
-      <c r="N52" s="2" t="n"/>
-      <c r="O52" s="2" t="n"/>
-      <c r="P52" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q52" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R52" s="2" t="n"/>
-      <c r="S52" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T52" s="2" t="n"/>
-      <c r="U52" s="2" t="n"/>
-      <c r="V52" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000009</t>
+          <t>GMHO:0000194</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>placebo intervention</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+          <t>An individual human behaviour pattern that involves repeated physical performance behaviour.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="E53" s="2" t="n"/>
@@ -3322,7 +3318,7 @@
       <c r="O53" s="2" t="n"/>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
@@ -3337,315 +3333,303 @@
         </is>
       </c>
       <c r="T53" s="2" t="n"/>
-      <c r="U53" s="2" t="inlineStr">
+      <c r="U53" s="2" t="n"/>
+      <c r="V53" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000009</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>placebo intervention</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>An intervention that has the same or similar appearance and delivery to another intervention but is intended not to have the active content of that intervention.</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n"/>
+      <c r="F54" s="2" t="n"/>
+      <c r="G54" s="2" t="n"/>
+      <c r="H54" s="2" t="n"/>
+      <c r="I54" s="2" t="n"/>
+      <c r="J54" s="2" t="n"/>
+      <c r="K54" s="2" t="n"/>
+      <c r="L54" s="2" t="n"/>
+      <c r="M54" s="2" t="n"/>
+      <c r="N54" s="2" t="n"/>
+      <c r="O54" s="2" t="n"/>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R54" s="2" t="n"/>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="n"/>
+      <c r="U54" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V53" s="2" t="inlineStr">
+      <c r="V54" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>IAO:0000104</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>directive information entity</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V54" t="inlineStr">
+      <c r="V55" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000200</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>planned pharmacological substance dose</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>A plan specification about the dose of pharmacological substance.</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>plan specification</t>
         </is>
       </c>
-      <c r="E55" s="3" t="n"/>
-      <c r="F55" s="3" t="n"/>
-      <c r="G55" s="3" t="n"/>
-      <c r="H55" s="3" t="n"/>
-      <c r="I55" s="3" t="n"/>
-      <c r="J55" s="3" t="n"/>
-      <c r="K55" s="3" t="n"/>
-      <c r="L55" s="3" t="n"/>
-      <c r="M55" s="3" t="n"/>
-      <c r="N55" s="3" t="n"/>
-      <c r="O55" s="3" t="n"/>
-      <c r="P55" s="3" t="inlineStr">
+      <c r="E56" s="3" t="n"/>
+      <c r="F56" s="3" t="n"/>
+      <c r="G56" s="3" t="n"/>
+      <c r="H56" s="3" t="n"/>
+      <c r="I56" s="3" t="n"/>
+      <c r="J56" s="3" t="n"/>
+      <c r="K56" s="3" t="n"/>
+      <c r="L56" s="3" t="n"/>
+      <c r="M56" s="3" t="n"/>
+      <c r="N56" s="3" t="n"/>
+      <c r="O56" s="3" t="n"/>
+      <c r="P56" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q55" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R55" s="3" t="n"/>
-      <c r="S55" s="3" t="inlineStr">
+      <c r="Q56" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R56" s="3" t="n"/>
+      <c r="S56" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T55" s="3" t="n"/>
-      <c r="U55" s="3" t="n"/>
-      <c r="V55" s="3" t="inlineStr">
+      <c r="T56" s="3" t="n"/>
+      <c r="U56" s="3" t="n"/>
+      <c r="V56" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>BCIO:043000</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>A process profile that is an attribute of a process.</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="4" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000239</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
         <is>
           <t>psychological treatment</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Mental health intervention content that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
-      <c r="D57" s="4" t="inlineStr">
+      <c r="D58" s="4" t="inlineStr">
         <is>
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="E57" s="4" t="n"/>
-      <c r="F57" s="4" t="n"/>
-      <c r="G57" s="4" t="n"/>
-      <c r="H57" s="4" t="n"/>
-      <c r="I57" s="4" t="n"/>
-      <c r="J57" s="4" t="n"/>
-      <c r="K57" s="4" t="inlineStr">
+      <c r="E58" s="4" t="n"/>
+      <c r="F58" s="4" t="n"/>
+      <c r="G58" s="4" t="n"/>
+      <c r="H58" s="4" t="n"/>
+      <c r="I58" s="4" t="n"/>
+      <c r="J58" s="4" t="n"/>
+      <c r="K58" s="4" t="inlineStr">
         <is>
           <t>https://bciosearch.org/BCIO_050364</t>
         </is>
       </c>
-      <c r="L57" s="4" t="inlineStr">
+      <c r="L58" s="4" t="inlineStr">
         <is>
           <t>BCIO:050364</t>
         </is>
       </c>
-      <c r="M57" s="4" t="n"/>
-      <c r="N57" s="4" t="n"/>
-      <c r="O57" s="4" t="n"/>
-      <c r="P57" s="4" t="inlineStr">
+      <c r="M58" s="4" t="n"/>
+      <c r="N58" s="4" t="n"/>
+      <c r="O58" s="4" t="n"/>
+      <c r="P58" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q57" s="4" t="n"/>
-      <c r="R57" s="4" t="n"/>
-      <c r="S57" s="4" t="inlineStr">
+      <c r="Q58" s="4" t="n"/>
+      <c r="R58" s="4" t="n"/>
+      <c r="S58" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T57" s="4" t="n"/>
-      <c r="U57" s="4" t="n"/>
-      <c r="V57" s="4" t="inlineStr">
+      <c r="T58" s="4" t="n"/>
+      <c r="U58" s="4" t="n"/>
+      <c r="V58" s="4" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008535</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>regular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="n"/>
-      <c r="F58" s="2" t="n"/>
-      <c r="G58" s="2" t="n"/>
-      <c r="H58" s="2" t="n"/>
-      <c r="I58" s="2" t="n"/>
-      <c r="J58" s="2" t="n"/>
-      <c r="K58" s="2" t="n"/>
-      <c r="L58" s="2" t="n"/>
-      <c r="M58" s="2" t="n"/>
-      <c r="N58" s="2" t="n"/>
-      <c r="O58" s="2" t="n"/>
-      <c r="P58" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q58" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R58" s="2" t="n"/>
-      <c r="S58" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T58" s="2" t="n"/>
-      <c r="U58" s="2" t="n"/>
-      <c r="V58" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000195</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>resistance training behaviour</t>
+          <t>regular intervention schedule</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of BCI temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>physical performance behaviour pattern</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>resistance training, strength training</t>
-        </is>
-      </c>
+      <c r="G59" s="2" t="n"/>
       <c r="H59" s="2" t="n"/>
       <c r="I59" s="2" t="n"/>
       <c r="J59" s="2" t="n"/>
-      <c r="K59" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
-        </is>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> COPPER:1005</t>
-        </is>
-      </c>
+      <c r="K59" s="2" t="n"/>
+      <c r="L59" s="2" t="n"/>
       <c r="M59" s="2" t="n"/>
       <c r="N59" s="2" t="n"/>
       <c r="O59" s="2" t="n"/>
       <c r="P59" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q59" s="2" t="inlineStr">
@@ -3663,45 +3647,51 @@
       <c r="U59" s="2" t="n"/>
       <c r="V59" s="2" t="inlineStr">
         <is>
-          <t>PS; MS</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000196</t>
+          <t>GMHO:0000195</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>resistance training behaviour</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
+          <t>Physical performance behaviour pattern that uses weight, or other forms of resistance, to induce muscle contraction and build strength, anaerobic endurance, and size of skeletal muscles.</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>physical performance behaviour pattern</t>
         </is>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
-      <c r="G60" s="2" t="n"/>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>resistance training, strength training</t>
+        </is>
+      </c>
       <c r="H60" s="2" t="n"/>
       <c r="I60" s="2" t="n"/>
       <c r="J60" s="2" t="n"/>
       <c r="K60" s="2" t="inlineStr">
         <is>
-          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
-Also drew on:
-- COPPER:1011"</t>
-        </is>
-      </c>
-      <c r="L60" s="2" t="n"/>
+          <t xml:space="preserve">Crosss-reference: COPPER:1005 - changed parent class - definition in their ontology adapted definitions from NCIT_C154219 </t>
+        </is>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPPER:1005</t>
+        </is>
+      </c>
       <c r="M60" s="2" t="n"/>
       <c r="N60" s="2" t="n"/>
       <c r="O60" s="2" t="n"/>
@@ -3732,22 +3722,22 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011034</t>
+          <t>GMHO:0000196</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>somatic mode of delivery</t>
+          <t>running</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+          <t>A locomotive behaviour that involves moving at a steady pace and speed with long strides such that there is a phase at which all limbs are above the ground.</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E61" s="2" t="n"/>
@@ -3756,14 +3746,20 @@
       <c r="H61" s="2" t="n"/>
       <c r="I61" s="2" t="n"/>
       <c r="J61" s="2" t="n"/>
-      <c r="K61" s="2" t="n"/>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>"Rubenson, J., Heliams, D. B., Lloyd, D. G., and Fournier, P. A. (2004). Gait selection in the ostrich: mechanical and metabolic characteristics of walking and running with and without an aerial phase. Proceedings of the Royal Society of London. Series B: Biological Sciences, 271(1543), 1091-1099.
+Also drew on:
+- COPPER:1011"</t>
+        </is>
+      </c>
       <c r="L61" s="2" t="n"/>
       <c r="M61" s="2" t="n"/>
       <c r="N61" s="2" t="n"/>
       <c r="O61" s="2" t="n"/>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
@@ -3781,299 +3777,299 @@
       <c r="U61" s="2" t="n"/>
       <c r="V61" s="2" t="inlineStr">
         <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:011034</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>somatic mode of delivery</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n"/>
+      <c r="F62" s="2" t="n"/>
+      <c r="G62" s="2" t="n"/>
+      <c r="H62" s="2" t="n"/>
+      <c r="I62" s="2" t="n"/>
+      <c r="J62" s="2" t="n"/>
+      <c r="K62" s="2" t="n"/>
+      <c r="L62" s="2" t="n"/>
+      <c r="M62" s="2" t="n"/>
+      <c r="N62" s="2" t="n"/>
+      <c r="O62" s="2" t="n"/>
+      <c r="P62" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q62" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R62" s="2" t="n"/>
+      <c r="S62" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T62" s="2" t="n"/>
+      <c r="U62" s="2" t="n"/>
+      <c r="V62" s="2" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>STATO:0000039</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>statistic</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>a statistic is a measurement datum to describe a dataset or a variable. It is generated by a calculation on set of observed data.</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V62" t="inlineStr">
+      <c r="V63" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000127</t>
         </is>
       </c>
-      <c r="B63" s="3" t="inlineStr">
+      <c r="B64" s="3" t="inlineStr">
         <is>
           <t>study arm</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is about an intervention scenario and designates it as part of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D63" s="3" t="inlineStr">
+      <c r="D64" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E63" s="3" t="n"/>
-      <c r="F63" s="3" t="n"/>
-      <c r="G63" s="3" t="n"/>
-      <c r="H63" s="3" t="n"/>
-      <c r="I63" s="3" t="n"/>
-      <c r="J63" s="3" t="n"/>
-      <c r="K63" s="3" t="n"/>
-      <c r="L63" s="3" t="n"/>
-      <c r="M63" s="3" t="n"/>
-      <c r="N63" s="3" t="n"/>
-      <c r="O63" s="3" t="n"/>
-      <c r="P63" s="3" t="inlineStr">
+      <c r="E64" s="3" t="n"/>
+      <c r="F64" s="3" t="n"/>
+      <c r="G64" s="3" t="n"/>
+      <c r="H64" s="3" t="n"/>
+      <c r="I64" s="3" t="n"/>
+      <c r="J64" s="3" t="n"/>
+      <c r="K64" s="3" t="n"/>
+      <c r="L64" s="3" t="n"/>
+      <c r="M64" s="3" t="n"/>
+      <c r="N64" s="3" t="n"/>
+      <c r="O64" s="3" t="n"/>
+      <c r="P64" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q63" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R63" s="3" t="n"/>
-      <c r="S63" s="3" t="inlineStr">
+      <c r="Q64" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R64" s="3" t="n"/>
+      <c r="S64" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T63" s="3" t="n"/>
-      <c r="U63" s="3" t="n"/>
-      <c r="V63" s="3" t="inlineStr">
+      <c r="T64" s="3" t="n"/>
+      <c r="U64" s="3" t="n"/>
+      <c r="V64" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>BCIO:011036</t>
         </is>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>transdermal mode of delivery</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr">
         <is>
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D64" s="2" t="inlineStr">
+      <c r="D65" s="2" t="inlineStr">
         <is>
           <t>ingestion mode of delivery</t>
         </is>
       </c>
-      <c r="E64" s="2" t="n"/>
-      <c r="F64" s="2" t="n"/>
-      <c r="G64" s="2" t="n"/>
-      <c r="H64" s="2" t="n"/>
-      <c r="I64" s="2" t="n"/>
-      <c r="J64" s="2" t="n"/>
-      <c r="K64" s="2" t="n"/>
-      <c r="L64" s="2" t="n"/>
-      <c r="M64" s="2" t="n"/>
-      <c r="N64" s="2" t="n"/>
-      <c r="O64" s="2" t="n"/>
-      <c r="P64" s="2" t="inlineStr">
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="2" t="n"/>
+      <c r="G65" s="2" t="n"/>
+      <c r="H65" s="2" t="n"/>
+      <c r="I65" s="2" t="n"/>
+      <c r="J65" s="2" t="n"/>
+      <c r="K65" s="2" t="n"/>
+      <c r="L65" s="2" t="n"/>
+      <c r="M65" s="2" t="n"/>
+      <c r="N65" s="2" t="n"/>
+      <c r="O65" s="2" t="n"/>
+      <c r="P65" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q64" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R64" s="2" t="n"/>
-      <c r="S64" s="2" t="inlineStr">
+      <c r="Q65" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R65" s="2" t="n"/>
+      <c r="S65" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T64" s="2" t="n"/>
-      <c r="U64" s="2" t="n"/>
-      <c r="V64" s="2" t="inlineStr">
+      <c r="T65" s="2" t="n"/>
+      <c r="U65" s="2" t="n"/>
+      <c r="V65" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000128</t>
         </is>
       </c>
-      <c r="B65" s="3" t="inlineStr">
+      <c r="B66" s="3" t="inlineStr">
         <is>
           <t>treatment as usual control arm</t>
         </is>
       </c>
-      <c r="C65" s="3" t="inlineStr">
+      <c r="C66" s="3" t="inlineStr">
         <is>
           <t>A control arm designation where the same content and delivery is already provided as standard practice.</t>
         </is>
       </c>
-      <c r="D65" s="3" t="inlineStr">
+      <c r="D66" s="3" t="inlineStr">
         <is>
           <t>control arm</t>
         </is>
       </c>
-      <c r="E65" s="3" t="n"/>
-      <c r="F65" s="3" t="n"/>
-      <c r="G65" s="3" t="n"/>
-      <c r="H65" s="3" t="n"/>
-      <c r="I65" s="3" t="n"/>
-      <c r="J65" s="3" t="n"/>
-      <c r="K65" s="3" t="n"/>
-      <c r="L65" s="3" t="n"/>
-      <c r="M65" s="3" t="n"/>
-      <c r="N65" s="3" t="n"/>
-      <c r="O65" s="3" t="n"/>
-      <c r="P65" s="3" t="inlineStr">
+      <c r="E66" s="3" t="n"/>
+      <c r="F66" s="3" t="n"/>
+      <c r="G66" s="3" t="n"/>
+      <c r="H66" s="3" t="n"/>
+      <c r="I66" s="3" t="n"/>
+      <c r="J66" s="3" t="n"/>
+      <c r="K66" s="3" t="n"/>
+      <c r="L66" s="3" t="n"/>
+      <c r="M66" s="3" t="n"/>
+      <c r="N66" s="3" t="n"/>
+      <c r="O66" s="3" t="n"/>
+      <c r="P66" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q65" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R65" s="3" t="n"/>
-      <c r="S65" s="3" t="inlineStr">
+      <c r="Q66" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R66" s="3" t="n"/>
+      <c r="S66" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T65" s="3" t="n"/>
-      <c r="U65" s="3" t="inlineStr">
+      <c r="T66" s="3" t="n"/>
+      <c r="U66" s="3" t="inlineStr">
         <is>
           <t>propose to external ontology</t>
         </is>
       </c>
-      <c r="V65" s="3" t="inlineStr">
+      <c r="V66" s="3" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000129</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>waitlist control arm</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="inlineStr">
-        <is>
-          <t>control arm</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="n"/>
-      <c r="F66" s="2" t="n"/>
-      <c r="G66" s="2" t="n"/>
-      <c r="H66" s="2" t="n"/>
-      <c r="I66" s="2" t="n"/>
-      <c r="J66" s="2" t="n"/>
-      <c r="K66" s="2" t="n"/>
-      <c r="L66" s="2" t="n"/>
-      <c r="M66" s="2" t="n"/>
-      <c r="N66" s="2" t="n"/>
-      <c r="O66" s="2" t="n"/>
-      <c r="P66" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q66" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R66" s="2" t="n"/>
-      <c r="S66" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T66" s="2" t="n"/>
-      <c r="U66" s="2" t="inlineStr">
-        <is>
-          <t>propose to external ontology</t>
-        </is>
-      </c>
-      <c r="V66" s="2" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>GMHO:0000129</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>waitlist control arm</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>A control arm designation where no intervention prior to the primary outcome follow-up point is delivered but participants in the study arm are informed that they will be entitled to receive an intervention at some time after that point.</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>control arm</t>
         </is>
       </c>
       <c r="E67" s="2" t="n"/>
@@ -4104,32 +4100,32 @@
         </is>
       </c>
       <c r="T67" s="2" t="n"/>
-      <c r="U67" s="2" t="n"/>
-      <c r="V67" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="U67" s="2" t="inlineStr">
+        <is>
+          <t>propose to external ontology</t>
+        </is>
+      </c>
+      <c r="V67" s="2" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011046</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>wearable ingestion mode of delivery</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>ingestion mode of delivery</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E68" s="2" t="n"/>
@@ -4145,7 +4141,7 @@
       <c r="O68" s="2" t="n"/>
       <c r="P68" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q68" s="2" t="inlineStr">
@@ -4168,42 +4164,98 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:011046</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>wearable ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>ingestion mode of delivery</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n"/>
+      <c r="F69" s="2" t="n"/>
+      <c r="G69" s="2" t="n"/>
+      <c r="H69" s="2" t="n"/>
+      <c r="I69" s="2" t="n"/>
+      <c r="J69" s="2" t="n"/>
+      <c r="K69" s="2" t="n"/>
+      <c r="L69" s="2" t="n"/>
+      <c r="M69" s="2" t="n"/>
+      <c r="N69" s="2" t="n"/>
+      <c r="O69" s="2" t="n"/>
+      <c r="P69" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q69" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R69" s="2" t="n"/>
+      <c r="S69" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T69" s="2" t="n"/>
+      <c r="U69" s="2" t="n"/>
+      <c r="V69" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>IAO:0000590</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>written name</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>A textual entity that denotes a particular in reality.</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>textual entity</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V69" t="inlineStr">
+      <c r="V70" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention content and delivery/Intervention content and delivery.xlsx
+++ b/Intervention content and delivery/Intervention content and delivery.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>dose</t>
+          <t>intervention dose</t>
         </is>
       </c>
       <c r="E20" s="3" t="n"/>
@@ -2204,158 +2204,156 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000242</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>intervention dose</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>An intervention attribute that is its amount.</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>intervention attribute</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr"/>
+      <c r="F32" s="4" t="inlineStr"/>
+      <c r="G32" s="4" t="inlineStr"/>
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>drug dose and number of intervention techniques (e.g., action plans, social support)</t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Intervention dose can capture the intensity of any intervention, including social, psychological and pharmacological interventions.
+Intervention dose refers to the intensity or amount of an intervention, which is about the content of an intervention. In contrast, an intervention's schedule of delivery is about the temporal aspects of the intervention. There is some overlap between the entities ""intervention dose"" and ""intervention schedule of delivery"". For example, a more frequent intervention schedule with specific doses would suggest a higher overall dose of the intervention. However, ""intervention dose"" can capture concepts that are not directly relevant to the temporal organisation of the intervention, such as overall number of intervention strategies and drug dose."
+</t>
+        </is>
+      </c>
+      <c r="J32" s="4" t="inlineStr"/>
+      <c r="K32" s="4" t="inlineStr"/>
+      <c r="L32" s="4" t="inlineStr"/>
+      <c r="M32" s="4" t="inlineStr"/>
+      <c r="N32" s="4" t="inlineStr"/>
+      <c r="O32" s="4" t="inlineStr"/>
+      <c r="P32" s="4" t="inlineStr"/>
+      <c r="Q32" s="4" t="inlineStr"/>
+      <c r="R32" s="4" t="inlineStr"/>
+      <c r="S32" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T32" s="4" t="inlineStr"/>
+      <c r="U32" s="4" t="inlineStr"/>
+      <c r="V32" s="4" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000005</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>intervention duration</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention.</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="E32" s="3" t="n"/>
-      <c r="F32" s="3" t="n"/>
-      <c r="G32" s="3" t="n"/>
-      <c r="H32" s="3" t="n"/>
-      <c r="I32" s="3" t="n"/>
-      <c r="J32" s="3" t="inlineStr">
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
+      <c r="J33" s="3" t="inlineStr">
         <is>
           <t>intervention content and delivery</t>
         </is>
       </c>
-      <c r="K32" s="3" t="inlineStr">
+      <c r="K33" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">inspired by BCIO:008560
 </t>
         </is>
       </c>
-      <c r="L32" s="3" t="inlineStr">
+      <c r="L33" s="3" t="inlineStr">
         <is>
           <t>BCIO:008560</t>
         </is>
       </c>
-      <c r="M32" s="3" t="n"/>
-      <c r="N32" s="3" t="n"/>
-      <c r="O32" s="3" t="n"/>
-      <c r="P32" s="3" t="inlineStr">
+      <c r="M33" s="3" t="n"/>
+      <c r="N33" s="3" t="n"/>
+      <c r="O33" s="3" t="n"/>
+      <c r="P33" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q32" s="3" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R32" s="3" t="n"/>
-      <c r="S32" s="3" t="inlineStr">
+      <c r="Q33" s="3" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R33" s="3" t="n"/>
+      <c r="S33" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T32" s="3" t="inlineStr">
+      <c r="T33" s="3" t="inlineStr">
         <is>
           <t>Review BCIO cross reference</t>
         </is>
       </c>
-      <c r="U32" s="3" t="inlineStr">
+      <c r="U33" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities
 Link to BCIO</t>
         </is>
       </c>
-      <c r="V32" s="3" t="inlineStr">
+      <c r="V33" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008540</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>irregular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
-      <c r="M33" s="2" t="n"/>
-      <c r="N33" s="2" t="n"/>
-      <c r="O33" s="2" t="n"/>
-      <c r="P33" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R33" s="2" t="n"/>
-      <c r="S33" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T33" s="2" t="n"/>
-      <c r="U33" s="2" t="n"/>
-      <c r="V33" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000193</t>
+          <t>BCIO:008540</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>jogging</t>
+          <t>irregular intervention schedule</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves trotting or running at a slow and steady pace.</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events differ over the course of a temporal part or BCI.  </t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E34" s="2" t="n"/>
@@ -2364,18 +2362,14 @@
       <c r="H34" s="2" t="n"/>
       <c r="I34" s="2" t="n"/>
       <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>Drew on: https://www.oxfordlearnersdictionaries.com/definition/english/jogging#:~:text=jogging-,noun,as%20a%20form%20of%20exercise</t>
-        </is>
-      </c>
+      <c r="K34" s="2" t="n"/>
       <c r="L34" s="2" t="n"/>
       <c r="M34" s="2" t="n"/>
       <c r="N34" s="2" t="n"/>
       <c r="O34" s="2" t="n"/>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -2393,29 +2387,29 @@
       <c r="U34" s="2" t="n"/>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>PS; MS</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>GMHO:0000193</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
+          <t>jogging</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>A locomotive behaviour that involves trotting or running at a slow and steady pace.</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
           <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="E35" s="2" t="n"/>
@@ -2424,7 +2418,11 @@
       <c r="H35" s="2" t="n"/>
       <c r="I35" s="2" t="n"/>
       <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n"/>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>Drew on: https://www.oxfordlearnersdictionaries.com/definition/english/jogging#:~:text=jogging-,noun,as%20a%20form%20of%20exercise</t>
+        </is>
+      </c>
       <c r="L35" s="2" t="n"/>
       <c r="M35" s="2" t="n"/>
       <c r="N35" s="2" t="n"/>
@@ -2449,29 +2447,29 @@
       <c r="U35" s="2" t="n"/>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000006</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>maximum dose of pharmacological substance</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>maximum value</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="E36" s="2" t="n"/>
@@ -2484,14 +2482,10 @@
       <c r="L36" s="2" t="n"/>
       <c r="M36" s="2" t="n"/>
       <c r="N36" s="2" t="n"/>
-      <c r="O36" s="2" t="inlineStr">
-        <is>
-          <t>dose of pharmacological substance</t>
-        </is>
-      </c>
+      <c r="O36" s="2" t="n"/>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -2506,387 +2500,387 @@
         </is>
       </c>
       <c r="T36" s="2" t="n"/>
-      <c r="U36" s="2" t="inlineStr">
+      <c r="U36" s="2" t="n"/>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000006</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>maximum dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>A maximum value of the dose of pharmacological substance delivered to individuals in a group.</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>maximum value</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>dose of pharmacological substance</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="n"/>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="n"/>
+      <c r="U37" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V36" s="2" t="inlineStr">
+      <c r="V37" s="2" t="inlineStr">
         <is>
           <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>STATO:0000151</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>maximum value</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IAO:0000109</t>
+          <t>STATO:0000151</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>maximum value</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A data item which denotes the largest value found in a dataset or resulting from a calculation.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
           <t>External</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>IAO:0000109</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>IAO:0000003</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>measurement unit label</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>A measurement unit label is as a label that is part of a scalar measurement datum and denotes a unit of measure.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>datum label</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>LSR1; LSR2; LSR3</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000241</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>mental health intervention content</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>An intervention content that is part of a mental health intervention.</t>
         </is>
       </c>
-      <c r="D40" s="4" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>intervention content</t>
         </is>
       </c>
-      <c r="E40" s="4" t="n"/>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="E41" s="4" t="n"/>
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t>Any intervention content delivered in the context of a mental health intervention.</t>
         </is>
       </c>
-      <c r="G40" s="4" t="n"/>
-      <c r="H40" s="4" t="n"/>
-      <c r="I40" s="4" t="n"/>
-      <c r="J40" s="4" t="n"/>
-      <c r="K40" s="4" t="n"/>
-      <c r="L40" s="4" t="n"/>
-      <c r="M40" s="4" t="n"/>
-      <c r="N40" s="4" t="n"/>
-      <c r="O40" s="4" t="n"/>
-      <c r="P40" s="4" t="n"/>
-      <c r="Q40" s="4" t="n"/>
-      <c r="R40" s="4" t="n"/>
-      <c r="S40" s="4" t="inlineStr">
+      <c r="G41" s="4" t="n"/>
+      <c r="H41" s="4" t="n"/>
+      <c r="I41" s="4" t="n"/>
+      <c r="J41" s="4" t="n"/>
+      <c r="K41" s="4" t="n"/>
+      <c r="L41" s="4" t="n"/>
+      <c r="M41" s="4" t="n"/>
+      <c r="N41" s="4" t="n"/>
+      <c r="O41" s="4" t="n"/>
+      <c r="P41" s="4" t="n"/>
+      <c r="Q41" s="4" t="n"/>
+      <c r="R41" s="4" t="n"/>
+      <c r="S41" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T40" s="4" t="n"/>
-      <c r="U40" s="4" t="n"/>
-      <c r="V40" s="4" t="inlineStr">
+      <c r="T41" s="4" t="n"/>
+      <c r="U41" s="4" t="n"/>
+      <c r="V41" s="4" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000008</t>
         </is>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>minimum dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>A minimum value of the dose of pharmacological substance delivered to individuals in a group.</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="E41" s="2" t="n"/>
-      <c r="F41" s="2" t="n"/>
-      <c r="G41" s="2" t="n"/>
-      <c r="H41" s="2" t="n"/>
-      <c r="I41" s="2" t="n"/>
-      <c r="J41" s="2" t="n"/>
-      <c r="K41" s="2" t="n"/>
-      <c r="L41" s="2" t="n"/>
-      <c r="M41" s="2" t="n"/>
-      <c r="N41" s="2" t="n"/>
-      <c r="O41" s="2" t="inlineStr">
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="2" t="n"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="n"/>
+      <c r="K42" s="2" t="n"/>
+      <c r="L42" s="2" t="n"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="inlineStr">
         <is>
           <t>dose of pharmacological substance</t>
         </is>
       </c>
-      <c r="P41" s="2" t="inlineStr">
+      <c r="P42" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q41" s="2" t="inlineStr">
-        <is>
-          <t>Intervention content and delivery</t>
-        </is>
-      </c>
-      <c r="R41" s="2" t="n"/>
-      <c r="S41" s="2" t="inlineStr">
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>Intervention content and delivery</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="n"/>
+      <c r="S42" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T41" s="2" t="n"/>
-      <c r="U41" s="2" t="inlineStr">
+      <c r="T42" s="2" t="n"/>
+      <c r="U42" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V41" s="2" t="inlineStr">
+      <c r="V42" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>STATO:0000150</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>minimum value</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>A data item which denotes the smallest value found in a dataset 